--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alf.drollinger\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37754B6A-2276-407E-9859-F7AAB0BA06F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
     <sheet name="Fileicons" sheetId="1" r:id="rId2"/>
     <sheet name="Social Networks" sheetId="2" r:id="rId3"/>
     <sheet name="Payment" sheetId="3" r:id="rId4"/>
+    <sheet name="Delivery" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="332">
   <si>
     <t>doc</t>
   </si>
@@ -645,9 +645,6 @@
     <t>vid</t>
   </si>
   <si>
-    <t>Default iconset</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -666,15 +663,6 @@
     <t>Fileicons</t>
   </si>
   <si>
-    <t>Vivid</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Iconset default</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -709,13 +697,340 @@
   </si>
   <si>
     <t>Iconset (default)</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>Facebook Messenger</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>https://de-de.facebook.com/</t>
+  </si>
+  <si>
+    <t>https://twitter.com/</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/</t>
+  </si>
+  <si>
+    <t>https://de.linkedin.com/</t>
+  </si>
+  <si>
+    <t>https://wordpress.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/</t>
+  </si>
+  <si>
+    <t>https://www.whatsapp.com/</t>
+  </si>
+  <si>
+    <t>https://www.messenger.com/</t>
+  </si>
+  <si>
+    <t>https://www.skype.com/de/</t>
+  </si>
+  <si>
+    <t>Maestro</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>paysafecard</t>
+  </si>
+  <si>
+    <t>giropay</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>https://www.paypal.com/de/home</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/de/apple-pay/</t>
+  </si>
+  <si>
+    <t>https://www.visa.de/</t>
+  </si>
+  <si>
+    <t>https://www.mastercard.de/de-de.html</t>
+  </si>
+  <si>
+    <t>https://pay.amazon.de/</t>
+  </si>
+  <si>
+    <t>https://pay.google.com/intl/de_de/about/</t>
+  </si>
+  <si>
+    <t>https://www.klarna.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.americanexpress.com/de-de/</t>
+  </si>
+  <si>
+    <t>https://www.paysafecard.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.giropay.de/</t>
+  </si>
+  <si>
+    <t>https://www.bitcoin.de/de</t>
+  </si>
+  <si>
+    <t>https://stripe.com/de</t>
+  </si>
+  <si>
+    <t>stripe</t>
+  </si>
+  <si>
+    <t>sepa</t>
+  </si>
+  <si>
+    <t>https://www.sepa.net/sepa-online-lastschrift/</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Tumblr</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.de/</t>
+  </si>
+  <si>
+    <t>Dribbble</t>
+  </si>
+  <si>
+    <t>https://dribbble.com/</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/</t>
+  </si>
+  <si>
+    <t>https://www.tumblr.com/explore/trending?source=homepage_explore</t>
+  </si>
+  <si>
+    <t>https://www.snapchat.com/de-DE</t>
+  </si>
+  <si>
+    <t>Social icons</t>
+  </si>
+  <si>
+    <t>Circle colored</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-circle-3</t>
+  </si>
+  <si>
+    <t>CC BY 3.0</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/logo-brand</t>
+  </si>
+  <si>
+    <t>circle colored shaded</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-media-circle-6</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-media-christmas-theme</t>
+  </si>
+  <si>
+    <t>Hand drawn</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-hand-drawn-icons</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-media-handdrawn</t>
+  </si>
+  <si>
+    <t>Hand drawn colored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-icons-32</t>
+  </si>
+  <si>
+    <t>CC BY 4.0</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colored slim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">colored </t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/files-94</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/file-names-vol-7-1</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>simple with symbols</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/file-set-volume-1</t>
+  </si>
+  <si>
+    <t>christmas theme (non svg)</t>
+  </si>
+  <si>
+    <t>payment icons</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/payment-method-1</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple black </t>
+  </si>
+  <si>
+    <t>no link back</t>
+  </si>
+  <si>
+    <t>originals (variations)</t>
+  </si>
+  <si>
+    <t>white and gray</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/online-payment-methods-02</t>
+  </si>
+  <si>
+    <t>black and white</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/payment-methods-11</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/circle-payment</t>
+  </si>
+  <si>
+    <t>CC BY 2.5</t>
+  </si>
+  <si>
+    <t>originals</t>
+  </si>
+  <si>
+    <t>https://icon-icons.com/de/pack/Payment-Methods/1487</t>
+  </si>
+  <si>
+    <t>Free for commercial use</t>
+  </si>
+  <si>
+    <t>https://icon-icons.com/de/pack/Social-icons/836</t>
+  </si>
+  <si>
+    <t>cartoon</t>
+  </si>
+  <si>
+    <t>https://icon-icons.com/de/pack/Social-Icons/800</t>
+  </si>
+  <si>
+    <t>line filled</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/logos-and-brands-adobe</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>DPD</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>GLS</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>iconset (default)</t>
+  </si>
+  <si>
+    <t>https://www.dhl.de/de/privatkunden.html</t>
+  </si>
+  <si>
+    <t>https://www.myhermes.de/</t>
+  </si>
+  <si>
+    <t>https://www.dpd.com/de/de/</t>
+  </si>
+  <si>
+    <t>https://www.ups.com/de/de/Home.page</t>
+  </si>
+  <si>
+    <t>https://gls-group.com/DE/de/home</t>
+  </si>
+  <si>
+    <t>https://www.fedex.com/de-de/home.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +1041,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1E1E1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -748,15 +1071,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -769,7 +1095,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -782,7 +1107,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -800,7 +1124,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -813,7 +1136,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -826,7 +1148,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -839,7 +1160,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -852,7 +1172,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -870,54 +1189,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D0949CA0-1A93-4013-B5B4-8724735D1C05}" name="Tabelle2" displayName="Tabelle2" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{D0949CA0-1A93-4013-B5B4-8724735D1C05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{50FE4059-EA52-4A96-AECD-03949114EAD6}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{E5DB994A-F3B9-4E77-BE4E-D4FF5513A268}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{3EFBD356-5B60-4F4F-98B6-B77E45E9418B}" name="Source"/>
-    <tableColumn id="4" xr3:uid="{556E902C-6E7A-4E26-8472-386BB0633CCE}" name="License"/>
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Source"/>
+    <tableColumn id="4" name="License"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{06E52179-B301-4D68-B858-7CD31AF923E4}" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E80" xr:uid="{06E52179-B301-4D68-B858-7CD31AF923E4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E80"/>
+  <sortState ref="A2:E73">
     <sortCondition ref="C1:C73"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EB60BE10-D7A8-4AFA-B426-F07EC8BF464C}" name="fileext" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B70F841D-485E-4F12-8BCD-62A579CA970D}" name="Software" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{CAC1100C-6666-4FE9-9CC4-3E820F78FA71}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5649620A-DFCC-4715-A8DC-71B4D3EFC11F}" name="Details" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1634D6F1-8206-4A5C-9C85-F8C13D58A510}" name="Default iconset" dataDxfId="0"/>
+    <tableColumn id="1" name="fileext" dataDxfId="4"/>
+    <tableColumn id="4" name="Software" dataDxfId="3"/>
+    <tableColumn id="7" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Details" dataDxfId="1"/>
+    <tableColumn id="6" name="iconset (default)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84214E3D-42FB-44B8-AE55-9F87078FB55A}" name="Tabelle3" displayName="Tabelle3" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{84214E3D-42FB-44B8-AE55-9F87078FB55A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7B60D20-1789-4CD5-B808-2047B632E23F}" name="Network / Brand"/>
-    <tableColumn id="2" xr3:uid="{11D9974E-7172-40D9-9206-929BF382CC7E}" name="Link to portal"/>
-    <tableColumn id="3" xr3:uid="{5F9FA08A-0B64-49B7-8D0E-1F9F9404D63F}" name="Iconset default"/>
+    <tableColumn id="1" name="Network / Brand"/>
+    <tableColumn id="2" name="Link to portal"/>
+    <tableColumn id="3" name="Iconset (default)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{289F6173-22DA-47A2-BA66-96FA7FE50C1B}" name="Tabelle4" displayName="Tabelle4" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{289F6173-22DA-47A2-BA66-96FA7FE50C1B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E11FF243-2044-46A7-90E7-E96A6CC8936C}" name="Provider / Brand"/>
-    <tableColumn id="2" xr3:uid="{C4111DAB-DE68-4E1A-A6FD-673D54E2818E}" name="Website"/>
-    <tableColumn id="3" xr3:uid="{28432A7F-F184-4D4A-8BF0-59E3008B8B19}" name="Iconset (default)"/>
+    <tableColumn id="1" name="Provider / Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (default)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="brand"/>
+    <tableColumn id="2" name="website"/>
+    <tableColumn id="3" name="iconset (default)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,73 +1516,366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562930FC-8A79-4117-9BEA-58D2C24DE45A}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C22" r:id="rId20"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1265,10 +1889,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -1302,7 +1926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1319,7 +1943,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1336,7 +1960,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
@@ -1353,7 +1977,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -1370,7 +1994,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -1387,7 +2011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -1404,7 +2028,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>173</v>
       </c>
@@ -1421,7 +2045,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -1438,7 +2062,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -1455,7 +2079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
@@ -1472,7 +2096,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>196</v>
       </c>
@@ -1489,7 +2113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -1506,7 +2130,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>120</v>
       </c>
@@ -1523,7 +2147,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
@@ -1540,7 +2164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -1557,7 +2181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -1574,7 +2198,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -1591,7 +2215,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -1608,7 +2232,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>127</v>
       </c>
@@ -1625,7 +2249,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
@@ -1642,7 +2266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -1659,7 +2283,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
@@ -1676,7 +2300,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -1693,7 +2317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -1761,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1778,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1795,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1812,7 +2436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +2453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1863,7 +2487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1880,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +2521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +2538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -1931,7 +2555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1948,7 +2572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -1965,7 +2589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -1982,7 +2606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +2623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2016,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2033,7 +2657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2067,7 +2691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -2084,7 +2708,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -2101,7 +2725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -2118,7 +2742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
@@ -2135,7 +2759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2152,7 +2776,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -2169,7 +2793,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2186,7 +2810,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -2203,7 +2827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -2220,7 +2844,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>163</v>
       </c>
@@ -2237,7 +2861,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>166</v>
       </c>
@@ -2254,7 +2878,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -2271,7 +2895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +2912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -2305,7 +2929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2322,7 +2946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2339,7 +2963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -2356,7 +2980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -2373,7 +2997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -2390,7 +3014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -2407,7 +3031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -2424,7 +3048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +3065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -2458,7 +3082,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -2475,7 +3099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,7 +3116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>197</v>
       </c>
@@ -2505,7 +3129,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>198</v>
       </c>
@@ -2518,7 +3142,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>199</v>
       </c>
@@ -2531,7 +3155,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>200</v>
       </c>
@@ -2544,7 +3168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -2557,7 +3181,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>202</v>
       </c>
@@ -2570,7 +3194,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>203</v>
       </c>
@@ -2593,119 +3217,422 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90EBEEC-3808-454E-B15E-444CCE99B465}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>207</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>225</v>
       </c>
-      <c r="C1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>209</v>
+      <c r="B7" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B658F53A-9074-44F1-9968-016D5867E9F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId14"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\_icons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1BB1EB-B7A0-4F16-94F5-B2C806F895EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="2"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="337">
   <si>
     <t>doc</t>
   </si>
@@ -1024,12 +1025,27 @@
   </si>
   <si>
     <t>https://www.fedex.com/de-de/home.html</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>_default</t>
+  </si>
+  <si>
+    <t>Vivid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,66 +1205,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D22" totalsRowShown="0">
-  <autoFilter ref="A1:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Source"/>
-    <tableColumn id="4" name="License"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E80"/>
-  <sortState ref="A2:E73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
     <sortCondition ref="C1:C73"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="fileext" dataDxfId="4"/>
-    <tableColumn id="4" name="Software" dataDxfId="3"/>
-    <tableColumn id="7" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" name="Details" dataDxfId="1"/>
-    <tableColumn id="6" name="iconset (default)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="iconset (default)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Network / Brand"/>
-    <tableColumn id="2" name="Link to portal"/>
-    <tableColumn id="3" name="Iconset (default)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Network / Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Link to portal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="_default"/>
+    <tableColumn id="4" xr3:uid="{E7BDDBA1-1538-4FE5-8B06-BEB1720C8317}" name="Vivid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Provider / Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (default)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Provider / Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Iconset (default)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="brand"/>
-    <tableColumn id="2" name="website"/>
-    <tableColumn id="3" name="iconset (default)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="iconset (default)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1516,22 +1533,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1562,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -1559,7 +1576,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -1570,7 +1587,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -1584,7 +1601,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -1598,7 +1615,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -1612,7 +1629,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -1626,7 +1643,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -1640,7 +1657,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -1654,7 +1671,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -1668,7 +1685,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
@@ -1682,7 +1699,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>210</v>
       </c>
@@ -1696,7 +1713,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -1710,7 +1727,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>295</v>
       </c>
@@ -1724,7 +1741,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>295</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>295</v>
       </c>
@@ -1766,7 +1783,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -1780,7 +1797,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>270</v>
       </c>
@@ -1794,7 +1811,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>270</v>
       </c>
@@ -1808,12 +1825,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>282</v>
       </c>
@@ -1829,26 +1846,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1858,24 +1875,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1909,7 +1926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -1926,7 +1943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1943,7 +1960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
@@ -1977,7 +1994,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -1994,7 +2011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -2011,7 +2028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -2028,7 +2045,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>173</v>
       </c>
@@ -2045,7 +2062,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -2062,7 +2079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2079,7 +2096,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2113,7 +2130,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -2130,7 +2147,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>120</v>
       </c>
@@ -2147,7 +2164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
@@ -2164,7 +2181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -2181,7 +2198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -2198,7 +2215,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -2215,7 +2232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -2232,7 +2249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>127</v>
       </c>
@@ -2249,7 +2266,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
@@ -2266,7 +2283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -2283,7 +2300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
@@ -2300,7 +2317,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -2317,7 +2334,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2351,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2385,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2402,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2470,7 +2487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2487,7 +2504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2504,7 +2521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2521,7 +2538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2555,7 +2572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2572,7 +2589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -2623,7 +2640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2657,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2674,7 +2691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2691,7 +2708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -2708,7 +2725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -2742,7 +2759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
@@ -2759,7 +2776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2776,7 +2793,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -2793,7 +2810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2810,7 +2827,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -2827,7 +2844,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -2844,7 +2861,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>163</v>
       </c>
@@ -2861,7 +2878,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>166</v>
       </c>
@@ -2878,7 +2895,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -2895,7 +2912,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -2929,7 +2946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2946,7 +2963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2963,7 +2980,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -2997,7 +3014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -3014,7 +3031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -3031,7 +3048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -3048,7 +3065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>48</v>
       </c>
@@ -3065,7 +3082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -3082,7 +3099,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -3099,7 +3116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -3116,7 +3133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>197</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>198</v>
       </c>
@@ -3142,7 +3159,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>199</v>
       </c>
@@ -3155,7 +3172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>200</v>
       </c>
@@ -3168,7 +3185,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>202</v>
       </c>
@@ -3194,7 +3211,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>203</v>
       </c>
@@ -3217,21 +3234,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -3239,34 +3257,46 @@
         <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -3274,7 +3304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -3282,7 +3312,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -3290,7 +3320,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -3298,7 +3328,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -3306,7 +3336,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -3314,7 +3344,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -3322,7 +3352,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -3330,7 +3360,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -3338,7 +3368,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -3346,7 +3376,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -3354,7 +3384,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -3364,21 +3394,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3388,21 +3418,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -3413,7 +3443,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -3421,7 +3451,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -3429,7 +3459,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -3437,7 +3467,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -3445,7 +3475,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -3453,7 +3483,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -3461,7 +3491,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -3469,12 +3499,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -3482,7 +3512,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -3490,7 +3520,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>243</v>
       </c>
@@ -3498,7 +3528,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -3506,7 +3536,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -3514,7 +3544,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -3524,19 +3554,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3546,19 +3576,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>316</v>
       </c>
@@ -3569,7 +3599,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>317</v>
       </c>
@@ -3577,7 +3607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -3585,7 +3615,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>319</v>
       </c>
@@ -3593,7 +3623,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>320</v>
       </c>
@@ -3601,7 +3631,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>321</v>
       </c>
@@ -3609,12 +3639,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>323</v>
       </c>
@@ -3624,11 +3654,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\tallui\_icons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1BB1EB-B7A0-4F16-94F5-B2C806F895EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="355">
   <si>
     <t>doc</t>
   </si>
@@ -895,9 +894,6 @@
     <t xml:space="preserve">colored slim </t>
   </si>
   <si>
-    <t xml:space="preserve">colored </t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/files-94</t>
   </si>
   <si>
@@ -928,9 +924,6 @@
     <t xml:space="preserve">simple black </t>
   </si>
   <si>
-    <t>no link back</t>
-  </si>
-  <si>
     <t>originals (variations)</t>
   </si>
   <si>
@@ -961,9 +954,6 @@
     <t>https://icon-icons.com/de/pack/Payment-Methods/1487</t>
   </si>
   <si>
-    <t>Free for commercial use</t>
-  </si>
-  <si>
     <t>https://icon-icons.com/de/pack/Social-icons/836</t>
   </si>
   <si>
@@ -1040,12 +1030,75 @@
   </si>
   <si>
     <t>Vivid</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/colorful-guache-social-media-logos-1</t>
+  </si>
+  <si>
+    <t>colorful gouache</t>
+  </si>
+  <si>
+    <t>square flat</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-media-square-4</t>
+  </si>
+  <si>
+    <t>Circle Long Shadow</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-media-circle-long-shadow</t>
+  </si>
+  <si>
+    <t>colored crossing</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/file-extension-22</t>
+  </si>
+  <si>
+    <t>colored filled</t>
+  </si>
+  <si>
+    <t>colored</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-5-1</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/simple-peyment-methods</t>
+  </si>
+  <si>
+    <t>NPOSL-3.0</t>
+  </si>
+  <si>
+    <t>Audio Video Interleave</t>
+  </si>
+  <si>
+    <t>Flash Video</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Moving Pictures Experts Group 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving Pictures Experts Group </t>
+  </si>
+  <si>
+    <t>Shockwave Flash</t>
+  </si>
+  <si>
+    <t>MPEG for Video</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1205,67 +1258,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D22" totalsRowShown="0">
-  <autoFilter ref="A1:D22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D27" totalsRowShown="0">
+  <autoFilter ref="A1:D27"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Source"/>
+    <tableColumn id="4" name="License"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E80"/>
+  <sortState ref="A2:E73">
     <sortCondition ref="C1:C73"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="iconset (default)" dataDxfId="0"/>
+    <tableColumn id="1" name="fileext" dataDxfId="4"/>
+    <tableColumn id="4" name="Software" dataDxfId="3"/>
+    <tableColumn id="7" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" name="Details" dataDxfId="1"/>
+    <tableColumn id="6" name="iconset (default)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Network / Brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Link to portal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="_default"/>
-    <tableColumn id="4" xr3:uid="{E7BDDBA1-1538-4FE5-8B06-BEB1720C8317}" name="Vivid"/>
+    <tableColumn id="1" name="Network / Brand"/>
+    <tableColumn id="2" name="Link to portal"/>
+    <tableColumn id="3" name="_default"/>
+    <tableColumn id="4" name="Vivid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Provider / Brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Website"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Iconset (default)"/>
+    <tableColumn id="1" name="Provider / Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (default)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="website"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="iconset (default)"/>
+    <tableColumn id="1" name="brand"/>
+    <tableColumn id="2" name="website"/>
+    <tableColumn id="3" name="iconset (default)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1533,22 +1586,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E1" sqref="A1:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1562,7 +1615,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -1576,7 +1629,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -1587,7 +1640,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>270</v>
       </c>
@@ -1601,12 +1654,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>277</v>
@@ -1615,7 +1668,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -1626,10 +1679,10 @@
         <v>279</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>270</v>
       </c>
@@ -1643,7 +1696,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -1657,12 +1710,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>286</v>
@@ -1671,7 +1724,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -1679,220 +1732,306 @@
         <v>287</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>210</v>
       </c>
       <c r="B12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
       <c r="B13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C15" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
         <v>306</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="D18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>270</v>
       </c>
       <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="D19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>270</v>
       </c>
       <c r="B20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D20" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>282</v>
-      </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
         <v>273</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C23" r:id="rId22"/>
+    <hyperlink ref="C24" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1906,10 +2045,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1926,7 +2065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
@@ -1943,7 +2082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>118</v>
       </c>
@@ -1960,7 +2099,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
@@ -1977,7 +2116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>169</v>
       </c>
@@ -1994,7 +2133,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>170</v>
       </c>
@@ -2011,7 +2150,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -2028,7 +2167,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -2045,7 +2184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>173</v>
       </c>
@@ -2062,7 +2201,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
@@ -2079,7 +2218,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>175</v>
       </c>
@@ -2096,7 +2235,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>176</v>
       </c>
@@ -2113,7 +2252,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2130,7 +2269,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -2147,7 +2286,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>120</v>
       </c>
@@ -2164,7 +2303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>121</v>
       </c>
@@ -2181,7 +2320,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -2198,7 +2337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
@@ -2215,7 +2354,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
@@ -2232,7 +2371,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
@@ -2249,7 +2388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>127</v>
       </c>
@@ -2266,7 +2405,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
@@ -2283,7 +2422,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>129</v>
       </c>
@@ -2300,7 +2439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>143</v>
       </c>
@@ -2317,7 +2456,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>147</v>
       </c>
@@ -2334,7 +2473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2453,7 +2592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -2470,7 +2609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -2487,7 +2626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2521,7 +2660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2538,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,7 +2694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -2572,7 +2711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -2589,7 +2728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -2606,7 +2745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>24</v>
       </c>
@@ -2623,7 +2762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -2640,7 +2779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -2657,7 +2796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -2674,7 +2813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,7 +2830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2708,7 +2847,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -2725,7 +2864,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -2742,7 +2881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -2759,7 +2898,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
@@ -2776,7 +2915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2793,7 +2932,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>104</v>
       </c>
@@ -2810,7 +2949,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2827,7 +2966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -2844,7 +2983,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>160</v>
       </c>
@@ -2861,7 +3000,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>163</v>
       </c>
@@ -2878,7 +3017,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>166</v>
       </c>
@@ -2895,7 +3034,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -2912,7 +3051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +3068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>30</v>
       </c>
@@ -2946,7 +3085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>31</v>
       </c>
@@ -2963,7 +3102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,7 +3119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>90</v>
       </c>
@@ -2997,7 +3136,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -3014,7 +3153,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>96</v>
       </c>
@@ -3031,7 +3170,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -3048,7 +3187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -3065,7 +3204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>48</v>
       </c>
@@ -3082,7 +3221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>49</v>
       </c>
@@ -3099,7 +3238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -3116,7 +3255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>40</v>
       </c>
@@ -3133,7 +3272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>197</v>
       </c>
@@ -3141,12 +3280,14 @@
       <c r="C74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>198</v>
       </c>
@@ -3154,12 +3295,14 @@
       <c r="C75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>199</v>
       </c>
@@ -3167,12 +3310,14 @@
       <c r="C76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>200</v>
       </c>
@@ -3180,12 +3325,14 @@
       <c r="C77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -3193,12 +3340,14 @@
       <c r="C78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>202</v>
       </c>
@@ -3206,12 +3355,14 @@
       <c r="C79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>203</v>
       </c>
@@ -3219,7 +3370,9 @@
       <c r="C80" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>204</v>
       </c>
@@ -3234,22 +3387,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -3257,13 +3410,13 @@
         <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>205</v>
       </c>
@@ -3271,10 +3424,10 @@
         <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -3282,10 +3435,10 @@
         <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -3293,10 +3446,10 @@
         <v>233</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -3304,7 +3457,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -3312,7 +3465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -3320,7 +3473,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -3328,7 +3481,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>227</v>
       </c>
@@ -3336,7 +3489,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -3344,7 +3497,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -3352,7 +3505,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -3360,7 +3513,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>265</v>
       </c>
@@ -3368,7 +3521,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>261</v>
       </c>
@@ -3376,7 +3529,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -3384,7 +3537,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -3394,21 +3547,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3418,21 +3571,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -3443,7 +3596,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -3451,7 +3604,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -3459,7 +3612,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -3467,7 +3620,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -3475,7 +3628,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -3483,7 +3636,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -3491,7 +3644,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -3499,12 +3652,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>241</v>
       </c>
@@ -3512,7 +3665,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -3520,7 +3673,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>243</v>
       </c>
@@ -3528,7 +3681,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -3536,7 +3689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>257</v>
       </c>
@@ -3544,7 +3697,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -3554,19 +3707,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3576,89 +3729,89 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>316</v>
       </c>
-      <c r="B1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B4" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -1589,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="416">
   <si>
     <t>doc</t>
   </si>
@@ -684,9 +684,6 @@
     <t>Amazon Pay</t>
   </si>
   <si>
-    <t>Google Pay</t>
-  </si>
-  <si>
     <t>Klarna</t>
   </si>
   <si>
@@ -915,18 +912,12 @@
     <t>payment icons</t>
   </si>
   <si>
-    <t>https://www.iconfinder.com/iconsets/payment-method-1</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-3-2</t>
   </si>
   <si>
     <t xml:space="preserve">simple black </t>
   </si>
   <si>
-    <t>originals (variations)</t>
-  </si>
-  <si>
     <t>white and gray</t>
   </si>
   <si>
@@ -1093,13 +1084,205 @@
   </si>
   <si>
     <t>MPEG for Video</t>
+  </si>
+  <si>
+    <t>zip.svg</t>
+  </si>
+  <si>
+    <t>wav.svg</t>
+  </si>
+  <si>
+    <t>m4a.svg</t>
+  </si>
+  <si>
+    <t>mdb.svg</t>
+  </si>
+  <si>
+    <t>xls.svg</t>
+  </si>
+  <si>
+    <t>ppt.svg</t>
+  </si>
+  <si>
+    <t>psd.svg</t>
+  </si>
+  <si>
+    <t>ai.svg</t>
+  </si>
+  <si>
+    <t>mp3.svg</t>
+  </si>
+  <si>
+    <t>dwg.svg</t>
+  </si>
+  <si>
+    <t>doc.svg</t>
+  </si>
+  <si>
+    <t>htm.svg</t>
+  </si>
+  <si>
+    <t>txt.svg</t>
+  </si>
+  <si>
+    <t>rtf.svg</t>
+  </si>
+  <si>
+    <t>xml.svg</t>
+  </si>
+  <si>
+    <t>pdf.svg</t>
+  </si>
+  <si>
+    <t>exe.svg</t>
+  </si>
+  <si>
+    <t>gif.svg</t>
+  </si>
+  <si>
+    <t>jpg.svg</t>
+  </si>
+  <si>
+    <t>png.svg</t>
+  </si>
+  <si>
+    <t>svg.svg</t>
+  </si>
+  <si>
+    <t>log.svg</t>
+  </si>
+  <si>
+    <t>apk.svg</t>
+  </si>
+  <si>
+    <t>php.svg</t>
+  </si>
+  <si>
+    <t>css.svg</t>
+  </si>
+  <si>
+    <t>js.svg</t>
+  </si>
+  <si>
+    <t>avi.svg</t>
+  </si>
+  <si>
+    <t>mov.svg</t>
+  </si>
+  <si>
+    <t>mp4.svg</t>
+  </si>
+  <si>
+    <t>mpg.svg</t>
+  </si>
+  <si>
+    <t>Iconset (Colored Filled)</t>
+  </si>
+  <si>
+    <t>Iconset (Colored Slim)</t>
+  </si>
+  <si>
+    <t>Iconset (Simple)</t>
+  </si>
+  <si>
+    <t>Iconset (Simple with symbols)</t>
+  </si>
+  <si>
+    <t>json.svg</t>
+  </si>
+  <si>
+    <t>wmv.svg</t>
+  </si>
+  <si>
+    <t>Iconset (Simple Black)</t>
+  </si>
+  <si>
+    <t>Iconset (Colored Crossing)</t>
+  </si>
+  <si>
+    <t>Iconset (Colored)</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>applepay</t>
+  </si>
+  <si>
+    <t>visa</t>
+  </si>
+  <si>
+    <t>klarna</t>
+  </si>
+  <si>
+    <t>maestro</t>
+  </si>
+  <si>
+    <t>americanexpress</t>
+  </si>
+  <si>
+    <t>mastercard</t>
+  </si>
+  <si>
+    <t>amazonpay</t>
+  </si>
+  <si>
+    <t>Iconset (White and Gray)</t>
+  </si>
+  <si>
+    <t>paypal.svg</t>
+  </si>
+  <si>
+    <t>visa.svg</t>
+  </si>
+  <si>
+    <t>mastercard.svg</t>
+  </si>
+  <si>
+    <t>klarna.svg</t>
+  </si>
+  <si>
+    <t>maestro.svg</t>
+  </si>
+  <si>
+    <t>paysafecard.svg</t>
+  </si>
+  <si>
+    <t>bitcoin.svg</t>
+  </si>
+  <si>
+    <t>Iconset (Black and White)</t>
+  </si>
+  <si>
+    <t>amazonpay.svg</t>
+  </si>
+  <si>
+    <t>americanexpress.svg</t>
+  </si>
+  <si>
+    <t>applepay.svg</t>
+  </si>
+  <si>
+    <t>Google Wallet</t>
+  </si>
+  <si>
+    <t>googlewallet</t>
+  </si>
+  <si>
+    <t>googlewallet.svg</t>
+  </si>
+  <si>
+    <t>Iconset (Circle)</t>
+  </si>
+  <si>
+    <t>Iconset (Originals)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1303,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1144,17 +1333,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1258,8 +1532,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D27" totalsRowShown="0">
-  <autoFilter ref="A1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Name"/>
@@ -1271,17 +1545,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E80" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E80"/>
-  <sortState ref="A2:E73">
-    <sortCondition ref="C1:C73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L80"/>
+  <sortState ref="A2:H80">
+    <sortCondition ref="E1:E80"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="fileext" dataDxfId="4"/>
-    <tableColumn id="4" name="Software" dataDxfId="3"/>
-    <tableColumn id="7" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" name="Details" dataDxfId="1"/>
-    <tableColumn id="6" name="iconset (default)" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="fileext" dataDxfId="11"/>
+    <tableColumn id="4" name="Software" dataDxfId="10"/>
+    <tableColumn id="7" name="Type" dataDxfId="9"/>
+    <tableColumn id="5" name="Details" dataDxfId="8"/>
+    <tableColumn id="6" name="Iconset (default)" dataDxfId="7"/>
+    <tableColumn id="2" name="Iconset (Colored Filled)" dataDxfId="6"/>
+    <tableColumn id="3" name="Iconset (Colored Slim)" dataDxfId="5"/>
+    <tableColumn id="8" name="Iconset (Simple)" dataDxfId="4"/>
+    <tableColumn id="9" name="Iconset (Simple with symbols)" dataDxfId="3"/>
+    <tableColumn id="10" name="Iconset (Simple Black)" dataDxfId="2"/>
+    <tableColumn id="11" name="Iconset (Colored Crossing)" dataDxfId="1"/>
+    <tableColumn id="12" name="Iconset (Colored)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1301,12 +1582,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15"/>
+  <sortState ref="A2:D15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" name="Provider / Brand"/>
     <tableColumn id="2" name="Website"/>
     <tableColumn id="3" name="Iconset (default)"/>
+    <tableColumn id="4" name="Iconset (White and Gray)"/>
+    <tableColumn id="5" name="Iconset (Black and White)"/>
+    <tableColumn id="6" name="Iconset (Circle)"/>
+    <tableColumn id="7" name="Iconset (Originals)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1587,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,97 +1905,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" t="s">
         <v>270</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>272</v>
-      </c>
-      <c r="D2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="D6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
         <v>282</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,13 +2003,13 @@
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,13 +2017,13 @@
         <v>210</v>
       </c>
       <c r="B10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,13 +2031,13 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,13 +2045,13 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,60 +2059,60 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" t="s">
         <v>302</v>
-      </c>
-      <c r="D16" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>303</v>
@@ -1833,105 +2121,105 @@
         <v>304</v>
       </c>
       <c r="D17" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="D20" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>334</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,35 +2233,21 @@
         <v>341</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="D26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D27" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2003,22 +2277,21 @@
     <hyperlink ref="C24" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,10 +2301,16 @@
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="48.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2045,1336 +2324,2444 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>189</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L72" s="4"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C75" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C78" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C79" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>204</v>
+      <c r="G80" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3390,7 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3407,13 +4794,13 @@
         <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,10 +4808,10 @@
         <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,10 +4819,10 @@
         <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3443,106 +4830,106 @@
         <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3572,10 +4959,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,143 +4970,303 @@
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D11" t="s">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" t="s">
+        <v>400</v>
+      </c>
+      <c r="G11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>405</v>
+      </c>
+      <c r="E12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>259</v>
+      <c r="C15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" t="s">
+        <v>401</v>
+      </c>
+      <c r="F15" t="s">
+        <v>401</v>
+      </c>
+      <c r="G15" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B15" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="B5" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3743,66 +5290,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="541">
   <si>
     <t>doc</t>
   </si>
@@ -705,9 +705,6 @@
     <t>Wordpress</t>
   </si>
   <si>
-    <t>YouTube</t>
-  </si>
-  <si>
     <t>Whatsapp</t>
   </si>
   <si>
@@ -861,9 +858,6 @@
     <t>https://www.iconfinder.com/iconsets/social-media-christmas-theme</t>
   </si>
   <si>
-    <t>Hand drawn</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/social-hand-drawn-icons</t>
   </si>
   <si>
@@ -1020,9 +1014,6 @@
     <t>_default</t>
   </si>
   <si>
-    <t>Vivid</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/colorful-guache-social-media-logos-1</t>
   </si>
   <si>
@@ -1276,6 +1267,390 @@
   </si>
   <si>
     <t>Iconset (Originals)</t>
+  </si>
+  <si>
+    <t>https://www.mastercard.de/de-de/mastercard-fuer-sie/finden-sie-eine-karte/maestro.html</t>
+  </si>
+  <si>
+    <t>Iconset (Rectangle)</t>
+  </si>
+  <si>
+    <t>bitcoin.svg, bitcoin2.svg</t>
+  </si>
+  <si>
+    <t>paypal.svg, paypal2.svg</t>
+  </si>
+  <si>
+    <t>square filled</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/payment-methods-19</t>
+  </si>
+  <si>
+    <t>Iconset (Square filled)</t>
+  </si>
+  <si>
+    <t>circle filled</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/circle-payment-methods-4</t>
+  </si>
+  <si>
+    <t>Iconset (Circle filled)</t>
+  </si>
+  <si>
+    <t>Diners Club</t>
+  </si>
+  <si>
+    <t>Union Pay</t>
+  </si>
+  <si>
+    <t>JCB</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>ebay</t>
+  </si>
+  <si>
+    <t>Western Union</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>2CO</t>
+  </si>
+  <si>
+    <t>WorldPay</t>
+  </si>
+  <si>
+    <t>Cirrus</t>
+  </si>
+  <si>
+    <t>Skrill</t>
+  </si>
+  <si>
+    <t>clickandbuy</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>PayPoint</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>jcb.svg</t>
+  </si>
+  <si>
+    <t>paypoint.svg</t>
+  </si>
+  <si>
+    <t>skrill.svg</t>
+  </si>
+  <si>
+    <t>switch.svg</t>
+  </si>
+  <si>
+    <t>worldpay.svg</t>
+  </si>
+  <si>
+    <t>RBS Worldpay</t>
+  </si>
+  <si>
+    <t>rbsworldpay.svg</t>
+  </si>
+  <si>
+    <t>2co.svg</t>
+  </si>
+  <si>
+    <t>bcc.svg</t>
+  </si>
+  <si>
+    <t>cirrus.svg</t>
+  </si>
+  <si>
+    <t>clickandbuy.svg</t>
+  </si>
+  <si>
+    <t>delta.svg</t>
+  </si>
+  <si>
+    <t>discover.svg</t>
+  </si>
+  <si>
+    <t>ebay.svg</t>
+  </si>
+  <si>
+    <t>diners.svg</t>
+  </si>
+  <si>
+    <t>directdebit.svg</t>
+  </si>
+  <si>
+    <t>Recurly</t>
+  </si>
+  <si>
+    <t>recurly.svg</t>
+  </si>
+  <si>
+    <t>sofort</t>
+  </si>
+  <si>
+    <t>visaelectron</t>
+  </si>
+  <si>
+    <t>shopify.svg</t>
+  </si>
+  <si>
+    <t>sofort.svg</t>
+  </si>
+  <si>
+    <t>visaelectron.svg</t>
+  </si>
+  <si>
+    <t>westernunion.svg</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>ideal.svg</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <t>unionpay.svg</t>
+  </si>
+  <si>
+    <t>https://www.2co.com/</t>
+  </si>
+  <si>
+    <t>https://bccpayments.com/</t>
+  </si>
+  <si>
+    <t>https://switchpayments.com/</t>
+  </si>
+  <si>
+    <t>http://www.clickandbuy.com/</t>
+  </si>
+  <si>
+    <t>https://www.dinersclub.de/</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/</t>
+  </si>
+  <si>
+    <t>https://www.ideal.nl/en/</t>
+  </si>
+  <si>
+    <t>https://www.global.jcb/en/index.html</t>
+  </si>
+  <si>
+    <t>https://www.skrill.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.sofort.com/de/</t>
+  </si>
+  <si>
+    <t>https://online.worldpay.com/</t>
+  </si>
+  <si>
+    <t>https://www.shopify.de/</t>
+  </si>
+  <si>
+    <t>https://www.unionpayintl.com/en/</t>
+  </si>
+  <si>
+    <t>https://www.westernunion.com/de/de/home.html</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>wordpress</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>skype</t>
+  </si>
+  <si>
+    <t>pinterest</t>
+  </si>
+  <si>
+    <t>reddit</t>
+  </si>
+  <si>
+    <t>tumblr</t>
+  </si>
+  <si>
+    <t>snapchat</t>
+  </si>
+  <si>
+    <t>facebookmessenger</t>
+  </si>
+  <si>
+    <t>dribble</t>
+  </si>
+  <si>
+    <t>Iconset (Circle colored)</t>
+  </si>
+  <si>
+    <t>blogger</t>
+  </si>
+  <si>
+    <t>https://www.blogger.com/about/?bpli=1</t>
+  </si>
+  <si>
+    <t>dribbble.svg</t>
+  </si>
+  <si>
+    <t>facebook.svg</t>
+  </si>
+  <si>
+    <t>instagram.svg</t>
+  </si>
+  <si>
+    <t>linkedin.svg</t>
+  </si>
+  <si>
+    <t>pinterest.svg</t>
+  </si>
+  <si>
+    <t>reddit.svg</t>
+  </si>
+  <si>
+    <t>skype.svg</t>
+  </si>
+  <si>
+    <t>snapchat.svg</t>
+  </si>
+  <si>
+    <t>tumblr.svg</t>
+  </si>
+  <si>
+    <t>twitter.svg</t>
+  </si>
+  <si>
+    <t>whatsapp.svg</t>
+  </si>
+  <si>
+    <t>wordpress.svg</t>
+  </si>
+  <si>
+    <t>youtube.svg</t>
+  </si>
+  <si>
+    <t>blogger.svg</t>
+  </si>
+  <si>
+    <t>Iconset (Circle colored shaded)</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>digg</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Google Plus</t>
+  </si>
+  <si>
+    <t>itunes</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Tinder</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>behance.svg</t>
+  </si>
+  <si>
+    <t>digg.svg</t>
+  </si>
+  <si>
+    <t>dropbox.svg</t>
+  </si>
+  <si>
+    <t>flickr.svg</t>
+  </si>
+  <si>
+    <t>itunes.svg</t>
+  </si>
+  <si>
+    <t>mail.svg</t>
+  </si>
+  <si>
+    <t>onedrive.svg</t>
+  </si>
+  <si>
+    <t>spotify.svg</t>
+  </si>
+  <si>
+    <t>steam.svg</t>
+  </si>
+  <si>
+    <t>tinder.svg</t>
+  </si>
+  <si>
+    <t>twitch.svg</t>
+  </si>
+  <si>
+    <t>facebookmessenger.svg</t>
+  </si>
+  <si>
+    <t>googledrive.svg</t>
+  </si>
+  <si>
+    <t>googleplus.svg</t>
+  </si>
+  <si>
+    <t>Handdrawn</t>
+  </si>
+  <si>
+    <t>Iconset (Handdrawn)</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D26" totalsRowShown="0">
-  <autoFilter ref="A1:D26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Name"/>
@@ -1569,25 +1944,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30"/>
+  <sortState ref="A2:E30">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
+  <tableColumns count="6">
     <tableColumn id="1" name="Network / Brand"/>
     <tableColumn id="2" name="Link to portal"/>
     <tableColumn id="3" name="_default"/>
-    <tableColumn id="4" name="Vivid"/>
+    <tableColumn id="4" name="Iconset (Circle colored)"/>
+    <tableColumn id="5" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="6" name="Iconset (Handdrawn)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:G15" totalsRowShown="0">
-  <autoFilter ref="A1:G15"/>
-  <sortState ref="A2:D15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:J37" totalsRowShown="0">
+  <autoFilter ref="A1:J37"/>
+  <sortState ref="A2:J43">
+    <sortCondition ref="A1:A43"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="10">
     <tableColumn id="1" name="Provider / Brand"/>
     <tableColumn id="2" name="Website"/>
     <tableColumn id="3" name="Iconset (default)"/>
@@ -1595,6 +1975,9 @@
     <tableColumn id="5" name="Iconset (Black and White)"/>
     <tableColumn id="6" name="Iconset (Circle)"/>
     <tableColumn id="7" name="Iconset (Originals)"/>
+    <tableColumn id="8" name="Iconset (Rectangle)"/>
+    <tableColumn id="9" name="Iconset (Square filled)"/>
+    <tableColumn id="10" name="Iconset (Circle filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1875,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,97 +2288,97 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
         <v>269</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>271</v>
-      </c>
-      <c r="D2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>539</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2003,13 +2386,13 @@
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2017,13 +2400,13 @@
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2031,13 +2414,13 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,13 +2428,13 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2059,153 +2442,153 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" t="s">
         <v>300</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="D18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,13 +2596,13 @@
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,27 +2610,55 @@
         <v>210</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D25" t="s">
         <v>341</v>
-      </c>
-      <c r="D25" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D26" t="s">
-        <v>302</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2277,11 +2688,13 @@
     <hyperlink ref="C24" r:id="rId23"/>
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
+    <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2290,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,25 +2740,25 @@
         <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2365,23 +2778,23 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2454,7 +2867,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -2467,29 +2880,29 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2509,23 +2922,23 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2593,23 +3006,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2629,23 +3042,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2665,23 +3078,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2701,23 +3114,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2737,23 +3150,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2773,23 +3186,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2809,21 +3222,21 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2867,23 +3280,23 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2903,23 +3316,23 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2939,19 +3352,19 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2971,19 +3384,19 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,23 +3512,23 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3135,23 +3548,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3171,21 +3584,21 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3208,7 +3621,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3260,7 +3673,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -3310,7 +3723,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -3323,7 +3736,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -3382,7 +3795,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -3491,29 +3904,29 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3533,23 +3946,23 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3561,29 +3974,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3619,25 +4032,25 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3681,25 +4094,25 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3719,25 +4132,25 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3757,25 +4170,25 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3795,23 +4208,23 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3831,23 +4244,23 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3867,23 +4280,23 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3903,23 +4316,23 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3939,23 +4352,23 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3975,23 +4388,23 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4011,23 +4424,23 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4047,23 +4460,23 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4083,23 +4496,23 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4119,23 +4532,23 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4155,23 +4568,23 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4191,23 +4604,23 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4227,19 +4640,19 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4331,23 +4744,23 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4391,23 +4804,23 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4419,7 +4832,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -4441,7 +4854,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -4496,13 +4909,13 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -4550,7 +4963,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4573,23 +4986,23 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4609,23 +5022,23 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4645,23 +5058,23 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4681,23 +5094,23 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4720,11 +5133,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -4745,23 +5158,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4775,10 +5188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,9 +5200,10 @@
     <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -4797,172 +5211,402 @@
         <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="E1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>515</v>
+      </c>
+      <c r="E9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>519</v>
+      </c>
+      <c r="E16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E17" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>487</v>
+      </c>
+      <c r="D18" t="s">
+        <v>500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" t="s">
+        <v>502</v>
+      </c>
+      <c r="E20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" t="s">
+        <v>503</v>
+      </c>
+      <c r="E21" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>521</v>
+      </c>
+      <c r="E22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>524</v>
+      </c>
+      <c r="E26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C27" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>485</v>
+      </c>
+      <c r="D28" t="s">
+        <v>506</v>
+      </c>
+      <c r="E28" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C29" t="s">
+        <v>483</v>
+      </c>
+      <c r="E29" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>268</v>
+      <c r="C30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E30" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B28" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B5" r:id="rId12"/>
+    <hyperlink ref="B19" r:id="rId13"/>
+    <hyperlink ref="B25" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B3" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,9 +5618,12 @@
     <col min="5" max="5" width="37.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -4987,290 +5634,838 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="H6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" t="s">
+        <v>448</v>
+      </c>
+      <c r="F8" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I8" t="s">
+        <v>448</v>
+      </c>
+      <c r="J8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" t="s">
+        <v>449</v>
+      </c>
+      <c r="I9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I10" t="s">
+        <v>450</v>
+      </c>
+      <c r="J10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H11" t="s">
+        <v>453</v>
+      </c>
+      <c r="I11" t="s">
+        <v>453</v>
+      </c>
+      <c r="J11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" t="s">
+        <v>454</v>
+      </c>
+      <c r="F12" t="s">
+        <v>454</v>
+      </c>
+      <c r="H12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I12" t="s">
+        <v>454</v>
+      </c>
+      <c r="J12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H13" t="s">
+        <v>451</v>
+      </c>
+      <c r="I13" t="s">
+        <v>451</v>
+      </c>
+      <c r="J13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" t="s">
+        <v>452</v>
+      </c>
+      <c r="J14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>408</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" t="s">
+        <v>410</v>
+      </c>
+      <c r="G16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I16" t="s">
+        <v>410</v>
+      </c>
+      <c r="J16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F17" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" t="s">
+        <v>464</v>
+      </c>
+      <c r="I17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" t="s">
+        <v>439</v>
+      </c>
+      <c r="G18" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18" t="s">
+        <v>439</v>
+      </c>
+      <c r="I18" t="s">
+        <v>439</v>
+      </c>
+      <c r="J18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" t="s">
+        <v>401</v>
+      </c>
+      <c r="H20" t="s">
+        <v>401</v>
+      </c>
+      <c r="I20" t="s">
+        <v>401</v>
+      </c>
+      <c r="J20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" t="s">
+        <v>394</v>
+      </c>
+      <c r="D21" t="s">
         <v>399</v>
       </c>
-      <c r="E1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F21" t="s">
+        <v>399</v>
+      </c>
+      <c r="G21" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" t="s">
+        <v>399</v>
+      </c>
+      <c r="I21" t="s">
+        <v>399</v>
+      </c>
+      <c r="J21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" t="s">
+        <v>397</v>
+      </c>
+      <c r="E22" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" t="s">
+        <v>397</v>
+      </c>
+      <c r="H22" t="s">
+        <v>416</v>
+      </c>
+      <c r="I22" t="s">
+        <v>397</v>
+      </c>
+      <c r="J22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23" t="s">
+        <v>440</v>
+      </c>
+      <c r="G23" t="s">
+        <v>440</v>
+      </c>
+      <c r="H23" t="s">
+        <v>440</v>
+      </c>
+      <c r="I23" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" t="s">
+        <v>402</v>
+      </c>
+      <c r="G24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" t="s">
+        <v>445</v>
+      </c>
+      <c r="E25" t="s">
+        <v>445</v>
+      </c>
+      <c r="I25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="I26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E28" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" t="s">
+        <v>459</v>
+      </c>
+      <c r="I28" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E29" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" t="s">
+        <v>441</v>
+      </c>
+      <c r="G29" t="s">
+        <v>441</v>
+      </c>
+      <c r="H29" t="s">
+        <v>441</v>
+      </c>
+      <c r="I29" t="s">
+        <v>441</v>
+      </c>
+      <c r="J29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>457</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E30" t="s">
+        <v>460</v>
+      </c>
+      <c r="I30" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>436</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H32" t="s">
+        <v>442</v>
+      </c>
+      <c r="I32" t="s">
+        <v>442</v>
+      </c>
+      <c r="J32" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F33" t="s">
+        <v>466</v>
+      </c>
+      <c r="G33" t="s">
+        <v>466</v>
+      </c>
+      <c r="H33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" t="s">
+        <v>390</v>
+      </c>
+      <c r="E34" t="s">
         <v>398</v>
       </c>
-      <c r="E2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F34" t="s">
+        <v>398</v>
+      </c>
+      <c r="G34" t="s">
+        <v>398</v>
+      </c>
+      <c r="H34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34" t="s">
+        <v>398</v>
+      </c>
+      <c r="J34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" t="s">
-        <v>412</v>
-      </c>
-      <c r="D7" t="s">
-        <v>413</v>
-      </c>
-      <c r="E7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>394</v>
-      </c>
-      <c r="D8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E9" t="s">
-        <v>404</v>
-      </c>
-      <c r="F9" t="s">
-        <v>404</v>
-      </c>
-      <c r="G9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" t="s">
-        <v>402</v>
-      </c>
-      <c r="E10" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" t="s">
-        <v>402</v>
-      </c>
-      <c r="G10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" t="s">
-        <v>391</v>
-      </c>
-      <c r="D11" t="s">
-        <v>400</v>
-      </c>
-      <c r="E11" t="s">
-        <v>400</v>
-      </c>
-      <c r="F11" t="s">
-        <v>400</v>
-      </c>
-      <c r="G11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" t="s">
-        <v>393</v>
-      </c>
-      <c r="E15" t="s">
-        <v>401</v>
-      </c>
-      <c r="F15" t="s">
-        <v>401</v>
-      </c>
-      <c r="G15" t="s">
-        <v>401</v>
+      <c r="E35" t="s">
+        <v>461</v>
+      </c>
+      <c r="I35" t="s">
+        <v>461</v>
+      </c>
+      <c r="J35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>428</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E36" t="s">
+        <v>462</v>
+      </c>
+      <c r="F36" t="s">
+        <v>462</v>
+      </c>
+      <c r="G36" t="s">
+        <v>462</v>
+      </c>
+      <c r="H36" t="s">
+        <v>462</v>
+      </c>
+      <c r="I36" t="s">
+        <v>462</v>
+      </c>
+      <c r="J36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E37" t="s">
+        <v>443</v>
+      </c>
+      <c r="F37" t="s">
+        <v>443</v>
+      </c>
+      <c r="G37" t="s">
+        <v>443</v>
+      </c>
+      <c r="H37" t="s">
+        <v>443</v>
+      </c>
+      <c r="I37" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B15" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B3" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="B5" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B34" r:id="rId3"/>
+    <hyperlink ref="B21" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B16" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="B24" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="B31" r:id="rId12"/>
+    <hyperlink ref="B27" r:id="rId13"/>
+    <hyperlink ref="B20" r:id="rId14"/>
+    <hyperlink ref="B2" r:id="rId15"/>
+    <hyperlink ref="B6" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="B18" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B23" r:id="rId25"/>
+    <hyperlink ref="B25" r:id="rId26"/>
+    <hyperlink ref="B37" r:id="rId27"/>
+    <hyperlink ref="B26" r:id="rId28"/>
+    <hyperlink ref="B28" r:id="rId29"/>
+    <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5290,66 +6485,66 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="2"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="563">
   <si>
     <t>doc</t>
   </si>
@@ -870,12 +870,6 @@
     <t xml:space="preserve">All </t>
   </si>
   <si>
-    <t xml:space="preserve">Black </t>
-  </si>
-  <si>
-    <t>https://www.iconfinder.com/iconsets/social-icons-32</t>
-  </si>
-  <si>
     <t>CC BY 4.0</t>
   </si>
   <si>
@@ -1020,9 +1014,6 @@
     <t>colorful gouache</t>
   </si>
   <si>
-    <t>square flat</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/social-media-square-4</t>
   </si>
   <si>
@@ -1599,9 +1590,6 @@
     <t>Steam</t>
   </si>
   <si>
-    <t>Tinder</t>
-  </si>
-  <si>
     <t>Twitch</t>
   </si>
   <si>
@@ -1632,9 +1620,6 @@
     <t>steam.svg</t>
   </si>
   <si>
-    <t>tinder.svg</t>
-  </si>
-  <si>
     <t>twitch.svg</t>
   </si>
   <si>
@@ -1651,6 +1636,87 @@
   </si>
   <si>
     <t>Iconset (Handdrawn)</t>
+  </si>
+  <si>
+    <t>github.svg</t>
+  </si>
+  <si>
+    <t>https://www.behance.net/</t>
+  </si>
+  <si>
+    <t>https://digg.com/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/de_de/drive/</t>
+  </si>
+  <si>
+    <t>https://myaccount.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/de/itunes/</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/de-de/microsoft-365/onedrive/online-cloud-storage</t>
+  </si>
+  <si>
+    <t>https://www.spotify.com/de/</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/?l=german</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/</t>
+  </si>
+  <si>
+    <t>Iconset (Handdrawn colored)</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>Iconset (Cartoon)</t>
+  </si>
+  <si>
+    <t>read.svg, unread.svg</t>
+  </si>
+  <si>
+    <t>Iconset (Colorful Gouache)</t>
+  </si>
+  <si>
+    <t>instagramblack.svg,instagramwhite.svg</t>
+  </si>
+  <si>
+    <t>rectangle flat</t>
+  </si>
+  <si>
+    <t>Iconset (Rectangle flat)</t>
+  </si>
+  <si>
+    <t>Iconset (Circle long shadow)</t>
+  </si>
+  <si>
+    <t>dhl</t>
+  </si>
+  <si>
+    <t>hermes</t>
+  </si>
+  <si>
+    <t>dpd</t>
+  </si>
+  <si>
+    <t>ups</t>
+  </si>
+  <si>
+    <t>gls</t>
+  </si>
+  <si>
+    <t>fedex</t>
   </si>
 </sst>
 </file>
@@ -1907,8 +1973,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D27" totalsRowShown="0">
+  <autoFilter ref="A1:D27"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Name"/>
@@ -1944,18 +2010,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L29" totalsRowShown="0">
+  <autoFilter ref="A1:L29"/>
   <sortState ref="A2:E30">
     <sortCondition ref="A1:A30"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="12">
     <tableColumn id="1" name="Network / Brand"/>
     <tableColumn id="2" name="Link to portal"/>
     <tableColumn id="3" name="_default"/>
     <tableColumn id="4" name="Iconset (Circle colored)"/>
     <tableColumn id="5" name="Iconset (Circle colored shaded)"/>
     <tableColumn id="6" name="Iconset (Handdrawn)"/>
+    <tableColumn id="7" name="Iconset (Handdrawn colored)"/>
+    <tableColumn id="8" name="Iconset (Originals)"/>
+    <tableColumn id="9" name="Iconset (Cartoon)"/>
+    <tableColumn id="10" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="11" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="12" name="Iconset (Circle long shadow)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2258,10 +2330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2402,7 @@
         <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>275</v>
@@ -2344,13 +2416,13 @@
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,15 +2436,15 @@
         <v>277</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>281</v>
@@ -2386,13 +2458,13 @@
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,13 +2472,13 @@
         <v>210</v>
       </c>
       <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>285</v>
-      </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2414,13 +2486,13 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,32 +2500,32 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>292</v>
-      </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>294</v>
@@ -2467,7 +2539,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
         <v>296</v>
@@ -2476,35 +2548,35 @@
         <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="D17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,18 +2584,18 @@
         <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>304</v>
@@ -2532,18 +2604,18 @@
         <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
         <v>271</v>
@@ -2554,7 +2626,7 @@
         <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>554</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>328</v>
@@ -2568,10 +2640,10 @@
         <v>268</v>
       </c>
       <c r="B22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D22" t="s">
         <v>271</v>
@@ -2579,13 +2651,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D23" t="s">
         <v>271</v>
@@ -2602,40 +2674,40 @@
         <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>338</v>
-      </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="D26" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s">
         <v>417</v>
@@ -2644,20 +2716,6 @@
         <v>418</v>
       </c>
       <c r="D27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>291</v>
-      </c>
-      <c r="B28" t="s">
-        <v>420</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D28" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2689,12 +2747,11 @@
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2703,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,25 +2797,25 @@
         <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2778,23 +2835,23 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2867,7 +2924,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -2880,29 +2937,29 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2922,23 +2979,23 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3006,23 +3063,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3042,23 +3099,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3078,23 +3135,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3114,23 +3171,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3150,23 +3207,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3186,23 +3243,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3222,21 +3279,21 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3280,23 +3337,23 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3316,23 +3373,23 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3352,19 +3409,19 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,19 +3441,19 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3512,23 +3569,23 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3548,23 +3605,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3584,21 +3641,21 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3621,7 +3678,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3673,7 +3730,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -3723,7 +3780,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -3736,7 +3793,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -3795,7 +3852,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -3904,29 +3961,29 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3946,23 +4003,23 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3974,29 +4031,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4032,25 +4089,25 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4094,25 +4151,25 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4132,25 +4189,25 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4170,25 +4227,25 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4208,23 +4265,23 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4244,23 +4301,23 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4280,23 +4337,23 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4316,23 +4373,23 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4352,23 +4409,23 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4388,23 +4445,23 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4424,23 +4481,23 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4460,23 +4517,23 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4496,23 +4553,23 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4532,23 +4589,23 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4568,23 +4625,23 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,23 +4661,23 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4640,19 +4697,19 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4744,23 +4801,23 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4804,23 +4861,23 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4832,7 +4889,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -4854,7 +4911,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -4909,13 +4966,13 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -4963,7 +5020,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -4986,23 +5043,23 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5022,23 +5079,23 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5058,23 +5115,23 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5094,23 +5151,23 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5133,11 +5190,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -5158,23 +5215,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5188,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5201,9 +5258,16 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -5211,52 +5275,121 @@
         <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E1" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="E2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F2" t="s">
+        <v>521</v>
+      </c>
+      <c r="H2" t="s">
+        <v>521</v>
+      </c>
+      <c r="I2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H3" t="s">
+        <v>506</v>
+      </c>
+      <c r="I3" t="s">
+        <v>506</v>
+      </c>
+      <c r="J3" t="s">
+        <v>506</v>
+      </c>
+      <c r="K3" t="s">
+        <v>506</v>
+      </c>
+      <c r="L3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>510</v>
       </c>
-      <c r="F1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" t="s">
-        <v>509</v>
-      </c>
-      <c r="E3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>513</v>
+      <c r="B4" s="3" t="s">
+        <v>538</v>
       </c>
       <c r="E4" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="F4" t="s">
+        <v>522</v>
+      </c>
+      <c r="K4" t="s">
+        <v>522</v>
+      </c>
+      <c r="L4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -5264,24 +5397,66 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="F5" t="s">
+        <v>493</v>
+      </c>
+      <c r="H5" t="s">
+        <v>493</v>
+      </c>
+      <c r="I5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J5" t="s">
+        <v>493</v>
+      </c>
+      <c r="K5" t="s">
+        <v>493</v>
+      </c>
+      <c r="L5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>511</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="E6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="F6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" t="s">
+        <v>523</v>
+      </c>
+      <c r="I6" t="s">
+        <v>523</v>
+      </c>
+      <c r="J6" t="s">
+        <v>523</v>
+      </c>
+      <c r="K6" t="s">
+        <v>523</v>
+      </c>
+      <c r="L6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -5289,16 +5464,37 @@
         <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="F7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I7" t="s">
+        <v>494</v>
+      </c>
+      <c r="J7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -5306,21 +5502,63 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="F8" t="s">
+        <v>531</v>
+      </c>
+      <c r="G8" t="s">
+        <v>531</v>
+      </c>
+      <c r="H8" t="s">
+        <v>531</v>
+      </c>
+      <c r="I8" t="s">
+        <v>531</v>
+      </c>
+      <c r="J8" t="s">
+        <v>531</v>
+      </c>
+      <c r="K8" t="s">
+        <v>531</v>
+      </c>
+      <c r="L8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>512</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="E9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="F9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H9" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" t="s">
+        <v>524</v>
+      </c>
+      <c r="J9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K9" t="s">
+        <v>524</v>
+      </c>
+      <c r="L9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -5328,26 +5566,68 @@
         <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="F10" t="s">
+        <v>536</v>
+      </c>
+      <c r="H10" t="s">
+        <v>536</v>
+      </c>
+      <c r="I10" t="s">
+        <v>536</v>
+      </c>
+      <c r="J10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>513</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>541</v>
       </c>
       <c r="E11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="H11" t="s">
+        <v>532</v>
+      </c>
+      <c r="K11" t="s">
+        <v>532</v>
+      </c>
+      <c r="L11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>514</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>542</v>
       </c>
       <c r="E12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="H12" t="s">
+        <v>533</v>
+      </c>
+      <c r="I12" t="s">
+        <v>533</v>
+      </c>
+      <c r="J12" t="s">
+        <v>533</v>
+      </c>
+      <c r="K12" t="s">
+        <v>533</v>
+      </c>
+      <c r="L12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -5355,24 +5635,57 @@
         <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D13" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="F13" t="s">
+        <v>495</v>
+      </c>
+      <c r="G13" t="s">
+        <v>495</v>
+      </c>
+      <c r="H13" t="s">
+        <v>495</v>
+      </c>
+      <c r="I13" t="s">
+        <v>495</v>
+      </c>
+      <c r="J13" t="s">
+        <v>553</v>
+      </c>
+      <c r="K13" t="s">
+        <v>495</v>
+      </c>
+      <c r="L13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>518</v>
+        <v>515</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="E14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="F14" t="s">
+        <v>525</v>
+      </c>
+      <c r="K14" t="s">
+        <v>525</v>
+      </c>
+      <c r="L14" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -5380,32 +5693,77 @@
         <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D15" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="F15" t="s">
+        <v>496</v>
+      </c>
+      <c r="H15" t="s">
+        <v>496</v>
+      </c>
+      <c r="I15" t="s">
+        <v>496</v>
+      </c>
+      <c r="J15" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" t="s">
+        <v>496</v>
+      </c>
+      <c r="L15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E16" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="F16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" t="s">
+        <v>526</v>
+      </c>
+      <c r="I16" t="s">
+        <v>551</v>
+      </c>
+      <c r="J16" t="s">
+        <v>526</v>
+      </c>
+      <c r="K16" t="s">
+        <v>526</v>
+      </c>
+      <c r="L16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>517</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="E17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="K17" t="s">
+        <v>527</v>
+      </c>
+      <c r="L17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -5413,16 +5771,34 @@
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D18" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="F18" t="s">
+        <v>497</v>
+      </c>
+      <c r="H18" t="s">
+        <v>497</v>
+      </c>
+      <c r="I18" t="s">
+        <v>497</v>
+      </c>
+      <c r="J18" t="s">
+        <v>497</v>
+      </c>
+      <c r="K18" t="s">
+        <v>497</v>
+      </c>
+      <c r="L18" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -5430,13 +5806,22 @@
         <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="F19" t="s">
+        <v>498</v>
+      </c>
+      <c r="H19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -5444,16 +5829,34 @@
         <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="F20" t="s">
+        <v>499</v>
+      </c>
+      <c r="H20" t="s">
+        <v>499</v>
+      </c>
+      <c r="I20" t="s">
+        <v>499</v>
+      </c>
+      <c r="J20" t="s">
+        <v>499</v>
+      </c>
+      <c r="K20" t="s">
+        <v>499</v>
+      </c>
+      <c r="L20" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -5461,142 +5864,307 @@
         <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D21" t="s">
+        <v>500</v>
+      </c>
+      <c r="E21" t="s">
+        <v>500</v>
+      </c>
+      <c r="F21" t="s">
+        <v>500</v>
+      </c>
+      <c r="H21" t="s">
+        <v>500</v>
+      </c>
+      <c r="I21" t="s">
+        <v>500</v>
+      </c>
+      <c r="J21" t="s">
+        <v>500</v>
+      </c>
+      <c r="K21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>518</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" t="s">
+        <v>528</v>
+      </c>
+      <c r="F22" t="s">
+        <v>528</v>
+      </c>
+      <c r="H22" t="s">
+        <v>528</v>
+      </c>
+      <c r="I22" t="s">
+        <v>528</v>
+      </c>
+      <c r="J22" t="s">
+        <v>528</v>
+      </c>
+      <c r="K22" t="s">
+        <v>528</v>
+      </c>
+      <c r="L22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E23" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" t="s">
+        <v>529</v>
+      </c>
+      <c r="J23" t="s">
+        <v>529</v>
+      </c>
+      <c r="K23" t="s">
+        <v>529</v>
+      </c>
+      <c r="L23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E24" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" t="s">
+        <v>501</v>
+      </c>
+      <c r="H24" t="s">
+        <v>501</v>
+      </c>
+      <c r="I24" t="s">
+        <v>501</v>
+      </c>
+      <c r="J24" t="s">
+        <v>501</v>
+      </c>
+      <c r="K24" t="s">
+        <v>501</v>
+      </c>
+      <c r="L24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E25" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" t="s">
+        <v>530</v>
+      </c>
+      <c r="J25" t="s">
+        <v>530</v>
+      </c>
+      <c r="K25" t="s">
+        <v>530</v>
+      </c>
+      <c r="L25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" t="s">
+        <v>502</v>
+      </c>
+      <c r="F26" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" t="s">
+        <v>502</v>
+      </c>
+      <c r="H26" t="s">
+        <v>502</v>
+      </c>
+      <c r="I26" t="s">
+        <v>502</v>
+      </c>
+      <c r="J26" t="s">
+        <v>502</v>
+      </c>
+      <c r="K26" t="s">
+        <v>502</v>
+      </c>
+      <c r="L26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D27" t="s">
         <v>503</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E27" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>521</v>
-      </c>
-      <c r="E22" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>522</v>
-      </c>
-      <c r="E23" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>523</v>
-      </c>
-      <c r="E24" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>260</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" t="s">
-        <v>489</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F27" t="s">
+        <v>503</v>
+      </c>
+      <c r="H27" t="s">
+        <v>503</v>
+      </c>
+      <c r="I27" t="s">
+        <v>503</v>
+      </c>
+      <c r="J27" t="s">
+        <v>503</v>
+      </c>
+      <c r="K27" t="s">
+        <v>503</v>
+      </c>
+      <c r="L27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>524</v>
-      </c>
-      <c r="E26" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H28" t="s">
+        <v>504</v>
+      </c>
+      <c r="I28" t="s">
+        <v>504</v>
+      </c>
+      <c r="J28" t="s">
+        <v>504</v>
+      </c>
+      <c r="K28" t="s">
+        <v>504</v>
+      </c>
+      <c r="L28" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>508</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" t="s">
+        <v>481</v>
+      </c>
+      <c r="E29" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" t="s">
-        <v>485</v>
-      </c>
-      <c r="D28" t="s">
-        <v>506</v>
-      </c>
-      <c r="E28" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" t="s">
-        <v>483</v>
-      </c>
-      <c r="E29" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>511</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" t="s">
-        <v>484</v>
-      </c>
-      <c r="E30" t="s">
-        <v>508</v>
+      <c r="F29" t="s">
+        <v>505</v>
+      </c>
+      <c r="G29" t="s">
+        <v>505</v>
+      </c>
+      <c r="H29" t="s">
+        <v>505</v>
+      </c>
+      <c r="I29" t="s">
+        <v>505</v>
+      </c>
+      <c r="J29" t="s">
+        <v>505</v>
+      </c>
+      <c r="K29" t="s">
+        <v>505</v>
+      </c>
+      <c r="L29" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B27" r:id="rId2"/>
+    <hyperlink ref="B26" r:id="rId2"/>
     <hyperlink ref="B13" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="B30" r:id="rId7"/>
-    <hyperlink ref="B28" r:id="rId8"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B29" r:id="rId7"/>
+    <hyperlink ref="B27" r:id="rId8"/>
     <hyperlink ref="B8" r:id="rId9"/>
     <hyperlink ref="B20" r:id="rId10"/>
     <hyperlink ref="B18" r:id="rId11"/>
     <hyperlink ref="B5" r:id="rId12"/>
     <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B25" r:id="rId14"/>
+    <hyperlink ref="B24" r:id="rId14"/>
     <hyperlink ref="B21" r:id="rId15"/>
     <hyperlink ref="B3" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId17"/>
+    <hyperlink ref="B4" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId19"/>
+    <hyperlink ref="B9" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="B17" r:id="rId24"/>
+    <hyperlink ref="B22" r:id="rId25"/>
+    <hyperlink ref="B23" r:id="rId26"/>
+    <hyperlink ref="B25" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5606,7 +6174,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5634,51 +6202,51 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" t="s">
         <v>411</v>
       </c>
-      <c r="G1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" t="s">
-        <v>414</v>
-      </c>
       <c r="I1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" t="s">
         <v>419</v>
-      </c>
-      <c r="J1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5689,22 +6257,22 @@
         <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5715,25 +6283,25 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5744,24 +6312,24 @@
         <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5775,168 +6343,168 @@
         <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5952,80 +6520,80 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="J16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J18" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6036,13 +6604,13 @@
         <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -6050,31 +6618,31 @@
         <v>238</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6085,28 +6653,28 @@
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J21" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6117,51 +6685,51 @@
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J22" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D23" t="s">
         <v>437</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D23" t="s">
-        <v>440</v>
-      </c>
       <c r="E23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6175,47 +6743,47 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I24" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6231,59 +6799,59 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J29" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E30" t="s">
         <v>457</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E30" t="s">
-        <v>460</v>
-      </c>
       <c r="I30" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -6299,36 +6867,36 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H33" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -6339,91 +6907,91 @@
         <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I37" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +7043,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6485,66 +7053,87 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+      <c r="C8" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Social Networks" sheetId="2" r:id="rId3"/>
     <sheet name="Payment" sheetId="3" r:id="rId4"/>
     <sheet name="Delivery" sheetId="5" r:id="rId5"/>
+    <sheet name="Others" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="627">
   <si>
     <t>doc</t>
   </si>
@@ -948,9 +949,6 @@
     <t>https://www.iconfinder.com/iconsets/logos-and-brands-adobe</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
     <t>DHL</t>
   </si>
   <si>
@@ -972,12 +970,6 @@
     <t>FedEx</t>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>iconset (default)</t>
-  </si>
-  <si>
     <t>https://www.dhl.de/de/privatkunden.html</t>
   </si>
   <si>
@@ -1717,6 +1709,207 @@
   </si>
   <si>
     <t>fedex</t>
+  </si>
+  <si>
+    <t>Iconset (All-Bright)</t>
+  </si>
+  <si>
+    <t>vimeo</t>
+  </si>
+  <si>
+    <t>wechat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Vimeo</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/</t>
+  </si>
+  <si>
+    <t>https://www.wechat.com/</t>
+  </si>
+  <si>
+    <t>WeChat</t>
+  </si>
+  <si>
+    <t>twitch</t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>onedrive</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>googleplus</t>
+  </si>
+  <si>
+    <t>googledrive</t>
+  </si>
+  <si>
+    <t>flickr</t>
+  </si>
+  <si>
+    <t>dropbox</t>
+  </si>
+  <si>
+    <t>behance</t>
+  </si>
+  <si>
+    <t>vimeo.svg</t>
+  </si>
+  <si>
+    <t>wechat.svg</t>
+  </si>
+  <si>
+    <t>Iconset (All-Line filled)</t>
+  </si>
+  <si>
+    <t>applepay.svg, applepay2.svg</t>
+  </si>
+  <si>
+    <t>dhl.svg</t>
+  </si>
+  <si>
+    <t>ups.svg</t>
+  </si>
+  <si>
+    <t>fedex.svg</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Appstore</t>
+  </si>
+  <si>
+    <t>Audible</t>
+  </si>
+  <si>
+    <t>Bing</t>
+  </si>
+  <si>
+    <t>Blackberry</t>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Codepen</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Evernote</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Feedburner</t>
+  </si>
+  <si>
+    <t>Finder</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Foursquare</t>
+  </si>
+  <si>
+    <t>Gitlab</t>
+  </si>
+  <si>
+    <t>Goodreads</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Googleadwords</t>
+  </si>
+  <si>
+    <t>Googleplay</t>
+  </si>
+  <si>
+    <t>Hangouts</t>
+  </si>
+  <si>
+    <t>ibooks</t>
+  </si>
+  <si>
+    <t>icloud</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>Internetexplorer</t>
+  </si>
+  <si>
+    <t>Joomla</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
+  </si>
+  <si>
+    <t>Kik</t>
+  </si>
+  <si>
+    <t>Laravel</t>
+  </si>
+  <si>
+    <t>Magento</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Myspace</t>
+  </si>
+  <si>
+    <t>Napster</t>
   </si>
 </sst>
 </file>
@@ -2010,12 +2203,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:L29" totalsRowShown="0">
-  <autoFilter ref="A1:L29"/>
-  <sortState ref="A2:E30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:N31" totalsRowShown="0">
+  <autoFilter ref="A1:N31"/>
+  <sortState ref="A2:M31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="14">
     <tableColumn id="1" name="Network / Brand"/>
     <tableColumn id="2" name="Link to portal"/>
     <tableColumn id="3" name="_default"/>
@@ -2028,18 +2221,20 @@
     <tableColumn id="10" name="Iconset (Colorful Gouache)"/>
     <tableColumn id="11" name="Iconset (Rectangle flat)"/>
     <tableColumn id="12" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="13" name="Iconset (All-Bright)"/>
+    <tableColumn id="14" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:J37" totalsRowShown="0">
-  <autoFilter ref="A1:J37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
+  <autoFilter ref="A1:K37"/>
   <sortState ref="A2:J43">
     <sortCondition ref="A1:A43"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="1" name="Provider / Brand"/>
     <tableColumn id="2" name="Website"/>
     <tableColumn id="3" name="Iconset (default)"/>
@@ -2050,18 +2245,32 @@
     <tableColumn id="8" name="Iconset (Rectangle)"/>
     <tableColumn id="9" name="Iconset (Square filled)"/>
     <tableColumn id="10" name="Iconset (Circle filled)"/>
+    <tableColumn id="11" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (default)"/>
+    <tableColumn id="4" name="Iconset (All-Line filled)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:C42" totalsRowShown="0">
+  <autoFilter ref="A1:C42"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="brand"/>
-    <tableColumn id="2" name="website"/>
-    <tableColumn id="3" name="iconset (default)"/>
+    <tableColumn id="1" name="Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2332,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,13 +2625,13 @@
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,7 +2653,7 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>281</v>
@@ -2464,7 +2673,7 @@
         <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,7 +2687,7 @@
         <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,7 +2715,7 @@
         <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,7 +2771,7 @@
         <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,7 +2785,7 @@
         <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,7 +2799,7 @@
         <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,10 +2821,10 @@
         <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
         <v>271</v>
@@ -2626,10 +2835,10 @@
         <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
         <v>271</v>
@@ -2640,10 +2849,10 @@
         <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D22" t="s">
         <v>271</v>
@@ -2654,10 +2863,10 @@
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
         <v>271</v>
@@ -2668,13 +2877,13 @@
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" t="s">
         <v>335</v>
-      </c>
-      <c r="D24" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,10 +2891,10 @@
         <v>289</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D25" t="s">
         <v>298</v>
@@ -2696,10 +2905,10 @@
         <v>289</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D26" t="s">
         <v>271</v>
@@ -2710,10 +2919,10 @@
         <v>289</v>
       </c>
       <c r="B27" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D27" t="s">
         <v>271</v>
@@ -2760,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="D49" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,25 +3006,25 @@
         <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2835,23 +3044,23 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,7 +3133,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -2937,29 +3146,29 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2979,23 +3188,23 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3063,23 +3272,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,23 +3308,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3135,23 +3344,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3171,23 +3380,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3207,23 +3416,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3243,23 +3452,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3279,21 +3488,21 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3337,23 +3546,23 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3373,23 +3582,23 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3409,19 +3618,19 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,19 +3650,19 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3569,23 +3778,23 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3605,23 +3814,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3641,21 +3850,21 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3678,7 +3887,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3730,7 +3939,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -3780,7 +3989,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -3793,7 +4002,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -3852,7 +4061,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -3961,29 +4170,29 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4003,23 +4212,23 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4031,29 +4240,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4089,25 +4298,25 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4151,25 +4360,25 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4189,25 +4398,25 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4227,25 +4436,25 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4265,23 +4474,23 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4301,23 +4510,23 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4337,23 +4546,23 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4373,23 +4582,23 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4409,23 +4618,23 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4445,23 +4654,23 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4481,23 +4690,23 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4517,23 +4726,23 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4553,23 +4762,23 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4589,23 +4798,23 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4625,23 +4834,23 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4661,23 +4870,23 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4697,19 +4906,19 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4801,23 +5010,23 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4861,23 +5070,23 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4889,7 +5098,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -4911,7 +5120,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -4966,13 +5175,13 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -5020,7 +5229,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -5043,23 +5252,23 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5079,23 +5288,23 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5115,23 +5324,23 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5151,23 +5360,23 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5190,11 +5399,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -5215,23 +5424,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5245,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5265,9 +5474,11 @@
     <col min="10" max="10" width="27.85546875" customWidth="1"/>
     <col min="11" max="11" width="26.42578125" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -5275,121 +5486,151 @@
         <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" t="s">
+        <v>549</v>
+      </c>
+      <c r="K1" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" t="s">
+        <v>560</v>
+      </c>
+      <c r="N1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" t="s">
+        <v>518</v>
+      </c>
+      <c r="I2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" t="s">
+        <v>518</v>
+      </c>
+      <c r="M2" t="s">
+        <v>518</v>
+      </c>
+      <c r="N2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H3" t="s">
+        <v>503</v>
+      </c>
+      <c r="I3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J3" t="s">
+        <v>503</v>
+      </c>
+      <c r="K3" t="s">
+        <v>503</v>
+      </c>
+      <c r="L3" t="s">
+        <v>503</v>
+      </c>
+      <c r="N3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>507</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="G1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J1" t="s">
-        <v>552</v>
-      </c>
-      <c r="K1" t="s">
-        <v>555</v>
-      </c>
-      <c r="L1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I2" t="s">
-        <v>521</v>
-      </c>
-      <c r="J2" t="s">
-        <v>521</v>
-      </c>
-      <c r="K2" t="s">
-        <v>521</v>
-      </c>
-      <c r="L2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>491</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E3" t="s">
-        <v>506</v>
-      </c>
-      <c r="F3" t="s">
-        <v>506</v>
-      </c>
-      <c r="H3" t="s">
-        <v>506</v>
-      </c>
-      <c r="I3" t="s">
-        <v>506</v>
-      </c>
-      <c r="J3" t="s">
-        <v>506</v>
-      </c>
-      <c r="K3" t="s">
-        <v>506</v>
-      </c>
-      <c r="L3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>510</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>538</v>
+      <c r="C4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" t="s">
+        <v>519</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="N4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -5397,66 +5638,84 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="K5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="L5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="M5" t="s">
+        <v>490</v>
+      </c>
+      <c r="N5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="C6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D6" t="s">
+        <v>520</v>
       </c>
       <c r="E6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="M6" t="s">
+        <v>520</v>
+      </c>
+      <c r="N6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -5464,37 +5723,43 @@
         <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L7" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="M7" t="s">
+        <v>491</v>
+      </c>
+      <c r="N7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -5502,63 +5767,78 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="I8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K8" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="M8" t="s">
+        <v>528</v>
+      </c>
+      <c r="N8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="C9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" t="s">
+        <v>521</v>
       </c>
       <c r="E9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="J9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K9" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="N9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -5566,68 +5846,83 @@
         <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J10" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="N10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
+      </c>
+      <c r="C11" t="s">
+        <v>574</v>
       </c>
       <c r="E11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="N11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="C12" t="s">
+        <v>573</v>
       </c>
       <c r="E12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L12" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="N12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -5635,57 +5930,69 @@
         <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="K13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="M13" t="s">
+        <v>492</v>
+      </c>
+      <c r="N13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="C14" t="s">
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L14" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="N14" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -5693,77 +6000,92 @@
         <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K15" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="M15" t="s">
+        <v>493</v>
+      </c>
+      <c r="N15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>513</v>
+      </c>
+      <c r="C16" t="s">
+        <v>572</v>
+      </c>
+      <c r="D16" t="s">
+        <v>523</v>
       </c>
       <c r="E16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I16" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L16" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="C17" t="s">
+        <v>571</v>
       </c>
       <c r="E17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -5771,34 +6093,40 @@
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="M18" t="s">
+        <v>494</v>
+      </c>
+      <c r="N18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -5806,22 +6134,28 @@
         <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="I19" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="M19" t="s">
+        <v>495</v>
+      </c>
+      <c r="N19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -5829,34 +6163,40 @@
         <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L20" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="M20" t="s">
+        <v>496</v>
+      </c>
+      <c r="N20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -5864,83 +6204,101 @@
         <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="I21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J21" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="N21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
+      </c>
+      <c r="C22" t="s">
+        <v>570</v>
       </c>
       <c r="E22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L22" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="M22" t="s">
+        <v>525</v>
+      </c>
+      <c r="N22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
+      </c>
+      <c r="C23" t="s">
+        <v>569</v>
       </c>
       <c r="E23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="K23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L23" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="N23" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -5948,54 +6306,69 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="M24" t="s">
+        <v>498</v>
+      </c>
+      <c r="N24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
+      </c>
+      <c r="C25" t="s">
+        <v>568</v>
       </c>
       <c r="E25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="M25" t="s">
+        <v>527</v>
+      </c>
+      <c r="N25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -6003,133 +6376,218 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
+        <v>499</v>
+      </c>
+      <c r="F26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G26" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" t="s">
+        <v>499</v>
+      </c>
+      <c r="I26" t="s">
+        <v>499</v>
+      </c>
+      <c r="J26" t="s">
+        <v>499</v>
+      </c>
+      <c r="K26" t="s">
+        <v>499</v>
+      </c>
+      <c r="L26" t="s">
+        <v>499</v>
+      </c>
+      <c r="M26" t="s">
+        <v>499</v>
+      </c>
+      <c r="N26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>564</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C27" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" t="s">
+        <v>578</v>
+      </c>
+      <c r="H27" t="s">
+        <v>578</v>
+      </c>
+      <c r="I27" t="s">
+        <v>578</v>
+      </c>
+      <c r="J27" t="s">
+        <v>578</v>
+      </c>
+      <c r="K27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L27" t="s">
+        <v>578</v>
+      </c>
+      <c r="M27" t="s">
+        <v>578</v>
+      </c>
+      <c r="N27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>567</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C28" t="s">
+        <v>562</v>
+      </c>
+      <c r="E28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F28" t="s">
+        <v>579</v>
+      </c>
+      <c r="K28" t="s">
+        <v>579</v>
+      </c>
+      <c r="L28" t="s">
+        <v>579</v>
+      </c>
+      <c r="M28" t="s">
+        <v>579</v>
+      </c>
+      <c r="N28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" t="s">
+        <v>500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F29" t="s">
+        <v>500</v>
+      </c>
+      <c r="H29" t="s">
+        <v>500</v>
+      </c>
+      <c r="I29" t="s">
+        <v>500</v>
+      </c>
+      <c r="J29" t="s">
+        <v>500</v>
+      </c>
+      <c r="K29" t="s">
+        <v>500</v>
+      </c>
+      <c r="L29" t="s">
+        <v>500</v>
+      </c>
+      <c r="M29" t="s">
+        <v>500</v>
+      </c>
+      <c r="N29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" t="s">
+        <v>501</v>
+      </c>
+      <c r="F30" t="s">
+        <v>501</v>
+      </c>
+      <c r="H30" t="s">
+        <v>501</v>
+      </c>
+      <c r="I30" t="s">
+        <v>501</v>
+      </c>
+      <c r="J30" t="s">
+        <v>501</v>
+      </c>
+      <c r="K30" t="s">
+        <v>501</v>
+      </c>
+      <c r="L30" t="s">
+        <v>501</v>
+      </c>
+      <c r="N30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>505</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>478</v>
+      </c>
+      <c r="E31" t="s">
         <v>502</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F31" t="s">
         <v>502</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G31" t="s">
         <v>502</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H31" t="s">
         <v>502</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I31" t="s">
         <v>502</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J31" t="s">
         <v>502</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K31" t="s">
         <v>502</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L31" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C27" t="s">
-        <v>482</v>
-      </c>
-      <c r="D27" t="s">
-        <v>503</v>
-      </c>
-      <c r="E27" t="s">
-        <v>503</v>
-      </c>
-      <c r="F27" t="s">
-        <v>503</v>
-      </c>
-      <c r="H27" t="s">
-        <v>503</v>
-      </c>
-      <c r="I27" t="s">
-        <v>503</v>
-      </c>
-      <c r="J27" t="s">
-        <v>503</v>
-      </c>
-      <c r="K27" t="s">
-        <v>503</v>
-      </c>
-      <c r="L27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" t="s">
-        <v>480</v>
-      </c>
-      <c r="E28" t="s">
-        <v>504</v>
-      </c>
-      <c r="F28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H28" t="s">
-        <v>504</v>
-      </c>
-      <c r="I28" t="s">
-        <v>504</v>
-      </c>
-      <c r="J28" t="s">
-        <v>504</v>
-      </c>
-      <c r="K28" t="s">
-        <v>504</v>
-      </c>
-      <c r="L28" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>508</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" t="s">
-        <v>481</v>
-      </c>
-      <c r="E29" t="s">
-        <v>505</v>
-      </c>
-      <c r="F29" t="s">
-        <v>505</v>
-      </c>
-      <c r="G29" t="s">
-        <v>505</v>
-      </c>
-      <c r="H29" t="s">
-        <v>505</v>
-      </c>
-      <c r="I29" t="s">
-        <v>505</v>
-      </c>
-      <c r="J29" t="s">
-        <v>505</v>
-      </c>
-      <c r="K29" t="s">
-        <v>505</v>
-      </c>
-      <c r="L29" t="s">
-        <v>505</v>
+      <c r="M31" t="s">
+        <v>502</v>
+      </c>
+      <c r="N31" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6139,9 +6597,9 @@
     <hyperlink ref="B13" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B28" r:id="rId6"/>
-    <hyperlink ref="B29" r:id="rId7"/>
-    <hyperlink ref="B27" r:id="rId8"/>
+    <hyperlink ref="B30" r:id="rId6"/>
+    <hyperlink ref="B31" r:id="rId7"/>
+    <hyperlink ref="B29" r:id="rId8"/>
     <hyperlink ref="B8" r:id="rId9"/>
     <hyperlink ref="B20" r:id="rId10"/>
     <hyperlink ref="B18" r:id="rId11"/>
@@ -6161,20 +6619,22 @@
     <hyperlink ref="B22" r:id="rId25"/>
     <hyperlink ref="B23" r:id="rId26"/>
     <hyperlink ref="B25" r:id="rId27"/>
+    <hyperlink ref="B27" r:id="rId28"/>
+    <hyperlink ref="B28" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,9 +6649,10 @@
     <col min="8" max="8" width="20.5703125" customWidth="1"/>
     <col min="9" max="9" width="24.140625" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -6202,54 +6663,57 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" t="s">
         <v>408</v>
       </c>
-      <c r="G1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H1" t="s">
-        <v>411</v>
-      </c>
       <c r="I1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" t="s">
         <v>416</v>
       </c>
-      <c r="J1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -6257,25 +6721,25 @@
         <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -6283,28 +6747,31 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -6312,27 +6779,30 @@
         <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="K5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -6343,171 +6813,183 @@
         <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I8" t="s">
+        <v>442</v>
+      </c>
+      <c r="J8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" t="s">
+        <v>444</v>
+      </c>
+      <c r="H10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I10" t="s">
+        <v>444</v>
+      </c>
+      <c r="J10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" t="s">
+        <v>447</v>
+      </c>
+      <c r="I11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" t="s">
+        <v>448</v>
+      </c>
+      <c r="I12" t="s">
+        <v>448</v>
+      </c>
+      <c r="J12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E13" t="s">
         <v>445</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F13" t="s">
         <v>445</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G13" t="s">
         <v>445</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H13" t="s">
         <v>445</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I13" t="s">
         <v>445</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J13" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="K13" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" t="s">
         <v>446</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J14" t="s">
         <v>446</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E10" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" t="s">
-        <v>447</v>
-      </c>
-      <c r="J10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F11" t="s">
-        <v>450</v>
-      </c>
-      <c r="G11" t="s">
-        <v>450</v>
-      </c>
-      <c r="H11" t="s">
-        <v>450</v>
-      </c>
-      <c r="I11" t="s">
-        <v>450</v>
-      </c>
-      <c r="J11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>427</v>
-      </c>
-      <c r="E12" t="s">
-        <v>451</v>
-      </c>
-      <c r="F12" t="s">
-        <v>451</v>
-      </c>
-      <c r="H12" t="s">
-        <v>451</v>
-      </c>
-      <c r="I12" t="s">
-        <v>451</v>
-      </c>
-      <c r="J12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E13" t="s">
-        <v>448</v>
-      </c>
-      <c r="F13" t="s">
-        <v>448</v>
-      </c>
-      <c r="G13" t="s">
-        <v>448</v>
-      </c>
-      <c r="H13" t="s">
-        <v>448</v>
-      </c>
-      <c r="I13" t="s">
-        <v>448</v>
-      </c>
-      <c r="J13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="H14" t="s">
-        <v>449</v>
-      </c>
-      <c r="J14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>241</v>
       </c>
@@ -6518,85 +7000,91 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="J16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="K16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G17" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J18" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="K18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -6604,48 +7092,48 @@
         <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>238</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -6653,31 +7141,34 @@
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="K21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -6685,54 +7176,57 @@
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H22" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="K22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>431</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D23" t="s">
-        <v>437</v>
-      </c>
       <c r="E23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I23" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -6743,50 +7237,50 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E26" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I26" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -6797,64 +7291,64 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I28" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="J29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E30" t="s">
         <v>454</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E30" t="s">
-        <v>457</v>
-      </c>
       <c r="I30" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>255</v>
       </c>
@@ -6865,41 +7359,41 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J32" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H33" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -6907,91 +7401,94 @@
         <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J34" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K34" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I35" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J35" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I36" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J36" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I37" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -7040,100 +7537,118 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>306</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" t="s">
         <v>318</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" t="s">
-        <v>562</v>
+      <c r="D8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -7149,4 +7664,241 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="811">
   <si>
     <t>doc</t>
   </si>
@@ -1813,12 +1813,6 @@
     <t>Bing</t>
   </si>
   <si>
-    <t>Blackberry</t>
-  </si>
-  <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -1834,9 +1828,6 @@
     <t>Edge</t>
   </si>
   <si>
-    <t>Encoder</t>
-  </si>
-  <si>
     <t>Evernote</t>
   </si>
   <si>
@@ -1891,9 +1882,6 @@
     <t>Joomla</t>
   </si>
   <si>
-    <t>Kickstarter</t>
-  </si>
-  <si>
     <t>Kik</t>
   </si>
   <si>
@@ -1910,6 +1898,570 @@
   </si>
   <si>
     <t>Napster</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>Periscope</t>
+  </si>
+  <si>
+    <t>photography</t>
+  </si>
+  <si>
+    <t>Phyton</t>
+  </si>
+  <si>
+    <t>Quicktime</t>
+  </si>
+  <si>
+    <t>Readme</t>
+  </si>
+  <si>
+    <t>Rss</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Shazam</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Soundcloud</t>
+  </si>
+  <si>
+    <t>Stratis</t>
+  </si>
+  <si>
+    <t>Strava</t>
+  </si>
+  <si>
+    <t>Swarm</t>
+  </si>
+  <si>
+    <t>Teamviewer</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Typo3</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Viadeo</t>
+  </si>
+  <si>
+    <t>Viber</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>Weebly</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Xbox</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Xing</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>https://www.adidas.de/</t>
+  </si>
+  <si>
+    <t>https://www.airbnb.de/</t>
+  </si>
+  <si>
+    <t>https://www.audible.de/</t>
+  </si>
+  <si>
+    <t>https://www.joomla.de/</t>
+  </si>
+  <si>
+    <t>https://www.adobe.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.android.com/intl/de_de/</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/de/app-store/</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/de_de/chrome/</t>
+  </si>
+  <si>
+    <t>https://codepen.io/</t>
+  </si>
+  <si>
+    <t>https://discord.com/</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/de-de/edge?r=1</t>
+  </si>
+  <si>
+    <t>https://evernote.com/intl/de</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/de-de/microsoft-365/excel</t>
+  </si>
+  <si>
+    <t>https://www.mozilla.org/de/firefox/new/</t>
+  </si>
+  <si>
+    <t>https://de.fiverr.com/?source=top_nav</t>
+  </si>
+  <si>
+    <t>https://foursquare.com/</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/gitlab-org/gitlab</t>
+  </si>
+  <si>
+    <t>https://www.goodreads.com/</t>
+  </si>
+  <si>
+    <t>https://www.google.de/?hl=de</t>
+  </si>
+  <si>
+    <t>https://play.google.com/store/games?gl=DE</t>
+  </si>
+  <si>
+    <t>https://hangouts.google.com/</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/de/apple-books/</t>
+  </si>
+  <si>
+    <t>https://www.icloud.com/</t>
+  </si>
+  <si>
+    <t>https://www.kik.com/</t>
+  </si>
+  <si>
+    <t>https://laravel.com/</t>
+  </si>
+  <si>
+    <t>https://business.adobe.com/de/products/magento/magento-commerce.html</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/de-de/</t>
+  </si>
+  <si>
+    <t>https://myspace.com/</t>
+  </si>
+  <si>
+    <t>https://de.napster.com/</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/de/</t>
+  </si>
+  <si>
+    <t>https://www.nvidia.com/de-de/</t>
+  </si>
+  <si>
+    <t>https://www.office.com/</t>
+  </si>
+  <si>
+    <t>https://www.opera.com/de</t>
+  </si>
+  <si>
+    <t>https://outlook.live.com/owa/</t>
+  </si>
+  <si>
+    <t>https://www.pscp.tv/</t>
+  </si>
+  <si>
+    <t>https://www.python.org/</t>
+  </si>
+  <si>
+    <t>https://readme.com/</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/de/safari/</t>
+  </si>
+  <si>
+    <t>https://www.shazam.com/de/home</t>
+  </si>
+  <si>
+    <t>https://slack.com/intl/de-de/</t>
+  </si>
+  <si>
+    <t>https://www.stratisplatform.com/</t>
+  </si>
+  <si>
+    <t>https://www.strava.com/?hl=de</t>
+  </si>
+  <si>
+    <t>https://de.swarmapp.com/</t>
+  </si>
+  <si>
+    <t>https://www.teamviewer.com/de/</t>
+  </si>
+  <si>
+    <t>https://telegram.org/</t>
+  </si>
+  <si>
+    <t>https://trello.com/home</t>
+  </si>
+  <si>
+    <t>https://typo3.org/</t>
+  </si>
+  <si>
+    <t>https://www.uber.com/de/de/</t>
+  </si>
+  <si>
+    <t>https://www.viber.com/de/</t>
+  </si>
+  <si>
+    <t>https://vk.com/</t>
+  </si>
+  <si>
+    <t>https://www.weebly.com/de</t>
+  </si>
+  <si>
+    <t>https://de.wikipedia.org/wiki/Wikipedia:Hauptseite</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/de-de/windows?r=1</t>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/de-de/microsoft-365/word</t>
+  </si>
+  <si>
+    <t>https://www.xbox.com/de-DE</t>
+  </si>
+  <si>
+    <t>https://www.mi.com/de</t>
+  </si>
+  <si>
+    <t>https://www.xing.com/</t>
+  </si>
+  <si>
+    <t>https://de.yahoo.com/</t>
+  </si>
+  <si>
+    <t>https://yandex.com/</t>
+  </si>
+  <si>
+    <t>https://www.yelp.de/n%C3%Bcrnberg</t>
+  </si>
+  <si>
+    <t>adidas.svg</t>
+  </si>
+  <si>
+    <t>adobe.svg</t>
+  </si>
+  <si>
+    <t>airbnb.svg</t>
+  </si>
+  <si>
+    <t>android.svg</t>
+  </si>
+  <si>
+    <t>apple.svg</t>
+  </si>
+  <si>
+    <t>appstore.svg</t>
+  </si>
+  <si>
+    <t>audible.svg</t>
+  </si>
+  <si>
+    <t>bing.svg</t>
+  </si>
+  <si>
+    <t>chrome.svg</t>
+  </si>
+  <si>
+    <t>codepen.svg</t>
+  </si>
+  <si>
+    <t>discord.svg</t>
+  </si>
+  <si>
+    <t>edge.svg</t>
+  </si>
+  <si>
+    <t>evernote.svg</t>
+  </si>
+  <si>
+    <t>excel.svg</t>
+  </si>
+  <si>
+    <t>feedburner.svg</t>
+  </si>
+  <si>
+    <t>finder.svg</t>
+  </si>
+  <si>
+    <t>firefox.svg</t>
+  </si>
+  <si>
+    <t>fiverr.svg</t>
+  </si>
+  <si>
+    <t>foursquare.svg</t>
+  </si>
+  <si>
+    <t>gitlab.svg</t>
+  </si>
+  <si>
+    <t>goodreads.svg</t>
+  </si>
+  <si>
+    <t>google.svg</t>
+  </si>
+  <si>
+    <t>googleadwords.svg</t>
+  </si>
+  <si>
+    <t>googleplay.svg</t>
+  </si>
+  <si>
+    <t>hangouts.svg</t>
+  </si>
+  <si>
+    <t>ibooks.svg</t>
+  </si>
+  <si>
+    <t>icloud.svg</t>
+  </si>
+  <si>
+    <t>inbox.svg</t>
+  </si>
+  <si>
+    <t>internetexplorer.svg</t>
+  </si>
+  <si>
+    <t>joomla.svg</t>
+  </si>
+  <si>
+    <t>kik.svg</t>
+  </si>
+  <si>
+    <t>laravel.svg</t>
+  </si>
+  <si>
+    <t>magento.svg</t>
+  </si>
+  <si>
+    <t>microsoft.svg</t>
+  </si>
+  <si>
+    <t>myspace.svg</t>
+  </si>
+  <si>
+    <t>napster.svg</t>
+  </si>
+  <si>
+    <t>netflix.svg</t>
+  </si>
+  <si>
+    <t>nike.svg</t>
+  </si>
+  <si>
+    <t>nvidia.svg</t>
+  </si>
+  <si>
+    <t>office.svg</t>
+  </si>
+  <si>
+    <t>opera.svg</t>
+  </si>
+  <si>
+    <t>outlook.svg</t>
+  </si>
+  <si>
+    <t>periscope.svg</t>
+  </si>
+  <si>
+    <t>photography.svg</t>
+  </si>
+  <si>
+    <t>phyton.svg</t>
+  </si>
+  <si>
+    <t>quicktime.svg</t>
+  </si>
+  <si>
+    <t>readme.svg</t>
+  </si>
+  <si>
+    <t>rss.svg</t>
+  </si>
+  <si>
+    <t>safari.svg</t>
+  </si>
+  <si>
+    <t>shazam.svg</t>
+  </si>
+  <si>
+    <t>slack.svg</t>
+  </si>
+  <si>
+    <t>soundcloud.svg</t>
+  </si>
+  <si>
+    <t>stratis.svg</t>
+  </si>
+  <si>
+    <t>strava.svg</t>
+  </si>
+  <si>
+    <t>swarm.svg</t>
+  </si>
+  <si>
+    <t>teamviewer.svg</t>
+  </si>
+  <si>
+    <t>telegram.svg</t>
+  </si>
+  <si>
+    <t>trello.svg</t>
+  </si>
+  <si>
+    <t>typo3.svg</t>
+  </si>
+  <si>
+    <t>uber.svg</t>
+  </si>
+  <si>
+    <t>usb.svg</t>
+  </si>
+  <si>
+    <t>viadeo.svg</t>
+  </si>
+  <si>
+    <t>viber.svg</t>
+  </si>
+  <si>
+    <t>vk.svg</t>
+  </si>
+  <si>
+    <t>weebly.svg</t>
+  </si>
+  <si>
+    <t>wikipedia.svg</t>
+  </si>
+  <si>
+    <t>windows.svg</t>
+  </si>
+  <si>
+    <t>word.svg</t>
+  </si>
+  <si>
+    <t>xbox.svg</t>
+  </si>
+  <si>
+    <t>xiaomi.svg</t>
+  </si>
+  <si>
+    <t>xing.svg</t>
+  </si>
+  <si>
+    <t>yahoo.svg</t>
+  </si>
+  <si>
+    <t>yandex.svg</t>
+  </si>
+  <si>
+    <t>yelp.svg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/</t>
+  </si>
+  <si>
+    <t>amazon.svg</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>line.svg</t>
+  </si>
+  <si>
+    <t>https://line.me/en/</t>
+  </si>
+  <si>
+    <t>https://www.linux.org/</t>
+  </si>
+  <si>
+    <t>linux.svg</t>
+  </si>
+  <si>
+    <t>discord.svg, discord2.svg</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-network-linear-color</t>
+  </si>
+  <si>
+    <t>Linear color</t>
+  </si>
+  <si>
+    <t>Iconset (Linear color)</t>
   </si>
 </sst>
 </file>
@@ -2166,8 +2718,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D27" totalsRowShown="0">
-  <autoFilter ref="A1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Name"/>
@@ -2203,12 +2755,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:N31" totalsRowShown="0">
-  <autoFilter ref="A1:N31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:O31" totalsRowShown="0">
+  <autoFilter ref="A1:O31"/>
   <sortState ref="A2:M31">
     <sortCondition ref="A1:A31"/>
   </sortState>
-  <tableColumns count="14">
+  <tableColumns count="15">
     <tableColumn id="1" name="Network / Brand"/>
     <tableColumn id="2" name="Link to portal"/>
     <tableColumn id="3" name="_default"/>
@@ -2223,6 +2775,7 @@
     <tableColumn id="12" name="Iconset (Circle long shadow)"/>
     <tableColumn id="13" name="Iconset (All-Bright)"/>
     <tableColumn id="14" name="Iconset (All-Line filled)"/>
+    <tableColumn id="16" name="Iconset (Linear color)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2265,12 +2818,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:C42" totalsRowShown="0">
-  <autoFilter ref="A1:C42"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:M79" totalsRowShown="0">
+  <autoFilter ref="A1:M79"/>
+  <sortState ref="A2:E79">
+    <sortCondition ref="A1:A79"/>
+  </sortState>
+  <tableColumns count="13">
     <tableColumn id="1" name="Brand"/>
     <tableColumn id="2" name="Website"/>
     <tableColumn id="3" name="Iconset (All-Line filled)"/>
+    <tableColumn id="4" name="Iconset (All-Bright)"/>
+    <tableColumn id="5" name="Iconset (Cartoon)"/>
+    <tableColumn id="6" name="Iconset (Circle colored)"/>
+    <tableColumn id="7" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="8" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="9" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="10" name="Iconset (Handdrawn)"/>
+    <tableColumn id="11" name="Iconset (Originals)"/>
+    <tableColumn id="12" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="13" name="Iconset (Linear color)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2539,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2925,6 +3491,20 @@
         <v>415</v>
       </c>
       <c r="D27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" t="s">
+        <v>809</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D28" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2956,11 +3536,12 @@
     <hyperlink ref="C25" r:id="rId24"/>
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
+    <hyperlink ref="C28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2969,7 +3550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D37" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -5454,10 +6035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,9 +6057,10 @@
     <col min="12" max="12" width="28.7109375" customWidth="1"/>
     <col min="13" max="13" width="34.85546875" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -5521,8 +6103,11 @@
       <c r="N1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>506</v>
       </c>
@@ -5562,8 +6147,11 @@
       <c r="N2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>488</v>
       </c>
@@ -5600,8 +6188,11 @@
       <c r="N3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>507</v>
       </c>
@@ -5630,7 +6221,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -5670,8 +6261,11 @@
       <c r="N5" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>508</v>
       </c>
@@ -5715,7 +6309,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -5758,8 +6352,11 @@
       <c r="N7" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -5799,8 +6396,11 @@
       <c r="N8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -5837,8 +6437,11 @@
       <c r="N9" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -5864,7 +6467,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>510</v>
       </c>
@@ -5890,7 +6493,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>511</v>
       </c>
@@ -5922,7 +6525,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -5965,8 +6568,11 @@
       <c r="N13" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>512</v>
       </c>
@@ -5992,7 +6598,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -6032,8 +6638,11 @@
       <c r="N15" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>513</v>
       </c>
@@ -6065,7 +6674,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>514</v>
       </c>
@@ -6085,7 +6694,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -6125,8 +6734,11 @@
       <c r="N18" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -6154,8 +6766,11 @@
       <c r="N19" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -6195,8 +6810,11 @@
       <c r="N20" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -6230,8 +6848,11 @@
       <c r="N21" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>515</v>
       </c>
@@ -6269,7 +6890,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>516</v>
       </c>
@@ -6298,7 +6919,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -6335,8 +6956,11 @@
       <c r="N24" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>517</v>
       </c>
@@ -6367,8 +6991,11 @@
       <c r="N25" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -6408,8 +7035,11 @@
       <c r="N26" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>564</v>
       </c>
@@ -6443,8 +7073,11 @@
       <c r="N27" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>567</v>
       </c>
@@ -6472,8 +7105,11 @@
       <c r="N28" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -6513,8 +7149,11 @@
       <c r="N29" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -6549,7 +7188,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>505</v>
       </c>
@@ -6587,6 +7226,9 @@
         <v>502</v>
       </c>
       <c r="N31" t="s">
+        <v>502</v>
+      </c>
+      <c r="O31" t="s">
         <v>502</v>
       </c>
     </row>
@@ -6633,8 +7275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7668,18 +8310,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>585</v>
       </c>
@@ -7689,216 +8341,1279 @@
       <c r="C1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1" t="s">
+        <v>553</v>
+      </c>
+      <c r="I1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L1" t="s">
+        <v>552</v>
+      </c>
+      <c r="M1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" t="s">
+        <v>727</v>
+      </c>
+      <c r="J4" t="s">
+        <v>727</v>
+      </c>
+      <c r="K4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J5" t="s">
+        <v>800</v>
+      </c>
+      <c r="K5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E6" t="s">
+        <v>728</v>
+      </c>
+      <c r="J6" t="s">
+        <v>728</v>
+      </c>
+      <c r="K6" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>729</v>
+      </c>
+      <c r="D7" t="s">
+        <v>729</v>
+      </c>
+      <c r="E7" t="s">
+        <v>729</v>
+      </c>
+      <c r="J7" t="s">
+        <v>729</v>
+      </c>
+      <c r="K7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" t="s">
+        <v>733</v>
+      </c>
+      <c r="D11" t="s">
+        <v>733</v>
+      </c>
+      <c r="I11" t="s">
+        <v>733</v>
+      </c>
+      <c r="K11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>734</v>
+      </c>
+      <c r="F12" t="s">
+        <v>734</v>
+      </c>
+      <c r="J12" t="s">
+        <v>734</v>
+      </c>
+      <c r="K12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I13" t="s">
+        <v>807</v>
+      </c>
+      <c r="J13" t="s">
+        <v>735</v>
+      </c>
+      <c r="M13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C15" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C16" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" t="s">
+        <v>737</v>
+      </c>
+      <c r="I16" t="s">
+        <v>737</v>
+      </c>
+      <c r="J16" t="s">
+        <v>737</v>
+      </c>
+      <c r="K16" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C17" t="s">
+        <v>738</v>
+      </c>
+      <c r="D17" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>740</v>
+      </c>
+      <c r="D19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C21" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C22" t="s">
+        <v>743</v>
+      </c>
+      <c r="E22" t="s">
+        <v>743</v>
+      </c>
+      <c r="F22" t="s">
+        <v>743</v>
+      </c>
+      <c r="J22" t="s">
+        <v>743</v>
+      </c>
+      <c r="K22" t="s">
+        <v>743</v>
+      </c>
+      <c r="M22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C23" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C25" t="s">
+        <v>746</v>
+      </c>
+      <c r="D25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E25" t="s">
+        <v>746</v>
+      </c>
+      <c r="I25" t="s">
+        <v>746</v>
+      </c>
+      <c r="K25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>747</v>
+      </c>
+      <c r="I26" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C27" t="s">
+        <v>748</v>
+      </c>
+      <c r="D27" t="s">
+        <v>748</v>
+      </c>
+      <c r="J27" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C28" t="s">
+        <v>749</v>
+      </c>
+      <c r="E28" t="s">
+        <v>749</v>
+      </c>
+      <c r="J28" t="s">
+        <v>749</v>
+      </c>
+      <c r="K28" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C29" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C30" t="s">
+        <v>751</v>
+      </c>
+      <c r="D30" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>753</v>
+      </c>
+      <c r="K32" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C33" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C34" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C35" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>802</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C36" t="s">
+        <v>803</v>
+      </c>
+      <c r="E36" t="s">
+        <v>803</v>
+      </c>
+      <c r="M36" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="C37" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B38" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C38" t="s">
+        <v>757</v>
+      </c>
+      <c r="K38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B39" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C39" t="s">
+        <v>758</v>
+      </c>
+      <c r="D39" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B40" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C40" t="s">
+        <v>759</v>
+      </c>
+      <c r="J40" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B41" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C41" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B42" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C42" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B43" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" t="s">
+        <v>762</v>
+      </c>
+      <c r="D43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B44" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="C44" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>626</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C45" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C46" t="s">
+        <v>765</v>
+      </c>
+      <c r="D46" t="s">
+        <v>765</v>
+      </c>
+      <c r="K46" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C47" t="s">
+        <v>766</v>
+      </c>
+      <c r="D47" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>629</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C48" t="s">
+        <v>767</v>
+      </c>
+      <c r="G48" t="s">
+        <v>767</v>
+      </c>
+      <c r="H48" t="s">
+        <v>767</v>
+      </c>
+      <c r="J48" t="s">
+        <v>767</v>
+      </c>
+      <c r="K48" t="s">
+        <v>767</v>
+      </c>
+      <c r="L48" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>630</v>
+      </c>
+      <c r="C49" t="s">
+        <v>768</v>
+      </c>
+      <c r="G49" t="s">
+        <v>768</v>
+      </c>
+      <c r="H49" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>631</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C50" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>632</v>
+      </c>
+      <c r="C51" t="s">
+        <v>770</v>
+      </c>
+      <c r="D51" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C52" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>634</v>
+      </c>
+      <c r="C53" t="s">
+        <v>772</v>
+      </c>
+      <c r="E53" t="s">
+        <v>772</v>
+      </c>
+      <c r="G53" t="s">
+        <v>772</v>
+      </c>
+      <c r="H53" t="s">
+        <v>772</v>
+      </c>
+      <c r="I53" t="s">
+        <v>772</v>
+      </c>
+      <c r="J53" t="s">
+        <v>772</v>
+      </c>
+      <c r="K53" t="s">
+        <v>772</v>
+      </c>
+      <c r="L53" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>635</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C54" t="s">
+        <v>773</v>
+      </c>
+      <c r="D54" t="s">
+        <v>773</v>
+      </c>
+      <c r="K54" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>636</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C55" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>637</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C56" t="s">
+        <v>775</v>
+      </c>
+      <c r="J56" t="s">
+        <v>775</v>
+      </c>
+      <c r="K56" t="s">
+        <v>775</v>
+      </c>
+      <c r="M56" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>638</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C57" t="s">
+        <v>776</v>
+      </c>
+      <c r="E57" t="s">
+        <v>776</v>
+      </c>
+      <c r="G57" t="s">
+        <v>776</v>
+      </c>
+      <c r="H57" t="s">
+        <v>776</v>
+      </c>
+      <c r="I57" t="s">
+        <v>776</v>
+      </c>
+      <c r="J57" t="s">
+        <v>776</v>
+      </c>
+      <c r="K57" t="s">
+        <v>776</v>
+      </c>
+      <c r="L57" t="s">
+        <v>776</v>
+      </c>
+      <c r="M57" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>639</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C58" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>640</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C59" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>641</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C60" t="s">
+        <v>779</v>
+      </c>
+      <c r="G60" t="s">
+        <v>779</v>
+      </c>
+      <c r="H60" t="s">
+        <v>779</v>
+      </c>
+      <c r="L60" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>642</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C61" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>643</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C62" t="s">
+        <v>781</v>
+      </c>
+      <c r="I62" t="s">
+        <v>781</v>
+      </c>
+      <c r="M62" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>644</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C63" t="s">
+        <v>782</v>
+      </c>
+      <c r="K63" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>645</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C64" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>646</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C65" t="s">
+        <v>784</v>
+      </c>
+      <c r="J65" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>647</v>
+      </c>
+      <c r="C66" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>648</v>
+      </c>
+      <c r="C67" t="s">
+        <v>786</v>
+      </c>
+      <c r="J67" t="s">
+        <v>786</v>
+      </c>
+      <c r="K67" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>649</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C68" t="s">
+        <v>787</v>
+      </c>
+      <c r="E68" t="s">
+        <v>787</v>
+      </c>
+      <c r="F68" t="s">
+        <v>787</v>
+      </c>
+      <c r="I68" t="s">
+        <v>787</v>
+      </c>
+      <c r="J68" t="s">
+        <v>787</v>
+      </c>
+      <c r="K68" t="s">
+        <v>787</v>
+      </c>
+      <c r="M68" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>650</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C69" t="s">
+        <v>788</v>
+      </c>
+      <c r="G69" t="s">
+        <v>788</v>
+      </c>
+      <c r="H69" t="s">
+        <v>788</v>
+      </c>
+      <c r="I69" t="s">
+        <v>788</v>
+      </c>
+      <c r="J69" t="s">
+        <v>788</v>
+      </c>
+      <c r="L69" t="s">
+        <v>788</v>
+      </c>
+      <c r="M69" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>651</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C70" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>652</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C71" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>653</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C72" t="s">
+        <v>791</v>
+      </c>
+      <c r="D72" t="s">
+        <v>791</v>
+      </c>
+      <c r="E72" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>654</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C73" t="s">
+        <v>792</v>
+      </c>
+      <c r="D73" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>655</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C74" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C75" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>657</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C76" t="s">
+        <v>795</v>
+      </c>
+      <c r="J76" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>658</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="C77" t="s">
+        <v>796</v>
+      </c>
+      <c r="D77" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>659</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C78" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>660</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C79" t="s">
+        <v>798</v>
+      </c>
+      <c r="E79" t="s">
+        <v>798</v>
+      </c>
+      <c r="J79" t="s">
+        <v>798</v>
+      </c>
+      <c r="K79" t="s">
+        <v>798</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B38" r:id="rId29"/>
+    <hyperlink ref="B39" r:id="rId30"/>
+    <hyperlink ref="B40" r:id="rId31"/>
+    <hyperlink ref="B41" r:id="rId32"/>
+    <hyperlink ref="B42" r:id="rId33"/>
+    <hyperlink ref="B43" r:id="rId34"/>
+    <hyperlink ref="B44" r:id="rId35"/>
+    <hyperlink ref="B45" r:id="rId36"/>
+    <hyperlink ref="B46" r:id="rId37"/>
+    <hyperlink ref="B47" r:id="rId38"/>
+    <hyperlink ref="B48" r:id="rId39"/>
+    <hyperlink ref="B50" r:id="rId40"/>
+    <hyperlink ref="B52" r:id="rId41"/>
+    <hyperlink ref="B54" r:id="rId42"/>
+    <hyperlink ref="B55" r:id="rId43"/>
+    <hyperlink ref="B56" r:id="rId44"/>
+    <hyperlink ref="B57" r:id="rId45"/>
+    <hyperlink ref="B58" r:id="rId46"/>
+    <hyperlink ref="B59" r:id="rId47"/>
+    <hyperlink ref="B60" r:id="rId48"/>
+    <hyperlink ref="B61" r:id="rId49"/>
+    <hyperlink ref="B62" r:id="rId50"/>
+    <hyperlink ref="B63" r:id="rId51"/>
+    <hyperlink ref="B64" r:id="rId52"/>
+    <hyperlink ref="B65" r:id="rId53"/>
+    <hyperlink ref="B68" r:id="rId54"/>
+    <hyperlink ref="B69" r:id="rId55"/>
+    <hyperlink ref="B70" r:id="rId56"/>
+    <hyperlink ref="B71" r:id="rId57"/>
+    <hyperlink ref="B72" r:id="rId58"/>
+    <hyperlink ref="B73" r:id="rId59"/>
+    <hyperlink ref="B74" r:id="rId60"/>
+    <hyperlink ref="B75" r:id="rId61"/>
+    <hyperlink ref="B76" r:id="rId62"/>
+    <hyperlink ref="B77" r:id="rId63"/>
+    <hyperlink ref="B78" r:id="rId64"/>
+    <hyperlink ref="B79" r:id="rId65"/>
+    <hyperlink ref="B5" r:id="rId66"/>
+    <hyperlink ref="B36" r:id="rId67"/>
+    <hyperlink ref="B37" r:id="rId68"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId69"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="5"/>
+    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="820">
   <si>
     <t>doc</t>
   </si>
@@ -850,9 +850,6 @@
     <t>https://www.iconfinder.com/iconsets/logo-brand</t>
   </si>
   <si>
-    <t>circle colored shaded</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/social-media-circle-6</t>
   </si>
   <si>
@@ -877,75 +874,42 @@
     <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-5-3</t>
   </si>
   <si>
-    <t xml:space="preserve">colored slim </t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/files-94</t>
   </si>
   <si>
     <t>https://www.iconfinder.com/iconsets/file-names-vol-7-1</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>simple with symbols</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/file-set-volume-1</t>
   </si>
   <si>
-    <t>christmas theme (non svg)</t>
-  </si>
-  <si>
     <t>payment icons</t>
   </si>
   <si>
     <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-3-2</t>
   </si>
   <si>
-    <t xml:space="preserve">simple black </t>
-  </si>
-  <si>
-    <t>white and gray</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/online-payment-methods-02</t>
   </si>
   <si>
-    <t>black and white</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/payment-methods-11</t>
   </si>
   <si>
-    <t>circle</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/circle-payment</t>
   </si>
   <si>
     <t>CC BY 2.5</t>
   </si>
   <si>
-    <t>originals</t>
-  </si>
-  <si>
     <t>https://icon-icons.com/de/pack/Payment-Methods/1487</t>
   </si>
   <si>
     <t>https://icon-icons.com/de/pack/Social-icons/836</t>
   </si>
   <si>
-    <t>cartoon</t>
-  </si>
-  <si>
     <t>https://icon-icons.com/de/pack/Social-Icons/800</t>
   </si>
   <si>
-    <t>line filled</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/logos-and-brands-adobe</t>
   </si>
   <si>
@@ -1003,9 +967,6 @@
     <t>https://www.iconfinder.com/iconsets/colorful-guache-social-media-logos-1</t>
   </si>
   <si>
-    <t>colorful gouache</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/social-media-square-4</t>
   </si>
   <si>
@@ -1015,24 +976,12 @@
     <t>https://www.iconfinder.com/iconsets/social-media-circle-long-shadow</t>
   </si>
   <si>
-    <t>colored crossing</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/file-extension-22</t>
   </si>
   <si>
-    <t>colored filled</t>
-  </si>
-  <si>
-    <t>colored</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-5-1</t>
   </si>
   <si>
-    <t>rectangle</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/simple-peyment-methods</t>
   </si>
   <si>
@@ -1264,18 +1213,12 @@
     <t>paypal.svg, paypal2.svg</t>
   </si>
   <si>
-    <t>square filled</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/payment-methods-19</t>
   </si>
   <si>
     <t>Iconset (Square filled)</t>
   </si>
   <si>
-    <t>circle filled</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/circle-payment-methods-4</t>
   </si>
   <si>
@@ -1684,9 +1627,6 @@
     <t>instagramblack.svg,instagramwhite.svg</t>
   </si>
   <si>
-    <t>rectangle flat</t>
-  </si>
-  <si>
     <t>Iconset (Rectangle flat)</t>
   </si>
   <si>
@@ -2462,6 +2402,93 @@
   </si>
   <si>
     <t>Iconset (Linear color)</t>
+  </si>
+  <si>
+    <t>Circle colored shaded</t>
+  </si>
+  <si>
+    <t>Christmas theme (non svg)</t>
+  </si>
+  <si>
+    <t>Colored filled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colored slim </t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Simple with symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple black </t>
+  </si>
+  <si>
+    <t>White and gray</t>
+  </si>
+  <si>
+    <t>Black and White</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Originals</t>
+  </si>
+  <si>
+    <t>Cartoon</t>
+  </si>
+  <si>
+    <t>Line filled</t>
+  </si>
+  <si>
+    <t>Colorful gouache</t>
+  </si>
+  <si>
+    <t>Rectangle flat</t>
+  </si>
+  <si>
+    <t>Colored crossing</t>
+  </si>
+  <si>
+    <t>Colored</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Square filled</t>
+  </si>
+  <si>
+    <t>Circle filled</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/social-media-black-white-1</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>www.svg</t>
+  </si>
+  <si>
+    <t>Black and white circle</t>
+  </si>
+  <si>
+    <t>Iconset (Black and White circle)</t>
+  </si>
+  <si>
+    <t>Black and white square</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/iconsets/liu-square-blac</t>
+  </si>
+  <si>
+    <t>Iconset (Black and white square)</t>
+  </si>
+  <si>
+    <t>Iconset (Black and white circle)</t>
   </si>
 </sst>
 </file>
@@ -2718,8 +2745,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D30" totalsRowShown="0">
+  <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Type"/>
     <tableColumn id="2" name="Name"/>
@@ -2755,12 +2782,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:O31" totalsRowShown="0">
-  <autoFilter ref="A1:O31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
+  <autoFilter ref="A1:Q31"/>
   <sortState ref="A2:M31">
     <sortCondition ref="A1:A31"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="17">
     <tableColumn id="1" name="Network / Brand"/>
     <tableColumn id="2" name="Link to portal"/>
     <tableColumn id="3" name="_default"/>
@@ -2776,6 +2803,8 @@
     <tableColumn id="13" name="Iconset (All-Bright)"/>
     <tableColumn id="14" name="Iconset (All-Line filled)"/>
     <tableColumn id="16" name="Iconset (Linear color)"/>
+    <tableColumn id="17" name="Iconset (Black and white circle)"/>
+    <tableColumn id="18" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2818,12 +2847,12 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:M79" totalsRowShown="0">
-  <autoFilter ref="A1:M79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
+  <autoFilter ref="A1:O80"/>
   <sortState ref="A2:E79">
     <sortCondition ref="A1:A79"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="15">
     <tableColumn id="1" name="Brand"/>
     <tableColumn id="2" name="Website"/>
     <tableColumn id="3" name="Iconset (All-Line filled)"/>
@@ -2837,6 +2866,8 @@
     <tableColumn id="11" name="Iconset (Originals)"/>
     <tableColumn id="12" name="Iconset (Rectangle flat)"/>
     <tableColumn id="13" name="Iconset (Linear color)"/>
+    <tableColumn id="14" name="Iconset (Black and White circle)"/>
+    <tableColumn id="15" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3105,10 +3136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3149,7 +3180,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>272</v>
@@ -3163,10 +3194,10 @@
         <v>268</v>
       </c>
       <c r="B4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D4" t="s">
         <v>271</v>
@@ -3177,10 +3208,10 @@
         <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>792</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
         <v>271</v>
@@ -3191,13 +3222,13 @@
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3205,13 +3236,13 @@
         <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3219,10 +3250,10 @@
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>793</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
         <v>271</v>
@@ -3233,13 +3264,13 @@
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>794</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3247,13 +3278,13 @@
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>795</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3261,10 +3292,10 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>796</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
         <v>271</v>
@@ -3275,24 +3306,24 @@
         <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>797</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>798</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
         <v>271</v>
@@ -3300,13 +3331,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>799</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D14" t="s">
         <v>271</v>
@@ -3314,30 +3345,30 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" t="s">
         <v>289</v>
-      </c>
-      <c r="B15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>801</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,13 +3376,13 @@
         <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>801</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,24 +3390,24 @@
         <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>802</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>803</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
         <v>271</v>
@@ -3387,10 +3418,10 @@
         <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>804</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D20" t="s">
         <v>271</v>
@@ -3401,10 +3432,10 @@
         <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>551</v>
+        <v>805</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D21" t="s">
         <v>271</v>
@@ -3415,10 +3446,10 @@
         <v>268</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D22" t="s">
         <v>271</v>
@@ -3429,10 +3460,10 @@
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>806</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
         <v>271</v>
@@ -3443,38 +3474,38 @@
         <v>210</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>807</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" t="s">
+        <v>808</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" t="s">
         <v>289</v>
-      </c>
-      <c r="B25" t="s">
-        <v>333</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
-        <v>411</v>
+        <v>809</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D26" t="s">
         <v>271</v>
@@ -3482,13 +3513,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s">
-        <v>414</v>
+        <v>810</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D27" t="s">
         <v>271</v>
@@ -3499,13 +3530,41 @@
         <v>268</v>
       </c>
       <c r="B28" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="D28" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B29" t="s">
+        <v>814</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" t="s">
+        <v>816</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D30" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3537,11 +3596,13 @@
     <hyperlink ref="C26" r:id="rId25"/>
     <hyperlink ref="C27" r:id="rId26"/>
     <hyperlink ref="C28" r:id="rId27"/>
+    <hyperlink ref="C29" r:id="rId28"/>
+    <hyperlink ref="C30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3587,25 +3648,25 @@
         <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3625,23 +3686,23 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3714,7 +3775,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -3727,29 +3788,29 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3769,23 +3830,23 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3853,23 +3914,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3889,23 +3950,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3925,23 +3986,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3961,23 +4022,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3997,23 +4058,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -4033,23 +4094,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -4069,21 +4130,21 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4127,23 +4188,23 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4163,23 +4224,23 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4199,19 +4260,19 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4231,19 +4292,19 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4359,23 +4420,23 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4395,23 +4456,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4431,21 +4492,21 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4468,7 +4529,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4520,7 +4581,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -4570,7 +4631,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -4583,7 +4644,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -4642,7 +4703,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -4751,29 +4812,29 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -4793,23 +4854,23 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4821,29 +4882,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4879,25 +4940,25 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4941,25 +5002,25 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -4979,25 +5040,25 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -5017,25 +5078,25 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5055,23 +5116,23 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5091,23 +5152,23 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -5127,23 +5188,23 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5163,23 +5224,23 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5199,23 +5260,23 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5235,23 +5296,23 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5271,23 +5332,23 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -5307,23 +5368,23 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5343,23 +5404,23 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5379,23 +5440,23 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5415,23 +5476,23 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5451,23 +5512,23 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -5487,19 +5548,19 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5591,23 +5652,23 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5651,23 +5712,23 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5679,7 +5740,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -5701,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -5756,13 +5817,13 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -5810,7 +5871,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -5833,23 +5894,23 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5869,23 +5930,23 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5905,23 +5966,23 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -5941,23 +6002,23 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -5980,11 +6041,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -6005,23 +6066,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6035,10 +6096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6058,9 +6119,11 @@
     <col min="13" max="13" width="34.85546875" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -6068,160 +6131,184 @@
         <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" t="s">
+        <v>528</v>
+      </c>
+      <c r="J1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K1" t="s">
+        <v>532</v>
+      </c>
+      <c r="L1" t="s">
+        <v>533</v>
+      </c>
+      <c r="M1" t="s">
+        <v>540</v>
+      </c>
+      <c r="N1" t="s">
+        <v>560</v>
+      </c>
+      <c r="O1" t="s">
+        <v>790</v>
+      </c>
+      <c r="P1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>487</v>
       </c>
-      <c r="E1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" t="s">
-        <v>406</v>
-      </c>
-      <c r="I1" t="s">
-        <v>547</v>
-      </c>
-      <c r="J1" t="s">
-        <v>549</v>
-      </c>
-      <c r="K1" t="s">
-        <v>552</v>
-      </c>
-      <c r="L1" t="s">
-        <v>553</v>
-      </c>
-      <c r="M1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N1" t="s">
-        <v>580</v>
-      </c>
-      <c r="O1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>506</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="H2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="I2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="J2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="K2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="L2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="M2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="N2" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="O2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="P2" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I3" t="s">
+        <v>484</v>
+      </c>
+      <c r="J3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L3" t="s">
+        <v>484</v>
+      </c>
+      <c r="N3" t="s">
+        <v>484</v>
+      </c>
+      <c r="O3" t="s">
+        <v>484</v>
+      </c>
+      <c r="P3" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>488</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" t="s">
         <v>488</v>
       </c>
-      <c r="D3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" t="s">
-        <v>503</v>
-      </c>
-      <c r="F3" t="s">
-        <v>503</v>
-      </c>
-      <c r="H3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I3" t="s">
-        <v>503</v>
-      </c>
-      <c r="J3" t="s">
-        <v>503</v>
-      </c>
-      <c r="K3" t="s">
-        <v>503</v>
-      </c>
-      <c r="L3" t="s">
-        <v>503</v>
-      </c>
-      <c r="N3" t="s">
-        <v>503</v>
-      </c>
-      <c r="O3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>507</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C4" t="s">
-        <v>507</v>
-      </c>
       <c r="D4" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F4" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="K4" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="L4" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="N4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="P4" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6229,87 +6316,99 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="H5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="I5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="J5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="K5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="L5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="M5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="N5" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="O5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="P5" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C6" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="G6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="H6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="I6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="J6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="K6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="L6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="M6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="N6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="P6" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -6317,46 +6416,52 @@
         <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="E7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="G7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="H7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="I7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="J7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="K7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="L7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="M7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="N7" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="O7" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="P7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -6364,84 +6469,93 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="F8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="G8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="H8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="I8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="J8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="K8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="L8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="M8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="N8" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="O8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="P8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C9" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="E9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="H9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="I9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="J9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="K9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="L9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="N9" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="O9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="P9" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -6449,83 +6563,98 @@
         <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="H10" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="I10" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="J10" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="N10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" t="s">
+        <v>554</v>
+      </c>
+      <c r="E11" t="s">
         <v>510</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C11" t="s">
-        <v>574</v>
-      </c>
-      <c r="E11" t="s">
-        <v>529</v>
-      </c>
       <c r="H11" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="K11" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="L11" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="N11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="P11" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>553</v>
+      </c>
+      <c r="E12" t="s">
         <v>511</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="C12" t="s">
-        <v>573</v>
-      </c>
-      <c r="E12" t="s">
-        <v>530</v>
-      </c>
       <c r="H12" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="I12" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="J12" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="K12" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="L12" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="N12" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="P12" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -6533,72 +6662,84 @@
         <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="E13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="G13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="H13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="I13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="J13" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="K13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="L13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="M13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="N13" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="O13" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="P13" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="E14" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="F14" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="K14" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="L14" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="N14" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="P14" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -6606,95 +6747,110 @@
         <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="E15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="H15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="I15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="J15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="K15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="L15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="M15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="N15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="O15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="P15" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="C16" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="D16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="F16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="I16" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="J16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="K16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="L16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="P16" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="E17" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="K17" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="L17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="P17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -6702,43 +6858,49 @@
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="E18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="F18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="H18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="I18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="J18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="K18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="L18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="M18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="N18" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="O18" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="P18" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -6746,31 +6908,34 @@
         <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F19" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="H19" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="I19" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="M19" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="N19" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="O19" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -6778,43 +6943,49 @@
         <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="F20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="H20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="I20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="J20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="K20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="L20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="N20" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="O20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="P20" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -6822,104 +6993,119 @@
         <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" t="s">
+        <v>478</v>
+      </c>
+      <c r="H21" t="s">
+        <v>478</v>
+      </c>
+      <c r="I21" t="s">
+        <v>478</v>
+      </c>
+      <c r="J21" t="s">
+        <v>478</v>
+      </c>
+      <c r="K21" t="s">
+        <v>478</v>
+      </c>
+      <c r="N21" t="s">
+        <v>478</v>
+      </c>
+      <c r="O21" t="s">
+        <v>478</v>
+      </c>
+      <c r="P21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" t="s">
+        <v>506</v>
+      </c>
+      <c r="H22" t="s">
+        <v>506</v>
+      </c>
+      <c r="I22" t="s">
+        <v>506</v>
+      </c>
+      <c r="J22" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" t="s">
+        <v>506</v>
+      </c>
+      <c r="L22" t="s">
+        <v>506</v>
+      </c>
+      <c r="M22" t="s">
+        <v>506</v>
+      </c>
+      <c r="N22" t="s">
+        <v>506</v>
+      </c>
+      <c r="P22" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>497</v>
       </c>
-      <c r="E21" t="s">
-        <v>497</v>
-      </c>
-      <c r="F21" t="s">
-        <v>497</v>
-      </c>
-      <c r="H21" t="s">
-        <v>497</v>
-      </c>
-      <c r="I21" t="s">
-        <v>497</v>
-      </c>
-      <c r="J21" t="s">
-        <v>497</v>
-      </c>
-      <c r="K21" t="s">
-        <v>497</v>
-      </c>
-      <c r="N21" t="s">
-        <v>497</v>
-      </c>
-      <c r="O21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>515</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C22" t="s">
-        <v>570</v>
-      </c>
-      <c r="E22" t="s">
-        <v>525</v>
-      </c>
-      <c r="F22" t="s">
-        <v>525</v>
-      </c>
-      <c r="H22" t="s">
-        <v>525</v>
-      </c>
-      <c r="I22" t="s">
-        <v>525</v>
-      </c>
-      <c r="J22" t="s">
-        <v>525</v>
-      </c>
-      <c r="K22" t="s">
-        <v>525</v>
-      </c>
-      <c r="L22" t="s">
-        <v>525</v>
-      </c>
-      <c r="M22" t="s">
-        <v>525</v>
-      </c>
-      <c r="N22" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>516</v>
-      </c>
       <c r="B23" s="3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C23" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="E23" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="J23" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="K23" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="L23" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="N23" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="P23" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -6927,75 +7113,84 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="E24" t="s">
+        <v>479</v>
+      </c>
+      <c r="F24" t="s">
+        <v>479</v>
+      </c>
+      <c r="H24" t="s">
+        <v>479</v>
+      </c>
+      <c r="I24" t="s">
+        <v>479</v>
+      </c>
+      <c r="J24" t="s">
+        <v>479</v>
+      </c>
+      <c r="K24" t="s">
+        <v>479</v>
+      </c>
+      <c r="L24" t="s">
+        <v>479</v>
+      </c>
+      <c r="M24" t="s">
+        <v>479</v>
+      </c>
+      <c r="N24" t="s">
+        <v>479</v>
+      </c>
+      <c r="O24" t="s">
+        <v>479</v>
+      </c>
+      <c r="P24" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>498</v>
       </c>
-      <c r="F24" t="s">
-        <v>498</v>
-      </c>
-      <c r="H24" t="s">
-        <v>498</v>
-      </c>
-      <c r="I24" t="s">
-        <v>498</v>
-      </c>
-      <c r="J24" t="s">
-        <v>498</v>
-      </c>
-      <c r="K24" t="s">
-        <v>498</v>
-      </c>
-      <c r="L24" t="s">
-        <v>498</v>
-      </c>
-      <c r="M24" t="s">
-        <v>498</v>
-      </c>
-      <c r="N24" t="s">
-        <v>498</v>
-      </c>
-      <c r="O24" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>517</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C25" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="J25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="K25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="L25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="M25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="N25" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="O25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="P25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -7003,113 +7198,128 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="H26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="I26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="K26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="L26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="M26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="N26" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="O26" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="P26" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="C27" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="H27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="I27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="J27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="K27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="L27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="M27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="N27" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="O27" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="P27" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="C28" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="E28" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="F28" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="K28" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="L28" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="M28" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="N28" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="O28" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="P28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -7117,43 +7327,49 @@
         <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="F29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="H29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="I29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="J29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="K29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="L29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="M29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="N29" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O29" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="P29" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -7161,75 +7377,87 @@
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="E30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="F30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="H30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="I30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="J30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="K30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="L30" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="N30" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="P30" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="E31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="G31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="H31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="I31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="J31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="K31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="L31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="M31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="N31" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="O31" t="s">
-        <v>502</v>
+        <v>483</v>
+      </c>
+      <c r="P31" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -7275,7 +7503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -7305,54 +7533,54 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="E1" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="G1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="H1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="I1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="J1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="K1" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="H2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="I2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="J2" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7363,22 +7591,22 @@
         <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="F3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="H3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="I3" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7389,28 +7617,28 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="I4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="J4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="K4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7421,27 +7649,27 @@
         <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E5" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="I5" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="K5" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="H6" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -7455,180 +7683,180 @@
         <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="F7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="G7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="H7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="I7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="J7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="K7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="G8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="H8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="I8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="J8" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="E9" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="H9" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="I9" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="H10" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="I10" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="J10" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="E11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="F11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="G11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="H11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="I11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="J11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="K11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="H12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="I12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="J12" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="F13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="H13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="I13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="J13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="K13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="H14" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="J14" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="K14" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7644,86 +7872,86 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="E16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="G16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="H16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="I16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="J16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="K16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F17" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="G17" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="I17" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="H18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="I18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="J18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="K18" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7734,13 +7962,13 @@
         <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D19" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="G19" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7748,31 +7976,31 @@
         <v>238</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="F20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="G20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="I20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="J20" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -7783,31 +8011,31 @@
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="D21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="G21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="H21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="I21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="J21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -7818,54 +8046,54 @@
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="E22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="G22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="H22" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="I22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="J22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="K22" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D23" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="E23" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="G23" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="I23" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -7879,47 +8107,47 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="E24" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="G24" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="I24" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="D25" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="E25" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="I25" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="E26" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="I26" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7935,59 +8163,59 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="E28" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="G28" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="I28" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="E29" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="F29" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="G29" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="H29" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="I29" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="J29" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="E30" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="I30" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -8003,36 +8231,36 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="H32" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="I32" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="J32" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F33" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G33" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H33" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -8043,94 +8271,94 @@
         <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="G34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="H34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="I34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="J34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="K34" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="I35" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="J35" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="E36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="F36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="G36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="I36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="J36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="E37" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="G37" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="H37" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="I37" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -8193,7 +8421,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s">
         <v>219</v>
@@ -8202,95 +8430,95 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="D2" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="D5" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="D8" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -8310,10 +8538,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8329,1215 +8557,1306 @@
     <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" customWidth="1"/>
     <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s">
         <v>219</v>
       </c>
       <c r="C1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J1" t="s">
+        <v>513</v>
+      </c>
+      <c r="K1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" t="s">
+        <v>532</v>
+      </c>
+      <c r="M1" t="s">
+        <v>790</v>
+      </c>
+      <c r="N1" t="s">
+        <v>815</v>
+      </c>
+      <c r="O1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" t="s">
+        <v>707</v>
+      </c>
+      <c r="J4" t="s">
+        <v>707</v>
+      </c>
+      <c r="K4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" t="s">
+        <v>780</v>
+      </c>
+      <c r="J5" t="s">
+        <v>780</v>
+      </c>
+      <c r="K5" t="s">
+        <v>780</v>
+      </c>
+      <c r="O5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C6" t="s">
+        <v>708</v>
+      </c>
+      <c r="D6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E6" t="s">
+        <v>708</v>
+      </c>
+      <c r="J6" t="s">
+        <v>708</v>
+      </c>
+      <c r="K6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D7" t="s">
+        <v>709</v>
+      </c>
+      <c r="E7" t="s">
+        <v>709</v>
+      </c>
+      <c r="J7" t="s">
+        <v>709</v>
+      </c>
+      <c r="K7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" t="s">
+        <v>710</v>
+      </c>
+      <c r="O8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C10" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C11" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" t="s">
+        <v>713</v>
+      </c>
+      <c r="I11" t="s">
+        <v>713</v>
+      </c>
+      <c r="K11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" t="s">
+        <v>714</v>
+      </c>
+      <c r="F12" t="s">
+        <v>714</v>
+      </c>
+      <c r="J12" t="s">
+        <v>714</v>
+      </c>
+      <c r="K12" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" t="s">
+        <v>715</v>
+      </c>
+      <c r="I13" t="s">
+        <v>787</v>
+      </c>
+      <c r="J13" t="s">
+        <v>715</v>
+      </c>
+      <c r="M13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C16" t="s">
+        <v>717</v>
+      </c>
+      <c r="E16" t="s">
+        <v>717</v>
+      </c>
+      <c r="I16" t="s">
+        <v>717</v>
+      </c>
+      <c r="J16" t="s">
+        <v>717</v>
+      </c>
+      <c r="K16" t="s">
+        <v>717</v>
+      </c>
+      <c r="O16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>580</v>
       </c>
-      <c r="D1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H1" t="s">
-        <v>553</v>
-      </c>
-      <c r="I1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" t="s">
-        <v>552</v>
-      </c>
-      <c r="M1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>587</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C4" t="s">
-        <v>727</v>
-      </c>
-      <c r="D4" t="s">
-        <v>727</v>
-      </c>
-      <c r="J4" t="s">
-        <v>727</v>
-      </c>
-      <c r="K4" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C5" t="s">
-        <v>800</v>
-      </c>
-      <c r="D5" t="s">
-        <v>800</v>
-      </c>
-      <c r="E5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>800</v>
-      </c>
-      <c r="K5" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>589</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="C6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" t="s">
-        <v>728</v>
-      </c>
-      <c r="E6" t="s">
-        <v>728</v>
-      </c>
-      <c r="J6" t="s">
-        <v>728</v>
-      </c>
-      <c r="K6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C7" t="s">
-        <v>729</v>
-      </c>
-      <c r="D7" t="s">
-        <v>729</v>
-      </c>
-      <c r="E7" t="s">
-        <v>729</v>
-      </c>
-      <c r="J7" t="s">
-        <v>729</v>
-      </c>
-      <c r="K7" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>591</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="C8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>592</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C9" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>593</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="C10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>594</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="C11" t="s">
-        <v>733</v>
-      </c>
-      <c r="D11" t="s">
-        <v>733</v>
-      </c>
-      <c r="I11" t="s">
-        <v>733</v>
-      </c>
-      <c r="K11" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C12" t="s">
-        <v>734</v>
-      </c>
-      <c r="F12" t="s">
-        <v>734</v>
-      </c>
-      <c r="J12" t="s">
-        <v>734</v>
-      </c>
-      <c r="K12" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>596</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C13" t="s">
-        <v>735</v>
-      </c>
-      <c r="I13" t="s">
-        <v>807</v>
-      </c>
-      <c r="J13" t="s">
-        <v>735</v>
-      </c>
-      <c r="M13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>597</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>598</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="C15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>599</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="C16" t="s">
-        <v>737</v>
-      </c>
-      <c r="E16" t="s">
-        <v>737</v>
-      </c>
-      <c r="I16" t="s">
-        <v>737</v>
-      </c>
-      <c r="J16" t="s">
-        <v>737</v>
-      </c>
-      <c r="K16" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>600</v>
-      </c>
       <c r="B17" s="3" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="C17" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="D17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" t="s">
+        <v>720</v>
+      </c>
+      <c r="D19" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C20" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C21" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>585</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C22" t="s">
+        <v>723</v>
+      </c>
+      <c r="E22" t="s">
+        <v>723</v>
+      </c>
+      <c r="F22" t="s">
+        <v>723</v>
+      </c>
+      <c r="J22" t="s">
+        <v>723</v>
+      </c>
+      <c r="K22" t="s">
+        <v>723</v>
+      </c>
+      <c r="M22" t="s">
+        <v>723</v>
+      </c>
+      <c r="O22" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>586</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C23" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C24" t="s">
+        <v>725</v>
+      </c>
+      <c r="O24" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>588</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C25" t="s">
+        <v>726</v>
+      </c>
+      <c r="D25" t="s">
+        <v>726</v>
+      </c>
+      <c r="E25" t="s">
+        <v>726</v>
+      </c>
+      <c r="I25" t="s">
+        <v>726</v>
+      </c>
+      <c r="K25" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>727</v>
+      </c>
+      <c r="I26" t="s">
+        <v>727</v>
+      </c>
+      <c r="O26" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" t="s">
+        <v>728</v>
+      </c>
+      <c r="D27" t="s">
+        <v>728</v>
+      </c>
+      <c r="J27" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>591</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E28" t="s">
+        <v>729</v>
+      </c>
+      <c r="J28" t="s">
+        <v>729</v>
+      </c>
+      <c r="K28" t="s">
+        <v>729</v>
+      </c>
+      <c r="O28" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>593</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C30" t="s">
+        <v>731</v>
+      </c>
+      <c r="D30" t="s">
+        <v>731</v>
+      </c>
+      <c r="O30" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>594</v>
+      </c>
+      <c r="C31" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>595</v>
+      </c>
+      <c r="C32" t="s">
+        <v>733</v>
+      </c>
+      <c r="K32" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>596</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C33" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>597</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="C34" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C35" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>782</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C36" t="s">
+        <v>783</v>
+      </c>
+      <c r="E36" t="s">
+        <v>783</v>
+      </c>
+      <c r="M36" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>781</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C37" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>599</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C38" t="s">
+        <v>737</v>
+      </c>
+      <c r="K38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>600</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C39" t="s">
+        <v>738</v>
+      </c>
+      <c r="D39" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>601</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C40" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="J40" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>602</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B41" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C41" t="s">
         <v>740</v>
       </c>
-      <c r="D19" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>603</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C42" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C43" t="s">
+        <v>742</v>
+      </c>
+      <c r="D43" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>605</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C44" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>606</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C45" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>607</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C20" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>604</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C46" t="s">
+        <v>745</v>
+      </c>
+      <c r="D46" t="s">
+        <v>745</v>
+      </c>
+      <c r="K46" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>608</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C21" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>605</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C47" t="s">
+        <v>746</v>
+      </c>
+      <c r="D47" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>609</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C22" t="s">
-        <v>743</v>
-      </c>
-      <c r="E22" t="s">
-        <v>743</v>
-      </c>
-      <c r="F22" t="s">
-        <v>743</v>
-      </c>
-      <c r="J22" t="s">
-        <v>743</v>
-      </c>
-      <c r="K22" t="s">
-        <v>743</v>
-      </c>
-      <c r="M22" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>606</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C48" t="s">
+        <v>747</v>
+      </c>
+      <c r="G48" t="s">
+        <v>747</v>
+      </c>
+      <c r="H48" t="s">
+        <v>747</v>
+      </c>
+      <c r="J48" t="s">
+        <v>747</v>
+      </c>
+      <c r="K48" t="s">
+        <v>747</v>
+      </c>
+      <c r="L48" t="s">
+        <v>747</v>
+      </c>
+      <c r="N48" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>610</v>
+      </c>
+      <c r="C49" t="s">
+        <v>748</v>
+      </c>
+      <c r="G49" t="s">
+        <v>748</v>
+      </c>
+      <c r="H49" t="s">
+        <v>748</v>
+      </c>
+      <c r="N49" t="s">
+        <v>748</v>
+      </c>
+      <c r="O49" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>611</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C23" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>607</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C50" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>612</v>
+      </c>
+      <c r="C51" t="s">
+        <v>750</v>
+      </c>
+      <c r="D51" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>613</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C24" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>608</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>614</v>
+      </c>
+      <c r="C53" t="s">
+        <v>752</v>
+      </c>
+      <c r="E53" t="s">
+        <v>752</v>
+      </c>
+      <c r="G53" t="s">
+        <v>752</v>
+      </c>
+      <c r="H53" t="s">
+        <v>752</v>
+      </c>
+      <c r="I53" t="s">
+        <v>752</v>
+      </c>
+      <c r="J53" t="s">
+        <v>752</v>
+      </c>
+      <c r="K53" t="s">
+        <v>752</v>
+      </c>
+      <c r="L53" t="s">
+        <v>752</v>
+      </c>
+      <c r="N53" t="s">
+        <v>752</v>
+      </c>
+      <c r="O53" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>615</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C54" t="s">
+        <v>753</v>
+      </c>
+      <c r="D54" t="s">
+        <v>753</v>
+      </c>
+      <c r="K54" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>616</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C55" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>617</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C56" t="s">
+        <v>755</v>
+      </c>
+      <c r="J56" t="s">
+        <v>755</v>
+      </c>
+      <c r="K56" t="s">
+        <v>755</v>
+      </c>
+      <c r="M56" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>618</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="C25" t="s">
-        <v>746</v>
-      </c>
-      <c r="D25" t="s">
-        <v>746</v>
-      </c>
-      <c r="E25" t="s">
-        <v>746</v>
-      </c>
-      <c r="I25" t="s">
-        <v>746</v>
-      </c>
-      <c r="K25" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>609</v>
-      </c>
-      <c r="C26" t="s">
-        <v>747</v>
-      </c>
-      <c r="I26" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>610</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C27" t="s">
-        <v>748</v>
-      </c>
-      <c r="D27" t="s">
-        <v>748</v>
-      </c>
-      <c r="J27" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>611</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C28" t="s">
-        <v>749</v>
-      </c>
-      <c r="E28" t="s">
-        <v>749</v>
-      </c>
-      <c r="J28" t="s">
-        <v>749</v>
-      </c>
-      <c r="K28" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>612</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="C29" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>613</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C57" t="s">
+        <v>756</v>
+      </c>
+      <c r="E57" t="s">
+        <v>756</v>
+      </c>
+      <c r="G57" t="s">
+        <v>756</v>
+      </c>
+      <c r="H57" t="s">
+        <v>756</v>
+      </c>
+      <c r="I57" t="s">
+        <v>756</v>
+      </c>
+      <c r="J57" t="s">
+        <v>756</v>
+      </c>
+      <c r="K57" t="s">
+        <v>756</v>
+      </c>
+      <c r="L57" t="s">
+        <v>756</v>
+      </c>
+      <c r="M57" t="s">
+        <v>756</v>
+      </c>
+      <c r="N57" t="s">
+        <v>756</v>
+      </c>
+      <c r="O57" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C30" t="s">
-        <v>751</v>
-      </c>
-      <c r="D30" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>614</v>
-      </c>
-      <c r="C31" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>615</v>
-      </c>
-      <c r="C32" t="s">
-        <v>753</v>
-      </c>
-      <c r="K32" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>616</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="C33" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>617</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C58" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>620</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C34" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>618</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C59" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>621</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C35" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>802</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="C36" t="s">
-        <v>803</v>
-      </c>
-      <c r="E36" t="s">
-        <v>803</v>
-      </c>
-      <c r="M36" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>801</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="C37" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C60" t="s">
+        <v>759</v>
+      </c>
+      <c r="G60" t="s">
+        <v>759</v>
+      </c>
+      <c r="H60" t="s">
+        <v>759</v>
+      </c>
+      <c r="L60" t="s">
+        <v>759</v>
+      </c>
+      <c r="N60" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>622</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C38" t="s">
-        <v>757</v>
-      </c>
-      <c r="K38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>620</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="C61" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>623</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C39" t="s">
-        <v>758</v>
-      </c>
-      <c r="D39" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>621</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="C62" t="s">
+        <v>761</v>
+      </c>
+      <c r="I62" t="s">
+        <v>761</v>
+      </c>
+      <c r="M62" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>624</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C40" t="s">
-        <v>759</v>
-      </c>
-      <c r="J40" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>622</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="C63" t="s">
+        <v>762</v>
+      </c>
+      <c r="K63" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>625</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C41" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>623</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="C64" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>626</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C42" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>624</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C65" t="s">
+        <v>764</v>
+      </c>
+      <c r="J65" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>627</v>
+      </c>
+      <c r="C66" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>628</v>
+      </c>
+      <c r="C67" t="s">
+        <v>766</v>
+      </c>
+      <c r="J67" t="s">
+        <v>766</v>
+      </c>
+      <c r="K67" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>629</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C43" t="s">
-        <v>762</v>
-      </c>
-      <c r="D43" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>625</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="C68" t="s">
+        <v>767</v>
+      </c>
+      <c r="E68" t="s">
+        <v>767</v>
+      </c>
+      <c r="F68" t="s">
+        <v>767</v>
+      </c>
+      <c r="I68" t="s">
+        <v>767</v>
+      </c>
+      <c r="J68" t="s">
+        <v>767</v>
+      </c>
+      <c r="K68" t="s">
+        <v>767</v>
+      </c>
+      <c r="M68" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>630</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C44" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>626</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="C69" t="s">
+        <v>768</v>
+      </c>
+      <c r="G69" t="s">
+        <v>768</v>
+      </c>
+      <c r="H69" t="s">
+        <v>768</v>
+      </c>
+      <c r="I69" t="s">
+        <v>768</v>
+      </c>
+      <c r="J69" t="s">
+        <v>768</v>
+      </c>
+      <c r="L69" t="s">
+        <v>768</v>
+      </c>
+      <c r="M69" t="s">
+        <v>768</v>
+      </c>
+      <c r="N69" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>631</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C45" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>627</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="C70" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>632</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C46" t="s">
-        <v>765</v>
-      </c>
-      <c r="D46" t="s">
-        <v>765</v>
-      </c>
-      <c r="K46" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>628</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C71" t="s">
+        <v>770</v>
+      </c>
+      <c r="O71" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C47" t="s">
-        <v>766</v>
-      </c>
-      <c r="D47" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>629</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C72" t="s">
+        <v>771</v>
+      </c>
+      <c r="D72" t="s">
+        <v>771</v>
+      </c>
+      <c r="E72" t="s">
+        <v>771</v>
+      </c>
+      <c r="O72" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>634</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C48" t="s">
-        <v>767</v>
-      </c>
-      <c r="G48" t="s">
-        <v>767</v>
-      </c>
-      <c r="H48" t="s">
-        <v>767</v>
-      </c>
-      <c r="J48" t="s">
-        <v>767</v>
-      </c>
-      <c r="K48" t="s">
-        <v>767</v>
-      </c>
-      <c r="L48" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>630</v>
-      </c>
-      <c r="C49" t="s">
-        <v>768</v>
-      </c>
-      <c r="G49" t="s">
-        <v>768</v>
-      </c>
-      <c r="H49" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>631</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="C73" t="s">
+        <v>772</v>
+      </c>
+      <c r="D73" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>635</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C50" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>632</v>
-      </c>
-      <c r="C51" t="s">
-        <v>770</v>
-      </c>
-      <c r="D51" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>633</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="C74" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>636</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C52" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>634</v>
-      </c>
-      <c r="C53" t="s">
-        <v>772</v>
-      </c>
-      <c r="E53" t="s">
-        <v>772</v>
-      </c>
-      <c r="G53" t="s">
-        <v>772</v>
-      </c>
-      <c r="H53" t="s">
-        <v>772</v>
-      </c>
-      <c r="I53" t="s">
-        <v>772</v>
-      </c>
-      <c r="J53" t="s">
-        <v>772</v>
-      </c>
-      <c r="K53" t="s">
-        <v>772</v>
-      </c>
-      <c r="L53" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>635</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="C75" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>637</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C76" t="s">
+        <v>775</v>
+      </c>
+      <c r="J76" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>638</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C54" t="s">
-        <v>773</v>
-      </c>
-      <c r="D54" t="s">
-        <v>773</v>
-      </c>
-      <c r="K54" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>636</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="C77" t="s">
+        <v>776</v>
+      </c>
+      <c r="D77" t="s">
+        <v>776</v>
+      </c>
+      <c r="O77" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>639</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="C55" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>637</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="C78" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>640</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C56" t="s">
-        <v>775</v>
-      </c>
-      <c r="J56" t="s">
-        <v>775</v>
-      </c>
-      <c r="K56" t="s">
-        <v>775</v>
-      </c>
-      <c r="M56" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>638</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C57" t="s">
-        <v>776</v>
-      </c>
-      <c r="E57" t="s">
-        <v>776</v>
-      </c>
-      <c r="G57" t="s">
-        <v>776</v>
-      </c>
-      <c r="H57" t="s">
-        <v>776</v>
-      </c>
-      <c r="I57" t="s">
-        <v>776</v>
-      </c>
-      <c r="J57" t="s">
-        <v>776</v>
-      </c>
-      <c r="K57" t="s">
-        <v>776</v>
-      </c>
-      <c r="L57" t="s">
-        <v>776</v>
-      </c>
-      <c r="M57" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>639</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C58" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>640</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C79" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>641</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="C60" t="s">
-        <v>779</v>
-      </c>
-      <c r="G60" t="s">
-        <v>779</v>
-      </c>
-      <c r="H60" t="s">
-        <v>779</v>
-      </c>
-      <c r="L60" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>642</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="C61" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>643</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C62" t="s">
-        <v>781</v>
-      </c>
-      <c r="I62" t="s">
-        <v>781</v>
-      </c>
-      <c r="M62" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>644</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="C63" t="s">
-        <v>782</v>
-      </c>
-      <c r="K63" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>645</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="C64" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>646</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="C65" t="s">
-        <v>784</v>
-      </c>
-      <c r="J65" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>647</v>
-      </c>
-      <c r="C66" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>648</v>
-      </c>
-      <c r="C67" t="s">
-        <v>786</v>
-      </c>
-      <c r="J67" t="s">
-        <v>786</v>
-      </c>
-      <c r="K67" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>649</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="C68" t="s">
-        <v>787</v>
-      </c>
-      <c r="E68" t="s">
-        <v>787</v>
-      </c>
-      <c r="F68" t="s">
-        <v>787</v>
-      </c>
-      <c r="I68" t="s">
-        <v>787</v>
-      </c>
-      <c r="J68" t="s">
-        <v>787</v>
-      </c>
-      <c r="K68" t="s">
-        <v>787</v>
-      </c>
-      <c r="M68" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>650</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C69" t="s">
-        <v>788</v>
-      </c>
-      <c r="G69" t="s">
-        <v>788</v>
-      </c>
-      <c r="H69" t="s">
-        <v>788</v>
-      </c>
-      <c r="I69" t="s">
-        <v>788</v>
-      </c>
-      <c r="J69" t="s">
-        <v>788</v>
-      </c>
-      <c r="L69" t="s">
-        <v>788</v>
-      </c>
-      <c r="M69" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>651</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C70" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>652</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C71" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>653</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C72" t="s">
-        <v>791</v>
-      </c>
-      <c r="D72" t="s">
-        <v>791</v>
-      </c>
-      <c r="E72" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>654</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="C73" t="s">
-        <v>792</v>
-      </c>
-      <c r="D73" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>655</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="C74" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>656</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="C75" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>657</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="C76" t="s">
-        <v>795</v>
-      </c>
-      <c r="J76" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>658</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="C77" t="s">
-        <v>796</v>
-      </c>
-      <c r="D77" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>659</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C78" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>660</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="C79" t="s">
-        <v>798</v>
-      </c>
       <c r="E79" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="J79" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K79" t="s">
-        <v>798</v>
+        <v>778</v>
+      </c>
+      <c r="O79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>812</v>
+      </c>
+      <c r="G80" t="s">
+        <v>813</v>
+      </c>
+      <c r="H80" t="s">
+        <v>813</v>
+      </c>
+      <c r="I80" t="s">
+        <v>813</v>
+      </c>
+      <c r="L80" t="s">
+        <v>813</v>
+      </c>
+      <c r="N80" t="s">
+        <v>813</v>
       </c>
     </row>
   </sheetData>
@@ -9610,10 +9929,15 @@
     <hyperlink ref="B5" r:id="rId66"/>
     <hyperlink ref="B36" r:id="rId67"/>
     <hyperlink ref="B37" r:id="rId68"/>
+    <hyperlink ref="N80" r:id="rId69"/>
+    <hyperlink ref="G80" r:id="rId70"/>
+    <hyperlink ref="H80" r:id="rId71"/>
+    <hyperlink ref="I80" r:id="rId72"/>
+    <hyperlink ref="L80" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId74"/>
   </tableParts>
 </worksheet>
 </file>
--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\_icons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632A03C-E8F4-4DA7-BEFB-8FCF69876EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="3"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="818">
   <si>
     <t>doc</t>
   </si>
@@ -853,9 +854,6 @@
     <t>https://www.iconfinder.com/iconsets/social-media-circle-6</t>
   </si>
   <si>
-    <t>https://www.iconfinder.com/iconsets/social-media-christmas-theme</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/social-hand-drawn-icons</t>
   </si>
   <si>
@@ -2405,9 +2403,6 @@
   </si>
   <si>
     <t>Circle colored shaded</t>
-  </si>
-  <si>
-    <t>Christmas theme (non svg)</t>
   </si>
   <si>
     <t>Colored filled</t>
@@ -2494,7 +2489,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2745,129 +2740,129 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D29" totalsRowShown="0">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Source"/>
-    <tableColumn id="4" name="License"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L80"/>
-  <sortState ref="A2:H80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
     <sortCondition ref="E1:E80"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="fileext" dataDxfId="11"/>
-    <tableColumn id="4" name="Software" dataDxfId="10"/>
-    <tableColumn id="7" name="Type" dataDxfId="9"/>
-    <tableColumn id="5" name="Details" dataDxfId="8"/>
-    <tableColumn id="6" name="Iconset (default)" dataDxfId="7"/>
-    <tableColumn id="2" name="Iconset (Colored Filled)" dataDxfId="6"/>
-    <tableColumn id="3" name="Iconset (Colored Slim)" dataDxfId="5"/>
-    <tableColumn id="8" name="Iconset (Simple)" dataDxfId="4"/>
-    <tableColumn id="9" name="Iconset (Simple with symbols)" dataDxfId="3"/>
-    <tableColumn id="10" name="Iconset (Simple Black)" dataDxfId="2"/>
-    <tableColumn id="11" name="Iconset (Colored Crossing)" dataDxfId="1"/>
-    <tableColumn id="12" name="Iconset (Colored)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Iconset (default)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Iconset (Colored Filled)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Iconset (Colored Slim)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Iconset (Simple)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Iconset (Simple Black)" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Iconset (Colored)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
-  <autoFilter ref="A1:Q31"/>
-  <sortState ref="A2:M31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
+  <autoFilter ref="A1:Q31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Network / Brand"/>
-    <tableColumn id="2" name="Link to portal"/>
-    <tableColumn id="3" name="_default"/>
-    <tableColumn id="4" name="Iconset (Circle colored)"/>
-    <tableColumn id="5" name="Iconset (Circle colored shaded)"/>
-    <tableColumn id="6" name="Iconset (Handdrawn)"/>
-    <tableColumn id="7" name="Iconset (Handdrawn colored)"/>
-    <tableColumn id="8" name="Iconset (Originals)"/>
-    <tableColumn id="9" name="Iconset (Cartoon)"/>
-    <tableColumn id="10" name="Iconset (Colorful Gouache)"/>
-    <tableColumn id="11" name="Iconset (Rectangle flat)"/>
-    <tableColumn id="12" name="Iconset (Circle long shadow)"/>
-    <tableColumn id="13" name="Iconset (All-Bright)"/>
-    <tableColumn id="14" name="Iconset (All-Line filled)"/>
-    <tableColumn id="16" name="Iconset (Linear color)"/>
-    <tableColumn id="17" name="Iconset (Black and white circle)"/>
-    <tableColumn id="18" name="Iconset (Black and white square)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Network / Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Link to portal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="_default"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Iconset (Circle colored)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Iconset (Handdrawn)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Iconset (Handdrawn colored)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Iconset (Originals)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Iconset (Cartoon)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Iconset (All-Bright)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Iconset (All-Line filled)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Iconset (Linear color)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Iconset (Black and white circle)"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
-  <autoFilter ref="A1:K37"/>
-  <sortState ref="A2:J43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
+  <autoFilter ref="A1:K37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
     <sortCondition ref="A1:A43"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Provider / Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (default)"/>
-    <tableColumn id="4" name="Iconset (White and Gray)"/>
-    <tableColumn id="5" name="Iconset (Black and White)"/>
-    <tableColumn id="6" name="Iconset (Circle)"/>
-    <tableColumn id="7" name="Iconset (Originals)"/>
-    <tableColumn id="8" name="Iconset (Rectangle)"/>
-    <tableColumn id="9" name="Iconset (Square filled)"/>
-    <tableColumn id="10" name="Iconset (Circle filled)"/>
-    <tableColumn id="11" name="Iconset (All-Line filled)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Provider / Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Iconset (default)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Iconset (White and Gray)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Iconset (Black and White)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Iconset (Circle)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Iconset (Originals)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Iconset (Rectangle)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Iconset (Square filled)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Iconset (Circle filled)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (default)"/>
-    <tableColumn id="4" name="Iconset (All-Line filled)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Iconset (default)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
-  <autoFilter ref="A1:O80"/>
-  <sortState ref="A2:E79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
+  <autoFilter ref="A1:O80" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
     <sortCondition ref="A1:A79"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (All-Line filled)"/>
-    <tableColumn id="4" name="Iconset (All-Bright)"/>
-    <tableColumn id="5" name="Iconset (Cartoon)"/>
-    <tableColumn id="6" name="Iconset (Circle colored)"/>
-    <tableColumn id="7" name="Iconset (Circle colored shaded)"/>
-    <tableColumn id="8" name="Iconset (Circle long shadow)"/>
-    <tableColumn id="9" name="Iconset (Colorful Gouache)"/>
-    <tableColumn id="10" name="Iconset (Handdrawn)"/>
-    <tableColumn id="11" name="Iconset (Originals)"/>
-    <tableColumn id="12" name="Iconset (Rectangle flat)"/>
-    <tableColumn id="13" name="Iconset (Linear color)"/>
-    <tableColumn id="14" name="Iconset (Black and White circle)"/>
-    <tableColumn id="15" name="Iconset (Black and white square)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Iconset (All-Line filled)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Iconset (All-Bright)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Iconset (Cartoon)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Iconset (Circle colored)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Iconset (Handdrawn)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Iconset (Originals)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Iconset (Linear color)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="Iconset (Black and White circle)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3135,22 +3130,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3164,7 +3159,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -3178,9 +3173,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>272</v>
@@ -3189,12 +3184,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>273</v>
@@ -3203,124 +3198,124 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>792</v>
+        <v>511</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>512</v>
+        <v>276</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>791</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
       <c r="B11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" t="s">
         <v>796</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>797</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>285</v>
       </c>
       <c r="D12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>286</v>
@@ -3329,96 +3324,96 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>287</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>292</v>
       </c>
       <c r="D18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="D19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>311</v>
@@ -3427,26 +3422,26 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>805</v>
+        <v>312</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>804</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>314</v>
@@ -3455,91 +3450,91 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
+        <v>807</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
         <v>808</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" t="s">
-        <v>809</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>396</v>
+        <v>787</v>
       </c>
       <c r="D27" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
       <c r="B28" t="s">
-        <v>789</v>
+        <v>812</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>788</v>
+        <v>809</v>
       </c>
       <c r="D28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -3547,91 +3542,76 @@
         <v>814</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>268</v>
-      </c>
-      <c r="B30" t="s">
-        <v>816</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="D30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="C28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView topLeftCell="D37" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="28.140625" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="28.109375" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3648,28 +3628,28 @@
         <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="J1" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -3686,26 +3666,26 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -3729,7 +3709,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -3753,7 +3733,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -3775,11 +3755,11 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -3788,32 +3768,32 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -3830,26 +3810,26 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -3873,7 +3853,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -3897,7 +3877,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -3914,26 +3894,26 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3950,26 +3930,26 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -3986,26 +3966,26 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4022,26 +4002,26 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4058,26 +4038,26 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4094,26 +4074,26 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>129</v>
       </c>
@@ -4130,24 +4110,24 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -4171,7 +4151,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -4188,26 +4168,26 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4224,26 +4204,26 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -4260,22 +4240,22 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4292,22 +4272,22 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -4331,7 +4311,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
@@ -4355,7 +4335,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>124</v>
       </c>
@@ -4379,7 +4359,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
@@ -4403,7 +4383,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -4420,26 +4400,26 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -4456,26 +4436,26 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -4492,24 +4472,24 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -4529,13 +4509,13 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>166</v>
       </c>
@@ -4559,7 +4539,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -4581,11 +4561,11 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>174</v>
       </c>
@@ -4609,7 +4589,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>173</v>
       </c>
@@ -4631,11 +4611,11 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
@@ -4644,7 +4624,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -4657,7 +4637,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -4681,7 +4661,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -4703,11 +4683,11 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -4731,7 +4711,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -4755,7 +4735,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,7 +4759,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>177</v>
       </c>
@@ -4803,7 +4783,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
@@ -4812,32 +4792,32 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -4854,26 +4834,26 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>201</v>
       </c>
@@ -4882,32 +4862,32 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
@@ -4931,7 +4911,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>202</v>
       </c>
@@ -4940,28 +4920,28 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -4985,7 +4965,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
@@ -5002,28 +4982,28 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -5040,28 +5020,28 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -5078,28 +5058,28 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -5116,26 +5096,26 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -5152,26 +5132,26 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -5188,26 +5168,26 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -5224,26 +5204,26 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -5260,26 +5240,26 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -5296,26 +5276,26 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -5332,26 +5312,26 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -5368,26 +5348,26 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -5404,26 +5384,26 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -5440,26 +5420,26 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
@@ -5476,26 +5456,26 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -5512,26 +5492,26 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -5548,22 +5528,22 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -5587,7 +5567,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -5611,7 +5591,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
@@ -5635,7 +5615,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -5652,26 +5632,26 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -5695,7 +5675,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -5712,26 +5692,26 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>198</v>
       </c>
@@ -5740,7 +5720,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -5753,7 +5733,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -5762,7 +5742,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -5775,7 +5755,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -5799,7 +5779,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>171</v>
       </c>
@@ -5817,17 +5797,17 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>172</v>
       </c>
@@ -5851,7 +5831,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -5871,13 +5851,13 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5894,26 +5874,26 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5930,26 +5910,26 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -5966,26 +5946,26 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -6002,26 +5982,26 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
@@ -6041,15 +6021,15 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -6066,23 +6046,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6095,35 +6075,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="13" max="13" width="34.88671875" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="28.7109375" customWidth="1"/>
-    <col min="16" max="16" width="31.5703125" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" customWidth="1"/>
+    <col min="16" max="16" width="31.5546875" customWidth="1"/>
+    <col min="17" max="17" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -6131,184 +6111,184 @@
         <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J1" t="s">
+        <v>529</v>
+      </c>
+      <c r="K1" t="s">
+        <v>531</v>
+      </c>
+      <c r="L1" t="s">
+        <v>532</v>
+      </c>
+      <c r="M1" t="s">
+        <v>539</v>
+      </c>
+      <c r="N1" t="s">
+        <v>559</v>
+      </c>
+      <c r="O1" t="s">
+        <v>789</v>
+      </c>
+      <c r="P1" t="s">
+        <v>817</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N2" t="s">
+        <v>498</v>
+      </c>
+      <c r="O2" t="s">
+        <v>498</v>
+      </c>
+      <c r="P2" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>468</v>
       </c>
-      <c r="E1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I1" t="s">
-        <v>528</v>
-      </c>
-      <c r="J1" t="s">
-        <v>530</v>
-      </c>
-      <c r="K1" t="s">
-        <v>532</v>
-      </c>
-      <c r="L1" t="s">
-        <v>533</v>
-      </c>
-      <c r="M1" t="s">
-        <v>540</v>
-      </c>
-      <c r="N1" t="s">
-        <v>560</v>
-      </c>
-      <c r="O1" t="s">
-        <v>790</v>
-      </c>
-      <c r="P1" t="s">
-        <v>819</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K3" t="s">
+        <v>483</v>
+      </c>
+      <c r="L3" t="s">
+        <v>483</v>
+      </c>
+      <c r="N3" t="s">
+        <v>483</v>
+      </c>
+      <c r="O3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P3" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4" t="s">
         <v>499</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>499</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>499</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K4" t="s">
         <v>499</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L4" t="s">
         <v>499</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N4" t="s">
         <v>499</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P4" t="s">
         <v>499</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q4" t="s">
         <v>499</v>
       </c>
-      <c r="M2" t="s">
-        <v>499</v>
-      </c>
-      <c r="N2" t="s">
-        <v>499</v>
-      </c>
-      <c r="O2" t="s">
-        <v>499</v>
-      </c>
-      <c r="P2" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E3" t="s">
-        <v>484</v>
-      </c>
-      <c r="F3" t="s">
-        <v>484</v>
-      </c>
-      <c r="H3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I3" t="s">
-        <v>484</v>
-      </c>
-      <c r="J3" t="s">
-        <v>484</v>
-      </c>
-      <c r="K3" t="s">
-        <v>484</v>
-      </c>
-      <c r="L3" t="s">
-        <v>484</v>
-      </c>
-      <c r="N3" t="s">
-        <v>484</v>
-      </c>
-      <c r="O3" t="s">
-        <v>484</v>
-      </c>
-      <c r="P3" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4" t="s">
-        <v>488</v>
-      </c>
-      <c r="D4" t="s">
-        <v>500</v>
-      </c>
-      <c r="E4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F4" t="s">
-        <v>500</v>
-      </c>
-      <c r="K4" t="s">
-        <v>500</v>
-      </c>
-      <c r="L4" t="s">
-        <v>500</v>
-      </c>
-      <c r="N4" t="s">
-        <v>500</v>
-      </c>
-      <c r="P4" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -6316,99 +6296,99 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q6" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -6416,52 +6396,52 @@
         <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -6469,93 +6449,93 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>222</v>
       </c>
@@ -6563,98 +6543,98 @@
         <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Q10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E11" t="s">
+        <v>509</v>
+      </c>
+      <c r="H11" t="s">
+        <v>509</v>
+      </c>
+      <c r="K11" t="s">
+        <v>509</v>
+      </c>
+      <c r="L11" t="s">
+        <v>509</v>
+      </c>
+      <c r="N11" t="s">
+        <v>509</v>
+      </c>
+      <c r="P11" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>491</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C11" t="s">
-        <v>554</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C12" t="s">
+        <v>552</v>
+      </c>
+      <c r="E12" t="s">
         <v>510</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>510</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I12" t="s">
         <v>510</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J12" t="s">
         <v>510</v>
       </c>
-      <c r="N11" t="s">
+      <c r="K12" t="s">
         <v>510</v>
       </c>
-      <c r="P11" t="s">
+      <c r="L12" t="s">
         <v>510</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="N12" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>492</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C12" t="s">
-        <v>553</v>
-      </c>
-      <c r="E12" t="s">
-        <v>511</v>
-      </c>
-      <c r="H12" t="s">
-        <v>511</v>
-      </c>
-      <c r="I12" t="s">
-        <v>511</v>
-      </c>
-      <c r="J12" t="s">
-        <v>511</v>
-      </c>
-      <c r="K12" t="s">
-        <v>511</v>
-      </c>
-      <c r="L12" t="s">
-        <v>511</v>
-      </c>
-      <c r="N12" t="s">
-        <v>511</v>
-      </c>
       <c r="P12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Q12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -6662,84 +6642,84 @@
         <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q14" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>223</v>
       </c>
@@ -6747,110 +6727,110 @@
         <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" t="s">
+        <v>503</v>
+      </c>
+      <c r="E16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" t="s">
+        <v>503</v>
+      </c>
+      <c r="I16" t="s">
+        <v>528</v>
+      </c>
+      <c r="J16" t="s">
+        <v>503</v>
+      </c>
+      <c r="K16" t="s">
+        <v>503</v>
+      </c>
+      <c r="L16" t="s">
+        <v>503</v>
+      </c>
+      <c r="P16" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>494</v>
       </c>
-      <c r="C16" t="s">
-        <v>552</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" t="s">
         <v>504</v>
       </c>
-      <c r="E16" t="s">
+      <c r="K17" t="s">
         <v>504</v>
       </c>
-      <c r="F16" t="s">
+      <c r="L17" t="s">
         <v>504</v>
       </c>
-      <c r="G16" t="s">
+      <c r="P17" t="s">
         <v>504</v>
       </c>
-      <c r="I16" t="s">
-        <v>529</v>
-      </c>
-      <c r="J16" t="s">
-        <v>504</v>
-      </c>
-      <c r="K16" t="s">
-        <v>504</v>
-      </c>
-      <c r="L16" t="s">
-        <v>504</v>
-      </c>
-      <c r="P16" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>495</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C17" t="s">
-        <v>551</v>
-      </c>
-      <c r="E17" t="s">
-        <v>505</v>
-      </c>
-      <c r="K17" t="s">
-        <v>505</v>
-      </c>
-      <c r="L17" t="s">
-        <v>505</v>
-      </c>
-      <c r="P17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -6858,49 +6838,49 @@
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q18" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -6908,34 +6888,34 @@
         <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>227</v>
       </c>
@@ -6943,49 +6923,49 @@
         <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -6993,119 +6973,119 @@
         <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P21" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" t="s">
+        <v>505</v>
+      </c>
+      <c r="F22" t="s">
+        <v>505</v>
+      </c>
+      <c r="H22" t="s">
+        <v>505</v>
+      </c>
+      <c r="I22" t="s">
+        <v>505</v>
+      </c>
+      <c r="J22" t="s">
+        <v>505</v>
+      </c>
+      <c r="K22" t="s">
+        <v>505</v>
+      </c>
+      <c r="L22" t="s">
+        <v>505</v>
+      </c>
+      <c r="M22" t="s">
+        <v>505</v>
+      </c>
+      <c r="N22" t="s">
+        <v>505</v>
+      </c>
+      <c r="P22" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>496</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C22" t="s">
-        <v>550</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E23" t="s">
         <v>506</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>506</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J23" t="s">
         <v>506</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K23" t="s">
         <v>506</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L23" t="s">
         <v>506</v>
       </c>
-      <c r="K22" t="s">
+      <c r="N23" t="s">
         <v>506</v>
       </c>
-      <c r="L22" t="s">
+      <c r="P23" t="s">
         <v>506</v>
       </c>
-      <c r="M22" t="s">
+      <c r="Q23" t="s">
         <v>506</v>
       </c>
-      <c r="N22" t="s">
-        <v>506</v>
-      </c>
-      <c r="P22" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>497</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C23" t="s">
-        <v>549</v>
-      </c>
-      <c r="E23" t="s">
-        <v>507</v>
-      </c>
-      <c r="F23" t="s">
-        <v>507</v>
-      </c>
-      <c r="J23" t="s">
-        <v>507</v>
-      </c>
-      <c r="K23" t="s">
-        <v>507</v>
-      </c>
-      <c r="L23" t="s">
-        <v>507</v>
-      </c>
-      <c r="N23" t="s">
-        <v>507</v>
-      </c>
-      <c r="P23" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>260</v>
       </c>
@@ -7113,84 +7093,84 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q24" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C25" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -7198,128 +7178,128 @@
         <v>229</v>
       </c>
       <c r="C26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q26" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>543</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" t="s">
+        <v>540</v>
+      </c>
+      <c r="E27" t="s">
+        <v>557</v>
+      </c>
+      <c r="H27" t="s">
+        <v>557</v>
+      </c>
+      <c r="I27" t="s">
+        <v>557</v>
+      </c>
+      <c r="J27" t="s">
+        <v>557</v>
+      </c>
+      <c r="K27" t="s">
+        <v>557</v>
+      </c>
+      <c r="L27" t="s">
+        <v>557</v>
+      </c>
+      <c r="M27" t="s">
+        <v>557</v>
+      </c>
+      <c r="N27" t="s">
+        <v>557</v>
+      </c>
+      <c r="O27" t="s">
+        <v>557</v>
+      </c>
+      <c r="P27" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>546</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>541</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>558</v>
       </c>
-      <c r="H27" t="s">
+      <c r="F28" t="s">
         <v>558</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K28" t="s">
         <v>558</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L28" t="s">
         <v>558</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M28" t="s">
         <v>558</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N28" t="s">
         <v>558</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O28" t="s">
         <v>558</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P28" t="s">
         <v>558</v>
       </c>
-      <c r="O27" t="s">
-        <v>558</v>
-      </c>
-      <c r="P27" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>547</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C28" t="s">
-        <v>542</v>
-      </c>
-      <c r="E28" t="s">
-        <v>559</v>
-      </c>
-      <c r="F28" t="s">
-        <v>559</v>
-      </c>
-      <c r="K28" t="s">
-        <v>559</v>
-      </c>
-      <c r="L28" t="s">
-        <v>559</v>
-      </c>
-      <c r="M28" t="s">
-        <v>559</v>
-      </c>
-      <c r="N28" t="s">
-        <v>559</v>
-      </c>
-      <c r="O28" t="s">
-        <v>559</v>
-      </c>
-      <c r="P28" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -7327,49 +7307,49 @@
         <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q29" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>224</v>
       </c>
@@ -7377,120 +7357,120 @@
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B26" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
-    <hyperlink ref="B31" r:id="rId7"/>
-    <hyperlink ref="B29" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B20" r:id="rId10"/>
-    <hyperlink ref="B18" r:id="rId11"/>
-    <hyperlink ref="B5" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B24" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B3" r:id="rId16"/>
-    <hyperlink ref="B2" r:id="rId17"/>
-    <hyperlink ref="B4" r:id="rId18"/>
-    <hyperlink ref="B6" r:id="rId19"/>
-    <hyperlink ref="B9" r:id="rId20"/>
-    <hyperlink ref="B11" r:id="rId21"/>
-    <hyperlink ref="B12" r:id="rId22"/>
-    <hyperlink ref="B14" r:id="rId23"/>
-    <hyperlink ref="B17" r:id="rId24"/>
-    <hyperlink ref="B22" r:id="rId25"/>
-    <hyperlink ref="B23" r:id="rId26"/>
-    <hyperlink ref="B25" r:id="rId27"/>
-    <hyperlink ref="B27" r:id="rId28"/>
-    <hyperlink ref="B28" r:id="rId29"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B29" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B4" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B6" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B9" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B23" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="B25" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7500,29 +7480,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -7533,57 +7513,57 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" t="s">
         <v>388</v>
       </c>
-      <c r="G1" t="s">
-        <v>389</v>
-      </c>
       <c r="H1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>217</v>
       </c>
@@ -7591,25 +7571,25 @@
         <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -7617,31 +7597,31 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -7649,30 +7629,30 @@
         <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K5" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>242</v>
       </c>
@@ -7683,183 +7663,183 @@
         <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G8" t="s">
+        <v>422</v>
+      </c>
+      <c r="H8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I8" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" t="s">
         <v>423</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H9" t="s">
         <v>423</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I9" t="s">
         <v>423</v>
       </c>
-      <c r="H8" t="s">
-        <v>423</v>
-      </c>
-      <c r="I8" t="s">
-        <v>423</v>
-      </c>
-      <c r="J8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" t="s">
+        <v>424</v>
+      </c>
+      <c r="H10" t="s">
+        <v>424</v>
+      </c>
+      <c r="I10" t="s">
+        <v>424</v>
+      </c>
+      <c r="J10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E9" t="s">
-        <v>424</v>
-      </c>
-      <c r="H9" t="s">
-        <v>424</v>
-      </c>
-      <c r="I9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E11" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" t="s">
+        <v>427</v>
+      </c>
+      <c r="I11" t="s">
+        <v>427</v>
+      </c>
+      <c r="J11" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>428</v>
+      </c>
+      <c r="F12" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I12" t="s">
+        <v>428</v>
+      </c>
+      <c r="J12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" t="s">
+        <v>425</v>
+      </c>
+      <c r="G13" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" t="s">
+        <v>425</v>
+      </c>
+      <c r="I13" t="s">
+        <v>425</v>
+      </c>
+      <c r="J13" t="s">
+        <v>425</v>
+      </c>
+      <c r="K13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>401</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E10" t="s">
-        <v>425</v>
-      </c>
-      <c r="H10" t="s">
-        <v>425</v>
-      </c>
-      <c r="I10" t="s">
-        <v>425</v>
-      </c>
-      <c r="J10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F11" t="s">
-        <v>428</v>
-      </c>
-      <c r="G11" t="s">
-        <v>428</v>
-      </c>
-      <c r="H11" t="s">
-        <v>428</v>
-      </c>
-      <c r="I11" t="s">
-        <v>428</v>
-      </c>
-      <c r="J11" t="s">
-        <v>428</v>
-      </c>
-      <c r="K11" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" t="s">
-        <v>429</v>
-      </c>
-      <c r="F12" t="s">
-        <v>429</v>
-      </c>
-      <c r="H12" t="s">
-        <v>429</v>
-      </c>
-      <c r="I12" t="s">
-        <v>429</v>
-      </c>
-      <c r="J12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>404</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="H14" t="s">
         <v>426</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J14" t="s">
         <v>426</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K14" t="s">
         <v>426</v>
       </c>
-      <c r="H13" t="s">
-        <v>426</v>
-      </c>
-      <c r="I13" t="s">
-        <v>426</v>
-      </c>
-      <c r="J13" t="s">
-        <v>426</v>
-      </c>
-      <c r="K13" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="H14" t="s">
-        <v>427</v>
-      </c>
-      <c r="J14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>241</v>
       </c>
@@ -7870,91 +7850,91 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="D16" t="s">
-        <v>387</v>
-      </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="G17" t="s">
+        <v>438</v>
+      </c>
+      <c r="I17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F17" t="s">
-        <v>439</v>
-      </c>
-      <c r="G17" t="s">
-        <v>439</v>
-      </c>
-      <c r="I17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="D18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K18" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -7962,48 +7942,48 @@
         <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>238</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -8011,34 +7991,34 @@
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -8046,57 +8026,57 @@
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K22" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I23" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -8107,50 +8087,50 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I24" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" t="s">
-        <v>420</v>
-      </c>
       <c r="E25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I25" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" t="s">
         <v>430</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E26" t="s">
-        <v>431</v>
-      </c>
       <c r="I26" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -8161,64 +8141,64 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E28" t="s">
+        <v>433</v>
+      </c>
+      <c r="G28" t="s">
+        <v>433</v>
+      </c>
+      <c r="I28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E29" t="s">
+        <v>415</v>
+      </c>
+      <c r="F29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" t="s">
+        <v>415</v>
+      </c>
+      <c r="H29" t="s">
+        <v>415</v>
+      </c>
+      <c r="I29" t="s">
+        <v>415</v>
+      </c>
+      <c r="J29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" t="s">
         <v>434</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I30" t="s">
         <v>434</v>
       </c>
-      <c r="I28" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E29" t="s">
-        <v>416</v>
-      </c>
-      <c r="F29" t="s">
-        <v>416</v>
-      </c>
-      <c r="G29" t="s">
-        <v>416</v>
-      </c>
-      <c r="H29" t="s">
-        <v>416</v>
-      </c>
-      <c r="I29" t="s">
-        <v>416</v>
-      </c>
-      <c r="J29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E30" t="s">
-        <v>435</v>
-      </c>
-      <c r="I30" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>255</v>
       </c>
@@ -8229,41 +8209,41 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J32" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H33" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -8271,132 +8251,132 @@
         <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E35" t="s">
+        <v>435</v>
+      </c>
+      <c r="I35" t="s">
+        <v>435</v>
+      </c>
+      <c r="J35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E36" t="s">
         <v>436</v>
       </c>
-      <c r="I35" t="s">
+      <c r="F36" t="s">
         <v>436</v>
       </c>
-      <c r="J35" t="s">
+      <c r="G36" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>403</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E36" t="s">
-        <v>437</v>
-      </c>
-      <c r="F36" t="s">
-        <v>437</v>
-      </c>
-      <c r="G36" t="s">
-        <v>437</v>
-      </c>
       <c r="H36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I36" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B34" r:id="rId3"/>
-    <hyperlink ref="B21" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B16" r:id="rId6"/>
-    <hyperlink ref="B19" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8"/>
-    <hyperlink ref="B24" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="B31" r:id="rId12"/>
-    <hyperlink ref="B27" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B2" r:id="rId15"/>
-    <hyperlink ref="B6" r:id="rId16"/>
-    <hyperlink ref="B9" r:id="rId17"/>
-    <hyperlink ref="B10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="B13" r:id="rId20"/>
-    <hyperlink ref="B14" r:id="rId21"/>
-    <hyperlink ref="B17" r:id="rId22"/>
-    <hyperlink ref="B18" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B23" r:id="rId25"/>
-    <hyperlink ref="B25" r:id="rId26"/>
-    <hyperlink ref="B37" r:id="rId27"/>
-    <hyperlink ref="B26" r:id="rId28"/>
-    <hyperlink ref="B28" r:id="rId29"/>
-    <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B24" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B31" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B27" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B6" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B9" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="B13" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="B17" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B23" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B37" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="B26" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8406,22 +8386,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1" t="s">
         <v>219</v>
@@ -8430,104 +8410,104 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>534</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D5" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>537</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" t="s">
-        <v>539</v>
-      </c>
-      <c r="D8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8537,1403 +8517,1403 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView topLeftCell="G34" workbookViewId="0">
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="26.88671875" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1" t="s">
         <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>566</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>567</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" t="s">
+        <v>706</v>
+      </c>
+      <c r="J4" t="s">
+        <v>706</v>
+      </c>
+      <c r="K4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E5" t="s">
+        <v>779</v>
+      </c>
+      <c r="J5" t="s">
+        <v>779</v>
+      </c>
+      <c r="K5" t="s">
+        <v>779</v>
+      </c>
+      <c r="O5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D6" t="s">
+        <v>707</v>
+      </c>
+      <c r="E6" t="s">
+        <v>707</v>
+      </c>
+      <c r="J6" t="s">
+        <v>707</v>
+      </c>
+      <c r="K6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C7" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E7" t="s">
+        <v>708</v>
+      </c>
+      <c r="J7" t="s">
+        <v>708</v>
+      </c>
+      <c r="K7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C8" t="s">
+        <v>709</v>
+      </c>
+      <c r="O8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C4" t="s">
-        <v>707</v>
-      </c>
-      <c r="D4" t="s">
-        <v>707</v>
-      </c>
-      <c r="J4" t="s">
-        <v>707</v>
-      </c>
-      <c r="K4" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C5" t="s">
-        <v>780</v>
-      </c>
-      <c r="D5" t="s">
-        <v>780</v>
-      </c>
-      <c r="E5" t="s">
-        <v>780</v>
-      </c>
-      <c r="J5" t="s">
-        <v>780</v>
-      </c>
-      <c r="K5" t="s">
-        <v>780</v>
-      </c>
-      <c r="O5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>569</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C6" t="s">
-        <v>708</v>
-      </c>
-      <c r="D6" t="s">
-        <v>708</v>
-      </c>
-      <c r="E6" t="s">
-        <v>708</v>
-      </c>
-      <c r="J6" t="s">
-        <v>708</v>
-      </c>
-      <c r="K6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="C7" t="s">
-        <v>709</v>
-      </c>
-      <c r="D7" t="s">
-        <v>709</v>
-      </c>
-      <c r="E7" t="s">
-        <v>709</v>
-      </c>
-      <c r="J7" t="s">
-        <v>709</v>
-      </c>
-      <c r="K7" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>571</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C8" t="s">
-        <v>710</v>
-      </c>
-      <c r="O8" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>573</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>712</v>
+      </c>
+      <c r="I11" t="s">
+        <v>712</v>
+      </c>
+      <c r="K11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>574</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>713</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F12" t="s">
         <v>713</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J12" t="s">
         <v>713</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>575</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>714</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I13" t="s">
+        <v>786</v>
+      </c>
+      <c r="J13" t="s">
         <v>714</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M13" t="s">
         <v>714</v>
       </c>
-      <c r="K12" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>576</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>715</v>
       </c>
-      <c r="I13" t="s">
-        <v>787</v>
-      </c>
-      <c r="J13" t="s">
-        <v>715</v>
-      </c>
-      <c r="M13" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>577</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>578</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>716</v>
+      </c>
+      <c r="I16" t="s">
+        <v>716</v>
+      </c>
+      <c r="J16" t="s">
+        <v>716</v>
+      </c>
+      <c r="K16" t="s">
+        <v>716</v>
+      </c>
+      <c r="O16" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>579</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>717</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
         <v>717</v>
       </c>
-      <c r="I16" t="s">
-        <v>717</v>
-      </c>
-      <c r="J16" t="s">
-        <v>717</v>
-      </c>
-      <c r="K16" t="s">
-        <v>717</v>
-      </c>
-      <c r="O16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>580</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="C17" t="s">
-        <v>718</v>
-      </c>
-      <c r="D17" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>581</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>581</v>
+      </c>
+      <c r="C19" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>582</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C20" t="s">
         <v>720</v>
       </c>
-      <c r="D19" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>583</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>584</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>722</v>
+      </c>
+      <c r="F22" t="s">
+        <v>722</v>
+      </c>
+      <c r="J22" t="s">
+        <v>722</v>
+      </c>
+      <c r="K22" t="s">
+        <v>722</v>
+      </c>
+      <c r="M22" t="s">
+        <v>722</v>
+      </c>
+      <c r="O22" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>585</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>723</v>
       </c>
-      <c r="E22" t="s">
-        <v>723</v>
-      </c>
-      <c r="F22" t="s">
-        <v>723</v>
-      </c>
-      <c r="J22" t="s">
-        <v>723</v>
-      </c>
-      <c r="K22" t="s">
-        <v>723</v>
-      </c>
-      <c r="M22" t="s">
-        <v>723</v>
-      </c>
-      <c r="O22" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>586</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="O24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>587</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>725</v>
       </c>
-      <c r="O24" t="s">
+      <c r="D25" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>725</v>
+      </c>
+      <c r="I25" t="s">
+        <v>725</v>
+      </c>
+      <c r="K25" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>588</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" t="s">
+        <v>726</v>
+      </c>
+      <c r="I26" t="s">
+        <v>726</v>
+      </c>
+      <c r="O26" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="C25" t="s">
-        <v>726</v>
-      </c>
-      <c r="D25" t="s">
-        <v>726</v>
-      </c>
-      <c r="E25" t="s">
-        <v>726</v>
-      </c>
-      <c r="I25" t="s">
-        <v>726</v>
-      </c>
-      <c r="K25" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>589</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>727</v>
       </c>
-      <c r="I26" t="s">
+      <c r="D27" t="s">
         <v>727</v>
       </c>
-      <c r="O26" t="s">
+      <c r="J27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C28" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>590</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E28" t="s">
         <v>728</v>
       </c>
-      <c r="D27" t="s">
+      <c r="J28" t="s">
         <v>728</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K28" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="O28" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>591</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>729</v>
       </c>
-      <c r="E28" t="s">
-        <v>729</v>
-      </c>
-      <c r="J28" t="s">
-        <v>729</v>
-      </c>
-      <c r="K28" t="s">
-        <v>729</v>
-      </c>
-      <c r="O28" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>592</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>730</v>
+      </c>
+      <c r="O30" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>593</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C31" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>594</v>
+      </c>
+      <c r="C32" t="s">
+        <v>732</v>
+      </c>
+      <c r="K32" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>595</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C33" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C30" t="s">
-        <v>731</v>
-      </c>
-      <c r="D30" t="s">
-        <v>731</v>
-      </c>
-      <c r="O30" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>594</v>
-      </c>
-      <c r="C31" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>595</v>
-      </c>
-      <c r="C32" t="s">
-        <v>733</v>
-      </c>
-      <c r="K32" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>596</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>597</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>781</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C36" t="s">
+        <v>782</v>
+      </c>
+      <c r="E36" t="s">
+        <v>782</v>
+      </c>
+      <c r="M36" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>780</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C37" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>598</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>782</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C36" t="s">
-        <v>783</v>
-      </c>
-      <c r="E36" t="s">
-        <v>783</v>
-      </c>
-      <c r="M36" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>781</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="C37" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="K38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>599</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>737</v>
       </c>
-      <c r="K38" t="s">
+      <c r="D39" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>600</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>738</v>
       </c>
-      <c r="D39" t="s">
+      <c r="J40" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>601</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>739</v>
       </c>
-      <c r="J40" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>602</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>603</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="D43" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>604</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>742</v>
       </c>
-      <c r="D43" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>605</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>606</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D46" t="s">
+        <v>744</v>
+      </c>
+      <c r="K46" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>607</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>745</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>745</v>
       </c>
-      <c r="K46" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>608</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>746</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G48" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="H48" t="s">
+        <v>746</v>
+      </c>
+      <c r="J48" t="s">
+        <v>746</v>
+      </c>
+      <c r="K48" t="s">
+        <v>746</v>
+      </c>
+      <c r="L48" t="s">
+        <v>746</v>
+      </c>
+      <c r="N48" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>609</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C49" t="s">
+        <v>747</v>
+      </c>
+      <c r="G49" t="s">
+        <v>747</v>
+      </c>
+      <c r="H49" t="s">
+        <v>747</v>
+      </c>
+      <c r="N49" t="s">
+        <v>747</v>
+      </c>
+      <c r="O49" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C48" t="s">
-        <v>747</v>
-      </c>
-      <c r="G48" t="s">
-        <v>747</v>
-      </c>
-      <c r="H48" t="s">
-        <v>747</v>
-      </c>
-      <c r="J48" t="s">
-        <v>747</v>
-      </c>
-      <c r="K48" t="s">
-        <v>747</v>
-      </c>
-      <c r="L48" t="s">
-        <v>747</v>
-      </c>
-      <c r="N48" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>610</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>748</v>
       </c>
-      <c r="G49" t="s">
-        <v>748</v>
-      </c>
-      <c r="H49" t="s">
-        <v>748</v>
-      </c>
-      <c r="N49" t="s">
-        <v>748</v>
-      </c>
-      <c r="O49" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>611</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C51" t="s">
+        <v>749</v>
+      </c>
+      <c r="D51" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>612</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C50" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>612</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>750</v>
       </c>
-      <c r="D51" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>613</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C53" t="s">
+        <v>751</v>
+      </c>
+      <c r="E53" t="s">
+        <v>751</v>
+      </c>
+      <c r="G53" t="s">
+        <v>751</v>
+      </c>
+      <c r="H53" t="s">
+        <v>751</v>
+      </c>
+      <c r="I53" t="s">
+        <v>751</v>
+      </c>
+      <c r="J53" t="s">
+        <v>751</v>
+      </c>
+      <c r="K53" t="s">
+        <v>751</v>
+      </c>
+      <c r="L53" t="s">
+        <v>751</v>
+      </c>
+      <c r="N53" t="s">
+        <v>751</v>
+      </c>
+      <c r="O53" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>614</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C54" t="s">
+        <v>752</v>
+      </c>
+      <c r="D54" t="s">
+        <v>752</v>
+      </c>
+      <c r="K54" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>615</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C55" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>616</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C56" t="s">
+        <v>754</v>
+      </c>
+      <c r="J56" t="s">
+        <v>754</v>
+      </c>
+      <c r="K56" t="s">
+        <v>754</v>
+      </c>
+      <c r="M56" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>617</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="C52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>614</v>
-      </c>
-      <c r="C53" t="s">
-        <v>752</v>
-      </c>
-      <c r="E53" t="s">
-        <v>752</v>
-      </c>
-      <c r="G53" t="s">
-        <v>752</v>
-      </c>
-      <c r="H53" t="s">
-        <v>752</v>
-      </c>
-      <c r="I53" t="s">
-        <v>752</v>
-      </c>
-      <c r="J53" t="s">
-        <v>752</v>
-      </c>
-      <c r="K53" t="s">
-        <v>752</v>
-      </c>
-      <c r="L53" t="s">
-        <v>752</v>
-      </c>
-      <c r="N53" t="s">
-        <v>752</v>
-      </c>
-      <c r="O53" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>615</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C54" t="s">
-        <v>753</v>
-      </c>
-      <c r="D54" t="s">
-        <v>753</v>
-      </c>
-      <c r="K54" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>616</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C55" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>617</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="C57" t="s">
+        <v>755</v>
+      </c>
+      <c r="E57" t="s">
+        <v>755</v>
+      </c>
+      <c r="G57" t="s">
+        <v>755</v>
+      </c>
+      <c r="H57" t="s">
+        <v>755</v>
+      </c>
+      <c r="I57" t="s">
+        <v>755</v>
+      </c>
+      <c r="J57" t="s">
+        <v>755</v>
+      </c>
+      <c r="K57" t="s">
+        <v>755</v>
+      </c>
+      <c r="L57" t="s">
+        <v>755</v>
+      </c>
+      <c r="M57" t="s">
+        <v>755</v>
+      </c>
+      <c r="N57" t="s">
+        <v>755</v>
+      </c>
+      <c r="O57" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>618</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="C56" t="s">
-        <v>755</v>
-      </c>
-      <c r="J56" t="s">
-        <v>755</v>
-      </c>
-      <c r="K56" t="s">
-        <v>755</v>
-      </c>
-      <c r="M56" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>618</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>756</v>
       </c>
-      <c r="E57" t="s">
-        <v>756</v>
-      </c>
-      <c r="G57" t="s">
-        <v>756</v>
-      </c>
-      <c r="H57" t="s">
-        <v>756</v>
-      </c>
-      <c r="I57" t="s">
-        <v>756</v>
-      </c>
-      <c r="J57" t="s">
-        <v>756</v>
-      </c>
-      <c r="K57" t="s">
-        <v>756</v>
-      </c>
-      <c r="L57" t="s">
-        <v>756</v>
-      </c>
-      <c r="M57" t="s">
-        <v>756</v>
-      </c>
-      <c r="N57" t="s">
-        <v>756</v>
-      </c>
-      <c r="O57" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>619</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>620</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="G60" t="s">
+        <v>758</v>
+      </c>
+      <c r="H60" t="s">
+        <v>758</v>
+      </c>
+      <c r="L60" t="s">
+        <v>758</v>
+      </c>
+      <c r="N60" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>621</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>759</v>
       </c>
-      <c r="G60" t="s">
-        <v>759</v>
-      </c>
-      <c r="H60" t="s">
-        <v>759</v>
-      </c>
-      <c r="L60" t="s">
-        <v>759</v>
-      </c>
-      <c r="N60" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>622</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="I62" t="s">
+        <v>760</v>
+      </c>
+      <c r="M62" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>623</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>761</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K63" t="s">
         <v>761</v>
       </c>
-      <c r="M62" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>624</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>762</v>
       </c>
-      <c r="K63" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>625</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="J65" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>626</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C66" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" t="s">
+        <v>765</v>
+      </c>
+      <c r="J67" t="s">
+        <v>765</v>
+      </c>
+      <c r="K67" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>628</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C65" t="s">
-        <v>764</v>
-      </c>
-      <c r="J65" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>627</v>
-      </c>
-      <c r="C66" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>628</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>766</v>
       </c>
-      <c r="J67" t="s">
+      <c r="E68" t="s">
         <v>766</v>
       </c>
-      <c r="K67" t="s">
+      <c r="F68" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="I68" t="s">
+        <v>766</v>
+      </c>
+      <c r="J68" t="s">
+        <v>766</v>
+      </c>
+      <c r="K68" t="s">
+        <v>766</v>
+      </c>
+      <c r="M68" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>629</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>767</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G69" t="s">
         <v>767</v>
       </c>
-      <c r="F68" t="s">
+      <c r="H69" t="s">
         <v>767</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
         <v>767</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J69" t="s">
         <v>767</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L69" t="s">
         <v>767</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M69" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="N69" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>630</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>768</v>
       </c>
-      <c r="G69" t="s">
-        <v>768</v>
-      </c>
-      <c r="H69" t="s">
-        <v>768</v>
-      </c>
-      <c r="I69" t="s">
-        <v>768</v>
-      </c>
-      <c r="J69" t="s">
-        <v>768</v>
-      </c>
-      <c r="L69" t="s">
-        <v>768</v>
-      </c>
-      <c r="M69" t="s">
-        <v>768</v>
-      </c>
-      <c r="N69" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>631</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="O71" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>632</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>770</v>
       </c>
-      <c r="O71" t="s">
+      <c r="D72" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="E72" t="s">
+        <v>770</v>
+      </c>
+      <c r="O72" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>633</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>771</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>771</v>
       </c>
-      <c r="E72" t="s">
-        <v>771</v>
-      </c>
-      <c r="O72" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>634</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>772</v>
       </c>
-      <c r="D73" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>635</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>636</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="J76" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>637</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>775</v>
       </c>
-      <c r="J76" t="s">
+      <c r="D77" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="O77" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>638</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>776</v>
       </c>
-      <c r="D77" t="s">
-        <v>776</v>
-      </c>
-      <c r="O77" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>639</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>640</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="C79" t="s">
-        <v>778</v>
-      </c>
       <c r="E79" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J79" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K79" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O79" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B24" r:id="rId20"/>
-    <hyperlink ref="B25" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B33" r:id="rId26"/>
-    <hyperlink ref="B34" r:id="rId27"/>
-    <hyperlink ref="B35" r:id="rId28"/>
-    <hyperlink ref="B38" r:id="rId29"/>
-    <hyperlink ref="B39" r:id="rId30"/>
-    <hyperlink ref="B40" r:id="rId31"/>
-    <hyperlink ref="B41" r:id="rId32"/>
-    <hyperlink ref="B42" r:id="rId33"/>
-    <hyperlink ref="B43" r:id="rId34"/>
-    <hyperlink ref="B44" r:id="rId35"/>
-    <hyperlink ref="B45" r:id="rId36"/>
-    <hyperlink ref="B46" r:id="rId37"/>
-    <hyperlink ref="B47" r:id="rId38"/>
-    <hyperlink ref="B48" r:id="rId39"/>
-    <hyperlink ref="B50" r:id="rId40"/>
-    <hyperlink ref="B52" r:id="rId41"/>
-    <hyperlink ref="B54" r:id="rId42"/>
-    <hyperlink ref="B55" r:id="rId43"/>
-    <hyperlink ref="B56" r:id="rId44"/>
-    <hyperlink ref="B57" r:id="rId45"/>
-    <hyperlink ref="B58" r:id="rId46"/>
-    <hyperlink ref="B59" r:id="rId47"/>
-    <hyperlink ref="B60" r:id="rId48"/>
-    <hyperlink ref="B61" r:id="rId49"/>
-    <hyperlink ref="B62" r:id="rId50"/>
-    <hyperlink ref="B63" r:id="rId51"/>
-    <hyperlink ref="B64" r:id="rId52"/>
-    <hyperlink ref="B65" r:id="rId53"/>
-    <hyperlink ref="B68" r:id="rId54"/>
-    <hyperlink ref="B69" r:id="rId55"/>
-    <hyperlink ref="B70" r:id="rId56"/>
-    <hyperlink ref="B71" r:id="rId57"/>
-    <hyperlink ref="B72" r:id="rId58"/>
-    <hyperlink ref="B73" r:id="rId59"/>
-    <hyperlink ref="B74" r:id="rId60"/>
-    <hyperlink ref="B75" r:id="rId61"/>
-    <hyperlink ref="B76" r:id="rId62"/>
-    <hyperlink ref="B77" r:id="rId63"/>
-    <hyperlink ref="B78" r:id="rId64"/>
-    <hyperlink ref="B79" r:id="rId65"/>
-    <hyperlink ref="B5" r:id="rId66"/>
-    <hyperlink ref="B36" r:id="rId67"/>
-    <hyperlink ref="B37" r:id="rId68"/>
-    <hyperlink ref="N80" r:id="rId69"/>
-    <hyperlink ref="G80" r:id="rId70"/>
-    <hyperlink ref="H80" r:id="rId71"/>
-    <hyperlink ref="I80" r:id="rId72"/>
-    <hyperlink ref="L80" r:id="rId73"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="B34" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="B35" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="B38" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="B39" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="B40" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="B41" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="B42" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="B43" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="B44" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="B45" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="B46" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="B47" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="B48" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="B50" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="B52" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="B55" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="B56" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="B57" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="B58" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="B59" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="B60" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="B61" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="B62" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="B63" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="B64" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="B65" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="B68" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="B69" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="B70" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="B71" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="B72" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="B74" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="B75" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="B76" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="B77" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="B78" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="B79" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
+    <hyperlink ref="B5" r:id="rId66" xr:uid="{00000000-0004-0000-0500-000041000000}"/>
+    <hyperlink ref="B36" r:id="rId67" xr:uid="{00000000-0004-0000-0500-000042000000}"/>
+    <hyperlink ref="B37" r:id="rId68" xr:uid="{00000000-0004-0000-0500-000043000000}"/>
+    <hyperlink ref="N80" r:id="rId69" xr:uid="{00000000-0004-0000-0500-000044000000}"/>
+    <hyperlink ref="G80" r:id="rId70" xr:uid="{00000000-0004-0000-0500-000045000000}"/>
+    <hyperlink ref="H80" r:id="rId71" xr:uid="{00000000-0004-0000-0500-000046000000}"/>
+    <hyperlink ref="I80" r:id="rId72" xr:uid="{00000000-0004-0000-0500-000047000000}"/>
+    <hyperlink ref="L80" r:id="rId73" xr:uid="{00000000-0004-0000-0500-000048000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3632A03C-E8F4-4DA7-BEFB-8FCF69876EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124101D8-AEB6-4C49-90AF-4EAD1DA81B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -20,17 +20,27 @@
     <sheet name="Delivery" sheetId="5" r:id="rId5"/>
     <sheet name="Others" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="848">
   <si>
     <t>doc</t>
   </si>
@@ -968,9 +978,6 @@
     <t>https://www.iconfinder.com/iconsets/social-media-square-4</t>
   </si>
   <si>
-    <t>Circle Long Shadow</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/social-media-circle-long-shadow</t>
   </si>
   <si>
@@ -2396,36 +2403,12 @@
     <t>https://www.iconfinder.com/iconsets/social-network-linear-color</t>
   </si>
   <si>
-    <t>Linear color</t>
-  </si>
-  <si>
     <t>Iconset (Linear color)</t>
   </si>
   <si>
-    <t>Circle colored shaded</t>
-  </si>
-  <si>
-    <t>Colored filled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colored slim </t>
-  </si>
-  <si>
     <t>Simple</t>
   </si>
   <si>
-    <t>Simple with symbols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple black </t>
-  </si>
-  <si>
-    <t>White and gray</t>
-  </si>
-  <si>
-    <t>Black and White</t>
-  </si>
-  <si>
     <t>Circle</t>
   </si>
   <si>
@@ -2435,27 +2418,12 @@
     <t>Cartoon</t>
   </si>
   <si>
-    <t>Line filled</t>
-  </si>
-  <si>
-    <t>Colorful gouache</t>
-  </si>
-  <si>
-    <t>Rectangle flat</t>
-  </si>
-  <si>
-    <t>Colored crossing</t>
-  </si>
-  <si>
     <t>Colored</t>
   </si>
   <si>
     <t>Rectangle</t>
   </si>
   <si>
-    <t>Square filled</t>
-  </si>
-  <si>
     <t>Circle filled</t>
   </si>
   <si>
@@ -2468,15 +2436,9 @@
     <t>www.svg</t>
   </si>
   <si>
-    <t>Black and white circle</t>
-  </si>
-  <si>
     <t>Iconset (Black and White circle)</t>
   </si>
   <si>
-    <t>Black and white square</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/liu-square-blac</t>
   </si>
   <si>
@@ -2484,6 +2446,144 @@
   </si>
   <si>
     <t>Iconset (Black and white circle)</t>
+  </si>
+  <si>
+    <t>All bright</t>
+  </si>
+  <si>
+    <t>Shorttag</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>shaded</t>
+  </si>
+  <si>
+    <t>colored</t>
+  </si>
+  <si>
+    <t>filled</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>symbols</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>gouache</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>circle-filled</t>
+  </si>
+  <si>
+    <t>cartoon</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>Blade</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>bw-circle</t>
+  </si>
+  <si>
+    <t>bw-square</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>Flat</t>
+  </si>
+  <si>
+    <t>Gouache</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>Graytone</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>Black &amp; White circle</t>
+  </si>
+  <si>
+    <t>Black &amp; White square</t>
+  </si>
+  <si>
+    <t>Shaded</t>
+  </si>
+  <si>
+    <t>handcolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slim </t>
+  </si>
+  <si>
+    <t>Filled</t>
+  </si>
+  <si>
+    <t>colorcircle</t>
+  </si>
+  <si>
+    <t>Dumb idea</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2652,13 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2740,37 +2846,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:D29" totalsRowShown="0">
-  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G29" totalsRowShown="0">
+  <autoFilter ref="A1:G29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
+    <tableColumn id="5" xr3:uid="{79CAEB5E-6A18-4E6D-83AC-FD74CDD9413A}" name="Shorttag"/>
+    <tableColumn id="6" xr3:uid="{F48AF33B-726A-434C-B25A-12F1949D51F7}" name="Blade" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{5BABA781-E318-46EF-88D9-9A1819A6FD99}" name="Dumb idea" dataDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:L80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
     <sortCondition ref="E1:E80"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Iconset (default)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Iconset (Colored Filled)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Iconset (Colored Slim)" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Iconset (Simple)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Iconset (Simple Black)" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Iconset (Colored)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Iconset (default)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Iconset (Colored Filled)" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Iconset (Colored Slim)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Iconset (Simple)" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Iconset (Simple Black)" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Iconset (Colored)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3131,21 +3244,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.109375" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3158,8 +3274,17 @@
       <c r="D1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>268</v>
       </c>
@@ -3172,24 +3297,49 @@
       <c r="D2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F2" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-colorcircle-messenger/&gt;</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G29" si="0" xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</f>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>277</v>
       </c>
+      <c r="B3" t="s">
+        <v>802</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>272</v>
       </c>
       <c r="D3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F3" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-bright-messenger/&gt;</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>790</v>
+        <v>840</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>273</v>
@@ -3197,22 +3347,44 @@
       <c r="D4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>805</v>
+      </c>
+      <c r="F4" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-shaded-messenger/&gt;</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F5" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-hand-messenger/&gt;</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>268</v>
       </c>
@@ -3225,13 +3397,24 @@
       <c r="D6" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>841</v>
+      </c>
+      <c r="F6" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-handcolor-messenger/&gt;</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>791</v>
+        <v>845</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>279</v>
@@ -3239,41 +3422,74 @@
       <c r="D7" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>807</v>
+      </c>
+      <c r="F7" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-filled-messenger/&gt;</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>792</v>
+        <v>844</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>280</v>
       </c>
       <c r="D8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E8" t="s">
+        <v>808</v>
+      </c>
+      <c r="F8" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-slim-messenger/&gt;</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E9" t="s">
+        <v>818</v>
+      </c>
+      <c r="F9" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-simple-messenger/&gt;</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>794</v>
+        <v>843</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>282</v>
@@ -3281,27 +3497,49 @@
       <c r="D10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>809</v>
+      </c>
+      <c r="F10" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-symbols-messenger/&gt;</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>795</v>
+        <v>842</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E11" t="s">
+        <v>810</v>
+      </c>
+      <c r="F11" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-black-messenger/&gt;</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>796</v>
+        <v>836</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>285</v>
@@ -3309,13 +3547,24 @@
       <c r="D12" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>811</v>
+      </c>
+      <c r="F12" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-gray-messenger/&gt;</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>286</v>
@@ -3323,13 +3572,24 @@
       <c r="D13" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>823</v>
+      </c>
+      <c r="F13" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-bw-messenger/&gt;</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>287</v>
@@ -3337,55 +3597,99 @@
       <c r="D14" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F14" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-circle-messenger/&gt;</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E15" t="s">
+        <v>835</v>
+      </c>
+      <c r="F15" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-orig-messenger/&gt;</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>835</v>
+      </c>
+      <c r="F16" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-orig-messenger/&gt;</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E17" t="s">
+        <v>820</v>
+      </c>
+      <c r="F17" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-cartoon-messenger/&gt;</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>292</v>
@@ -3393,13 +3697,24 @@
       <c r="D18" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>834</v>
+      </c>
+      <c r="F18" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-line-messenger/&gt;</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>310</v>
@@ -3407,13 +3722,24 @@
       <c r="D19" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>812</v>
+      </c>
+      <c r="F19" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-gouache-messenger/&gt;</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>311</v>
@@ -3421,131 +3747,241 @@
       <c r="D20" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>813</v>
+      </c>
+      <c r="F20" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-flat-messenger/&gt;</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>268</v>
       </c>
       <c r="B21" t="s">
+        <v>814</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D21" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>831</v>
+      </c>
+      <c r="F21" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-shadow-messenger/&gt;</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>827</v>
+      </c>
+      <c r="F22" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-gradient-messenger/&gt;</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E23" t="s">
+        <v>806</v>
+      </c>
+      <c r="F23" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-colored-messenger/&gt;</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
       <c r="B24" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D24" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>821</v>
+      </c>
+      <c r="F24" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-rectangle-messenger/&gt;</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D25" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>816</v>
+      </c>
+      <c r="F25" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-square-messenger/&gt;</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>283</v>
       </c>
       <c r="B26" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D26" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>819</v>
+      </c>
+      <c r="F26" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-circle-filled-messenger/&gt;</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D27" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F27" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-linear-messenger/&gt;</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>268</v>
       </c>
       <c r="B28" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="D28" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>824</v>
+      </c>
+      <c r="F28" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-bw-circle-messenger/&gt;</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>268</v>
       </c>
       <c r="B29" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="E29" t="s">
+        <v>825</v>
+      </c>
+      <c r="F29" t="str">
+        <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
+        <v>&lt;x-icon-bw-square-messenger/&gt;</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -3563,21 +3999,21 @@
     <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
@@ -3591,8 +4027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3628,25 +4064,25 @@
         <v>221</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="J1" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3666,23 +4102,23 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3755,7 +4191,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -3768,29 +4204,29 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3810,23 +4246,23 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3894,23 +4330,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -3930,23 +4366,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -3966,23 +4402,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -4002,23 +4438,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -4038,23 +4474,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -4074,23 +4510,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -4110,21 +4546,21 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -4168,23 +4604,23 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -4204,23 +4640,23 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -4240,19 +4676,19 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -4272,19 +4708,19 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -4400,23 +4836,23 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -4436,23 +4872,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -4472,21 +4908,21 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -4509,7 +4945,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4561,7 +4997,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -4611,7 +5047,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -4624,7 +5060,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -4683,7 +5119,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -4792,29 +5228,29 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -4834,23 +5270,23 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -4862,29 +5298,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -4920,25 +5356,25 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -4982,25 +5418,25 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5020,25 +5456,25 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5058,25 +5494,25 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -5096,23 +5532,23 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -5132,23 +5568,23 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -5168,23 +5604,23 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -5204,23 +5640,23 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -5240,23 +5676,23 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5276,23 +5712,23 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -5312,23 +5748,23 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -5348,23 +5784,23 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -5384,23 +5820,23 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5420,23 +5856,23 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5456,23 +5892,23 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5492,23 +5928,23 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -5528,19 +5964,19 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -5632,23 +6068,23 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5692,23 +6128,23 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5720,7 +6156,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -5742,7 +6178,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -5797,13 +6233,13 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -5851,7 +6287,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -5874,23 +6310,23 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -5910,23 +6346,23 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -5946,23 +6382,23 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -5982,23 +6418,23 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6021,11 +6457,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -6046,23 +6482,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -6078,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6114,178 +6550,178 @@
         <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L1" t="s">
         <v>531</v>
       </c>
-      <c r="L1" t="s">
-        <v>532</v>
-      </c>
       <c r="M1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="P1" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="Q1" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="O2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,96 +6732,96 @@
         <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Q5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +6835,46 @@
         <v>306</v>
       </c>
       <c r="D7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,90 +6885,90 @@
         <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,95 +6979,95 @@
         <v>230</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Q11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,78 +7081,78 @@
         <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,107 +7163,107 @@
         <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,46 +7274,46 @@
         <v>262</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,31 +7324,31 @@
         <v>265</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,46 +7359,46 @@
         <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,116 +7409,116 @@
         <v>267</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,81 +7529,81 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C25" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,122 +7617,122 @@
         <v>307</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>542</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="C27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Q27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,46 +7743,46 @@
         <v>235</v>
       </c>
       <c r="C29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,87 +7793,87 @@
         <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -7483,8 +7919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7513,54 +7949,54 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G1" t="s">
         <v>387</v>
       </c>
-      <c r="G1" t="s">
-        <v>388</v>
-      </c>
       <c r="H1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -7571,22 +8007,22 @@
         <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7597,28 +8033,28 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7629,27 +8065,27 @@
         <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7663,180 +8099,180 @@
         <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7852,86 +8288,86 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" t="s">
         <v>385</v>
       </c>
-      <c r="D16" t="s">
-        <v>386</v>
-      </c>
       <c r="E16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F17" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F17" t="s">
-        <v>438</v>
-      </c>
       <c r="G17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7942,13 +8378,13 @@
         <v>249</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7956,31 +8392,31 @@
         <v>238</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -7991,31 +8427,31 @@
         <v>246</v>
       </c>
       <c r="C21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -8026,54 +8462,54 @@
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -8087,47 +8523,47 @@
         <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>417</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" t="s">
         <v>418</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D25" t="s">
-        <v>419</v>
-      </c>
       <c r="E25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E26" t="s">
         <v>429</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E26" t="s">
-        <v>430</v>
-      </c>
       <c r="I26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8143,59 +8579,59 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8211,36 +8647,36 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8251,94 +8687,94 @@
         <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
       <c r="E35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -8401,7 +8837,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
         <v>219</v>
@@ -8410,7 +8846,7 @@
         <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8421,10 +8857,10 @@
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8435,7 +8871,7 @@
         <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -8446,7 +8882,7 @@
         <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8457,10 +8893,10 @@
         <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8471,7 +8907,7 @@
         <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8479,7 +8915,7 @@
         <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8490,15 +8926,15 @@
         <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -8520,8 +8956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8543,91 +8979,91 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1" t="s">
         <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N1" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="O1" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -8635,1208 +9071,1208 @@
         <v>298</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C5" t="s">
         <v>778</v>
       </c>
-      <c r="C5" t="s">
-        <v>779</v>
-      </c>
       <c r="D5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C10" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I13" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C20" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C21" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O22" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C23" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K25" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C26" t="s">
+        <v>725</v>
+      </c>
+      <c r="I26" t="s">
+        <v>725</v>
+      </c>
+      <c r="O26" t="s">
         <v>726</v>
-      </c>
-      <c r="I26" t="s">
-        <v>726</v>
-      </c>
-      <c r="O26" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O28" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C31" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K32" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C35" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>780</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C36" t="s">
         <v>781</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C36" t="s">
-        <v>782</v>
-      </c>
       <c r="E36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="C37" t="s">
         <v>784</v>
-      </c>
-      <c r="C37" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C41" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C44" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C45" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K46" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D47" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="L48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N48" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O49" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C50" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C51" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D51" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C52" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="L53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O53" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C54" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D54" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K54" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C55" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M56" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="O57" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C58" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C59" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N60" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C61" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C62" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I62" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M62" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C63" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K63" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C64" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C65" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J65" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C66" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C67" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J67" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K67" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M68" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C71" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="O71" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O72" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C74" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C75" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C76" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J76" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C77" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D77" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O77" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C78" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C79" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E79" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J79" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K79" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O79" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G80" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H80" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="I80" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="L80" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="N80" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124101D8-AEB6-4C49-90AF-4EAD1DA81B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B14197E-9629-4F5B-9225-888241FB8D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
-    <sheet name="Fileicons" sheetId="1" r:id="rId2"/>
-    <sheet name="Social Networks" sheetId="2" r:id="rId3"/>
-    <sheet name="Payment" sheetId="3" r:id="rId4"/>
-    <sheet name="Delivery" sheetId="5" r:id="rId5"/>
-    <sheet name="Others" sheetId="6" r:id="rId6"/>
+    <sheet name="All" sheetId="7" r:id="rId2"/>
+    <sheet name="Fileicons" sheetId="1" r:id="rId3"/>
+    <sheet name="Social Networks" sheetId="2" r:id="rId4"/>
+    <sheet name="Payment" sheetId="3" r:id="rId5"/>
+    <sheet name="Delivery" sheetId="5" r:id="rId6"/>
+    <sheet name="Others" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="859">
   <si>
     <t>doc</t>
   </si>
@@ -672,9 +673,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Fileicons</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -846,9 +844,6 @@
     <t>https://www.snapchat.com/de-DE</t>
   </si>
   <si>
-    <t>Social icons</t>
-  </si>
-  <si>
     <t>Circle colored</t>
   </si>
   <si>
@@ -873,9 +868,6 @@
     <t>Hand drawn colored</t>
   </si>
   <si>
-    <t xml:space="preserve">All </t>
-  </si>
-  <si>
     <t>CC BY 4.0</t>
   </si>
   <si>
@@ -891,9 +883,6 @@
     <t>https://www.iconfinder.com/iconsets/file-set-volume-1</t>
   </si>
   <si>
-    <t>payment icons</t>
-  </si>
-  <si>
     <t>https://www.iconfinder.com/iconsets/file-extension-names-vol-3-2</t>
   </si>
   <si>
@@ -2584,6 +2573,51 @@
   </si>
   <si>
     <t>Dumb idea</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>File-icon</t>
+  </si>
+  <si>
+    <t>Social-icon</t>
+  </si>
+  <si>
+    <t>STandard for the Exchange of Product model data (STEP)</t>
+  </si>
+  <si>
+    <t>Comma Separated Values file (CSV)</t>
+  </si>
+  <si>
+    <t>Audio Video Interleave (AVI)</t>
+  </si>
+  <si>
+    <t>Audio Interchange File Format (AIFF)</t>
+  </si>
+  <si>
+    <t>Collada 3D (DAE)</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://fileinfo.com/extension/</t>
+  </si>
+  <si>
+    <t>https://fileinfo.com/extension/ai</t>
+  </si>
+  <si>
+    <t>https://fileinfo.com/extension/aif</t>
+  </si>
+  <si>
+    <t>https://fileinfo.com/extension/aiff</t>
+  </si>
+  <si>
+    <t>https://fileinfo.com/extension/apk</t>
   </si>
 </sst>
 </file>
@@ -2652,12 +2686,23 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2832,6 +2877,106 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2846,18 +2991,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:G29" totalsRowShown="0">
-  <autoFilter ref="A1:G29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
     <tableColumn id="5" xr3:uid="{79CAEB5E-6A18-4E6D-83AC-FD74CDD9413A}" name="Shorttag"/>
-    <tableColumn id="6" xr3:uid="{F48AF33B-726A-434C-B25A-12F1949D51F7}" name="Blade" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{F48AF33B-726A-434C-B25A-12F1949D51F7}" name="Blade" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BABA781-E318-46EF-88D9-9A1819A6FD99}" name="Dumb idea" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{5BABA781-E318-46EF-88D9-9A1819A6FD99}" name="Dumb idea" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2866,30 +3010,48 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:L80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
-    <sortCondition ref="E1:E80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F842210A-5182-42BF-BBB5-15205BFDE1F5}" name="Tabelle17" displayName="Tabelle17" ref="A1:F110" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:F110" xr:uid="{F842210A-5182-42BF-BBB5-15205BFDE1F5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
+    <sortCondition ref="F1:F80"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Iconset (default)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Iconset (Colored Filled)" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Iconset (Colored Slim)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Iconset (Simple)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Iconset (Simple Black)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Iconset (Colored)" dataDxfId="2"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D6EC4AEA-0B54-455D-9EB6-4D72C1BEC745}" name="Name" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{2CCDA160-9392-45D9-A2E1-6325E3D244CA}" name="Category" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{7D69D026-05A2-47BB-A98B-509FA764532D}" name="Type" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{76C384E6-D4EC-4D25-A527-CF26816C8435}" name="Details" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{99D7A94B-4225-44C3-A04E-9CC84C38A073}" name="Link" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0934E55A-0034-473A-B1BB-E4E9AD94C40A}" name="Filename" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:L80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
+    <sortCondition ref="E1:E80"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Iconset (default)" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Iconset (Colored Filled)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Iconset (Colored Slim)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Iconset (Simple)" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Iconset (Simple Black)" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Iconset (Colored)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
   <autoFilter ref="A1:Q31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
@@ -2918,7 +3080,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
   <autoFilter ref="A1:K37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
@@ -2941,7 +3103,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
   <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
@@ -2954,7 +3116,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
   <autoFilter ref="A1:O80" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
@@ -3244,776 +3406,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
-    <col min="3" max="3" width="62.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>799</v>
       </c>
       <c r="E1" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="F1" t="s">
-        <v>822</v>
-      </c>
-      <c r="G1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="D2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F2" t="str">
+        <v>842</v>
+      </c>
+      <c r="E2" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-colorcircle-messenger/&gt;</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G29" si="0" xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</f>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F29" si="0" xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</f>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" t="s">
-        <v>802</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>798</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" t="s">
-        <v>804</v>
-      </c>
-      <c r="F3" t="str">
+        <v>800</v>
+      </c>
+      <c r="E3" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-bright-messenger/&gt;</v>
       </c>
-      <c r="G3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" t="s">
-        <v>840</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>273</v>
+        <v>836</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>269</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" t="s">
-        <v>805</v>
-      </c>
-      <c r="F4" t="str">
+        <v>801</v>
+      </c>
+      <c r="E4" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-shaded-messenger/&gt;</v>
       </c>
-      <c r="G4" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>274</v>
+        <v>506</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E5" t="s">
-        <v>817</v>
-      </c>
-      <c r="F5" t="str">
+        <v>813</v>
+      </c>
+      <c r="E5" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-hand-messenger/&gt;</v>
       </c>
-      <c r="G5" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
         <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" t="s">
-        <v>841</v>
-      </c>
-      <c r="F6" t="str">
+        <v>837</v>
+      </c>
+      <c r="E6" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-handcolor-messenger/&gt;</v>
       </c>
-      <c r="G6" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>845</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>279</v>
+        <v>841</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" t="s">
-        <v>807</v>
-      </c>
-      <c r="F7" t="str">
+        <v>803</v>
+      </c>
+      <c r="E7" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-filled-messenger/&gt;</v>
       </c>
-      <c r="G7" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>844</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>280</v>
+        <v>840</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" t="s">
-        <v>808</v>
-      </c>
-      <c r="F8" t="str">
+        <v>804</v>
+      </c>
+      <c r="E8" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-slim-messenger/&gt;</v>
       </c>
-      <c r="G8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>788</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>281</v>
+        <v>784</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>312</v>
       </c>
       <c r="D9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E9" t="s">
-        <v>818</v>
-      </c>
-      <c r="F9" t="str">
+        <v>814</v>
+      </c>
+      <c r="E9" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-simple-messenger/&gt;</v>
       </c>
-      <c r="G9" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>843</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>282</v>
+        <v>839</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" t="s">
-        <v>809</v>
-      </c>
-      <c r="F10" t="str">
+        <v>805</v>
+      </c>
+      <c r="E10" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-symbols-messenger/&gt;</v>
       </c>
-      <c r="G10" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>842</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>284</v>
+        <v>838</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" t="s">
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" t="s">
-        <v>810</v>
-      </c>
-      <c r="F11" t="str">
+        <v>806</v>
+      </c>
+      <c r="E11" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-black-messenger/&gt;</v>
       </c>
-      <c r="G11" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" t="s">
-        <v>836</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>285</v>
+        <v>832</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>269</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" t="s">
-        <v>811</v>
-      </c>
-      <c r="F12" t="str">
+        <v>807</v>
+      </c>
+      <c r="E12" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-gray-messenger/&gt;</v>
       </c>
-      <c r="G12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" t="s">
-        <v>837</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>286</v>
+        <v>833</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" t="s">
+        <v>269</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" t="s">
-        <v>823</v>
-      </c>
-      <c r="F13" t="str">
+        <v>819</v>
+      </c>
+      <c r="E13" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-bw-messenger/&gt;</v>
       </c>
-      <c r="G13" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B14" t="s">
-        <v>789</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>287</v>
+      <c r="C14" t="s">
+        <v>284</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" t="s">
-        <v>815</v>
-      </c>
-      <c r="F14" t="str">
+        <v>811</v>
+      </c>
+      <c r="E14" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-circle-messenger/&gt;</v>
       </c>
-      <c r="G14" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B15" t="s">
-        <v>790</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>786</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" t="s">
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>316</v>
-      </c>
-      <c r="E15" t="s">
-        <v>835</v>
-      </c>
-      <c r="F15" t="str">
+        <v>831</v>
+      </c>
+      <c r="E15" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-orig-messenger/&gt;</v>
       </c>
-      <c r="G15" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" t="s">
-        <v>790</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>290</v>
+        <v>786</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" t="s">
-        <v>835</v>
-      </c>
-      <c r="F16" t="str">
+        <v>831</v>
+      </c>
+      <c r="E16" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-orig-messenger/&gt;</v>
       </c>
-      <c r="G16" t="str">
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" t="s">
-        <v>791</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>291</v>
+        <v>787</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" t="s">
+        <v>312</v>
       </c>
       <c r="D17" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" t="s">
-        <v>820</v>
-      </c>
-      <c r="F17" t="str">
+        <v>816</v>
+      </c>
+      <c r="E17" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-cartoon-messenger/&gt;</v>
       </c>
-      <c r="G17" t="str">
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" t="s">
-        <v>780</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>292</v>
+        <v>776</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" t="s">
-        <v>834</v>
-      </c>
-      <c r="F18" t="str">
+        <v>830</v>
+      </c>
+      <c r="E18" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-line-messenger/&gt;</v>
       </c>
-      <c r="G18" t="str">
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B19" t="s">
-        <v>833</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>310</v>
+        <v>829</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E19" t="s">
-        <v>812</v>
-      </c>
-      <c r="F19" t="str">
+        <v>808</v>
+      </c>
+      <c r="E19" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-gouache-messenger/&gt;</v>
       </c>
-      <c r="G19" t="str">
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" t="s">
-        <v>832</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>311</v>
+        <v>828</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" t="s">
-        <v>813</v>
-      </c>
-      <c r="F20" t="str">
+        <v>809</v>
+      </c>
+      <c r="E20" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-flat-messenger/&gt;</v>
       </c>
-      <c r="G20" t="str">
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21" t="s">
-        <v>814</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>312</v>
+        <v>810</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C21" t="s">
+        <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E21" t="s">
-        <v>831</v>
-      </c>
-      <c r="F21" t="str">
+        <v>827</v>
+      </c>
+      <c r="E21" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-shadow-messenger/&gt;</v>
       </c>
-      <c r="G21" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" t="s">
-        <v>830</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>313</v>
+        <v>826</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
       </c>
       <c r="D22" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" t="s">
-        <v>827</v>
-      </c>
-      <c r="F22" t="str">
+        <v>823</v>
+      </c>
+      <c r="E22" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-gradient-messenger/&gt;</v>
       </c>
-      <c r="G22" t="str">
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B23" t="s">
-        <v>792</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>314</v>
+        <v>788</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" t="s">
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
-      </c>
-      <c r="E23" t="s">
-        <v>806</v>
-      </c>
-      <c r="F23" t="str">
+        <v>802</v>
+      </c>
+      <c r="E23" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-colored-messenger/&gt;</v>
       </c>
-      <c r="G23" t="str">
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>283</v>
-      </c>
-      <c r="B24" t="s">
-        <v>793</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>315</v>
+        <v>789</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" t="s">
+        <v>284</v>
       </c>
       <c r="D24" t="s">
-        <v>288</v>
-      </c>
-      <c r="E24" t="s">
-        <v>821</v>
-      </c>
-      <c r="F24" t="str">
+        <v>817</v>
+      </c>
+      <c r="E24" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-rectangle-messenger/&gt;</v>
       </c>
-      <c r="G24" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>283</v>
-      </c>
-      <c r="B25" t="s">
-        <v>828</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>392</v>
+        <v>824</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" t="s">
-        <v>816</v>
-      </c>
-      <c r="F25" t="str">
+        <v>812</v>
+      </c>
+      <c r="E25" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-square-messenger/&gt;</v>
       </c>
-      <c r="G25" t="str">
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" t="s">
-        <v>794</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>394</v>
+        <v>790</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
       </c>
       <c r="D26" t="s">
-        <v>271</v>
-      </c>
-      <c r="E26" t="s">
-        <v>819</v>
-      </c>
-      <c r="F26" t="str">
+        <v>815</v>
+      </c>
+      <c r="E26" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-circle-filled-messenger/&gt;</v>
       </c>
-      <c r="G26" t="str">
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" t="s">
-        <v>829</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>786</v>
+        <v>825</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
       </c>
       <c r="D27" t="s">
-        <v>271</v>
-      </c>
-      <c r="E27" t="s">
-        <v>826</v>
-      </c>
-      <c r="F27" t="str">
+        <v>822</v>
+      </c>
+      <c r="E27" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-linear-messenger/&gt;</v>
       </c>
-      <c r="G27" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>268</v>
-      </c>
-      <c r="B28" t="s">
-        <v>838</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>795</v>
+        <v>834</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
       </c>
       <c r="D28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E28" t="s">
-        <v>824</v>
-      </c>
-      <c r="F28" t="str">
+        <v>820</v>
+      </c>
+      <c r="E28" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-bw-circle-messenger/&gt;</v>
       </c>
-      <c r="G28" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B29" t="s">
-        <v>839</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>799</v>
+        <v>835</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C29" t="s">
+        <v>312</v>
       </c>
       <c r="D29" t="s">
-        <v>316</v>
-      </c>
-      <c r="E29" t="s">
-        <v>825</v>
-      </c>
-      <c r="F29" t="str">
+        <v>821</v>
+      </c>
+      <c r="E29" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
         <v>&lt;x-icon-bw-square-messenger/&gt;</v>
       </c>
-      <c r="G29" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
@@ -4024,11 +4098,2148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95146988-199B-4F70-9CDC-5A6D58FB4EDA}">
+  <dimension ref="A1:F110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F81" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F83" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F84" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F85" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F86" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F88" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F90" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F91" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F93" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F94" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="F95" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F96" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F97" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F98" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F101" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F102" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F103" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F106" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F107" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F108" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{BAEDAB51-31E5-4D84-A719-1168E5BF6806}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{62ECFD0E-FC2B-4FFD-983A-7304DB54AB76}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{37A5969A-C4D7-4769-A3B2-47A0F2031806}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{FC97C20E-763F-41C3-9DF1-105D2FEF3668}"/>
+    <hyperlink ref="E86" r:id="rId5" xr:uid="{04A36448-1F49-4869-98E6-9C93AAAFC749}"/>
+    <hyperlink ref="E105" r:id="rId6" xr:uid="{F79F0C3D-5E2A-46D5-8740-44142311719E}"/>
+    <hyperlink ref="E92" r:id="rId7" xr:uid="{66663DF5-6D65-4B07-BAD5-1F5E8FAD6984}"/>
+    <hyperlink ref="E89" r:id="rId8" xr:uid="{D1153C9B-5796-4CE5-ACA9-36874880D4AF}"/>
+    <hyperlink ref="E94" r:id="rId9" xr:uid="{3D3AF85D-5820-4030-8405-12A2CFF35784}"/>
+    <hyperlink ref="E109" r:id="rId10" xr:uid="{4D3589E2-2773-4B09-B854-80E0C3E47138}"/>
+    <hyperlink ref="E110" r:id="rId11" xr:uid="{13B9C2A5-113C-48F6-AD9A-3BFF1A648E29}"/>
+    <hyperlink ref="E108" r:id="rId12" xr:uid="{F427D7D8-0E00-453E-86DC-B471157ACE90}"/>
+    <hyperlink ref="E87" r:id="rId13" xr:uid="{E1CA009B-186E-442D-A5A6-6DF554F31464}"/>
+    <hyperlink ref="E99" r:id="rId14" xr:uid="{C7B5FB12-3685-4DBB-9CD3-1E663464E224}"/>
+    <hyperlink ref="E97" r:id="rId15" xr:uid="{CBBD31A2-412C-4118-A732-CCF9B30CC81B}"/>
+    <hyperlink ref="E84" r:id="rId16" xr:uid="{94ADC933-CF48-4F47-8B3C-58450EAEC5C6}"/>
+    <hyperlink ref="E98" r:id="rId17" xr:uid="{EC5147A0-5E7C-4E81-8F08-61DF4EB32B0D}"/>
+    <hyperlink ref="E103" r:id="rId18" xr:uid="{4181F3E3-214A-400E-8A8F-2C99039F35DB}"/>
+    <hyperlink ref="E100" r:id="rId19" xr:uid="{C3F71EF0-924A-4234-8618-863AA15CFA6C}"/>
+    <hyperlink ref="E82" r:id="rId20" xr:uid="{AC624BAD-540B-4CEF-854B-F98629EF0620}"/>
+    <hyperlink ref="E81" r:id="rId21" xr:uid="{987C2B47-349F-4B33-B4F9-401F5FEFEBD1}"/>
+    <hyperlink ref="E83" r:id="rId22" xr:uid="{852C5680-4EFB-435A-AB55-5305C6E8E018}"/>
+    <hyperlink ref="E85" r:id="rId23" xr:uid="{7B15047C-0FE4-4F65-A02A-DC6364608628}"/>
+    <hyperlink ref="E88" r:id="rId24" xr:uid="{5075E53C-A09B-4EEE-BD44-38E9697EE371}"/>
+    <hyperlink ref="E90" r:id="rId25" xr:uid="{0D3DF969-A09A-444C-8B24-F277E3E6E576}"/>
+    <hyperlink ref="E91" r:id="rId26" xr:uid="{66F0380A-D134-4C50-A612-22DAD6C63E30}"/>
+    <hyperlink ref="E93" r:id="rId27" xr:uid="{1D9C20A9-974F-49D6-8731-69D3DF935A1E}"/>
+    <hyperlink ref="E96" r:id="rId28" xr:uid="{A205535D-877A-4859-AB07-FB91BA36A884}"/>
+    <hyperlink ref="E101" r:id="rId29" xr:uid="{069AAA21-1A10-40A2-8657-AEE76A1D4389}"/>
+    <hyperlink ref="E102" r:id="rId30" xr:uid="{47AD5573-3D96-492D-91E5-E565B15BF918}"/>
+    <hyperlink ref="E104" r:id="rId31" xr:uid="{84ACC1A0-EB6C-4606-8B6A-190E95F7E46B}"/>
+    <hyperlink ref="E106" r:id="rId32" xr:uid="{B4E16203-4BFA-41EE-A1D3-90C7B350181E}"/>
+    <hyperlink ref="E107" r:id="rId33" xr:uid="{38E40E19-C6FD-4A81-9E97-377A0685DDFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId34"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4061,28 +6272,28 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -4102,23 +6313,23 @@
         <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4191,7 +6402,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L5" s="4"/>
     </row>
@@ -4204,29 +6415,29 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4246,23 +6457,23 @@
         <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,23 +6541,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -4366,23 +6577,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -4402,23 +6613,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -4438,23 +6649,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -4474,23 +6685,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -4510,23 +6721,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -4546,21 +6757,21 @@
         <v>129</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -4604,23 +6815,23 @@
         <v>93</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -4640,23 +6851,23 @@
         <v>29</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -4676,19 +6887,19 @@
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -4708,19 +6919,19 @@
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -4836,23 +7047,23 @@
         <v>30</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -4872,23 +7083,23 @@
         <v>30</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -4908,21 +7119,21 @@
         <v>49</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -4945,7 +7156,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4997,7 +7208,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L31" s="4"/>
     </row>
@@ -5047,7 +7258,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L33" s="4"/>
     </row>
@@ -5060,7 +7271,7 @@
         <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>199</v>
@@ -5119,7 +7330,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -5228,29 +7439,29 @@
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -5270,23 +7481,23 @@
         <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -5298,29 +7509,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -5356,25 +7567,25 @@
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -5418,25 +7629,25 @@
         <v>125</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5456,25 +7667,25 @@
         <v>46</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5494,25 +7705,25 @@
         <v>46</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -5532,23 +7743,23 @@
         <v>32</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -5568,23 +7779,23 @@
         <v>18</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -5604,23 +7815,23 @@
         <v>18</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -5640,23 +7851,23 @@
         <v>18</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -5676,23 +7887,23 @@
         <v>18</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -5712,23 +7923,23 @@
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -5748,23 +7959,23 @@
         <v>18</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -5784,23 +7995,23 @@
         <v>18</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -5820,23 +8031,23 @@
         <v>18</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -5856,23 +8067,23 @@
         <v>18</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -5892,23 +8103,23 @@
         <v>18</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -5928,23 +8139,23 @@
         <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -5964,19 +8175,19 @@
         <v>104</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -6068,23 +8279,23 @@
         <v>90</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6128,23 +8339,23 @@
         <v>86</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6156,7 +8367,7 @@
         <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>204</v>
@@ -6178,7 +8389,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>204</v>
@@ -6233,13 +8444,13 @@
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -6287,7 +8498,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6310,23 +8521,23 @@
         <v>6</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6346,23 +8557,23 @@
         <v>6</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6382,23 +8593,23 @@
         <v>6</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6418,23 +8629,23 @@
         <v>6</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6457,11 +8668,11 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -6482,23 +8693,23 @@
         <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6510,12 +8721,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6544,284 +8755,284 @@
         <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1" t="s">
         <v>524</v>
       </c>
-      <c r="H1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>526</v>
       </c>
-      <c r="J1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K1" t="s">
-        <v>530</v>
-      </c>
       <c r="L1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="N1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="P1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="Q1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="K2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="N2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="O2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Q2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="L4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="C5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" t="s">
         <v>465</v>
       </c>
-      <c r="D5" t="s">
-        <v>469</v>
-      </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="I5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="N5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="Q5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="I6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,245 +9040,245 @@
         <v>205</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Q7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="P8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C11" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="Q11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,535 +9286,535 @@
         <v>208</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="N13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q13" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="N14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Q14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="N15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q15" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C16" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I16" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="J16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q16" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C17" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="O19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q19" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q20" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="O21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="M22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="N22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="P22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q22" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C23" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="N23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="Q23" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="N24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q24" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C25" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="O25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P25" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,269 +9822,269 @@
         <v>207</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q26" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C27" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="I27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="J27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q27" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C28" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="K28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="N28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="P28" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="P29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q29" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="N30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="N31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="O31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="P31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -7915,7 +10126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
@@ -7940,841 +10151,841 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" t="s">
         <v>389</v>
       </c>
-      <c r="I1" t="s">
-        <v>393</v>
-      </c>
       <c r="J1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="K1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J10" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K18" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K22" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I24" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I25" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I26" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G28" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I28" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="I29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
         <v>254</v>
-      </c>
-      <c r="C31" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H33" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K34" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J35" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J36" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I37" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8821,7 +11032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -8831,110 +11042,111 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="51.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -8952,11 +11164,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -8979,1300 +11191,1300 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="E1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" t="s">
         <v>526</v>
       </c>
-      <c r="F1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I1" t="s">
-        <v>528</v>
-      </c>
-      <c r="J1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L1" t="s">
-        <v>530</v>
-      </c>
       <c r="M1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="N1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="O1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="J5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="K5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="O5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K6" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="K7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C8" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="O8" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C9" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C10" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="K11" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="K12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M13" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="I16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="O16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D17" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D19" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C20" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C21" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="K22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="M22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="O22" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C23" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C24" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="O24" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C25" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D25" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E25" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I25" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="K25" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C26" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I26" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="O26" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C27" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D27" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J27" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="K28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="O28" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C29" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C30" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D30" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="O30" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C31" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C32" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="K32" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C33" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C34" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C35" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C36" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E36" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="M36" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>775</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>783</v>
-      </c>
       <c r="C37" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C38" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="K38" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C40" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J40" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C41" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C42" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C43" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D43" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C44" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C45" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C46" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D46" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="K46" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C47" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D47" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="K48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="L48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="N48" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C49" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G49" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H49" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="N49" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="O49" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C50" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C51" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D51" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C52" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="I53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="N53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="O53" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C54" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D54" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="K54" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C55" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C56" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="J56" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K56" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="M56" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="J57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="K57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="L57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="M57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="N57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="O57" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C58" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C59" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C60" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G60" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="H60" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="L60" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="N60" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C61" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C62" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I62" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M62" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C63" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="K63" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C64" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C65" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J65" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C66" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C67" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="J67" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="K67" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="I68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="J68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="M68" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="J69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="L69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="M69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="N69" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C70" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C71" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="O71" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C72" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D72" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E72" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="O72" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C73" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D73" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C74" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C75" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C76" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="J76" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C77" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D77" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="O77" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C78" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="J79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="K79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="O79" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G80" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H80" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I80" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="L80" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="N80" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\tallui\_icons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B14197E-9629-4F5B-9225-888241FB8D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Delivery" sheetId="5" r:id="rId6"/>
     <sheet name="Others" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2989" uniqueCount="960">
   <si>
     <t>doc</t>
   </si>
@@ -2618,12 +2617,315 @@
   </si>
   <si>
     <t>https://fileinfo.com/extension/apk</t>
+  </si>
+  <si>
+    <t>origsocial</t>
+  </si>
+  <si>
+    <t>2co</t>
+  </si>
+  <si>
+    <t>bcc</t>
+  </si>
+  <si>
+    <t>cirrus</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>jcb</t>
+  </si>
+  <si>
+    <t>paypoint</t>
+  </si>
+  <si>
+    <t>recurly</t>
+  </si>
+  <si>
+    <t>shopify</t>
+  </si>
+  <si>
+    <t>skrill</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>worldpay</t>
+  </si>
+  <si>
+    <t>diners</t>
+  </si>
+  <si>
+    <t>directdebit</t>
+  </si>
+  <si>
+    <t>rbsworldpay</t>
+  </si>
+  <si>
+    <t>unionpay</t>
+  </si>
+  <si>
+    <t>westernunion</t>
+  </si>
+  <si>
+    <t>Payment-icoon</t>
+  </si>
+  <si>
+    <t>Delivery-icon</t>
+  </si>
+  <si>
+    <t>Others-icon</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>adobe</t>
+  </si>
+  <si>
+    <t>airbnb</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>appstore</t>
+  </si>
+  <si>
+    <t>audible</t>
+  </si>
+  <si>
+    <t>bing</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>codepen</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple </t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>evernote</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>feedburner</t>
+  </si>
+  <si>
+    <t>finder</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>fiverr</t>
+  </si>
+  <si>
+    <t>foursquare</t>
+  </si>
+  <si>
+    <t>gitlab</t>
+  </si>
+  <si>
+    <t>goodreads</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>googleplay</t>
+  </si>
+  <si>
+    <t>hangouts</t>
+  </si>
+  <si>
+    <t>internetexplorer</t>
+  </si>
+  <si>
+    <t>joomla</t>
+  </si>
+  <si>
+    <t>kik</t>
+  </si>
+  <si>
+    <t>laravel</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>magento</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>myspace</t>
+  </si>
+  <si>
+    <t>napster</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>nike</t>
+  </si>
+  <si>
+    <t>nvidia</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>periscope</t>
+  </si>
+  <si>
+    <t>phyton</t>
+  </si>
+  <si>
+    <t>quicktime</t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>rss</t>
+  </si>
+  <si>
+    <t>safari</t>
+  </si>
+  <si>
+    <t>shazam</t>
+  </si>
+  <si>
+    <t>slack</t>
+  </si>
+  <si>
+    <t>soundcloud</t>
+  </si>
+  <si>
+    <t>stratis</t>
+  </si>
+  <si>
+    <t>strava</t>
+  </si>
+  <si>
+    <t>swarm</t>
+  </si>
+  <si>
+    <t>teamviewer</t>
+  </si>
+  <si>
+    <t>telegram</t>
+  </si>
+  <si>
+    <t>trello</t>
+  </si>
+  <si>
+    <t>typo3</t>
+  </si>
+  <si>
+    <t>uber</t>
+  </si>
+  <si>
+    <t>usb</t>
+  </si>
+  <si>
+    <t>viadeo</t>
+  </si>
+  <si>
+    <t>viber</t>
+  </si>
+  <si>
+    <t>vk</t>
+  </si>
+  <si>
+    <t>weebly</t>
+  </si>
+  <si>
+    <t>wikipedia</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>xbox</t>
+  </si>
+  <si>
+    <t>xiaomi</t>
+  </si>
+  <si>
+    <t>xing</t>
+  </si>
+  <si>
+    <t>yahoo</t>
+  </si>
+  <si>
+    <t>yandex</t>
+  </si>
+  <si>
+    <t>yelp</t>
+  </si>
+  <si>
+    <t>www</t>
+  </si>
+  <si>
+    <t>googleads</t>
+  </si>
+  <si>
+    <t>Googleads</t>
+  </si>
+  <si>
+    <t>https://ads.google.com/intl/de_de/getstarted/?subid=de-de-ha-aw-bk-c-bau!o3~CjwKCAjw7vuUBhBUEiwAEdu2pPqomm-k4iy4-2CmJtvdHbpiGa3Rb-hni79l-1l9lSzcK5XBCIczchoCblcQAvD_BwE~110530999343~kwd-94527731~11441911114~474684996654</t>
+  </si>
+  <si>
+    <t>Social media platform</t>
+  </si>
+  <si>
+    <t>Bloghosting</t>
+  </si>
+  <si>
+    <t>Social-News-Portal</t>
+  </si>
+  <si>
+    <t>Filehosting</t>
+  </si>
+  <si>
+    <t>Development platform</t>
+  </si>
+  <si>
+    <t>Multimedia management program</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2687,23 +2989,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2891,6 +3176,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2991,17 +3293,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
-    <tableColumn id="5" xr3:uid="{79CAEB5E-6A18-4E6D-83AC-FD74CDD9413A}" name="Shorttag"/>
-    <tableColumn id="6" xr3:uid="{F48AF33B-726A-434C-B25A-12F1949D51F7}" name="Blade" dataDxfId="23">
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Source"/>
+    <tableColumn id="4" name="License"/>
+    <tableColumn id="5" name="Shorttag"/>
+    <tableColumn id="6" name="Blade" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5BABA781-E318-46EF-88D9-9A1819A6FD99}" name="Dumb idea" dataDxfId="22">
+    <tableColumn id="7" name="Dumb idea" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3010,134 +3312,134 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F842210A-5182-42BF-BBB5-15205BFDE1F5}" name="Tabelle17" displayName="Tabelle17" ref="A1:F110" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:F110" xr:uid="{F842210A-5182-42BF-BBB5-15205BFDE1F5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle17" displayName="Tabelle17" ref="A1:F230" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:F230"/>
+  <sortState ref="A2:F80">
     <sortCondition ref="F1:F80"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D6EC4AEA-0B54-455D-9EB6-4D72C1BEC745}" name="Name" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{2CCDA160-9392-45D9-A2E1-6325E3D244CA}" name="Category" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{7D69D026-05A2-47BB-A98B-509FA764532D}" name="Type" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{76C384E6-D4EC-4D25-A527-CF26816C8435}" name="Details" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{99D7A94B-4225-44C3-A04E-9CC84C38A073}" name="Link" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{0934E55A-0034-473A-B1BB-E4E9AD94C40A}" name="Filename" dataDxfId="15"/>
+    <tableColumn id="1" name="Name" dataDxfId="19"/>
+    <tableColumn id="13" name="Category" dataDxfId="18"/>
+    <tableColumn id="7" name="Type" dataDxfId="17"/>
+    <tableColumn id="5" name="Details" dataDxfId="16"/>
+    <tableColumn id="2" name="Link" dataDxfId="15"/>
+    <tableColumn id="6" name="Filename" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:L80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L80"/>
+  <sortState ref="A2:H80">
     <sortCondition ref="E1:E80"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="fileext" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Software" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Iconset (default)" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Iconset (Colored Filled)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Iconset (Colored Slim)" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Iconset (Simple)" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Iconset (Simple Black)" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Iconset (Colored)" dataDxfId="1"/>
+    <tableColumn id="1" name="fileext" dataDxfId="11"/>
+    <tableColumn id="4" name="Software" dataDxfId="10"/>
+    <tableColumn id="7" name="Type" dataDxfId="9"/>
+    <tableColumn id="5" name="Details" dataDxfId="8"/>
+    <tableColumn id="6" name="Iconset (default)" dataDxfId="7"/>
+    <tableColumn id="2" name="Iconset (Colored Filled)" dataDxfId="6"/>
+    <tableColumn id="3" name="Iconset (Colored Slim)" dataDxfId="5"/>
+    <tableColumn id="8" name="Iconset (Simple)" dataDxfId="4"/>
+    <tableColumn id="9" name="Iconset (Simple with symbols)" dataDxfId="3"/>
+    <tableColumn id="10" name="Iconset (Simple Black)" dataDxfId="2"/>
+    <tableColumn id="11" name="Iconset (Colored Crossing)" dataDxfId="1"/>
+    <tableColumn id="12" name="Iconset (Colored)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
-  <autoFilter ref="A1:Q31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
+  <autoFilter ref="A1:Q31"/>
+  <sortState ref="A2:M31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Network / Brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Link to portal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="_default"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Iconset (Circle colored)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Iconset (Circle colored shaded)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Iconset (Handdrawn)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Iconset (Handdrawn colored)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Iconset (Originals)"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Iconset (Cartoon)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Iconset (Colorful Gouache)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Iconset (Rectangle flat)"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Iconset (Circle long shadow)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Iconset (All-Bright)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Iconset (All-Line filled)"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Iconset (Linear color)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Iconset (Black and white circle)"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Iconset (Black and white square)"/>
+    <tableColumn id="1" name="Network / Brand"/>
+    <tableColumn id="2" name="Link to portal"/>
+    <tableColumn id="3" name="_default"/>
+    <tableColumn id="4" name="Iconset (Circle colored)"/>
+    <tableColumn id="5" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="6" name="Iconset (Handdrawn)"/>
+    <tableColumn id="7" name="Iconset (Handdrawn colored)"/>
+    <tableColumn id="8" name="Iconset (Originals)"/>
+    <tableColumn id="9" name="Iconset (Cartoon)"/>
+    <tableColumn id="10" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="11" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="12" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="13" name="Iconset (All-Bright)"/>
+    <tableColumn id="14" name="Iconset (All-Line filled)"/>
+    <tableColumn id="16" name="Iconset (Linear color)"/>
+    <tableColumn id="17" name="Iconset (Black and white circle)"/>
+    <tableColumn id="18" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
-  <autoFilter ref="A1:K37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
+  <autoFilter ref="A1:K37"/>
+  <sortState ref="A2:J43">
     <sortCondition ref="A1:A43"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Provider / Brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Website"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Iconset (default)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Iconset (White and Gray)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Iconset (Black and White)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Iconset (Circle)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Iconset (Originals)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Iconset (Rectangle)"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Iconset (Square filled)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Iconset (Circle filled)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Iconset (All-Line filled)"/>
+    <tableColumn id="1" name="Provider / Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (default)"/>
+    <tableColumn id="4" name="Iconset (White and Gray)"/>
+    <tableColumn id="5" name="Iconset (Black and White)"/>
+    <tableColumn id="6" name="Iconset (Circle)"/>
+    <tableColumn id="7" name="Iconset (Originals)"/>
+    <tableColumn id="8" name="Iconset (Rectangle)"/>
+    <tableColumn id="9" name="Iconset (Square filled)"/>
+    <tableColumn id="10" name="Iconset (Circle filled)"/>
+    <tableColumn id="11" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Website"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Iconset (default)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Iconset (All-Line filled)"/>
+    <tableColumn id="1" name="Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (default)"/>
+    <tableColumn id="4" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
-  <autoFilter ref="A1:O80" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
+  <autoFilter ref="A1:O80"/>
+  <sortState ref="A2:E79">
     <sortCondition ref="A1:A79"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Brand"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Website"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Iconset (All-Line filled)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Iconset (All-Bright)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Iconset (Cartoon)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Iconset (Circle colored)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Iconset (Circle colored shaded)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Iconset (Circle long shadow)"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Iconset (Colorful Gouache)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Iconset (Handdrawn)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Iconset (Originals)"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Iconset (Rectangle flat)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="Iconset (Linear color)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="Iconset (Black and White circle)"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="Iconset (Black and white square)"/>
+    <tableColumn id="1" name="Brand"/>
+    <tableColumn id="2" name="Website"/>
+    <tableColumn id="3" name="Iconset (All-Line filled)"/>
+    <tableColumn id="4" name="Iconset (All-Bright)"/>
+    <tableColumn id="5" name="Iconset (Cartoon)"/>
+    <tableColumn id="6" name="Iconset (Circle colored)"/>
+    <tableColumn id="7" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="8" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="9" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="10" name="Iconset (Handdrawn)"/>
+    <tableColumn id="11" name="Iconset (Originals)"/>
+    <tableColumn id="12" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="13" name="Iconset (Linear color)"/>
+    <tableColumn id="14" name="Iconset (Black and White circle)"/>
+    <tableColumn id="15" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3405,24 +3707,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
-    <col min="2" max="2" width="62.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>209</v>
       </c>
@@ -3442,7 +3744,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -3464,7 +3766,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>798</v>
       </c>
@@ -3486,7 +3788,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>836</v>
       </c>
@@ -3508,7 +3810,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -3530,7 +3832,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>274</v>
       </c>
@@ -3552,7 +3854,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>841</v>
       </c>
@@ -3574,7 +3876,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>840</v>
       </c>
@@ -3596,7 +3898,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>784</v>
       </c>
@@ -3618,7 +3920,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>839</v>
       </c>
@@ -3640,7 +3942,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>838</v>
       </c>
@@ -3662,7 +3964,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>832</v>
       </c>
@@ -3684,7 +3986,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>833</v>
       </c>
@@ -3706,7 +4008,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>785</v>
       </c>
@@ -3728,7 +4030,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>786</v>
       </c>
@@ -3750,7 +4052,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>786</v>
       </c>
@@ -3761,18 +4063,18 @@
         <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="E16" t="str">
         <f xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</f>
-        <v>&lt;x-icon-orig-messenger/&gt;</v>
+        <v>&lt;x-icon-origsocial-messenger/&gt;</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>787</v>
       </c>
@@ -3794,7 +4096,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>776</v>
       </c>
@@ -3816,7 +4118,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>829</v>
       </c>
@@ -3838,7 +4140,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>828</v>
       </c>
@@ -3860,7 +4162,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>810</v>
       </c>
@@ -3882,7 +4184,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>826</v>
       </c>
@@ -3904,7 +4206,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>788</v>
       </c>
@@ -3926,7 +4228,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>789</v>
       </c>
@@ -3948,7 +4250,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>824</v>
       </c>
@@ -3970,7 +4272,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>790</v>
       </c>
@@ -3992,7 +4294,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>825</v>
       </c>
@@ -4014,7 +4316,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>834</v>
       </c>
@@ -4036,7 +4338,7 @@
         <v>&lt;x-icon-messenger/&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>835</v>
       </c>
@@ -4060,34 +4362,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B18" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B28" r:id="rId25"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="B16" r:id="rId27"/>
+    <hyperlink ref="B15" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
@@ -4098,23 +4400,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95146988-199B-4F70-9CDC-5A6D58FB4EDA}">
-  <dimension ref="A1:F110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="1" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
@@ -4134,7 +4436,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -4154,7 +4456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -4174,7 +4476,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -4194,7 +4496,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -4214,7 +4516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -4234,7 +4536,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -4254,7 +4556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -4274,7 +4576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -4294,7 +4596,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4334,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4354,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -4374,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4394,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -4414,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>129</v>
       </c>
@@ -4434,7 +4736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -4454,7 +4756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -4474,7 +4776,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4494,7 +4796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -4514,7 +4816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -4534,7 +4836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -4554,7 +4856,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
@@ -4574,7 +4876,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>124</v>
       </c>
@@ -4594,7 +4896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
@@ -4614,7 +4916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -4634,7 +4936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -4654,7 +4956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -4674,7 +4976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -4694,7 +4996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>166</v>
       </c>
@@ -4714,7 +5016,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -4734,7 +5036,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>174</v>
       </c>
@@ -4754,7 +5056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>173</v>
       </c>
@@ -4774,7 +5076,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
@@ -4794,7 +5096,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -4814,7 +5116,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -4834,7 +5136,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -4854,7 +5156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -4874,7 +5176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -4894,7 +5196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>177</v>
       </c>
@@ -4914,7 +5216,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
@@ -4934,7 +5236,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -4954,7 +5256,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>201</v>
       </c>
@@ -4974,7 +5276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
@@ -4994,7 +5296,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>202</v>
       </c>
@@ -5014,7 +5316,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -5034,7 +5336,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
@@ -5054,7 +5356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -5074,7 +5376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -5094,7 +5396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -5114,7 +5416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -5134,7 +5436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -5154,7 +5456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -5174,7 +5476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -5194,7 +5496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -5214,7 +5516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -5234,7 +5536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -5254,7 +5556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -5274,7 +5576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -5294,7 +5596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
@@ -5314,7 +5616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -5334,7 +5636,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -5354,7 +5656,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -5374,7 +5676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -5394,7 +5696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
@@ -5414,7 +5716,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -5434,7 +5736,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -5454,7 +5756,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -5474,7 +5776,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>198</v>
       </c>
@@ -5494,7 +5796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -5514,7 +5816,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -5534,7 +5836,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>171</v>
       </c>
@@ -5554,7 +5856,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>172</v>
       </c>
@@ -5574,7 +5876,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -5594,7 +5896,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5614,7 +5916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -5654,7 +5956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -5674,7 +5976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
@@ -5694,7 +5996,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -5714,14 +6016,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>481</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D81" s="4"/>
       <c r="E81" s="3" t="s">
         <v>509</v>
@@ -5730,14 +6034,16 @@
         <v>551</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>463</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C82" s="4"/>
+      <c r="C82" s="4" t="s">
+        <v>955</v>
+      </c>
       <c r="D82" s="4"/>
       <c r="E82" s="3" t="s">
         <v>464</v>
@@ -5746,14 +6052,16 @@
         <v>463</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>482</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>956</v>
+      </c>
       <c r="D83" s="4"/>
       <c r="E83" s="3" t="s">
         <v>510</v>
@@ -5762,7 +6070,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>262</v>
       </c>
@@ -5778,14 +6086,16 @@
         <v>461</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>483</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>957</v>
+      </c>
       <c r="D85" s="4"/>
       <c r="E85" s="3" t="s">
         <v>511</v>
@@ -5794,14 +6104,16 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="3" t="s">
         <v>227</v>
@@ -5810,14 +6122,16 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D87" s="4"/>
       <c r="E87" s="3" t="s">
         <v>235</v>
@@ -5826,14 +6140,16 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>484</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D88" s="4"/>
       <c r="E88" s="3" t="s">
         <v>512</v>
@@ -5842,14 +6158,16 @@
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="D89" s="4"/>
       <c r="E89" s="3" t="s">
         <v>229</v>
@@ -5858,14 +6176,16 @@
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>485</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>957</v>
+      </c>
       <c r="D90" s="4"/>
       <c r="E90" s="3" t="s">
         <v>513</v>
@@ -5874,14 +6194,16 @@
         <v>548</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>486</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="C91" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D91" s="4"/>
       <c r="E91" s="3" t="s">
         <v>514</v>
@@ -5890,14 +6212,16 @@
         <v>547</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D92" s="4"/>
       <c r="E92" s="3" t="s">
         <v>230</v>
@@ -5906,14 +6230,16 @@
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>487</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C93" s="4"/>
+      <c r="C93" s="4" t="s">
+        <v>959</v>
+      </c>
       <c r="D93" s="4"/>
       <c r="E93" s="3" t="s">
         <v>515</v>
@@ -5922,14 +6248,16 @@
         <v>487</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C94" s="4"/>
+      <c r="C94" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D94" s="4"/>
       <c r="E94" s="3" t="s">
         <v>231</v>
@@ -5938,7 +6266,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>488</v>
       </c>
@@ -5951,7 +6279,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>489</v>
       </c>
@@ -5967,14 +6295,16 @@
         <v>545</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D97" s="4"/>
       <c r="E97" s="3" t="s">
         <v>261</v>
@@ -5983,14 +6313,16 @@
         <v>456</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D98" s="4"/>
       <c r="E98" s="3" t="s">
         <v>264</v>
@@ -5999,7 +6331,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>226</v>
       </c>
@@ -6015,14 +6347,16 @@
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C100" s="4"/>
+      <c r="C100" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D100" s="4"/>
       <c r="E100" s="3" t="s">
         <v>266</v>
@@ -6031,7 +6365,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>490</v>
       </c>
@@ -6047,7 +6381,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>491</v>
       </c>
@@ -6063,14 +6397,16 @@
         <v>543</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C103" s="4"/>
+      <c r="C103" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D103" s="4"/>
       <c r="E103" s="3" t="s">
         <v>265</v>
@@ -6079,14 +6415,16 @@
         <v>458</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>492</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C104" s="4"/>
+      <c r="C104" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D104" s="4"/>
       <c r="E104" s="3" t="s">
         <v>519</v>
@@ -6095,14 +6433,16 @@
         <v>542</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C105" s="4"/>
+      <c r="C105" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D105" s="4"/>
       <c r="E105" s="3" t="s">
         <v>228</v>
@@ -6111,14 +6451,16 @@
         <v>303</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>538</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C106" s="4"/>
+      <c r="C106" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="3" t="s">
         <v>539</v>
@@ -6127,7 +6469,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>541</v>
       </c>
@@ -6143,7 +6485,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>224</v>
       </c>
@@ -6159,7 +6501,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>223</v>
       </c>
@@ -6175,14 +6517,16 @@
         <v>452</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>480</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C110" s="4"/>
+      <c r="C110" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="3" t="s">
         <v>233</v>
@@ -6191,74 +6535,2078 @@
         <v>453</v>
       </c>
     </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F111" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F114" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F115" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F116" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="F117" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F118" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F119" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F120" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="F121" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F122" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F124" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F126" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F128" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F129" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F130" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F131" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F133" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F134" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="F136" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F137" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F138" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F139" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F140" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F141" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F142" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F143" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F145" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" t="s">
+        <v>301</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="F169" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D174" s="4"/>
+      <c r="E174" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="F181" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="F182" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="F199" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="F201" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="F203" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D207" s="4"/>
+      <c r="E207" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="F216" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D217" s="4"/>
+      <c r="F217" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D219" s="4"/>
+      <c r="E219" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D226" s="4"/>
+      <c r="E226" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="D229" s="4"/>
+      <c r="E229" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="F230" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{BAEDAB51-31E5-4D84-A719-1168E5BF6806}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{62ECFD0E-FC2B-4FFD-983A-7304DB54AB76}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{37A5969A-C4D7-4769-A3B2-47A0F2031806}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{FC97C20E-763F-41C3-9DF1-105D2FEF3668}"/>
-    <hyperlink ref="E86" r:id="rId5" xr:uid="{04A36448-1F49-4869-98E6-9C93AAAFC749}"/>
-    <hyperlink ref="E105" r:id="rId6" xr:uid="{F79F0C3D-5E2A-46D5-8740-44142311719E}"/>
-    <hyperlink ref="E92" r:id="rId7" xr:uid="{66663DF5-6D65-4B07-BAD5-1F5E8FAD6984}"/>
-    <hyperlink ref="E89" r:id="rId8" xr:uid="{D1153C9B-5796-4CE5-ACA9-36874880D4AF}"/>
-    <hyperlink ref="E94" r:id="rId9" xr:uid="{3D3AF85D-5820-4030-8405-12A2CFF35784}"/>
-    <hyperlink ref="E109" r:id="rId10" xr:uid="{4D3589E2-2773-4B09-B854-80E0C3E47138}"/>
-    <hyperlink ref="E110" r:id="rId11" xr:uid="{13B9C2A5-113C-48F6-AD9A-3BFF1A648E29}"/>
-    <hyperlink ref="E108" r:id="rId12" xr:uid="{F427D7D8-0E00-453E-86DC-B471157ACE90}"/>
-    <hyperlink ref="E87" r:id="rId13" xr:uid="{E1CA009B-186E-442D-A5A6-6DF554F31464}"/>
-    <hyperlink ref="E99" r:id="rId14" xr:uid="{C7B5FB12-3685-4DBB-9CD3-1E663464E224}"/>
-    <hyperlink ref="E97" r:id="rId15" xr:uid="{CBBD31A2-412C-4118-A732-CCF9B30CC81B}"/>
-    <hyperlink ref="E84" r:id="rId16" xr:uid="{94ADC933-CF48-4F47-8B3C-58450EAEC5C6}"/>
-    <hyperlink ref="E98" r:id="rId17" xr:uid="{EC5147A0-5E7C-4E81-8F08-61DF4EB32B0D}"/>
-    <hyperlink ref="E103" r:id="rId18" xr:uid="{4181F3E3-214A-400E-8A8F-2C99039F35DB}"/>
-    <hyperlink ref="E100" r:id="rId19" xr:uid="{C3F71EF0-924A-4234-8618-863AA15CFA6C}"/>
-    <hyperlink ref="E82" r:id="rId20" xr:uid="{AC624BAD-540B-4CEF-854B-F98629EF0620}"/>
-    <hyperlink ref="E81" r:id="rId21" xr:uid="{987C2B47-349F-4B33-B4F9-401F5FEFEBD1}"/>
-    <hyperlink ref="E83" r:id="rId22" xr:uid="{852C5680-4EFB-435A-AB55-5305C6E8E018}"/>
-    <hyperlink ref="E85" r:id="rId23" xr:uid="{7B15047C-0FE4-4F65-A02A-DC6364608628}"/>
-    <hyperlink ref="E88" r:id="rId24" xr:uid="{5075E53C-A09B-4EEE-BD44-38E9697EE371}"/>
-    <hyperlink ref="E90" r:id="rId25" xr:uid="{0D3DF969-A09A-444C-8B24-F277E3E6E576}"/>
-    <hyperlink ref="E91" r:id="rId26" xr:uid="{66F0380A-D134-4C50-A612-22DAD6C63E30}"/>
-    <hyperlink ref="E93" r:id="rId27" xr:uid="{1D9C20A9-974F-49D6-8731-69D3DF935A1E}"/>
-    <hyperlink ref="E96" r:id="rId28" xr:uid="{A205535D-877A-4859-AB07-FB91BA36A884}"/>
-    <hyperlink ref="E101" r:id="rId29" xr:uid="{069AAA21-1A10-40A2-8657-AEE76A1D4389}"/>
-    <hyperlink ref="E102" r:id="rId30" xr:uid="{47AD5573-3D96-492D-91E5-E565B15BF918}"/>
-    <hyperlink ref="E104" r:id="rId31" xr:uid="{84ACC1A0-EB6C-4606-8B6A-190E95F7E46B}"/>
-    <hyperlink ref="E106" r:id="rId32" xr:uid="{B4E16203-4BFA-41EE-A1D3-90C7B350181E}"/>
-    <hyperlink ref="E107" r:id="rId33" xr:uid="{38E40E19-C6FD-4A81-9E97-377A0685DDFD}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E86" r:id="rId5"/>
+    <hyperlink ref="E105" r:id="rId6"/>
+    <hyperlink ref="E92" r:id="rId7"/>
+    <hyperlink ref="E89" r:id="rId8"/>
+    <hyperlink ref="E94" r:id="rId9"/>
+    <hyperlink ref="E109" r:id="rId10"/>
+    <hyperlink ref="E110" r:id="rId11"/>
+    <hyperlink ref="E108" r:id="rId12"/>
+    <hyperlink ref="E87" r:id="rId13"/>
+    <hyperlink ref="E99" r:id="rId14"/>
+    <hyperlink ref="E97" r:id="rId15"/>
+    <hyperlink ref="E84" r:id="rId16"/>
+    <hyperlink ref="E98" r:id="rId17"/>
+    <hyperlink ref="E103" r:id="rId18"/>
+    <hyperlink ref="E100" r:id="rId19"/>
+    <hyperlink ref="E82" r:id="rId20"/>
+    <hyperlink ref="E81" r:id="rId21"/>
+    <hyperlink ref="E83" r:id="rId22"/>
+    <hyperlink ref="E85" r:id="rId23"/>
+    <hyperlink ref="E88" r:id="rId24"/>
+    <hyperlink ref="E90" r:id="rId25"/>
+    <hyperlink ref="E91" r:id="rId26"/>
+    <hyperlink ref="E93" r:id="rId27"/>
+    <hyperlink ref="E96" r:id="rId28"/>
+    <hyperlink ref="E101" r:id="rId29"/>
+    <hyperlink ref="E102" r:id="rId30"/>
+    <hyperlink ref="E104" r:id="rId31"/>
+    <hyperlink ref="E106" r:id="rId32"/>
+    <hyperlink ref="E107" r:id="rId33"/>
+    <hyperlink ref="E130" r:id="rId34"/>
+    <hyperlink ref="E114" r:id="rId35"/>
+    <hyperlink ref="E142" r:id="rId36"/>
+    <hyperlink ref="E129" r:id="rId37"/>
+    <hyperlink ref="E112" r:id="rId38"/>
+    <hyperlink ref="E124" r:id="rId39"/>
+    <hyperlink ref="E127" r:id="rId40"/>
+    <hyperlink ref="E113" r:id="rId41"/>
+    <hyperlink ref="E132" r:id="rId42"/>
+    <hyperlink ref="E123" r:id="rId43"/>
+    <hyperlink ref="E116" r:id="rId44"/>
+    <hyperlink ref="E139" r:id="rId45"/>
+    <hyperlink ref="E135" r:id="rId46"/>
+    <hyperlink ref="E128" r:id="rId47"/>
+    <hyperlink ref="E111" r:id="rId48"/>
+    <hyperlink ref="E115" r:id="rId49"/>
+    <hyperlink ref="E118" r:id="rId50"/>
+    <hyperlink ref="E119" r:id="rId51"/>
+    <hyperlink ref="E120" r:id="rId52"/>
+    <hyperlink ref="E122" r:id="rId53"/>
+    <hyperlink ref="E125" r:id="rId54"/>
+    <hyperlink ref="E126" r:id="rId55"/>
+    <hyperlink ref="E137" r:id="rId56"/>
+    <hyperlink ref="E131" r:id="rId57"/>
+    <hyperlink ref="E133" r:id="rId58"/>
+    <hyperlink ref="E145" r:id="rId59"/>
+    <hyperlink ref="E134" r:id="rId60"/>
+    <hyperlink ref="E136" r:id="rId61"/>
+    <hyperlink ref="E138" r:id="rId62"/>
+    <hyperlink ref="E140" r:id="rId63"/>
+    <hyperlink ref="E141" r:id="rId64"/>
+    <hyperlink ref="E143" r:id="rId65"/>
+    <hyperlink ref="E144" r:id="rId66"/>
+    <hyperlink ref="E146" r:id="rId67"/>
+    <hyperlink ref="E147" r:id="rId68"/>
+    <hyperlink ref="E148" r:id="rId69"/>
+    <hyperlink ref="E149" r:id="rId70"/>
+    <hyperlink ref="E150" r:id="rId71"/>
+    <hyperlink ref="E152" r:id="rId72"/>
+    <hyperlink ref="E153" r:id="rId73"/>
+    <hyperlink ref="E154" r:id="rId74"/>
+    <hyperlink ref="E156" r:id="rId75"/>
+    <hyperlink ref="E157" r:id="rId76"/>
+    <hyperlink ref="E158" r:id="rId77"/>
+    <hyperlink ref="E159" r:id="rId78"/>
+    <hyperlink ref="E160" r:id="rId79"/>
+    <hyperlink ref="E161" r:id="rId80"/>
+    <hyperlink ref="E162" r:id="rId81"/>
+    <hyperlink ref="E163" r:id="rId82"/>
+    <hyperlink ref="E164" r:id="rId83"/>
+    <hyperlink ref="E165" r:id="rId84"/>
+    <hyperlink ref="E166" r:id="rId85"/>
+    <hyperlink ref="E167" r:id="rId86"/>
+    <hyperlink ref="E170" r:id="rId87"/>
+    <hyperlink ref="E171" r:id="rId88"/>
+    <hyperlink ref="E172" r:id="rId89"/>
+    <hyperlink ref="E173" r:id="rId90"/>
+    <hyperlink ref="E174" r:id="rId91"/>
+    <hyperlink ref="E175" r:id="rId92"/>
+    <hyperlink ref="E177" r:id="rId93"/>
+    <hyperlink ref="E178" r:id="rId94"/>
+    <hyperlink ref="E179" r:id="rId95"/>
+    <hyperlink ref="E180" r:id="rId96"/>
+    <hyperlink ref="E183" r:id="rId97"/>
+    <hyperlink ref="E184" r:id="rId98"/>
+    <hyperlink ref="E185" r:id="rId99"/>
+    <hyperlink ref="E188" r:id="rId100"/>
+    <hyperlink ref="E189" r:id="rId101"/>
+    <hyperlink ref="E190" r:id="rId102"/>
+    <hyperlink ref="E191" r:id="rId103"/>
+    <hyperlink ref="E192" r:id="rId104"/>
+    <hyperlink ref="E193" r:id="rId105"/>
+    <hyperlink ref="E194" r:id="rId106"/>
+    <hyperlink ref="E195" r:id="rId107"/>
+    <hyperlink ref="E196" r:id="rId108"/>
+    <hyperlink ref="E197" r:id="rId109"/>
+    <hyperlink ref="E198" r:id="rId110"/>
+    <hyperlink ref="E200" r:id="rId111"/>
+    <hyperlink ref="E202" r:id="rId112"/>
+    <hyperlink ref="E204" r:id="rId113"/>
+    <hyperlink ref="E205" r:id="rId114"/>
+    <hyperlink ref="E206" r:id="rId115"/>
+    <hyperlink ref="E207" r:id="rId116"/>
+    <hyperlink ref="E208" r:id="rId117"/>
+    <hyperlink ref="E209" r:id="rId118"/>
+    <hyperlink ref="E210" r:id="rId119"/>
+    <hyperlink ref="E211" r:id="rId120"/>
+    <hyperlink ref="E212" r:id="rId121"/>
+    <hyperlink ref="E213" r:id="rId122"/>
+    <hyperlink ref="E214" r:id="rId123"/>
+    <hyperlink ref="E215" r:id="rId124"/>
+    <hyperlink ref="E218" r:id="rId125"/>
+    <hyperlink ref="E219" r:id="rId126"/>
+    <hyperlink ref="E220" r:id="rId127"/>
+    <hyperlink ref="E221" r:id="rId128"/>
+    <hyperlink ref="E222" r:id="rId129"/>
+    <hyperlink ref="E223" r:id="rId130"/>
+    <hyperlink ref="E224" r:id="rId131"/>
+    <hyperlink ref="E225" r:id="rId132"/>
+    <hyperlink ref="E226" r:id="rId133"/>
+    <hyperlink ref="E227" r:id="rId134"/>
+    <hyperlink ref="E228" r:id="rId135"/>
+    <hyperlink ref="E229" r:id="rId136"/>
+    <hyperlink ref="E155" r:id="rId137"/>
+    <hyperlink ref="E186" r:id="rId138"/>
+    <hyperlink ref="E187" r:id="rId139"/>
+    <hyperlink ref="E176" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId141"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -6296,7 +8644,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -6332,7 +8680,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -6356,7 +8704,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -6380,7 +8728,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -6406,7 +8754,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>197</v>
       </c>
@@ -6440,7 +8788,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -6476,7 +8824,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>95</v>
       </c>
@@ -6500,7 +8848,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>127</v>
       </c>
@@ -6524,7 +8872,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -6560,7 +8908,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6596,7 +8944,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -6632,7 +8980,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -6668,7 +9016,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -6704,7 +9052,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -6740,7 +9088,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>129</v>
       </c>
@@ -6774,7 +9122,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>128</v>
       </c>
@@ -6798,7 +9146,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -6834,7 +9182,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -6870,7 +9218,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -6902,7 +9250,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -6934,7 +9282,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>175</v>
       </c>
@@ -6958,7 +9306,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>123</v>
       </c>
@@ -6982,7 +9330,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>124</v>
       </c>
@@ -7006,7 +9354,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>119</v>
       </c>
@@ -7030,7 +9378,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -7066,7 +9414,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -7102,7 +9450,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -7136,7 +9484,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -7162,7 +9510,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>166</v>
       </c>
@@ -7186,7 +9534,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -7212,7 +9560,7 @@
       </c>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>174</v>
       </c>
@@ -7236,7 +9584,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7262,7 +9610,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
@@ -7284,7 +9632,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -7308,7 +9656,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -7334,7 +9682,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
@@ -7358,7 +9706,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
@@ -7382,7 +9730,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
@@ -7406,7 +9754,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>177</v>
       </c>
@@ -7430,7 +9778,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>200</v>
       </c>
@@ -7464,7 +9812,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
@@ -7500,7 +9848,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>201</v>
       </c>
@@ -7534,7 +9882,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>170</v>
       </c>
@@ -7558,7 +9906,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>202</v>
       </c>
@@ -7588,7 +9936,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -7612,7 +9960,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
@@ -7650,7 +9998,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -7688,7 +10036,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -7726,7 +10074,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -7762,7 +10110,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -7798,7 +10146,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
@@ -7834,7 +10182,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
@@ -7870,7 +10218,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -7906,7 +10254,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>22</v>
       </c>
@@ -7942,7 +10290,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -7978,7 +10326,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>24</v>
       </c>
@@ -8014,7 +10362,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -8050,7 +10398,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -8086,7 +10434,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>43</v>
       </c>
@@ -8122,7 +10470,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -8158,7 +10506,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>104</v>
       </c>
@@ -8190,7 +10538,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -8214,7 +10562,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -8238,7 +10586,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>121</v>
       </c>
@@ -8262,7 +10610,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -8298,7 +10646,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -8322,7 +10670,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>86</v>
       </c>
@@ -8358,7 +10706,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>198</v>
       </c>
@@ -8380,7 +10728,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -8402,7 +10750,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>126</v>
       </c>
@@ -8426,7 +10774,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>171</v>
       </c>
@@ -8454,7 +10802,7 @@
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>172</v>
       </c>
@@ -8478,7 +10826,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>40</v>
       </c>
@@ -8504,7 +10852,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -8540,7 +10888,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -8576,7 +10924,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -8612,7 +10960,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -8648,7 +10996,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>112</v>
       </c>
@@ -8676,7 +11024,7 @@
       </c>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -8722,35 +11070,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
-    <col min="6" max="6" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="27.88671875" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1"/>
-    <col min="13" max="13" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" customWidth="1"/>
-    <col min="16" max="16" width="31.5546875" customWidth="1"/>
-    <col min="17" max="17" width="32.33203125" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="16" width="31.5703125" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>206</v>
       </c>
@@ -8803,7 +11151,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>481</v>
       </c>
@@ -8853,7 +11201,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>463</v>
       </c>
@@ -8900,7 +11248,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>482</v>
       </c>
@@ -8935,7 +11283,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>262</v>
       </c>
@@ -8985,7 +11333,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>483</v>
       </c>
@@ -9035,7 +11383,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -9088,7 +11436,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -9135,7 +11483,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>484</v>
       </c>
@@ -9182,7 +11530,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>221</v>
       </c>
@@ -9211,7 +11559,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>485</v>
       </c>
@@ -9243,7 +11591,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>486</v>
       </c>
@@ -9281,7 +11629,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -9334,7 +11682,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -9366,7 +11714,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -9416,7 +11764,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>488</v>
       </c>
@@ -9454,7 +11802,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>489</v>
       </c>
@@ -9477,7 +11825,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -9527,7 +11875,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -9562,7 +11910,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -9612,7 +11960,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>260</v>
       </c>
@@ -9653,7 +12001,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>490</v>
       </c>
@@ -9697,7 +12045,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>491</v>
       </c>
@@ -9732,7 +12080,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -9779,7 +12127,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>492</v>
       </c>
@@ -9817,7 +12165,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -9867,7 +12215,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>538</v>
       </c>
@@ -9911,7 +12259,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>541</v>
       </c>
@@ -9946,7 +12294,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -9996,7 +12344,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>223</v>
       </c>
@@ -10037,7 +12385,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>480</v>
       </c>
@@ -10089,35 +12437,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B15" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B30" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B31" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B29" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B20" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B19" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B24" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B21" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B4" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B6" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="B9" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="B11" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="B22" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="B23" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="B25" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="B27" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B15" r:id="rId5"/>
+    <hyperlink ref="B30" r:id="rId6"/>
+    <hyperlink ref="B31" r:id="rId7"/>
+    <hyperlink ref="B29" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B5" r:id="rId12"/>
+    <hyperlink ref="B19" r:id="rId13"/>
+    <hyperlink ref="B24" r:id="rId14"/>
+    <hyperlink ref="B21" r:id="rId15"/>
+    <hyperlink ref="B3" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId17"/>
+    <hyperlink ref="B4" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId19"/>
+    <hyperlink ref="B9" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="B17" r:id="rId24"/>
+    <hyperlink ref="B22" r:id="rId25"/>
+    <hyperlink ref="B23" r:id="rId26"/>
+    <hyperlink ref="B25" r:id="rId27"/>
+    <hyperlink ref="B27" r:id="rId28"/>
+    <hyperlink ref="B28" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -10127,29 +12475,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>211</v>
       </c>
@@ -10184,13 +12532,16 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>400</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="C2" t="s">
+        <v>860</v>
+      </c>
       <c r="E2" t="s">
         <v>415</v>
       </c>
@@ -10210,7 +12561,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -10236,7 +12587,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -10268,7 +12619,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -10288,18 +12639,21 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>407</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>437</v>
       </c>
+      <c r="C6" t="s">
+        <v>861</v>
+      </c>
       <c r="H6" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>241</v>
       </c>
@@ -10331,10 +12685,13 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>402</v>
       </c>
+      <c r="C8" t="s">
+        <v>862</v>
+      </c>
       <c r="E8" t="s">
         <v>417</v>
       </c>
@@ -10354,13 +12711,16 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>404</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>439</v>
       </c>
+      <c r="C9" t="s">
+        <v>404</v>
+      </c>
       <c r="E9" t="s">
         <v>418</v>
       </c>
@@ -10371,13 +12731,16 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>395</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>439</v>
       </c>
+      <c r="C10" t="s">
+        <v>863</v>
+      </c>
       <c r="E10" t="s">
         <v>419</v>
       </c>
@@ -10391,13 +12754,16 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>392</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>440</v>
       </c>
+      <c r="C11" t="s">
+        <v>872</v>
+      </c>
       <c r="E11" t="s">
         <v>422</v>
       </c>
@@ -10420,10 +12786,13 @@
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>399</v>
       </c>
+      <c r="C12" t="s">
+        <v>873</v>
+      </c>
       <c r="E12" t="s">
         <v>423</v>
       </c>
@@ -10440,13 +12809,16 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>398</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>440</v>
       </c>
+      <c r="C13" t="s">
+        <v>864</v>
+      </c>
       <c r="E13" t="s">
         <v>420</v>
       </c>
@@ -10469,13 +12841,16 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>396</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="C14" t="s">
+        <v>396</v>
+      </c>
       <c r="H14" t="s">
         <v>421</v>
       </c>
@@ -10486,7 +12861,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -10497,7 +12872,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>379</v>
       </c>
@@ -10532,13 +12907,16 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>432</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>442</v>
       </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
       <c r="F17" t="s">
         <v>433</v>
       </c>
@@ -10549,13 +12927,16 @@
         <v>433</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>394</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>443</v>
       </c>
+      <c r="C18" t="s">
+        <v>865</v>
+      </c>
       <c r="D18" t="s">
         <v>408</v>
       </c>
@@ -10581,7 +12962,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -10598,7 +12979,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -10630,7 +13011,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -10665,7 +13046,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>212</v>
       </c>
@@ -10700,13 +13081,16 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>406</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="C23" t="s">
+        <v>866</v>
+      </c>
       <c r="D23" t="s">
         <v>409</v>
       </c>
@@ -10723,7 +13107,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -10746,13 +13130,16 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>413</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="C25" t="s">
+        <v>874</v>
+      </c>
       <c r="D25" t="s">
         <v>414</v>
       </c>
@@ -10763,13 +13150,16 @@
         <v>414</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>424</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="C26" t="s">
+        <v>867</v>
+      </c>
       <c r="E26" t="s">
         <v>425</v>
       </c>
@@ -10777,7 +13167,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -10788,13 +13178,16 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>434</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>447</v>
       </c>
+      <c r="C28" t="s">
+        <v>868</v>
+      </c>
       <c r="E28" t="s">
         <v>428</v>
       </c>
@@ -10805,13 +13198,16 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>403</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>444</v>
       </c>
+      <c r="C29" t="s">
+        <v>869</v>
+      </c>
       <c r="E29" t="s">
         <v>410</v>
       </c>
@@ -10831,13 +13227,16 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>426</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>445</v>
       </c>
+      <c r="C30" t="s">
+        <v>426</v>
+      </c>
       <c r="E30" t="s">
         <v>429</v>
       </c>
@@ -10845,7 +13244,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -10856,13 +13255,16 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>405</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>438</v>
       </c>
+      <c r="C32" t="s">
+        <v>870</v>
+      </c>
       <c r="H32" t="s">
         <v>411</v>
       </c>
@@ -10873,13 +13275,16 @@
         <v>411</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>393</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="C33" t="s">
+        <v>875</v>
+      </c>
       <c r="F33" t="s">
         <v>435</v>
       </c>
@@ -10890,7 +13295,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>214</v>
       </c>
@@ -10922,13 +13327,16 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>427</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>244</v>
       </c>
+      <c r="C35" t="s">
+        <v>427</v>
+      </c>
       <c r="E35" t="s">
         <v>430</v>
       </c>
@@ -10939,13 +13347,16 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>397</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>449</v>
       </c>
+      <c r="C36" t="s">
+        <v>876</v>
+      </c>
       <c r="E36" t="s">
         <v>431</v>
       </c>
@@ -10965,13 +13376,16 @@
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>401</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="C37" t="s">
+        <v>871</v>
+      </c>
       <c r="E37" t="s">
         <v>412</v>
       </c>
@@ -10990,40 +13404,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B34" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B19" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="B4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B24" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="B31" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="B27" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="B20" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="B2" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="B6" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="B9" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="B13" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="B17" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="B23" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="B25" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="B37" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="B26" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="B30" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B34" r:id="rId3"/>
+    <hyperlink ref="B21" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="B16" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="B24" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="B31" r:id="rId12"/>
+    <hyperlink ref="B27" r:id="rId13"/>
+    <hyperlink ref="B20" r:id="rId14"/>
+    <hyperlink ref="B2" r:id="rId15"/>
+    <hyperlink ref="B6" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17"/>
+    <hyperlink ref="B10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="B17" r:id="rId22"/>
+    <hyperlink ref="B18" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B23" r:id="rId25"/>
+    <hyperlink ref="B25" r:id="rId26"/>
+    <hyperlink ref="B37" r:id="rId27"/>
+    <hyperlink ref="B26" r:id="rId28"/>
+    <hyperlink ref="B28" r:id="rId29"/>
+    <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11033,21 +13447,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -11061,7 +13475,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -11075,7 +13489,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -11086,7 +13500,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -11097,7 +13511,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -11111,7 +13525,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -11122,15 +13536,18 @@
         <v>532</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>294</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>773</v>
+      </c>
       <c r="C7" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -11144,52 +13561,53 @@
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>537</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="26.88671875" customWidth="1"/>
-    <col min="14" max="14" width="32.6640625" customWidth="1"/>
-    <col min="15" max="15" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="32.7109375" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -11236,7 +13654,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>560</v>
       </c>
@@ -11247,7 +13665,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>561</v>
       </c>
@@ -11258,7 +13676,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>562</v>
       </c>
@@ -11278,7 +13696,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -11304,7 +13722,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -11327,7 +13745,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>564</v>
       </c>
@@ -11350,7 +13768,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>565</v>
       </c>
@@ -11364,7 +13782,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -11375,7 +13793,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>567</v>
       </c>
@@ -11386,7 +13804,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>568</v>
       </c>
@@ -11406,7 +13824,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>569</v>
       </c>
@@ -11426,7 +13844,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>570</v>
       </c>
@@ -11446,7 +13864,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>571</v>
       </c>
@@ -11457,7 +13875,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -11468,7 +13886,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>573</v>
       </c>
@@ -11494,7 +13912,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>574</v>
       </c>
@@ -11508,7 +13926,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>575</v>
       </c>
@@ -11517,7 +13935,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>576</v>
       </c>
@@ -11528,7 +13946,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>577</v>
       </c>
@@ -11539,7 +13957,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>578</v>
       </c>
@@ -11550,7 +13968,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>579</v>
       </c>
@@ -11579,7 +13997,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>580</v>
       </c>
@@ -11590,7 +14008,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>581</v>
       </c>
@@ -11604,7 +14022,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>582</v>
       </c>
@@ -11627,7 +14045,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>583</v>
       </c>
@@ -11641,7 +14059,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>584</v>
       </c>
@@ -11658,7 +14076,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -11681,7 +14099,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>586</v>
       </c>
@@ -11692,7 +14110,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>587</v>
       </c>
@@ -11709,7 +14127,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>588</v>
       </c>
@@ -11717,7 +14135,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>589</v>
       </c>
@@ -11728,7 +14146,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>590</v>
       </c>
@@ -11739,7 +14157,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>591</v>
       </c>
@@ -11750,7 +14168,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>592</v>
       </c>
@@ -11761,7 +14179,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>776</v>
       </c>
@@ -11778,7 +14196,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>775</v>
       </c>
@@ -11789,7 +14207,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>593</v>
       </c>
@@ -11803,7 +14221,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>594</v>
       </c>
@@ -11817,7 +14235,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>595</v>
       </c>
@@ -11831,7 +14249,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>596</v>
       </c>
@@ -11842,7 +14260,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>597</v>
       </c>
@@ -11853,7 +14271,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>598</v>
       </c>
@@ -11867,7 +14285,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>599</v>
       </c>
@@ -11878,7 +14296,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>600</v>
       </c>
@@ -11889,7 +14307,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>601</v>
       </c>
@@ -11906,7 +14324,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>602</v>
       </c>
@@ -11920,7 +14338,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>603</v>
       </c>
@@ -11949,7 +14367,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>604</v>
       </c>
@@ -11969,7 +14387,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>605</v>
       </c>
@@ -11980,7 +14398,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>606</v>
       </c>
@@ -11991,7 +14409,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>607</v>
       </c>
@@ -12002,7 +14420,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>608</v>
       </c>
@@ -12037,7 +14455,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>609</v>
       </c>
@@ -12054,7 +14472,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>610</v>
       </c>
@@ -12065,7 +14483,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>611</v>
       </c>
@@ -12085,7 +14503,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>612</v>
       </c>
@@ -12126,7 +14544,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>613</v>
       </c>
@@ -12137,7 +14555,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>614</v>
       </c>
@@ -12148,7 +14566,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>615</v>
       </c>
@@ -12171,7 +14589,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>616</v>
       </c>
@@ -12182,7 +14600,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>617</v>
       </c>
@@ -12199,7 +14617,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>618</v>
       </c>
@@ -12213,7 +14631,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>619</v>
       </c>
@@ -12224,7 +14642,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>620</v>
       </c>
@@ -12238,7 +14656,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>621</v>
       </c>
@@ -12246,7 +14664,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>622</v>
       </c>
@@ -12260,7 +14678,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>623</v>
       </c>
@@ -12289,7 +14707,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>624</v>
       </c>
@@ -12321,7 +14739,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>625</v>
       </c>
@@ -12332,7 +14750,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>626</v>
       </c>
@@ -12346,7 +14764,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>627</v>
       </c>
@@ -12366,7 +14784,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>628</v>
       </c>
@@ -12380,7 +14798,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>629</v>
       </c>
@@ -12391,7 +14809,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>630</v>
       </c>
@@ -12402,7 +14820,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>631</v>
       </c>
@@ -12416,7 +14834,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>632</v>
       </c>
@@ -12433,7 +14851,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>633</v>
       </c>
@@ -12444,7 +14862,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>634</v>
       </c>
@@ -12467,7 +14885,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>792</v>
       </c>
@@ -12489,79 +14907,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="B38" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="B39" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="B40" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="B41" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="B42" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
-    <hyperlink ref="B43" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
-    <hyperlink ref="B44" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
-    <hyperlink ref="B45" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
-    <hyperlink ref="B46" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
-    <hyperlink ref="B47" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
-    <hyperlink ref="B48" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
-    <hyperlink ref="B50" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
-    <hyperlink ref="B52" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
-    <hyperlink ref="B54" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
-    <hyperlink ref="B55" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
-    <hyperlink ref="B57" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
-    <hyperlink ref="B58" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
-    <hyperlink ref="B59" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
-    <hyperlink ref="B60" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
-    <hyperlink ref="B61" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
-    <hyperlink ref="B62" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
-    <hyperlink ref="B63" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
-    <hyperlink ref="B64" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
-    <hyperlink ref="B65" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
-    <hyperlink ref="B68" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
-    <hyperlink ref="B69" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
-    <hyperlink ref="B70" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
-    <hyperlink ref="B71" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
-    <hyperlink ref="B72" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
-    <hyperlink ref="B74" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
-    <hyperlink ref="B75" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
-    <hyperlink ref="B76" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
-    <hyperlink ref="B77" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
-    <hyperlink ref="B78" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
-    <hyperlink ref="B79" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
-    <hyperlink ref="B5" r:id="rId66" xr:uid="{00000000-0004-0000-0500-000041000000}"/>
-    <hyperlink ref="B36" r:id="rId67" xr:uid="{00000000-0004-0000-0500-000042000000}"/>
-    <hyperlink ref="B37" r:id="rId68" xr:uid="{00000000-0004-0000-0500-000043000000}"/>
-    <hyperlink ref="N80" r:id="rId69" xr:uid="{00000000-0004-0000-0500-000044000000}"/>
-    <hyperlink ref="G80" r:id="rId70" xr:uid="{00000000-0004-0000-0500-000045000000}"/>
-    <hyperlink ref="H80" r:id="rId71" xr:uid="{00000000-0004-0000-0500-000046000000}"/>
-    <hyperlink ref="I80" r:id="rId72" xr:uid="{00000000-0004-0000-0500-000047000000}"/>
-    <hyperlink ref="L80" r:id="rId73" xr:uid="{00000000-0004-0000-0500-000048000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B38" r:id="rId29"/>
+    <hyperlink ref="B39" r:id="rId30"/>
+    <hyperlink ref="B40" r:id="rId31"/>
+    <hyperlink ref="B41" r:id="rId32"/>
+    <hyperlink ref="B42" r:id="rId33"/>
+    <hyperlink ref="B43" r:id="rId34"/>
+    <hyperlink ref="B44" r:id="rId35"/>
+    <hyperlink ref="B45" r:id="rId36"/>
+    <hyperlink ref="B46" r:id="rId37"/>
+    <hyperlink ref="B47" r:id="rId38"/>
+    <hyperlink ref="B48" r:id="rId39"/>
+    <hyperlink ref="B50" r:id="rId40"/>
+    <hyperlink ref="B52" r:id="rId41"/>
+    <hyperlink ref="B54" r:id="rId42"/>
+    <hyperlink ref="B55" r:id="rId43"/>
+    <hyperlink ref="B56" r:id="rId44"/>
+    <hyperlink ref="B57" r:id="rId45"/>
+    <hyperlink ref="B58" r:id="rId46"/>
+    <hyperlink ref="B59" r:id="rId47"/>
+    <hyperlink ref="B60" r:id="rId48"/>
+    <hyperlink ref="B61" r:id="rId49"/>
+    <hyperlink ref="B62" r:id="rId50"/>
+    <hyperlink ref="B63" r:id="rId51"/>
+    <hyperlink ref="B64" r:id="rId52"/>
+    <hyperlink ref="B65" r:id="rId53"/>
+    <hyperlink ref="B68" r:id="rId54"/>
+    <hyperlink ref="B69" r:id="rId55"/>
+    <hyperlink ref="B70" r:id="rId56"/>
+    <hyperlink ref="B71" r:id="rId57"/>
+    <hyperlink ref="B72" r:id="rId58"/>
+    <hyperlink ref="B73" r:id="rId59"/>
+    <hyperlink ref="B74" r:id="rId60"/>
+    <hyperlink ref="B75" r:id="rId61"/>
+    <hyperlink ref="B76" r:id="rId62"/>
+    <hyperlink ref="B77" r:id="rId63"/>
+    <hyperlink ref="B78" r:id="rId64"/>
+    <hyperlink ref="B79" r:id="rId65"/>
+    <hyperlink ref="B5" r:id="rId66"/>
+    <hyperlink ref="B36" r:id="rId67"/>
+    <hyperlink ref="B37" r:id="rId68"/>
+    <hyperlink ref="N80" r:id="rId69"/>
+    <hyperlink ref="G80" r:id="rId70"/>
+    <hyperlink ref="H80" r:id="rId71"/>
+    <hyperlink ref="I80" r:id="rId72"/>
+    <hyperlink ref="L80" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -25,22 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4214" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4340" uniqueCount="1751">
   <si>
     <t>doc</t>
   </si>
@@ -5011,6 +5001,288 @@
   </si>
   <si>
     <t>sc</t>
+  </si>
+  <si>
+    <t>Suncontract</t>
+  </si>
+  <si>
+    <t>suncontract</t>
+  </si>
+  <si>
+    <t>Tripadvisor</t>
+  </si>
+  <si>
+    <t>tripadvisor</t>
+  </si>
+  <si>
+    <t>Utorrent</t>
+  </si>
+  <si>
+    <t>utorrent</t>
+  </si>
+  <si>
+    <t>Vaadin</t>
+  </si>
+  <si>
+    <t>vaadin</t>
+  </si>
+  <si>
+    <t>Viacoin</t>
+  </si>
+  <si>
+    <t>viacoin</t>
+  </si>
+  <si>
+    <t>Viddler</t>
+  </si>
+  <si>
+    <t>viddler</t>
+  </si>
+  <si>
+    <t>VNV</t>
+  </si>
+  <si>
+    <t>vnv</t>
+  </si>
+  <si>
+    <t>Vuejs</t>
+  </si>
+  <si>
+    <t>vuejs</t>
+  </si>
+  <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>waves</t>
+  </si>
+  <si>
+    <t>Waze</t>
+  </si>
+  <si>
+    <t>waze</t>
+  </si>
+  <si>
+    <t>Weixin</t>
+  </si>
+  <si>
+    <t>weixin</t>
+  </si>
+  <si>
+    <t>WHMCS</t>
+  </si>
+  <si>
+    <t>whmcs</t>
+  </si>
+  <si>
+    <t>Wix</t>
+  </si>
+  <si>
+    <t>wix</t>
+  </si>
+  <si>
+    <t>WPBeginner</t>
+  </si>
+  <si>
+    <t>wpbeginner</t>
+  </si>
+  <si>
+    <t>WPExplorer</t>
+  </si>
+  <si>
+    <t>wpexplorer</t>
+  </si>
+  <si>
+    <t>WPForms</t>
+  </si>
+  <si>
+    <t>wpforms</t>
+  </si>
+  <si>
+    <t>Wpressr</t>
+  </si>
+  <si>
+    <t>wpressr</t>
+  </si>
+  <si>
+    <t>Yoast</t>
+  </si>
+  <si>
+    <t>yoast</t>
+  </si>
+  <si>
+    <t>Adobe Inc. product, creative network</t>
+  </si>
+  <si>
+    <t>Google Inc. product, blog service</t>
+  </si>
+  <si>
+    <t>Social bookmarks service</t>
+  </si>
+  <si>
+    <t>Meta Platforms, Instant messaging service</t>
+  </si>
+  <si>
+    <t>Image/Video hosting service</t>
+  </si>
+  <si>
+    <t>Used to host open-source projects</t>
+  </si>
+  <si>
+    <t>Google Inc. product</t>
+  </si>
+  <si>
+    <t>Meta platform, Photo and video sharing service</t>
+  </si>
+  <si>
+    <t>Apple Inc. product</t>
+  </si>
+  <si>
+    <t>Business and employment-oriented online service</t>
+  </si>
+  <si>
+    <t>Operated by Microsoft</t>
+  </si>
+  <si>
+    <t>Image sharing</t>
+  </si>
+  <si>
+    <t>Social news aggregation</t>
+  </si>
+  <si>
+    <t>Videotelephony</t>
+  </si>
+  <si>
+    <t>Multimedia instant messaging</t>
+  </si>
+  <si>
+    <t>Music and podcasts</t>
+  </si>
+  <si>
+    <t>Largest digital distribution platform for PC gaming</t>
+  </si>
+  <si>
+    <t>Short-form blog</t>
+  </si>
+  <si>
+    <t>Live streaming platform</t>
+  </si>
+  <si>
+    <t>Microblogging</t>
+  </si>
+  <si>
+    <t>Video hosting service</t>
+  </si>
+  <si>
+    <t>chinese instant messaging service</t>
+  </si>
+  <si>
+    <t>Meta Platforms</t>
+  </si>
+  <si>
+    <t>Written on PHP and paired with a MySQL or MariaDB database</t>
+  </si>
+  <si>
+    <t>Online video platform</t>
+  </si>
+  <si>
+    <t>2Checkout</t>
+  </si>
+  <si>
+    <t>Owned by Amazon</t>
+  </si>
+  <si>
+    <t>A part of Euronet Worldwide</t>
+  </si>
+  <si>
+    <t>"Amex"</t>
+  </si>
+  <si>
+    <t>Electronic Payment Services</t>
+  </si>
+  <si>
+    <t>Digital currency</t>
+  </si>
+  <si>
+    <t>Google Inc. Product</t>
+  </si>
+  <si>
+    <t>German logistics company</t>
+  </si>
+  <si>
+    <t>Dynamic Parcel Distribution</t>
+  </si>
+  <si>
+    <t>United Parcel Service</t>
+  </si>
+  <si>
+    <t>General Logistics System</t>
+  </si>
+  <si>
+    <t>Federal Express Corporation</t>
+  </si>
+  <si>
+    <t>Largest sportswear manufacturer in Europe</t>
+  </si>
+  <si>
+    <t>Founder of PDF</t>
+  </si>
+  <si>
+    <t>World's largest online retailer</t>
+  </si>
+  <si>
+    <t>Largest information technology company</t>
+  </si>
+  <si>
+    <t>Amazon Inc. Product</t>
+  </si>
+  <si>
+    <t>Microsoft Inc. Product</t>
+  </si>
+  <si>
+    <t>Large community for web designers and developers</t>
+  </si>
+  <si>
+    <t>Voice over Internet Protocol (VoIP)</t>
+  </si>
+  <si>
+    <t>Online auction and shopping website</t>
+  </si>
+  <si>
+    <t>Microsoft Inc. product</t>
+  </si>
+  <si>
+    <t>App for note taking, task management and archiving</t>
+  </si>
+  <si>
+    <t>Israeli online marketplace for freelance services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foursquare Labs Inc. </t>
+  </si>
+  <si>
+    <t>Amazon Inc. product</t>
+  </si>
+  <si>
+    <t>E-book reading and store aplication by Apple Inc.</t>
+  </si>
+  <si>
+    <t>Cloud-storage from Apple Inc.</t>
+  </si>
+  <si>
+    <t>For publishing web content on websites</t>
+  </si>
+  <si>
+    <t>Used to create Websites, Online shops</t>
+  </si>
+  <si>
+    <t>Used to create online stores</t>
+  </si>
+  <si>
+    <t>Produces computer software, consumer electronics</t>
+  </si>
+  <si>
+    <t>Largest social networking site in the world from 2005 to 2009</t>
   </si>
 </sst>
 </file>
@@ -5068,7 +5340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5076,6 +5348,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -5405,8 +5680,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle17" displayName="Tabelle17" ref="A1:F589" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:F589"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle17" displayName="Tabelle17" ref="A1:F605" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:F605"/>
   <sortState ref="A2:F80">
     <sortCondition ref="F1:F80"/>
   </sortState>
@@ -6494,10 +6769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F589"/>
+  <dimension ref="A1:F605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="A531" sqref="A531"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6539,7 +6814,7 @@
       <c r="C2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -6559,7 +6834,7 @@
       <c r="C3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>850</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -6579,7 +6854,7 @@
       <c r="C4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>850</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -6599,7 +6874,7 @@
       <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -6619,7 +6894,7 @@
       <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>849</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -6637,7 +6912,7 @@
         <v>845</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4" t="s">
         <v>1053</v>
@@ -6651,7 +6926,7 @@
         <v>845</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
         <v>1055</v>
@@ -6665,7 +6940,7 @@
         <v>845</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4" t="s">
         <v>1056</v>
@@ -6679,7 +6954,7 @@
         <v>845</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4" t="s">
         <v>1060</v>
@@ -6693,7 +6968,7 @@
         <v>845</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4" t="s">
         <v>1214</v>
@@ -6707,7 +6982,7 @@
         <v>845</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
         <v>1533</v>
@@ -6721,7 +6996,7 @@
         <v>845</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
         <v>1217</v>
@@ -6735,7 +7010,7 @@
         <v>845</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
         <v>1201</v>
@@ -6749,7 +7024,7 @@
         <v>845</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4" t="s">
         <v>1053</v>
@@ -6763,7 +7038,7 @@
         <v>845</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4" t="s">
         <v>1394</v>
@@ -6777,7 +7052,7 @@
         <v>845</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
         <v>1425</v>
@@ -6791,7 +7066,7 @@
         <v>845</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
         <v>1229</v>
@@ -6805,7 +7080,7 @@
         <v>845</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4" t="s">
         <v>1393</v>
@@ -6819,7 +7094,7 @@
         <v>845</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4" t="s">
         <v>1400</v>
@@ -6833,7 +7108,7 @@
         <v>845</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
         <v>1403</v>
@@ -6847,7 +7122,7 @@
         <v>845</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4" t="s">
         <v>1482</v>
@@ -6861,7 +7136,7 @@
         <v>845</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4" t="s">
         <v>1233</v>
@@ -6875,7 +7150,7 @@
         <v>845</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4" t="s">
         <v>1656</v>
@@ -6889,7 +7164,7 @@
         <v>845</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4" t="s">
         <v>1460</v>
@@ -6903,7 +7178,7 @@
         <v>845</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4" t="s">
         <v>1651</v>
@@ -6917,7 +7192,7 @@
         <v>845</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4" t="s">
         <v>1402</v>
@@ -6931,7 +7206,7 @@
         <v>845</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="5"/>
       <c r="F28" s="4" t="s">
         <v>1215</v>
@@ -6945,7 +7220,7 @@
         <v>845</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
         <v>1401</v>
@@ -6959,7 +7234,7 @@
         <v>845</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6">
         <v>404</v>
@@ -6973,7 +7248,7 @@
         <v>845</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6">
         <v>505</v>
@@ -6987,7 +7262,7 @@
         <v>845</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
         <v>1228</v>
@@ -7001,7 +7276,7 @@
         <v>845</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
         <v>1236</v>
@@ -7015,7 +7290,7 @@
         <v>845</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
         <v>1142</v>
@@ -7029,7 +7304,7 @@
         <v>845</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
         <v>1477</v>
@@ -7043,7 +7318,7 @@
         <v>845</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
         <v>1237</v>
@@ -7057,7 +7332,7 @@
         <v>845</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
         <v>1541</v>
@@ -7071,7 +7346,7 @@
         <v>845</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
         <v>1540</v>
@@ -7085,7 +7360,7 @@
         <v>845</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
         <v>1239</v>
@@ -7099,7 +7374,7 @@
         <v>845</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
         <v>1240</v>
@@ -7113,7 +7388,7 @@
         <v>845</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
         <v>1059</v>
@@ -7127,7 +7402,7 @@
         <v>845</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="5"/>
       <c r="F42" s="4" t="s">
         <v>1241</v>
@@ -7141,7 +7416,7 @@
         <v>845</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
       <c r="F43" s="4" t="s">
         <v>1238</v>
@@ -7155,7 +7430,7 @@
         <v>845</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4" t="s">
         <v>1221</v>
@@ -7169,7 +7444,7 @@
         <v>845</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4" t="s">
         <v>1392</v>
@@ -7183,7 +7458,7 @@
         <v>845</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="5"/>
       <c r="F46" s="4" t="s">
         <v>1235</v>
@@ -7197,7 +7472,7 @@
         <v>845</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
       <c r="F47" s="4" t="s">
         <v>1216</v>
@@ -7211,7 +7486,7 @@
         <v>845</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
         <v>1222</v>
@@ -7225,7 +7500,7 @@
         <v>845</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
       <c r="F49" s="4" t="s">
         <v>1220</v>
@@ -7239,7 +7514,7 @@
         <v>845</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
         <v>1223</v>
@@ -7253,7 +7528,7 @@
         <v>845</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
       <c r="F51" s="4" t="s">
         <v>1230</v>
@@ -7267,7 +7542,7 @@
         <v>845</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="5"/>
       <c r="F52" s="4" t="s">
         <v>1227</v>
@@ -7281,7 +7556,7 @@
         <v>845</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4" t="s">
         <v>1218</v>
@@ -7295,7 +7570,7 @@
         <v>845</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="4" t="s">
         <v>1250</v>
@@ -7309,7 +7584,7 @@
         <v>845</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4" t="s">
         <v>1591</v>
@@ -7323,7 +7598,7 @@
         <v>845</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="5"/>
       <c r="F56" s="4" t="s">
         <v>1247</v>
@@ -7337,7 +7612,7 @@
         <v>845</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
       <c r="F57" s="4" t="s">
         <v>1248</v>
@@ -7351,7 +7626,7 @@
         <v>845</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="4" t="s">
         <v>1249</v>
@@ -7365,7 +7640,7 @@
         <v>845</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="5"/>
       <c r="F59" s="4" t="s">
         <v>1500</v>
@@ -7379,7 +7654,7 @@
         <v>845</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="5"/>
       <c r="F60" s="4" t="s">
         <v>1245</v>
@@ -7393,7 +7668,7 @@
         <v>845</v>
       </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="5"/>
       <c r="F61" s="4" t="s">
         <v>1572</v>
@@ -7407,7 +7682,7 @@
         <v>845</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="5"/>
       <c r="F62" s="4" t="s">
         <v>1181</v>
@@ -7421,7 +7696,7 @@
         <v>845</v>
       </c>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="9"/>
       <c r="E63" s="5"/>
       <c r="F63" s="4" t="s">
         <v>1219</v>
@@ -7435,7 +7710,7 @@
         <v>845</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="9"/>
       <c r="E64" s="5"/>
       <c r="F64" s="4" t="s">
         <v>1246</v>
@@ -7449,7 +7724,7 @@
         <v>845</v>
       </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="5"/>
       <c r="F65" s="4" t="s">
         <v>1062</v>
@@ -7463,7 +7738,7 @@
         <v>845</v>
       </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="5"/>
       <c r="F66" s="4" t="s">
         <v>1226</v>
@@ -7477,7 +7752,7 @@
         <v>845</v>
       </c>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="9"/>
       <c r="E67" s="5"/>
       <c r="F67" s="4" t="s">
         <v>1416</v>
@@ -7491,7 +7766,7 @@
         <v>845</v>
       </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="9"/>
       <c r="E68" s="5"/>
       <c r="F68" s="4" t="s">
         <v>1399</v>
@@ -7505,7 +7780,7 @@
         <v>845</v>
       </c>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="9"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4" t="s">
         <v>1057</v>
@@ -7519,7 +7794,7 @@
         <v>845</v>
       </c>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="9"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4" t="s">
         <v>1073</v>
@@ -7533,7 +7808,7 @@
         <v>845</v>
       </c>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="9"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4" t="s">
         <v>1398</v>
@@ -7547,7 +7822,7 @@
         <v>845</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="9"/>
       <c r="E72" s="5"/>
       <c r="F72" s="4" t="s">
         <v>1397</v>
@@ -7561,7 +7836,7 @@
         <v>845</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="5"/>
       <c r="F73" s="4" t="s">
         <v>1058</v>
@@ -7575,7 +7850,7 @@
         <v>845</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="9"/>
       <c r="E74" s="5"/>
       <c r="F74" s="4" t="s">
         <v>1243</v>
@@ -7589,7 +7864,7 @@
         <v>845</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="5"/>
       <c r="F75" s="4" t="s">
         <v>1063</v>
@@ -7603,7 +7878,7 @@
         <v>845</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="5"/>
       <c r="F76" s="4" t="s">
         <v>1244</v>
@@ -7617,7 +7892,7 @@
         <v>845</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="9"/>
       <c r="E77" s="5"/>
       <c r="F77" s="4" t="s">
         <v>1395</v>
@@ -7631,7 +7906,7 @@
         <v>845</v>
       </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="5"/>
       <c r="F78" s="4" t="s">
         <v>1396</v>
@@ -7645,7 +7920,7 @@
         <v>845</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="5"/>
       <c r="F79" s="4" t="s">
         <v>1225</v>
@@ -7659,7 +7934,7 @@
         <v>845</v>
       </c>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="9"/>
       <c r="E80" s="5"/>
       <c r="F80" s="4" t="s">
         <v>1054</v>
@@ -7673,7 +7948,7 @@
         <v>845</v>
       </c>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="9"/>
       <c r="E81" s="5"/>
       <c r="F81" s="4" t="s">
         <v>1052</v>
@@ -7687,7 +7962,7 @@
         <v>845</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="9"/>
       <c r="E82" s="5"/>
       <c r="F82" s="4" t="s">
         <v>1242</v>
@@ -7701,7 +7976,7 @@
         <v>845</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="9"/>
       <c r="E83" s="5"/>
       <c r="F83" s="4" t="s">
         <v>1224</v>
@@ -7715,7 +7990,7 @@
         <v>845</v>
       </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="9"/>
       <c r="E84" s="5"/>
       <c r="F84" s="4" t="s">
         <v>1234</v>
@@ -7729,7 +8004,7 @@
         <v>845</v>
       </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="5"/>
       <c r="F85" s="4" t="s">
         <v>1051</v>
@@ -7743,7 +8018,7 @@
         <v>845</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="5"/>
       <c r="F86" s="4" t="s">
         <v>1061</v>
@@ -7759,7 +8034,7 @@
       <c r="C87" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -7779,7 +8054,7 @@
       <c r="C88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="7" t="s">
         <v>848</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -7799,7 +8074,7 @@
       <c r="C89" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="7" t="s">
         <v>851</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -7819,7 +8094,7 @@
       <c r="C90" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -7839,7 +8114,7 @@
       <c r="C91" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="8" t="s">
         <v>64</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -7859,7 +8134,7 @@
       <c r="C92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -7879,7 +8154,7 @@
       <c r="C93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -7899,7 +8174,7 @@
       <c r="C94" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -7919,7 +8194,7 @@
       <c r="C95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -7939,7 +8214,7 @@
       <c r="C96" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="7" t="s">
         <v>142</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -7957,7 +8232,7 @@
         <v>845</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="9"/>
       <c r="E97" s="5"/>
       <c r="F97" s="4" t="s">
         <v>1065</v>
@@ -7971,7 +8246,7 @@
         <v>845</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="5"/>
       <c r="F98" s="4" t="s">
         <v>1064</v>
@@ -7987,7 +8262,7 @@
       <c r="C99" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="7" t="s">
         <v>141</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -8007,7 +8282,7 @@
       <c r="C100" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="7" t="s">
         <v>110</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -8027,7 +8302,7 @@
       <c r="C101" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -8045,7 +8320,7 @@
         <v>845</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="9"/>
       <c r="E102" s="5"/>
       <c r="F102" s="4" t="s">
         <v>1066</v>
@@ -8061,7 +8336,7 @@
       <c r="C103" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -8081,7 +8356,7 @@
       <c r="C104" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="7" t="s">
         <v>52</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -8101,7 +8376,7 @@
       <c r="C105" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -8119,7 +8394,7 @@
         <v>845</v>
       </c>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="9"/>
       <c r="E106" s="5"/>
       <c r="F106" s="4" t="s">
         <v>1067</v>
@@ -8135,7 +8410,7 @@
       <c r="C107" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -8155,7 +8430,7 @@
       <c r="C108" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -8175,7 +8450,7 @@
       <c r="C109" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -8195,7 +8470,7 @@
       <c r="C110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -8213,7 +8488,7 @@
         <v>845</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="5"/>
       <c r="F111" s="4" t="s">
         <v>1072</v>
@@ -8229,7 +8504,7 @@
       <c r="C112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -8249,7 +8524,7 @@
       <c r="C113" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -8267,7 +8542,7 @@
         <v>845</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="9"/>
       <c r="E114" s="5"/>
       <c r="F114" s="4" t="s">
         <v>1231</v>
@@ -8281,7 +8556,7 @@
         <v>845</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="9"/>
       <c r="E115" s="5"/>
       <c r="F115" s="4" t="s">
         <v>1232</v>
@@ -8297,7 +8572,7 @@
       <c r="C116" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -8315,7 +8590,7 @@
         <v>845</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="9"/>
       <c r="E117" s="5"/>
       <c r="F117" s="4" t="s">
         <v>1071</v>
@@ -8331,7 +8606,7 @@
       <c r="C118" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="7" t="s">
         <v>168</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -8351,7 +8626,7 @@
       <c r="C119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -8371,7 +8646,7 @@
       <c r="C120" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="7" t="s">
         <v>191</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -8391,7 +8666,7 @@
       <c r="C121" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="7" t="s">
         <v>189</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -8411,7 +8686,7 @@
       <c r="C122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="7" t="s">
         <v>319</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -8431,7 +8706,7 @@
       <c r="C123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -8451,7 +8726,7 @@
       <c r="C124" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="7" t="s">
         <v>146</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -8471,7 +8746,7 @@
       <c r="C125" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="7" t="s">
         <v>148</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -8491,7 +8766,7 @@
       <c r="C126" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -8511,7 +8786,7 @@
       <c r="C127" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -8531,7 +8806,7 @@
       <c r="C128" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="7" t="s">
         <v>180</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -8551,7 +8826,7 @@
       <c r="C129" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="7" t="s">
         <v>315</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -8571,7 +8846,7 @@
       <c r="C130" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="7" t="s">
         <v>181</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -8591,7 +8866,7 @@
       <c r="C131" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="7" t="s">
         <v>316</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -8611,7 +8886,7 @@
       <c r="C132" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="7" t="s">
         <v>184</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -8631,7 +8906,7 @@
       <c r="C133" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="7" t="s">
         <v>317</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -8651,7 +8926,7 @@
       <c r="C134" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -8671,7 +8946,7 @@
       <c r="C135" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -8691,7 +8966,7 @@
       <c r="C136" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="D136" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -8711,7 +8986,7 @@
       <c r="C137" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -8731,7 +9006,7 @@
       <c r="C138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -8749,7 +9024,7 @@
         <v>845</v>
       </c>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="9"/>
       <c r="E139" s="5"/>
       <c r="F139" s="4" t="s">
         <v>1068</v>
@@ -8765,7 +9040,7 @@
       <c r="C140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -8783,7 +9058,7 @@
         <v>845</v>
       </c>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="D141" s="9"/>
       <c r="E141" s="5"/>
       <c r="F141" s="4" t="s">
         <v>1076</v>
@@ -8799,7 +9074,7 @@
       <c r="C142" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -8819,7 +9094,7 @@
       <c r="C143" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E143" s="3" t="s">
@@ -8839,7 +9114,7 @@
       <c r="C144" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E144" s="3" t="s">
@@ -8859,7 +9134,7 @@
       <c r="C145" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E145" s="3" t="s">
@@ -8877,7 +9152,7 @@
         <v>845</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="9"/>
       <c r="E146" s="5"/>
       <c r="F146" s="4" t="s">
         <v>1069</v>
@@ -8893,7 +9168,7 @@
       <c r="C147" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E147" s="3" t="s">
@@ -8913,7 +9188,7 @@
       <c r="C148" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E148" s="3" t="s">
@@ -8933,7 +9208,7 @@
       <c r="C149" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="7" t="s">
         <v>79</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -8953,7 +9228,7 @@
       <c r="C150" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -8973,7 +9248,7 @@
       <c r="C151" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E151" s="3" t="s">
@@ -8993,7 +9268,7 @@
       <c r="C152" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -9013,7 +9288,7 @@
       <c r="C153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E153" s="3" t="s">
@@ -9033,7 +9308,7 @@
       <c r="C154" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="D154" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E154" s="3" t="s">
@@ -9053,7 +9328,7 @@
       <c r="C155" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" s="7" t="s">
         <v>847</v>
       </c>
       <c r="E155" s="3" t="s">
@@ -9073,7 +9348,7 @@
       <c r="C156" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" s="7" t="s">
         <v>847</v>
       </c>
       <c r="E156" s="3" t="s">
@@ -9093,7 +9368,7 @@
       <c r="C157" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -9113,7 +9388,7 @@
       <c r="C158" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -9133,7 +9408,7 @@
       <c r="C159" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="7" t="s">
         <v>88</v>
       </c>
       <c r="E159" s="3" t="s">
@@ -9153,7 +9428,7 @@
       <c r="C160" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="7" t="s">
         <v>314</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -9173,7 +9448,7 @@
       <c r="C161" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="7" t="s">
         <v>318</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -9193,7 +9468,7 @@
       <c r="C162" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E162" s="3" t="s">
@@ -9213,7 +9488,7 @@
       <c r="C163" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="7" t="s">
         <v>186</v>
       </c>
       <c r="E163" s="3" t="s">
@@ -9233,7 +9508,7 @@
       <c r="C164" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E164" s="3" t="s">
@@ -9253,7 +9528,7 @@
       <c r="C165" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -9273,7 +9548,7 @@
       <c r="C166" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -9293,7 +9568,7 @@
       <c r="C167" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E167" s="3" t="s">
@@ -9313,7 +9588,7 @@
       <c r="C168" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -9333,7 +9608,7 @@
       <c r="C169" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="3" t="s">
@@ -9353,7 +9628,7 @@
       <c r="C170" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E170" s="3" t="s">
@@ -9373,7 +9648,7 @@
       <c r="C171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E171" s="3" t="s">
@@ -9393,7 +9668,9 @@
       <c r="C172" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D172" s="4"/>
+      <c r="D172" s="9" t="s">
+        <v>1693</v>
+      </c>
       <c r="E172" s="3" t="s">
         <v>509</v>
       </c>
@@ -9411,7 +9688,9 @@
       <c r="C173" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="D173" s="4"/>
+      <c r="D173" s="9" t="s">
+        <v>1694</v>
+      </c>
       <c r="E173" s="3" t="s">
         <v>464</v>
       </c>
@@ -9429,7 +9708,9 @@
       <c r="C174" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D174" s="4"/>
+      <c r="D174" s="9" t="s">
+        <v>1695</v>
+      </c>
       <c r="E174" s="3" t="s">
         <v>510</v>
       </c>
@@ -9445,7 +9726,7 @@
         <v>846</v>
       </c>
       <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="3" t="s">
         <v>263</v>
       </c>
@@ -9463,7 +9744,7 @@
       <c r="C176" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D176" s="4"/>
+      <c r="D176" s="9"/>
       <c r="E176" s="3" t="s">
         <v>511</v>
       </c>
@@ -9481,7 +9762,9 @@
       <c r="C177" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D177" s="4"/>
+      <c r="D177" s="9" t="s">
+        <v>1696</v>
+      </c>
       <c r="E177" s="3" t="s">
         <v>227</v>
       </c>
@@ -9499,7 +9782,9 @@
       <c r="C178" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D178" s="4"/>
+      <c r="D178" s="9" t="s">
+        <v>1696</v>
+      </c>
       <c r="E178" s="3" t="s">
         <v>235</v>
       </c>
@@ -9517,7 +9802,9 @@
       <c r="C179" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D179" s="4"/>
+      <c r="D179" s="9" t="s">
+        <v>1697</v>
+      </c>
       <c r="E179" s="3" t="s">
         <v>512</v>
       </c>
@@ -9535,7 +9822,9 @@
       <c r="C180" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="D180" s="4"/>
+      <c r="D180" s="9" t="s">
+        <v>1698</v>
+      </c>
       <c r="E180" s="3" t="s">
         <v>229</v>
       </c>
@@ -9553,7 +9842,9 @@
       <c r="C181" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D181" s="4"/>
+      <c r="D181" s="9" t="s">
+        <v>1699</v>
+      </c>
       <c r="E181" s="3" t="s">
         <v>513</v>
       </c>
@@ -9571,7 +9862,9 @@
       <c r="C182" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D182" s="4"/>
+      <c r="D182" s="9" t="s">
+        <v>1699</v>
+      </c>
       <c r="E182" s="3" t="s">
         <v>514</v>
       </c>
@@ -9589,7 +9882,9 @@
       <c r="C183" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D183" s="4"/>
+      <c r="D183" s="9" t="s">
+        <v>1700</v>
+      </c>
       <c r="E183" s="3" t="s">
         <v>230</v>
       </c>
@@ -9607,7 +9902,9 @@
       <c r="C184" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="D184" s="4"/>
+      <c r="D184" s="9" t="s">
+        <v>1701</v>
+      </c>
       <c r="E184" s="3" t="s">
         <v>515</v>
       </c>
@@ -9625,7 +9922,9 @@
       <c r="C185" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D185" s="4"/>
+      <c r="D185" s="9" t="s">
+        <v>1702</v>
+      </c>
       <c r="E185" s="3" t="s">
         <v>231</v>
       </c>
@@ -9641,7 +9940,7 @@
         <v>846</v>
       </c>
       <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="9"/>
       <c r="F186" t="s">
         <v>546</v>
       </c>
@@ -9656,7 +9955,9 @@
       <c r="C187" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="D187" s="4"/>
+      <c r="D187" s="9" t="s">
+        <v>1703</v>
+      </c>
       <c r="E187" s="3" t="s">
         <v>516</v>
       </c>
@@ -9674,7 +9975,9 @@
       <c r="C188" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D188" s="4"/>
+      <c r="D188" s="9" t="s">
+        <v>1704</v>
+      </c>
       <c r="E188" s="3" t="s">
         <v>261</v>
       </c>
@@ -9692,7 +9995,9 @@
       <c r="C189" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D189" s="4"/>
+      <c r="D189" s="9" t="s">
+        <v>1705</v>
+      </c>
       <c r="E189" s="3" t="s">
         <v>264</v>
       </c>
@@ -9710,7 +10015,9 @@
       <c r="C190" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="D190" s="4"/>
+      <c r="D190" s="9" t="s">
+        <v>1706</v>
+      </c>
       <c r="E190" s="3" t="s">
         <v>236</v>
       </c>
@@ -9728,7 +10035,9 @@
       <c r="C191" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D191" s="4"/>
+      <c r="D191" s="9" t="s">
+        <v>1707</v>
+      </c>
       <c r="E191" s="3" t="s">
         <v>266</v>
       </c>
@@ -9746,7 +10055,9 @@
       <c r="C192" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="D192" s="4"/>
+      <c r="D192" s="9" t="s">
+        <v>1708</v>
+      </c>
       <c r="E192" s="3" t="s">
         <v>517</v>
       </c>
@@ -9764,7 +10075,9 @@
       <c r="C193" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="D193" s="4"/>
+      <c r="D193" s="9" t="s">
+        <v>1709</v>
+      </c>
       <c r="E193" s="3" t="s">
         <v>518</v>
       </c>
@@ -9782,7 +10095,9 @@
       <c r="C194" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D194" s="4"/>
+      <c r="D194" s="9" t="s">
+        <v>1710</v>
+      </c>
       <c r="E194" s="3" t="s">
         <v>265</v>
       </c>
@@ -9800,7 +10115,9 @@
       <c r="C195" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D195" s="4"/>
+      <c r="D195" s="9" t="s">
+        <v>1711</v>
+      </c>
       <c r="E195" s="3" t="s">
         <v>519</v>
       </c>
@@ -9818,7 +10135,9 @@
       <c r="C196" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D196" s="4"/>
+      <c r="D196" s="9" t="s">
+        <v>1712</v>
+      </c>
       <c r="E196" s="3" t="s">
         <v>228</v>
       </c>
@@ -9836,7 +10155,9 @@
       <c r="C197" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D197" s="4"/>
+      <c r="D197" s="9" t="s">
+        <v>1713</v>
+      </c>
       <c r="E197" s="3" t="s">
         <v>539</v>
       </c>
@@ -9854,7 +10175,9 @@
       <c r="C198" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D198" s="4"/>
+      <c r="D198" s="9" t="s">
+        <v>1714</v>
+      </c>
       <c r="E198" s="3" t="s">
         <v>540</v>
       </c>
@@ -9872,7 +10195,9 @@
       <c r="C199" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="D199" s="4"/>
+      <c r="D199" s="9" t="s">
+        <v>1715</v>
+      </c>
       <c r="E199" s="3" t="s">
         <v>234</v>
       </c>
@@ -9890,7 +10215,9 @@
       <c r="C200" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="D200" s="4"/>
+      <c r="D200" s="9" t="s">
+        <v>1716</v>
+      </c>
       <c r="E200" s="3" t="s">
         <v>232</v>
       </c>
@@ -9908,7 +10235,9 @@
       <c r="C201" s="4" t="s">
         <v>952</v>
       </c>
-      <c r="D201" s="4"/>
+      <c r="D201" s="9" t="s">
+        <v>1717</v>
+      </c>
       <c r="E201" s="3" t="s">
         <v>233</v>
       </c>
@@ -9926,7 +10255,9 @@
       <c r="C202" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D202" s="4"/>
+      <c r="D202" s="9" t="s">
+        <v>1718</v>
+      </c>
       <c r="E202" s="3" t="s">
         <v>436</v>
       </c>
@@ -9944,7 +10275,9 @@
       <c r="C203" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D203" s="4"/>
+      <c r="D203" s="9" t="s">
+        <v>1719</v>
+      </c>
       <c r="E203" s="3" t="s">
         <v>246</v>
       </c>
@@ -9962,7 +10295,9 @@
       <c r="C204" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D204" s="4"/>
+      <c r="D204" s="9" t="s">
+        <v>1720</v>
+      </c>
       <c r="E204" s="5"/>
       <c r="F204" s="4" t="s">
         <v>1088</v>
@@ -9978,7 +10313,9 @@
       <c r="C205" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D205" s="4"/>
+      <c r="D205" s="9" t="s">
+        <v>1721</v>
+      </c>
       <c r="E205" s="3" t="s">
         <v>249</v>
       </c>
@@ -9996,7 +10333,9 @@
       <c r="C206" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D206" s="4"/>
+      <c r="D206" s="9" t="s">
+        <v>1701</v>
+      </c>
       <c r="E206" s="3" t="s">
         <v>243</v>
       </c>
@@ -10014,7 +10353,7 @@
       <c r="C207" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="9"/>
       <c r="E207" s="3" t="s">
         <v>437</v>
       </c>
@@ -10032,7 +10371,9 @@
       <c r="C208" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D208" s="4"/>
+      <c r="D208" s="9" t="s">
+        <v>1722</v>
+      </c>
       <c r="E208" s="5"/>
       <c r="F208" s="4" t="s">
         <v>1061</v>
@@ -10048,7 +10389,7 @@
       <c r="C209" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="9"/>
       <c r="E209" s="5"/>
       <c r="F209" s="4" t="s">
         <v>1373</v>
@@ -10064,7 +10405,7 @@
       <c r="C210" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D210" s="4"/>
+      <c r="D210" s="9"/>
       <c r="E210" s="5"/>
       <c r="F210" s="4" t="s">
         <v>1378</v>
@@ -10080,7 +10421,9 @@
       <c r="C211" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D211" s="4"/>
+      <c r="D211" s="9" t="s">
+        <v>1723</v>
+      </c>
       <c r="E211" s="3" t="s">
         <v>252</v>
       </c>
@@ -10098,7 +10441,7 @@
       <c r="C212" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D212" s="4"/>
+      <c r="D212" s="9"/>
       <c r="E212" s="5"/>
       <c r="F212" s="4" t="s">
         <v>1372</v>
@@ -10114,7 +10457,7 @@
       <c r="C213" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D213" s="4"/>
+      <c r="D213" s="9"/>
       <c r="E213" s="5"/>
       <c r="F213" s="4" t="s">
         <v>1376</v>
@@ -10130,7 +10473,7 @@
       <c r="C214" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D214" s="4"/>
+      <c r="D214" s="9"/>
       <c r="F214" t="s">
         <v>861</v>
       </c>
@@ -10145,7 +10488,7 @@
       <c r="C215" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D215" s="4"/>
+      <c r="D215" s="9"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4" t="s">
         <v>1370</v>
@@ -10161,7 +10504,7 @@
       <c r="C216" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D216" s="4"/>
+      <c r="D216" s="9"/>
       <c r="E216" s="3" t="s">
         <v>439</v>
       </c>
@@ -10179,7 +10522,7 @@
       <c r="C217" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="9"/>
       <c r="E217" s="3" t="s">
         <v>439</v>
       </c>
@@ -10197,7 +10540,7 @@
       <c r="C218" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D218" s="4"/>
+      <c r="D218" s="9"/>
       <c r="E218" s="3" t="s">
         <v>440</v>
       </c>
@@ -10215,7 +10558,7 @@
       <c r="C219" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D219" s="4"/>
+      <c r="D219" s="9"/>
       <c r="F219" t="s">
         <v>872</v>
       </c>
@@ -10230,7 +10573,7 @@
       <c r="C220" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D220" s="4"/>
+      <c r="D220" s="9"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4" t="s">
         <v>1368</v>
@@ -10246,7 +10589,7 @@
       <c r="C221" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D221" s="4"/>
+      <c r="D221" s="9"/>
       <c r="E221" s="3" t="s">
         <v>440</v>
       </c>
@@ -10264,7 +10607,7 @@
       <c r="C222" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D222" s="4"/>
+      <c r="D222" s="9"/>
       <c r="E222" s="3" t="s">
         <v>251</v>
       </c>
@@ -10282,7 +10625,7 @@
       <c r="C223" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D223" s="4"/>
+      <c r="D223" s="9"/>
       <c r="E223" s="5"/>
       <c r="F223" s="4" t="s">
         <v>1090</v>
@@ -10298,7 +10641,9 @@
       <c r="C224" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D224" s="4"/>
+      <c r="D224" s="9" t="s">
+        <v>1724</v>
+      </c>
       <c r="E224" s="3" t="s">
         <v>247</v>
       </c>
@@ -10316,7 +10661,7 @@
       <c r="C225" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D225" s="4"/>
+      <c r="D225" s="9"/>
       <c r="E225" s="5"/>
       <c r="F225" s="4" t="s">
         <v>1096</v>
@@ -10332,7 +10677,7 @@
       <c r="C226" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="9"/>
       <c r="E226" s="5"/>
       <c r="F226" s="4" t="s">
         <v>1094</v>
@@ -10348,7 +10693,7 @@
       <c r="C227" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D227" s="4"/>
+      <c r="D227" s="9"/>
       <c r="E227" s="5"/>
       <c r="F227" s="4" t="s">
         <v>1092</v>
@@ -10364,7 +10709,7 @@
       <c r="C228" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D228" s="4"/>
+      <c r="D228" s="9"/>
       <c r="E228" s="3" t="s">
         <v>442</v>
       </c>
@@ -10382,7 +10727,7 @@
       <c r="C229" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D229" s="4"/>
+      <c r="D229" s="9"/>
       <c r="E229" s="3" t="s">
         <v>443</v>
       </c>
@@ -10400,7 +10745,7 @@
       <c r="C230" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D230" s="4"/>
+      <c r="D230" s="9"/>
       <c r="E230" s="3" t="s">
         <v>248</v>
       </c>
@@ -10418,7 +10763,7 @@
       <c r="C231" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D231" s="4"/>
+      <c r="D231" s="9"/>
       <c r="E231" s="3" t="s">
         <v>384</v>
       </c>
@@ -10436,7 +10781,7 @@
       <c r="C232" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D232" s="4"/>
+      <c r="D232" s="9"/>
       <c r="E232" s="5"/>
       <c r="F232" s="4" t="s">
         <v>1258</v>
@@ -10452,7 +10797,7 @@
       <c r="C233" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D233" s="4"/>
+      <c r="D233" s="9"/>
       <c r="E233" s="5"/>
       <c r="F233" s="4" t="s">
         <v>1264</v>
@@ -10468,7 +10813,7 @@
       <c r="C234" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D234" s="4"/>
+      <c r="D234" s="9"/>
       <c r="E234" s="5"/>
       <c r="F234" s="4" t="s">
         <v>1260</v>
@@ -10484,7 +10829,7 @@
       <c r="C235" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D235" s="4"/>
+      <c r="D235" s="9"/>
       <c r="E235" s="3" t="s">
         <v>245</v>
       </c>
@@ -10502,7 +10847,7 @@
       <c r="C236" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D236" s="4"/>
+      <c r="D236" s="9"/>
       <c r="E236" s="5"/>
       <c r="F236" s="4" t="s">
         <v>1253</v>
@@ -10518,7 +10863,7 @@
       <c r="C237" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D237" s="4"/>
+      <c r="D237" s="9"/>
       <c r="E237" s="5"/>
       <c r="F237" s="4" t="s">
         <v>1104</v>
@@ -10534,7 +10879,7 @@
       <c r="C238" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D238" s="4"/>
+      <c r="D238" s="9"/>
       <c r="E238" s="5"/>
       <c r="F238" s="4" t="s">
         <v>1262</v>
@@ -10550,7 +10895,7 @@
       <c r="C239" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D239" s="4"/>
+      <c r="D239" s="9"/>
       <c r="E239" s="5"/>
       <c r="F239" s="4" t="s">
         <v>1266</v>
@@ -10566,7 +10911,7 @@
       <c r="C240" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D240" s="4"/>
+      <c r="D240" s="9"/>
       <c r="E240" s="5"/>
       <c r="F240" s="4" t="s">
         <v>1268</v>
@@ -10582,7 +10927,7 @@
       <c r="C241" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D241" s="4"/>
+      <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="4" t="s">
         <v>1257</v>
@@ -10598,7 +10943,7 @@
       <c r="C242" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D242" s="4"/>
+      <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="4" t="s">
         <v>1252</v>
@@ -10614,7 +10959,7 @@
       <c r="C243" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D243" s="4"/>
+      <c r="D243" s="9"/>
       <c r="E243" s="5"/>
       <c r="F243" s="4" t="s">
         <v>1256</v>
@@ -10630,7 +10975,7 @@
       <c r="C244" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D244" s="4"/>
+      <c r="D244" s="9"/>
       <c r="E244" s="3" t="s">
         <v>242</v>
       </c>
@@ -10648,7 +10993,7 @@
       <c r="C245" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D245" s="4"/>
+      <c r="D245" s="9"/>
       <c r="E245" s="5"/>
       <c r="F245" s="4" t="s">
         <v>1385</v>
@@ -10664,7 +11009,7 @@
       <c r="C246" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D246" s="4"/>
+      <c r="D246" s="9"/>
       <c r="E246" s="5"/>
       <c r="F246" s="4" t="s">
         <v>1387</v>
@@ -10680,7 +11025,7 @@
       <c r="C247" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D247" s="4"/>
+      <c r="D247" s="9"/>
       <c r="E247" s="3" t="s">
         <v>444</v>
       </c>
@@ -10698,7 +11043,7 @@
       <c r="C248" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D248" s="4"/>
+      <c r="D248" s="9"/>
       <c r="E248" s="3" t="s">
         <v>250</v>
       </c>
@@ -10716,7 +11061,7 @@
       <c r="C249" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D249" s="4"/>
+      <c r="D249" s="9"/>
       <c r="E249" s="3" t="s">
         <v>446</v>
       </c>
@@ -10734,7 +11079,7 @@
       <c r="C250" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D250" s="4"/>
+      <c r="D250" s="9"/>
       <c r="E250" s="3" t="s">
         <v>446</v>
       </c>
@@ -10752,7 +11097,7 @@
       <c r="C251" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D251" s="4"/>
+      <c r="D251" s="9"/>
       <c r="E251" s="5"/>
       <c r="F251" s="4" t="s">
         <v>1098</v>
@@ -10768,7 +11113,7 @@
       <c r="C252" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D252" s="4"/>
+      <c r="D252" s="9"/>
       <c r="E252" s="3" t="s">
         <v>256</v>
       </c>
@@ -10786,7 +11131,7 @@
       <c r="C253" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D253" s="4"/>
+      <c r="D253" s="9"/>
       <c r="E253" s="5"/>
       <c r="F253" s="4" t="s">
         <v>1101</v>
@@ -10800,7 +11145,7 @@
         <v>845</v>
       </c>
       <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="D254" s="9"/>
       <c r="E254" s="5"/>
       <c r="F254" s="4" t="s">
         <v>1086</v>
@@ -10816,7 +11161,7 @@
       <c r="C255" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D255" s="4"/>
+      <c r="D255" s="9"/>
       <c r="E255" s="5"/>
       <c r="F255" s="4" t="s">
         <v>1100</v>
@@ -10832,7 +11177,9 @@
       <c r="C256" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D256" s="4"/>
+      <c r="D256" s="9" t="s">
+        <v>1015</v>
+      </c>
       <c r="E256" s="3" t="s">
         <v>447</v>
       </c>
@@ -10850,7 +11197,7 @@
       <c r="C257" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D257" s="4"/>
+      <c r="D257" s="9"/>
       <c r="E257" s="3" t="s">
         <v>444</v>
       </c>
@@ -10868,7 +11215,7 @@
       <c r="C258" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D258" s="4"/>
+      <c r="D258" s="9"/>
       <c r="E258" s="5"/>
       <c r="F258" s="4" t="s">
         <v>1271</v>
@@ -10884,7 +11231,7 @@
       <c r="C259" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D259" s="4"/>
+      <c r="D259" s="9"/>
       <c r="E259" s="3" t="s">
         <v>445</v>
       </c>
@@ -10902,7 +11249,7 @@
       <c r="C260" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D260" s="4"/>
+      <c r="D260" s="9"/>
       <c r="E260" s="5"/>
       <c r="F260" s="4" t="s">
         <v>1273</v>
@@ -10918,7 +11265,7 @@
       <c r="C261" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D261" s="4"/>
+      <c r="D261" s="9"/>
       <c r="E261" s="5"/>
       <c r="F261" s="4" t="s">
         <v>1195</v>
@@ -10934,7 +11281,7 @@
       <c r="C262" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D262" s="4"/>
+      <c r="D262" s="9"/>
       <c r="E262" s="5"/>
       <c r="F262" s="4" t="s">
         <v>1383</v>
@@ -10950,7 +11297,7 @@
       <c r="C263" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D263" s="4"/>
+      <c r="D263" s="9"/>
       <c r="E263" s="5"/>
       <c r="F263" s="4" t="s">
         <v>1193</v>
@@ -10966,7 +11313,7 @@
       <c r="C264" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D264" s="4"/>
+      <c r="D264" s="9"/>
       <c r="E264" s="5"/>
       <c r="F264" s="4" t="s">
         <v>1275</v>
@@ -10982,7 +11329,7 @@
       <c r="C265" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D265" s="4"/>
+      <c r="D265" s="9"/>
       <c r="E265" s="3" t="s">
         <v>253</v>
       </c>
@@ -11000,7 +11347,7 @@
       <c r="C266" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D266" s="4"/>
+      <c r="D266" s="9"/>
       <c r="E266" s="3" t="s">
         <v>438</v>
       </c>
@@ -11018,7 +11365,7 @@
       <c r="C267" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D267" s="4"/>
+      <c r="D267" s="9"/>
       <c r="E267" s="3" t="s">
         <v>448</v>
       </c>
@@ -11036,7 +11383,7 @@
       <c r="C268" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D268" s="4"/>
+      <c r="D268" s="9"/>
       <c r="E268" s="5"/>
       <c r="F268" s="4" t="s">
         <v>1391</v>
@@ -11052,7 +11399,7 @@
       <c r="C269" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D269" s="4"/>
+      <c r="D269" s="9"/>
       <c r="E269" s="5"/>
       <c r="F269" s="4" t="s">
         <v>1190</v>
@@ -11068,7 +11415,7 @@
       <c r="C270" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D270" s="4"/>
+      <c r="D270" s="9"/>
       <c r="E270" s="5"/>
       <c r="F270" s="4" t="s">
         <v>1186</v>
@@ -11084,7 +11431,7 @@
       <c r="C271" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D271" s="4"/>
+      <c r="D271" s="9"/>
       <c r="E271" s="5"/>
       <c r="F271" s="4" t="s">
         <v>1389</v>
@@ -11100,7 +11447,7 @@
       <c r="C272" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D272" s="4"/>
+      <c r="D272" s="9"/>
       <c r="E272" s="3" t="s">
         <v>244</v>
       </c>
@@ -11118,7 +11465,7 @@
       <c r="C273" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D273" s="4"/>
+      <c r="D273" s="9"/>
       <c r="E273" s="5"/>
       <c r="F273" s="4" t="s">
         <v>1188</v>
@@ -11134,7 +11481,7 @@
       <c r="C274" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D274" s="4"/>
+      <c r="D274" s="9"/>
       <c r="E274" s="5"/>
       <c r="F274" s="4" t="s">
         <v>1192</v>
@@ -11150,7 +11497,7 @@
       <c r="C275" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D275" s="4"/>
+      <c r="D275" s="9"/>
       <c r="E275" s="3" t="s">
         <v>244</v>
       </c>
@@ -11168,7 +11515,7 @@
       <c r="C276" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D276" s="4"/>
+      <c r="D276" s="9"/>
       <c r="E276" s="5"/>
       <c r="F276" s="4" t="s">
         <v>1269</v>
@@ -11184,7 +11531,7 @@
       <c r="C277" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D277" s="4"/>
+      <c r="D277" s="9"/>
       <c r="E277" s="3" t="s">
         <v>449</v>
       </c>
@@ -11202,7 +11549,7 @@
       <c r="C278" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D278" s="4"/>
+      <c r="D278" s="9"/>
       <c r="E278" s="3" t="s">
         <v>446</v>
       </c>
@@ -11220,7 +11567,9 @@
       <c r="C279" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D279" s="4"/>
+      <c r="D279" s="9" t="s">
+        <v>1725</v>
+      </c>
       <c r="E279" s="3" t="s">
         <v>296</v>
       </c>
@@ -11238,7 +11587,9 @@
       <c r="C280" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D280" s="4"/>
+      <c r="D280" s="9" t="s">
+        <v>1725</v>
+      </c>
       <c r="E280" s="3" t="s">
         <v>297</v>
       </c>
@@ -11256,7 +11607,9 @@
       <c r="C281" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D281" s="4"/>
+      <c r="D281" s="9" t="s">
+        <v>1726</v>
+      </c>
       <c r="E281" s="3" t="s">
         <v>298</v>
       </c>
@@ -11274,7 +11627,9 @@
       <c r="C282" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D282" s="4"/>
+      <c r="D282" s="9" t="s">
+        <v>1727</v>
+      </c>
       <c r="E282" s="3" t="s">
         <v>299</v>
       </c>
@@ -11292,7 +11647,9 @@
       <c r="C283" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D283" s="4"/>
+      <c r="D283" s="9" t="s">
+        <v>1728</v>
+      </c>
       <c r="E283" s="3" t="s">
         <v>300</v>
       </c>
@@ -11310,7 +11667,9 @@
       <c r="C284" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="D284" s="4"/>
+      <c r="D284" s="9" t="s">
+        <v>1729</v>
+      </c>
       <c r="E284" t="s">
         <v>301</v>
       </c>
@@ -11328,7 +11687,9 @@
       <c r="C285" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="D285" s="4"/>
+      <c r="D285" s="9" t="s">
+        <v>1730</v>
+      </c>
       <c r="E285" s="3" t="s">
         <v>635</v>
       </c>
@@ -11346,7 +11707,9 @@
       <c r="C286" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="D286" s="4"/>
+      <c r="D286" s="9" t="s">
+        <v>1731</v>
+      </c>
       <c r="E286" s="3" t="s">
         <v>639</v>
       </c>
@@ -11362,7 +11725,7 @@
         <v>877</v>
       </c>
       <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="D287" s="9"/>
       <c r="E287" s="3" t="s">
         <v>636</v>
       </c>
@@ -11380,7 +11743,9 @@
       <c r="C288" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="D288" s="4"/>
+      <c r="D288" s="9" t="s">
+        <v>1732</v>
+      </c>
       <c r="E288" s="3" t="s">
         <v>773</v>
       </c>
@@ -11398,7 +11763,7 @@
       <c r="C289" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="D289" s="4"/>
+      <c r="D289" s="9"/>
       <c r="E289" s="3" t="s">
         <v>640</v>
       </c>
@@ -11416,7 +11781,9 @@
       <c r="C290" s="4" t="s">
         <v>1017</v>
       </c>
-      <c r="D290" s="4"/>
+      <c r="D290" s="9" t="s">
+        <v>1733</v>
+      </c>
       <c r="E290" s="3" t="s">
         <v>641</v>
       </c>
@@ -11432,7 +11799,7 @@
         <v>877</v>
       </c>
       <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="D291" s="9"/>
       <c r="E291" s="5"/>
       <c r="F291" s="4" t="s">
         <v>1411</v>
@@ -11446,7 +11813,7 @@
         <v>877</v>
       </c>
       <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="D292" s="9"/>
       <c r="E292" s="5"/>
       <c r="F292" s="4" t="s">
         <v>1413</v>
@@ -11460,7 +11827,7 @@
         <v>877</v>
       </c>
       <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="D293" s="9"/>
       <c r="E293" s="5"/>
       <c r="F293" s="4" t="s">
         <v>1124</v>
@@ -11474,7 +11841,7 @@
         <v>877</v>
       </c>
       <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="9"/>
       <c r="E294" s="5"/>
       <c r="F294" s="4" t="s">
         <v>1075</v>
@@ -11490,7 +11857,9 @@
       <c r="C295" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="D295" s="4"/>
+      <c r="D295" s="9" t="s">
+        <v>1701</v>
+      </c>
       <c r="E295" s="3" t="s">
         <v>642</v>
       </c>
@@ -11508,7 +11877,9 @@
       <c r="C296" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="D296" s="4"/>
+      <c r="D296" s="9" t="s">
+        <v>1734</v>
+      </c>
       <c r="E296" s="3" t="s">
         <v>637</v>
       </c>
@@ -11524,7 +11895,7 @@
         <v>877</v>
       </c>
       <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="D297" s="9"/>
       <c r="E297" s="5"/>
       <c r="F297" s="4" t="s">
         <v>1122</v>
@@ -11538,7 +11909,7 @@
         <v>877</v>
       </c>
       <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="D298" s="9"/>
       <c r="E298" s="5"/>
       <c r="F298" s="4" t="s">
         <v>1126</v>
@@ -11552,7 +11923,7 @@
         <v>877</v>
       </c>
       <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="D299" s="9"/>
       <c r="E299" s="5"/>
       <c r="F299" s="4" t="s">
         <v>1283</v>
@@ -11566,7 +11937,7 @@
         <v>877</v>
       </c>
       <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="D300" s="9"/>
       <c r="E300" s="5"/>
       <c r="F300" s="4" t="s">
         <v>1319</v>
@@ -11580,7 +11951,7 @@
         <v>877</v>
       </c>
       <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="D301" s="9"/>
       <c r="E301" s="5"/>
       <c r="F301" s="4" t="s">
         <v>1322</v>
@@ -11594,7 +11965,7 @@
         <v>877</v>
       </c>
       <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="D302" s="9"/>
       <c r="E302" s="5"/>
       <c r="F302" s="4" t="s">
         <v>1323</v>
@@ -11608,7 +11979,7 @@
         <v>877</v>
       </c>
       <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="D303" s="9"/>
       <c r="E303" s="5"/>
       <c r="F303" s="4" t="s">
         <v>1317</v>
@@ -11622,7 +11993,7 @@
         <v>877</v>
       </c>
       <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="D304" s="9"/>
       <c r="E304" s="5"/>
       <c r="F304" s="4" t="s">
         <v>1320</v>
@@ -11636,7 +12007,7 @@
         <v>877</v>
       </c>
       <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="D305" s="9"/>
       <c r="E305" s="5"/>
       <c r="F305" s="4" t="s">
         <v>1335</v>
@@ -11650,7 +12021,7 @@
         <v>877</v>
       </c>
       <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="D306" s="9"/>
       <c r="E306" s="5"/>
       <c r="F306" s="4" t="s">
         <v>1342</v>
@@ -11658,901 +12029,903 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>1202</v>
+        <v>1675</v>
       </c>
       <c r="B307" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="D307" s="9"/>
       <c r="E307" s="5"/>
       <c r="F307" s="4" t="s">
-        <v>1203</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>1337</v>
+        <v>1202</v>
       </c>
       <c r="B308" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="D308" s="9"/>
       <c r="E308" s="5"/>
       <c r="F308" s="4" t="s">
-        <v>1338</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>1436</v>
+        <v>1337</v>
       </c>
       <c r="B309" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="D309" s="9"/>
       <c r="E309" s="5"/>
       <c r="F309" s="4" t="s">
-        <v>1437</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="B310" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="D310" s="9"/>
       <c r="E310" s="5"/>
       <c r="F310" s="4" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="D311" s="9"/>
       <c r="E311" s="5"/>
       <c r="F311" s="4" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>1501</v>
+        <v>1438</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="D312" s="9"/>
       <c r="E312" s="5"/>
       <c r="F312" s="4" t="s">
-        <v>1502</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>1434</v>
+        <v>1501</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
+      <c r="D313" s="9"/>
       <c r="E313" s="5"/>
       <c r="F313" s="4" t="s">
-        <v>1435</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="D314" s="9"/>
       <c r="E314" s="5"/>
       <c r="F314" s="4" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="D315" s="9"/>
       <c r="E315" s="5"/>
       <c r="F315" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="D316" s="9"/>
       <c r="E316" s="5"/>
       <c r="F316" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="D317" s="9"/>
       <c r="E317" s="5"/>
       <c r="F317" s="4" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="D318" s="9"/>
       <c r="E318" s="5"/>
       <c r="F318" s="4" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="D319" s="9"/>
       <c r="E319" s="5"/>
       <c r="F319" s="4" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C320" s="4"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="5"/>
+      <c r="F320" s="4" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="5"/>
-      <c r="F320" s="4"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="D321" s="9"/>
       <c r="E321" s="5"/>
       <c r="F321" s="4" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="D322" s="9"/>
       <c r="E322" s="5"/>
       <c r="F322" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>1503</v>
+        <v>1649</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="D323" s="9"/>
       <c r="E323" s="5"/>
       <c r="F323" s="4" t="s">
-        <v>1504</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>1443</v>
+        <v>1503</v>
       </c>
       <c r="B324" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="D324" s="9"/>
       <c r="E324" s="5"/>
       <c r="F324" s="4" t="s">
-        <v>1442</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>1505</v>
+        <v>1443</v>
       </c>
       <c r="B325" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="D325" s="9"/>
       <c r="E325" s="5"/>
       <c r="F325" s="4" t="s">
-        <v>1506</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="B326" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="D326" s="9"/>
       <c r="E326" s="5"/>
       <c r="F326" s="4" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="B327" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="D327" s="9"/>
       <c r="E327" s="5"/>
       <c r="F327" s="4" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>1473</v>
+        <v>1507</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
+      <c r="D328" s="9"/>
       <c r="E328" s="5"/>
       <c r="F328" s="4" t="s">
-        <v>1474</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>1444</v>
+        <v>1473</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="D329" s="9"/>
       <c r="E329" s="5"/>
       <c r="F329" s="4" t="s">
-        <v>1445</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>1465</v>
+        <v>1444</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
+      <c r="D330" s="9"/>
       <c r="E330" s="5"/>
       <c r="F330" s="4" t="s">
-        <v>1466</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="D331" s="9"/>
       <c r="E331" s="5"/>
       <c r="F331" s="4" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="B332" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="D332" s="9"/>
       <c r="E332" s="5"/>
       <c r="F332" s="4" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>1432</v>
+        <v>1469</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
+      <c r="D333" s="9"/>
       <c r="E333" s="5"/>
       <c r="F333" s="4" t="s">
-        <v>1433</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>1511</v>
+        <v>1432</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="D334" s="9"/>
       <c r="E334" s="5"/>
       <c r="F334" s="4" t="s">
-        <v>1512</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>1471</v>
+        <v>1511</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
+      <c r="D335" s="9"/>
       <c r="E335" s="5"/>
       <c r="F335" s="4" t="s">
-        <v>1472</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
+      <c r="D336" s="9"/>
       <c r="E336" s="5"/>
       <c r="F336" s="4" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>1573</v>
+        <v>1467</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
+      <c r="D337" s="9"/>
       <c r="E337" s="5"/>
       <c r="F337" s="4" t="s">
-        <v>1574</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>1480</v>
+        <v>1573</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
+      <c r="D338" s="9"/>
       <c r="E338" s="5"/>
       <c r="F338" s="4" t="s">
-        <v>1481</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>1463</v>
+        <v>1480</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="D339" s="9"/>
       <c r="E339" s="5"/>
       <c r="F339" s="4" t="s">
-        <v>1464</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>1575</v>
+        <v>1463</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
+      <c r="D340" s="9"/>
       <c r="E340" s="5"/>
       <c r="F340" s="4" t="s">
-        <v>1576</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>1513</v>
+        <v>1575</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="D341" s="9"/>
       <c r="E341" s="5"/>
       <c r="F341" s="4" t="s">
-        <v>1514</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="D342" s="9"/>
       <c r="E342" s="5"/>
       <c r="F342" s="4" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>1583</v>
+        <v>1519</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
+      <c r="D343" s="9"/>
       <c r="E343" s="5"/>
       <c r="F343" s="4" t="s">
-        <v>1584</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>1517</v>
+        <v>1583</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
+      <c r="D344" s="9"/>
       <c r="E344" s="5"/>
       <c r="F344" s="4" t="s">
-        <v>1518</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>1579</v>
+        <v>1517</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="D345" s="9"/>
       <c r="E345" s="5"/>
       <c r="F345" s="4" t="s">
-        <v>1580</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>1608</v>
+        <v>1579</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="D346" s="9"/>
       <c r="E346" s="5"/>
       <c r="F346" s="4" t="s">
-        <v>1609</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="D347" s="9"/>
       <c r="E347" s="5"/>
       <c r="F347" s="4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
+      <c r="D348" s="9"/>
       <c r="E348" s="5"/>
       <c r="F348" s="4" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>1592</v>
+        <v>1610</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
+      <c r="D349" s="9"/>
       <c r="E349" s="5"/>
       <c r="F349" s="4" t="s">
-        <v>1593</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="B350" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
+      <c r="D350" s="9"/>
       <c r="E350" s="5"/>
       <c r="F350" s="4" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>1585</v>
+        <v>1596</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="D351" s="9"/>
       <c r="E351" s="5"/>
       <c r="F351" s="4" t="s">
-        <v>1586</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
+      <c r="D352" s="9"/>
       <c r="E352" s="5"/>
       <c r="F352" s="4" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="D353" s="9"/>
       <c r="E353" s="5"/>
       <c r="F353" s="4" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="B354" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
+      <c r="D354" s="9"/>
       <c r="E354" s="5"/>
       <c r="F354" s="4" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
+      <c r="D355" s="9"/>
       <c r="E355" s="5"/>
       <c r="F355" s="4" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
+      <c r="D356" s="9"/>
       <c r="E356" s="5"/>
       <c r="F356" s="4" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="B357" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
+      <c r="D357" s="9"/>
       <c r="E357" s="5"/>
       <c r="F357" s="4" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>1581</v>
+        <v>1602</v>
       </c>
       <c r="B358" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="D358" s="9"/>
       <c r="E358" s="5"/>
       <c r="F358" s="4" t="s">
-        <v>1582</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="B359" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="D359" s="9"/>
       <c r="E359" s="5"/>
       <c r="F359" s="4" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>1515</v>
+        <v>1671</v>
       </c>
       <c r="B360" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="D360" s="9"/>
       <c r="E360" s="5"/>
       <c r="F360" s="4" t="s">
-        <v>1516</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>1461</v>
+        <v>1577</v>
       </c>
       <c r="B361" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="D361" s="9"/>
       <c r="E361" s="5"/>
       <c r="F361" s="4" t="s">
-        <v>1462</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>1426</v>
+        <v>1669</v>
       </c>
       <c r="B362" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="D362" s="9"/>
       <c r="E362" s="5"/>
       <c r="F362" s="4" t="s">
-        <v>1427</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>1478</v>
+        <v>1515</v>
       </c>
       <c r="B363" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="D363" s="9"/>
       <c r="E363" s="5"/>
       <c r="F363" s="4" t="s">
-        <v>1479</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>1428</v>
+        <v>1461</v>
       </c>
       <c r="B364" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="D364" s="9"/>
       <c r="E364" s="5"/>
       <c r="F364" s="4" t="s">
-        <v>1429</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>1339</v>
+        <v>1426</v>
       </c>
       <c r="B365" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="D365" s="9"/>
       <c r="E365" s="5"/>
       <c r="F365" s="4" t="s">
-        <v>1340</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>1129</v>
+        <v>1478</v>
       </c>
       <c r="B366" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="D366" s="9"/>
       <c r="E366" s="5"/>
       <c r="F366" s="4" t="s">
-        <v>1130</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>1206</v>
+        <v>1428</v>
       </c>
       <c r="B367" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
+      <c r="D367" s="9"/>
       <c r="E367" s="5"/>
       <c r="F367" s="4" t="s">
-        <v>1207</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>567</v>
+        <v>1339</v>
       </c>
       <c r="B368" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C368" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D368" s="4"/>
-      <c r="E368" s="3" t="s">
-        <v>643</v>
-      </c>
+      <c r="C368" s="4"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="5"/>
       <c r="F368" s="4" t="s">
-        <v>884</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>1204</v>
+        <v>1129</v>
       </c>
       <c r="B369" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
+      <c r="D369" s="9"/>
       <c r="E369" s="5"/>
       <c r="F369" s="4" t="s">
-        <v>1205</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>1128</v>
+        <v>1206</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
+      <c r="D370" s="9"/>
       <c r="E370" s="5"/>
       <c r="F370" s="4" t="s">
-        <v>1127</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>877</v>
@@ -12560,3298 +12933,3580 @@
       <c r="C371" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="D371" s="4"/>
+      <c r="D371" s="9" t="s">
+        <v>1735</v>
+      </c>
       <c r="E371" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F371" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>569</v>
+        <v>1204</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C372" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D372" s="4"/>
-      <c r="E372" s="3" t="s">
-        <v>645</v>
-      </c>
+      <c r="C372" s="4"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="5"/>
       <c r="F372" s="4" t="s">
-        <v>886</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>570</v>
+        <v>1128</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C373" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D373" s="4"/>
-      <c r="E373" s="3" t="s">
-        <v>646</v>
-      </c>
+      <c r="C373" s="4"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="5"/>
       <c r="F373" s="4" t="s">
-        <v>887</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D374" s="4"/>
+        <v>1019</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>1724</v>
+      </c>
       <c r="E374" s="3" t="s">
-        <v>441</v>
+        <v>644</v>
       </c>
       <c r="F374" s="4" t="s">
-        <v>396</v>
+        <v>885</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C375" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D375" s="4"/>
+        <v>1020</v>
+      </c>
+      <c r="D375" s="9" t="s">
+        <v>1736</v>
+      </c>
       <c r="E375" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F375" s="4" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D376" s="4"/>
+        <v>1007</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>1737</v>
+      </c>
       <c r="E376" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F376" s="4" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>824</v>
+        <v>571</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1011</v>
+        <v>877</v>
       </c>
       <c r="C377" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D377" s="4"/>
-      <c r="E377" s="5"/>
+        <v>1021</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="F377" s="4" t="s">
-        <v>812</v>
+        <v>396</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>1197</v>
+        <v>572</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="5"/>
+      <c r="C378" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>647</v>
+      </c>
       <c r="F378" s="4" t="s">
-        <v>1198</v>
+        <v>889</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D379" s="4"/>
+        <v>1023</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>1740</v>
+      </c>
       <c r="E379" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F379" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>1199</v>
+        <v>824</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
+        <v>1011</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D380" s="9"/>
       <c r="E380" s="5"/>
       <c r="F380" s="4" t="s">
-        <v>1200</v>
+        <v>812</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>575</v>
+        <v>1197</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C381" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D381" s="4"/>
-      <c r="E381" s="3"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="9"/>
+      <c r="E381" s="5"/>
       <c r="F381" s="4" t="s">
-        <v>892</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D382" s="4"/>
+        <v>1024</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>649</v>
+      </c>
       <c r="F382" s="4" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>577</v>
+        <v>1199</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C383" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D383" s="4"/>
-      <c r="E383" s="3" t="s">
-        <v>650</v>
-      </c>
+      <c r="C383" s="4"/>
+      <c r="D383" s="9"/>
+      <c r="E383" s="5"/>
       <c r="F383" s="4" t="s">
-        <v>894</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D384" s="4"/>
-      <c r="E384" s="3" t="s">
-        <v>651</v>
-      </c>
+        <v>1025</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E384" s="3"/>
       <c r="F384" s="4" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C385" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D385" s="4"/>
-      <c r="E385" s="3" t="s">
-        <v>652</v>
+        <v>1026</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>1701</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="C386" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D386" s="9"/>
       <c r="E386" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F386" s="4" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D387" s="4"/>
+        <v>1015</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>1741</v>
+      </c>
       <c r="E387" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F387" s="4" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D388" s="4"/>
+        <v>1027</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>1742</v>
+      </c>
       <c r="E388" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F388" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>1133</v>
+        <v>580</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
-      <c r="E389" s="5"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="3" t="s">
+        <v>653</v>
+      </c>
       <c r="F389" s="4" t="s">
-        <v>1134</v>
+        <v>897</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>1081</v>
+        <v>581</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
-      <c r="E390" s="5"/>
+      <c r="C390" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>654</v>
+      </c>
       <c r="F390" s="4" t="s">
-        <v>1082</v>
+        <v>898</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>1131</v>
+        <v>582</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="5"/>
+      <c r="C391" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D391" s="9"/>
+      <c r="E391" s="3" t="s">
+        <v>655</v>
+      </c>
       <c r="F391" s="4" t="s">
-        <v>1132</v>
+        <v>899</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>1365</v>
+        <v>1133</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
+      <c r="D392" s="9"/>
       <c r="E392" s="5"/>
       <c r="F392" s="4" t="s">
-        <v>1366</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>1139</v>
+        <v>1081</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
+      <c r="D393" s="9"/>
       <c r="E393" s="5"/>
       <c r="F393" s="4" t="s">
-        <v>1140</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>1196</v>
+        <v>1131</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
+      <c r="D394" s="9"/>
       <c r="E394" s="5"/>
       <c r="F394" s="4" t="s">
-        <v>1196</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>1147</v>
+        <v>1365</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
+      <c r="D395" s="9"/>
       <c r="E395" s="5"/>
       <c r="F395" s="4" t="s">
-        <v>1148</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
+      <c r="D396" s="9"/>
       <c r="E396" s="5"/>
       <c r="F396" s="4" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>1151</v>
+        <v>1196</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
+      <c r="D397" s="9"/>
       <c r="E397" s="5"/>
       <c r="F397" s="4" t="s">
-        <v>1152</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>1177</v>
+        <v>1147</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
+      <c r="D398" s="9"/>
       <c r="E398" s="5"/>
       <c r="F398" s="4" t="s">
-        <v>1178</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
+      <c r="D399" s="9"/>
       <c r="E399" s="5"/>
       <c r="F399" s="4" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="9"/>
       <c r="E400" s="5"/>
       <c r="F400" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>1404</v>
+        <v>1177</v>
       </c>
       <c r="B401" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
+      <c r="D401" s="9"/>
       <c r="E401" s="5"/>
       <c r="F401" s="4" t="s">
-        <v>1405</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>1332</v>
+        <v>1149</v>
       </c>
       <c r="B402" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
+      <c r="D402" s="9"/>
       <c r="E402" s="5"/>
       <c r="F402" s="4" t="s">
-        <v>1331</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>1492</v>
+        <v>1153</v>
       </c>
       <c r="B403" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
+      <c r="D403" s="9"/>
       <c r="E403" s="5"/>
       <c r="F403" s="4" t="s">
-        <v>1493</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>1542</v>
+        <v>1404</v>
       </c>
       <c r="B404" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
+      <c r="D404" s="9"/>
       <c r="E404" s="5"/>
       <c r="F404" s="4" t="s">
-        <v>1543</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>1550</v>
+        <v>1332</v>
       </c>
       <c r="B405" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="9"/>
       <c r="E405" s="5"/>
       <c r="F405" s="4" t="s">
-        <v>1551</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>1548</v>
+        <v>1492</v>
       </c>
       <c r="B406" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
+      <c r="D406" s="9"/>
       <c r="E406" s="5"/>
       <c r="F406" s="4" t="s">
-        <v>1549</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>1627</v>
+        <v>1542</v>
       </c>
       <c r="B407" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
+      <c r="D407" s="9"/>
       <c r="E407" s="5"/>
       <c r="F407" s="4" t="s">
-        <v>1628</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="B408" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
+      <c r="D408" s="9"/>
       <c r="E408" s="5"/>
       <c r="F408" s="4" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="B409" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
+      <c r="D409" s="9"/>
       <c r="E409" s="5"/>
       <c r="F409" s="4" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>1155</v>
+        <v>1627</v>
       </c>
       <c r="B410" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
+      <c r="D410" s="9"/>
       <c r="E410" s="5"/>
       <c r="F410" s="4" t="s">
-        <v>1156</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>1498</v>
+        <v>1544</v>
       </c>
       <c r="B411" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
+      <c r="D411" s="9"/>
       <c r="E411" s="5"/>
       <c r="F411" s="4" t="s">
-        <v>1499</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>1521</v>
+        <v>1546</v>
       </c>
       <c r="B412" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
+      <c r="D412" s="9"/>
       <c r="E412" s="5"/>
       <c r="F412" s="4" t="s">
-        <v>1522</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>1629</v>
+        <v>1155</v>
       </c>
       <c r="B413" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
+      <c r="D413" s="9"/>
       <c r="E413" s="5"/>
       <c r="F413" s="4" t="s">
-        <v>1630</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="B414" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
+      <c r="D414" s="9"/>
       <c r="E414" s="5"/>
       <c r="F414" s="4" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>1552</v>
+        <v>1521</v>
       </c>
       <c r="B415" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
+      <c r="D415" s="9"/>
       <c r="E415" s="5"/>
       <c r="F415" s="4" t="s">
-        <v>1553</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>1566</v>
+        <v>1629</v>
       </c>
       <c r="B416" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
+      <c r="D416" s="9"/>
       <c r="E416" s="5"/>
       <c r="F416" s="4" t="s">
-        <v>1567</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>1570</v>
+        <v>1494</v>
       </c>
       <c r="B417" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
+      <c r="D417" s="9"/>
       <c r="E417" s="5"/>
       <c r="F417" s="4" t="s">
-        <v>1571</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>1631</v>
+        <v>1552</v>
       </c>
       <c r="B418" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
+      <c r="D418" s="9"/>
       <c r="E418" s="5"/>
       <c r="F418" s="4" t="s">
-        <v>1632</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="B419" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
+      <c r="D419" s="9"/>
       <c r="E419" s="5"/>
       <c r="F419" s="4" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="B420" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
+      <c r="D420" s="9"/>
       <c r="E420" s="5"/>
       <c r="F420" s="4" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>1558</v>
+        <v>1631</v>
       </c>
       <c r="B421" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
+      <c r="D421" s="9"/>
       <c r="E421" s="5"/>
       <c r="F421" s="4" t="s">
-        <v>1559</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="B422" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
+      <c r="D422" s="9"/>
       <c r="E422" s="5"/>
       <c r="F422" s="4" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="B423" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
+      <c r="D423" s="9"/>
       <c r="E423" s="5"/>
       <c r="F423" s="4" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>1496</v>
+        <v>1558</v>
       </c>
       <c r="B424" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
+      <c r="D424" s="9"/>
       <c r="E424" s="5"/>
       <c r="F424" s="4" t="s">
-        <v>1497</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="B425" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
+      <c r="D425" s="9"/>
       <c r="E425" s="5"/>
       <c r="F425" s="4" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>1641</v>
+        <v>1562</v>
       </c>
       <c r="B426" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="D426" s="9"/>
       <c r="E426" s="5"/>
       <c r="F426" s="4" t="s">
-        <v>1642</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>1639</v>
+        <v>1496</v>
       </c>
       <c r="B427" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="D427" s="9"/>
       <c r="E427" s="5"/>
       <c r="F427" s="4" t="s">
-        <v>1640</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>1490</v>
+        <v>1556</v>
       </c>
       <c r="B428" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="D428" s="9"/>
       <c r="E428" s="5"/>
       <c r="F428" s="4" t="s">
-        <v>1491</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>1408</v>
+        <v>1641</v>
       </c>
       <c r="B429" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="D429" s="9"/>
       <c r="E429" s="5"/>
       <c r="F429" s="4" t="s">
-        <v>1409</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>1554</v>
+        <v>1639</v>
       </c>
       <c r="B430" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="D430" s="9"/>
       <c r="E430" s="5"/>
       <c r="F430" s="4" t="s">
-        <v>1555</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>1637</v>
+        <v>1490</v>
       </c>
       <c r="B431" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="D431" s="9"/>
       <c r="E431" s="5"/>
       <c r="F431" s="4" t="s">
-        <v>1638</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>1633</v>
+        <v>1408</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="D432" s="9"/>
       <c r="E432" s="5"/>
       <c r="F432" s="4" t="s">
-        <v>1634</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>1489</v>
+        <v>1554</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="D433" s="9"/>
       <c r="E433" s="5"/>
       <c r="F433" s="4" t="s">
-        <v>1126</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="D434" s="9"/>
       <c r="E434" s="5"/>
       <c r="F434" s="4" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>1487</v>
+        <v>1633</v>
       </c>
       <c r="B435" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="D435" s="9"/>
       <c r="E435" s="5"/>
       <c r="F435" s="4" t="s">
-        <v>1488</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>1406</v>
+        <v>1489</v>
       </c>
       <c r="B436" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="D436" s="9"/>
       <c r="E436" s="5"/>
       <c r="F436" s="4" t="s">
-        <v>1407</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>1485</v>
+        <v>1635</v>
       </c>
       <c r="B437" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="D437" s="9"/>
       <c r="E437" s="5"/>
       <c r="F437" s="4" t="s">
-        <v>1486</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>1534</v>
+        <v>1487</v>
       </c>
       <c r="B438" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="D438" s="9"/>
       <c r="E438" s="5"/>
       <c r="F438" s="4" t="s">
-        <v>1535</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>1536</v>
+        <v>1406</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="D439" s="9"/>
       <c r="E439" s="5"/>
       <c r="F439" s="4" t="s">
-        <v>1537</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B440" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="D440" s="9"/>
       <c r="E440" s="5"/>
       <c r="F440" s="4" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>1329</v>
+        <v>1534</v>
       </c>
       <c r="B441" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="D441" s="9"/>
       <c r="E441" s="5"/>
       <c r="F441" s="4" t="s">
-        <v>1330</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B442" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="D442" s="9"/>
       <c r="E442" s="5"/>
       <c r="F442" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>1456</v>
+        <v>1483</v>
       </c>
       <c r="B443" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="D443" s="9"/>
       <c r="E443" s="5"/>
       <c r="F443" s="4" t="s">
-        <v>1457</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>1458</v>
+        <v>1329</v>
       </c>
       <c r="B444" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="D444" s="9"/>
       <c r="E444" s="5"/>
       <c r="F444" s="4" t="s">
-        <v>1459</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>1363</v>
+        <v>1538</v>
       </c>
       <c r="B445" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="D445" s="9"/>
       <c r="E445" s="5"/>
       <c r="F445" s="4" t="s">
-        <v>1364</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>1136</v>
+        <v>1456</v>
       </c>
       <c r="B446" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="D446" s="9"/>
       <c r="E446" s="5"/>
       <c r="F446" s="4" t="s">
-        <v>1135</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>1137</v>
+        <v>1657</v>
       </c>
       <c r="B447" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="D447" s="9"/>
       <c r="E447" s="5"/>
       <c r="F447" s="4" t="s">
-        <v>1138</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>1333</v>
+        <v>1458</v>
       </c>
       <c r="B448" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="D448" s="9"/>
       <c r="E448" s="5"/>
       <c r="F448" s="4" t="s">
-        <v>1334</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>1145</v>
+        <v>1363</v>
       </c>
       <c r="B449" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="D449" s="9"/>
       <c r="E449" s="5"/>
       <c r="F449" s="4" t="s">
-        <v>1146</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>950</v>
+        <v>1136</v>
       </c>
       <c r="B450" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C450" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D450" s="4"/>
-      <c r="E450" s="3" t="s">
-        <v>951</v>
-      </c>
+      <c r="C450" s="4"/>
+      <c r="D450" s="9"/>
+      <c r="E450" s="5"/>
       <c r="F450" s="4" t="s">
-        <v>949</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>1182</v>
+        <v>1137</v>
       </c>
       <c r="B451" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
+      <c r="D451" s="9"/>
       <c r="E451" s="5"/>
       <c r="F451" s="4" t="s">
-        <v>1182</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>1304</v>
+        <v>1333</v>
       </c>
       <c r="B452" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
+      <c r="D452" s="9"/>
       <c r="E452" s="5"/>
       <c r="F452" s="4" t="s">
-        <v>1305</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
+      <c r="D453" s="9"/>
       <c r="E453" s="5"/>
       <c r="F453" s="4" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>1645</v>
+        <v>950</v>
       </c>
       <c r="B454" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="5"/>
+      <c r="C454" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D454" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>951</v>
+      </c>
       <c r="F454" s="4" t="s">
-        <v>1646</v>
+        <v>949</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="B455" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
+      <c r="D455" s="9"/>
       <c r="E455" s="5"/>
       <c r="F455" s="4" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>1183</v>
+        <v>1304</v>
       </c>
       <c r="B456" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="D456" s="9"/>
       <c r="E456" s="5"/>
       <c r="F456" s="4" t="s">
-        <v>1184</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>584</v>
+        <v>1141</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C457" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D457" s="4"/>
-      <c r="E457" s="3" t="s">
-        <v>656</v>
-      </c>
+      <c r="C457" s="4"/>
+      <c r="D457" s="9"/>
+      <c r="E457" s="5"/>
       <c r="F457" s="4" t="s">
-        <v>900</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>1181</v>
+        <v>1645</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="D458" s="9"/>
       <c r="E458" s="5"/>
       <c r="F458" s="4" t="s">
-        <v>1181</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>1302</v>
+        <v>1179</v>
       </c>
       <c r="B459" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="D459" s="9"/>
       <c r="E459" s="5"/>
       <c r="F459" s="4" t="s">
-        <v>1303</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>1643</v>
+        <v>1183</v>
       </c>
       <c r="B460" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="D460" s="9"/>
       <c r="E460" s="5"/>
       <c r="F460" s="4" t="s">
-        <v>1644</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B461" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D461" s="4"/>
+        <v>1018</v>
+      </c>
+      <c r="D461" s="9" t="s">
+        <v>1699</v>
+      </c>
       <c r="E461" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F461" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>1143</v>
+        <v>1181</v>
       </c>
       <c r="B462" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="D462" s="9"/>
       <c r="E462" s="5"/>
       <c r="F462" s="4" t="s">
-        <v>1144</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>586</v>
+        <v>1302</v>
       </c>
       <c r="B463" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C463" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D463" s="4"/>
-      <c r="E463" s="3" t="s">
-        <v>658</v>
-      </c>
+      <c r="C463" s="4"/>
+      <c r="D463" s="9"/>
+      <c r="E463" s="5"/>
       <c r="F463" s="4" t="s">
-        <v>586</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>1107</v>
+        <v>1643</v>
       </c>
       <c r="B464" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="D464" s="9"/>
       <c r="E464" s="5"/>
       <c r="F464" s="4" t="s">
-        <v>1108</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>1111</v>
+        <v>585</v>
       </c>
       <c r="B465" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="5"/>
+      <c r="C465" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>657</v>
+      </c>
       <c r="F465" s="4" t="s">
-        <v>1112</v>
+        <v>901</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>1077</v>
+        <v>1143</v>
       </c>
       <c r="B466" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
+      <c r="D466" s="9"/>
       <c r="E466" s="5"/>
       <c r="F466" s="4" t="s">
-        <v>1078</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="D467" s="4"/>
+        <v>1029</v>
+      </c>
+      <c r="D467" s="9" t="s">
+        <v>1744</v>
+      </c>
       <c r="E467" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F467" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>1167</v>
+        <v>1107</v>
       </c>
       <c r="B468" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
+      <c r="D468" s="9"/>
       <c r="E468" s="5"/>
       <c r="F468" s="4" t="s">
-        <v>1168</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>1169</v>
+        <v>1111</v>
       </c>
       <c r="B469" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
+      <c r="D469" s="9"/>
       <c r="E469" s="5"/>
       <c r="F469" s="4" t="s">
-        <v>1170</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>1109</v>
+        <v>1077</v>
       </c>
       <c r="B470" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
+      <c r="D470" s="9"/>
       <c r="E470" s="5"/>
       <c r="F470" s="4" t="s">
-        <v>1110</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B471" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D471" s="4"/>
+        <v>955</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>659</v>
+      </c>
       <c r="F471" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>589</v>
+        <v>1167</v>
       </c>
       <c r="B472" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C472" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D472" s="4"/>
+      <c r="C472" s="4"/>
+      <c r="D472" s="9"/>
+      <c r="E472" s="5"/>
       <c r="F472" s="4" t="s">
-        <v>902</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>1314</v>
+        <v>1169</v>
       </c>
       <c r="B473" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
-      <c r="E473" s="4"/>
+      <c r="D473" s="9"/>
+      <c r="E473" s="5"/>
       <c r="F473" s="4" t="s">
-        <v>1315</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>590</v>
+        <v>1109</v>
       </c>
       <c r="B474" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C474" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D474" s="4"/>
-      <c r="E474" s="3" t="s">
-        <v>638</v>
-      </c>
+      <c r="C474" s="4"/>
+      <c r="D474" s="9"/>
+      <c r="E474" s="5"/>
       <c r="F474" s="4" t="s">
-        <v>903</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>1079</v>
+        <v>588</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
-      <c r="E475" s="5"/>
+      <c r="C475" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D475" s="9"/>
       <c r="F475" s="4" t="s">
-        <v>1080</v>
+        <v>588</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B476" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D476" s="4"/>
-      <c r="E476" s="3" t="s">
-        <v>660</v>
+        <v>1022</v>
+      </c>
+      <c r="D476" s="9" t="s">
+        <v>1739</v>
       </c>
       <c r="F476" s="4" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>1589</v>
+        <v>1314</v>
       </c>
       <c r="B477" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
-      <c r="E477" s="5"/>
+      <c r="D477" s="9"/>
+      <c r="E477" s="4"/>
       <c r="F477" s="4" t="s">
-        <v>1590</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>1310</v>
+        <v>590</v>
       </c>
       <c r="B478" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
-      <c r="E478" s="5"/>
+      <c r="C478" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D478" s="9" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>638</v>
+      </c>
       <c r="F478" s="4" t="s">
-        <v>1311</v>
+        <v>903</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>1587</v>
+        <v>1079</v>
       </c>
       <c r="B479" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
+      <c r="D479" s="9"/>
       <c r="E479" s="5"/>
       <c r="F479" s="4" t="s">
-        <v>1588</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>1359</v>
+        <v>591</v>
       </c>
       <c r="B480" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C480" s="4"/>
-      <c r="D480" s="4"/>
-      <c r="E480" s="5"/>
+      <c r="C480" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D480" s="9"/>
+      <c r="E480" s="3" t="s">
+        <v>660</v>
+      </c>
       <c r="F480" s="4" t="s">
-        <v>1360</v>
+        <v>904</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>1312</v>
+        <v>1589</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C481" s="4"/>
-      <c r="D481" s="4"/>
+      <c r="D481" s="9"/>
       <c r="E481" s="5"/>
       <c r="F481" s="4" t="s">
-        <v>1313</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>1380</v>
+        <v>1310</v>
       </c>
       <c r="B482" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
+      <c r="D482" s="9"/>
       <c r="E482" s="5"/>
       <c r="F482" s="4" t="s">
-        <v>1381</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>1614</v>
+        <v>1587</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
+      <c r="D483" s="9"/>
       <c r="E483" s="5"/>
       <c r="F483" s="4" t="s">
-        <v>1614</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>1617</v>
+        <v>1359</v>
       </c>
       <c r="B484" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C484" s="4"/>
-      <c r="D484" s="4"/>
+      <c r="D484" s="9"/>
       <c r="E484" s="5"/>
       <c r="F484" s="4" t="s">
-        <v>1618</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>1615</v>
+        <v>1312</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C485" s="4"/>
-      <c r="D485" s="4"/>
+      <c r="D485" s="9"/>
       <c r="E485" s="5"/>
       <c r="F485" s="4" t="s">
-        <v>1616</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>1625</v>
+        <v>1380</v>
       </c>
       <c r="B486" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
+      <c r="D486" s="9"/>
       <c r="E486" s="5"/>
       <c r="F486" s="4" t="s">
-        <v>1626</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="B487" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
+      <c r="D487" s="9"/>
       <c r="E487" s="5"/>
       <c r="F487" s="4" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B488" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C488" s="4"/>
-      <c r="D488" s="4"/>
+      <c r="D488" s="9"/>
       <c r="E488" s="5"/>
       <c r="F488" s="4" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="B489" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C489" s="4"/>
-      <c r="D489" s="4"/>
+      <c r="D489" s="9"/>
       <c r="E489" s="5"/>
       <c r="F489" s="4" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
-        <v>1361</v>
+        <v>1625</v>
       </c>
       <c r="B490" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
+      <c r="D490" s="9"/>
       <c r="E490" s="5"/>
       <c r="F490" s="4" t="s">
-        <v>1362</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
-        <v>1105</v>
+        <v>1621</v>
       </c>
       <c r="B491" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
+      <c r="D491" s="9"/>
       <c r="E491" s="5"/>
       <c r="F491" s="4" t="s">
-        <v>1106</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>592</v>
+        <v>1619</v>
       </c>
       <c r="B492" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C492" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D492" s="4"/>
-      <c r="E492" s="3" t="s">
-        <v>661</v>
-      </c>
+      <c r="C492" s="4"/>
+      <c r="D492" s="9"/>
+      <c r="E492" s="5"/>
       <c r="F492" s="4" t="s">
-        <v>905</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
-        <v>1113</v>
+        <v>1623</v>
       </c>
       <c r="B493" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C493" s="4"/>
-      <c r="D493" s="4"/>
+      <c r="D493" s="9"/>
       <c r="E493" s="5"/>
       <c r="F493" s="4" t="s">
-        <v>1114</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
-        <v>776</v>
+        <v>1361</v>
       </c>
       <c r="B494" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C494" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D494" s="4"/>
-      <c r="E494" s="3" t="s">
-        <v>778</v>
-      </c>
+      <c r="C494" s="4"/>
+      <c r="D494" s="9"/>
+      <c r="E494" s="5"/>
       <c r="F494" s="4" t="s">
-        <v>830</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>775</v>
+        <v>1105</v>
       </c>
       <c r="B495" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C495" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D495" s="4"/>
-      <c r="E495" s="3" t="s">
-        <v>779</v>
-      </c>
+      <c r="C495" s="4"/>
+      <c r="D495" s="9"/>
+      <c r="E495" s="5"/>
       <c r="F495" s="4" t="s">
-        <v>906</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B496" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D496" s="4"/>
+        <v>1032</v>
+      </c>
+      <c r="D496" s="9" t="s">
+        <v>1747</v>
+      </c>
       <c r="E496" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F496" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>594</v>
+        <v>1113</v>
       </c>
       <c r="B497" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C497" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D497" s="4"/>
-      <c r="E497" s="3" t="s">
-        <v>663</v>
-      </c>
+      <c r="C497" s="4"/>
+      <c r="D497" s="9"/>
+      <c r="E497" s="5"/>
       <c r="F497" s="4" t="s">
-        <v>908</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
-        <v>595</v>
+        <v>776</v>
       </c>
       <c r="B498" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D498" s="4"/>
+        <v>1007</v>
+      </c>
+      <c r="D498" s="9"/>
       <c r="E498" s="3" t="s">
-        <v>664</v>
+        <v>778</v>
       </c>
       <c r="F498" s="4" t="s">
-        <v>909</v>
+        <v>830</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
-        <v>1278</v>
+        <v>775</v>
       </c>
       <c r="B499" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
-      <c r="E499" s="5"/>
+      <c r="C499" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D499" s="9"/>
+      <c r="E499" s="3" t="s">
+        <v>779</v>
+      </c>
       <c r="F499" s="4" t="s">
-        <v>1279</v>
+        <v>906</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
-        <v>1276</v>
+        <v>593</v>
       </c>
       <c r="B500" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C500" s="4"/>
-      <c r="D500" s="4"/>
-      <c r="E500" s="5"/>
+      <c r="C500" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D500" s="9" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>662</v>
+      </c>
       <c r="F500" s="4" t="s">
-        <v>1277</v>
+        <v>907</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B501" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D501" s="4"/>
+        <v>1017</v>
+      </c>
+      <c r="D501" s="9" t="s">
+        <v>1749</v>
+      </c>
       <c r="E501" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F501" s="4" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
-        <v>1298</v>
+        <v>595</v>
       </c>
       <c r="B502" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C502" s="4"/>
-      <c r="D502" s="4"/>
-      <c r="E502" s="5"/>
+      <c r="C502" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D502" s="9" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>664</v>
+      </c>
       <c r="F502" s="4" t="s">
-        <v>1299</v>
+        <v>909</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
-        <v>1300</v>
+        <v>1278</v>
       </c>
       <c r="B503" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C503" s="4"/>
-      <c r="D503" s="4"/>
+      <c r="D503" s="9"/>
       <c r="E503" s="5"/>
       <c r="F503" s="4" t="s">
-        <v>1301</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
-        <v>597</v>
+        <v>1276</v>
       </c>
       <c r="B504" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C504" s="4" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D504" s="4"/>
-      <c r="E504" s="3" t="s">
-        <v>666</v>
-      </c>
+      <c r="C504" s="4"/>
+      <c r="D504" s="9"/>
+      <c r="E504" s="5"/>
       <c r="F504" s="4" t="s">
-        <v>911</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
-        <v>1210</v>
+        <v>596</v>
       </c>
       <c r="B505" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C505" s="4"/>
-      <c r="D505" s="4"/>
-      <c r="E505" s="5"/>
+      <c r="C505" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D505" s="9"/>
+      <c r="E505" s="3" t="s">
+        <v>665</v>
+      </c>
       <c r="F505" s="4" t="s">
-        <v>1211</v>
+        <v>910</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>598</v>
+        <v>1298</v>
       </c>
       <c r="B506" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C506" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D506" s="4"/>
-      <c r="E506" s="3" t="s">
-        <v>667</v>
-      </c>
+      <c r="C506" s="4"/>
+      <c r="D506" s="9"/>
+      <c r="E506" s="5"/>
       <c r="F506" s="4" t="s">
-        <v>912</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>599</v>
+        <v>1300</v>
       </c>
       <c r="B507" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C507" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D507" s="4"/>
-      <c r="E507" s="3" t="s">
-        <v>668</v>
-      </c>
+      <c r="C507" s="4"/>
+      <c r="D507" s="9"/>
+      <c r="E507" s="5"/>
       <c r="F507" s="4" t="s">
-        <v>913</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
-        <v>1280</v>
+        <v>597</v>
       </c>
       <c r="B508" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C508" s="4"/>
-      <c r="D508" s="4"/>
-      <c r="E508" s="5"/>
+      <c r="C508" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D508" s="9"/>
+      <c r="E508" s="3" t="s">
+        <v>666</v>
+      </c>
       <c r="F508" s="4" t="s">
-        <v>1281</v>
+        <v>911</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
-        <v>1083</v>
+        <v>1210</v>
       </c>
       <c r="B509" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C509" s="4"/>
-      <c r="D509" s="4"/>
+      <c r="D509" s="9"/>
       <c r="E509" s="5"/>
       <c r="F509" s="4" t="s">
-        <v>1084</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B510" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D510" s="4"/>
+        <v>1034</v>
+      </c>
+      <c r="D510" s="9"/>
       <c r="E510" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F510" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
-        <v>1212</v>
+        <v>599</v>
       </c>
       <c r="B511" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C511" s="4"/>
-      <c r="D511" s="4"/>
-      <c r="E511" s="5"/>
+      <c r="C511" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D511" s="9"/>
+      <c r="E511" s="3" t="s">
+        <v>668</v>
+      </c>
       <c r="F511" s="4" t="s">
-        <v>1213</v>
+        <v>913</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
-        <v>601</v>
+        <v>1280</v>
       </c>
       <c r="B512" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C512" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D512" s="4"/>
-      <c r="E512" s="3" t="s">
-        <v>670</v>
-      </c>
+      <c r="C512" s="4"/>
+      <c r="D512" s="9"/>
+      <c r="E512" s="5"/>
       <c r="F512" s="4" t="s">
-        <v>915</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
-        <v>602</v>
+        <v>1083</v>
       </c>
       <c r="B513" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C513" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D513" s="4"/>
-      <c r="E513" s="3" t="s">
-        <v>671</v>
-      </c>
+      <c r="C513" s="4"/>
+      <c r="D513" s="9"/>
+      <c r="E513" s="5"/>
       <c r="F513" s="4" t="s">
-        <v>916</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B514" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D514" s="4"/>
+        <v>1035</v>
+      </c>
+      <c r="D514" s="9"/>
       <c r="E514" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F514" s="4" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>1115</v>
+        <v>1212</v>
       </c>
       <c r="B515" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C515" s="4"/>
-      <c r="D515" s="4"/>
+      <c r="D515" s="9"/>
       <c r="E515" s="5"/>
       <c r="F515" s="4" t="s">
-        <v>1116</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B516" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C516" s="4"/>
-      <c r="D516" s="4"/>
+      <c r="C516" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D516" s="9"/>
+      <c r="E516" s="3" t="s">
+        <v>670</v>
+      </c>
       <c r="F516" s="4" t="s">
-        <v>604</v>
+        <v>915</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B517" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D517" s="4"/>
+        <v>1030</v>
+      </c>
+      <c r="D517" s="9"/>
       <c r="E517" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F517" s="4" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B518" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D518" s="4"/>
+        <v>1036</v>
+      </c>
+      <c r="D518" s="9"/>
+      <c r="E518" s="3" t="s">
+        <v>672</v>
+      </c>
       <c r="F518" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
-        <v>607</v>
+        <v>1115</v>
       </c>
       <c r="B519" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C519" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D519" s="4"/>
-      <c r="E519" s="3" t="s">
-        <v>674</v>
-      </c>
+      <c r="C519" s="4"/>
+      <c r="D519" s="9"/>
+      <c r="E519" s="5"/>
       <c r="F519" s="4" t="s">
-        <v>920</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
-        <v>1652</v>
+        <v>604</v>
       </c>
       <c r="B520" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C520" s="4"/>
-      <c r="D520" s="4"/>
-      <c r="E520" s="5"/>
+      <c r="D520" s="9"/>
       <c r="F520" s="4" t="s">
-        <v>1653</v>
+        <v>604</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
-        <v>1159</v>
+        <v>605</v>
       </c>
       <c r="B521" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C521" s="4"/>
-      <c r="D521" s="4"/>
-      <c r="E521" s="5"/>
+      <c r="C521" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D521" s="9"/>
+      <c r="E521" s="3" t="s">
+        <v>673</v>
+      </c>
       <c r="F521" s="4" t="s">
-        <v>1160</v>
+        <v>918</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C522" s="4"/>
-      <c r="D522" s="4"/>
+        <v>877</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D522" s="9"/>
       <c r="F522" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B523" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D523" s="4"/>
+        <v>1039</v>
+      </c>
+      <c r="D523" s="9"/>
       <c r="E523" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F523" s="4" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
-        <v>610</v>
+        <v>1652</v>
       </c>
       <c r="B524" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C524" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D524" s="4"/>
-      <c r="E524" s="3" t="s">
-        <v>677</v>
-      </c>
+      <c r="C524" s="4"/>
+      <c r="D524" s="9"/>
+      <c r="E524" s="5"/>
       <c r="F524" s="4" t="s">
-        <v>923</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
-        <v>611</v>
+        <v>1159</v>
       </c>
       <c r="B525" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C525" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D525" s="4"/>
-      <c r="E525" s="3" t="s">
-        <v>678</v>
-      </c>
+      <c r="C525" s="4"/>
+      <c r="D525" s="9"/>
+      <c r="E525" s="5"/>
       <c r="F525" s="4" t="s">
-        <v>924</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
-        <v>1161</v>
+        <v>608</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>877</v>
+        <v>1070</v>
       </c>
       <c r="C526" s="4"/>
-      <c r="D526" s="4"/>
-      <c r="E526" s="5"/>
+      <c r="D526" s="9"/>
       <c r="F526" s="4" t="s">
-        <v>1162</v>
+        <v>921</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B527" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D527" s="4"/>
+        <v>1022</v>
+      </c>
+      <c r="D527" s="9"/>
       <c r="E527" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F527" s="4" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
-        <v>1163</v>
+        <v>610</v>
       </c>
       <c r="B528" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C528" s="4"/>
-      <c r="D528" s="4"/>
-      <c r="E528" s="5"/>
+      <c r="C528" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D528" s="9"/>
+      <c r="E528" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="F528" s="4" t="s">
-        <v>1164</v>
+        <v>923</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
-        <v>1165</v>
+        <v>611</v>
       </c>
       <c r="B529" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
-      <c r="E529" s="5"/>
+      <c r="C529" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D529" s="9"/>
+      <c r="E529" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="F529" s="4" t="s">
-        <v>1166</v>
+        <v>924</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
-        <v>1284</v>
+        <v>1161</v>
       </c>
       <c r="B530" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
+      <c r="D530" s="9"/>
       <c r="E530" s="5"/>
       <c r="F530" s="4" t="s">
-        <v>1285</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D531" s="4"/>
+        <v>952</v>
+      </c>
+      <c r="D531" s="9"/>
       <c r="E531" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F531" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
-        <v>1306</v>
+        <v>1163</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C532" s="4"/>
-      <c r="D532" s="4"/>
+      <c r="D532" s="9"/>
       <c r="E532" s="5"/>
       <c r="F532" s="4" t="s">
-        <v>1307</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="4" t="s">
-        <v>614</v>
+        <v>1165</v>
       </c>
       <c r="B533" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C533" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D533" s="4"/>
-      <c r="E533" s="3" t="s">
-        <v>680</v>
-      </c>
+      <c r="C533" s="4"/>
+      <c r="D533" s="9"/>
+      <c r="E533" s="5"/>
       <c r="F533" s="4" t="s">
-        <v>927</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="4" t="s">
-        <v>1119</v>
+        <v>1284</v>
       </c>
       <c r="B534" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C534" s="4"/>
-      <c r="D534" s="4"/>
+      <c r="D534" s="9"/>
       <c r="E534" s="5"/>
       <c r="F534" s="4" t="s">
-        <v>1120</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="4" t="s">
-        <v>1325</v>
+        <v>613</v>
       </c>
       <c r="B535" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
-      <c r="E535" s="5"/>
+      <c r="C535" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D535" s="9"/>
+      <c r="E535" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="F535" s="4" t="s">
-        <v>1326</v>
+        <v>926</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="4" t="s">
-        <v>615</v>
+        <v>1306</v>
       </c>
       <c r="B536" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C536" s="4"/>
-      <c r="D536" s="4"/>
-      <c r="E536" s="3" t="s">
-        <v>681</v>
-      </c>
+      <c r="D536" s="9"/>
+      <c r="E536" s="5"/>
       <c r="F536" s="4" t="s">
-        <v>928</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B537" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D537" s="4"/>
+        <v>952</v>
+      </c>
+      <c r="D537" s="9"/>
       <c r="E537" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F537" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
-        <v>617</v>
+        <v>1119</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C538" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D538" s="4"/>
-      <c r="E538" s="3" t="s">
-        <v>683</v>
-      </c>
+      <c r="C538" s="4"/>
+      <c r="D538" s="9"/>
+      <c r="E538" s="5"/>
       <c r="F538" s="4" t="s">
-        <v>930</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
-        <v>1308</v>
+        <v>1325</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
+      <c r="D539" s="9"/>
       <c r="E539" s="5"/>
       <c r="F539" s="4" t="s">
-        <v>1309</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
-        <v>1327</v>
+        <v>615</v>
       </c>
       <c r="B540" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
-      <c r="E540" s="5"/>
+      <c r="D540" s="9"/>
+      <c r="E540" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="F540" s="4" t="s">
-        <v>1328</v>
+        <v>928</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
-        <v>1117</v>
+        <v>616</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
-      <c r="E541" s="5"/>
+      <c r="C541" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D541" s="9"/>
+      <c r="E541" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="F541" s="4" t="s">
-        <v>1118</v>
+        <v>929</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
-        <v>1351</v>
+        <v>617</v>
       </c>
       <c r="B542" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
-      <c r="E542" s="5"/>
+      <c r="C542" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D542" s="9"/>
+      <c r="E542" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="F542" s="4" t="s">
-        <v>1352</v>
+        <v>930</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="4" t="s">
-        <v>1419</v>
+        <v>1308</v>
       </c>
       <c r="B543" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
+      <c r="D543" s="9"/>
       <c r="E543" s="5"/>
       <c r="F543" s="4" t="s">
-        <v>1420</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
+      <c r="D544" s="9"/>
       <c r="E544" s="5"/>
       <c r="F544" s="4" t="s">
-        <v>1350</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
-        <v>1421</v>
+        <v>1117</v>
       </c>
       <c r="B545" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
+      <c r="D545" s="9"/>
       <c r="E545" s="5"/>
       <c r="F545" s="4" t="s">
-        <v>1422</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
-        <v>1523</v>
+        <v>1351</v>
       </c>
       <c r="B546" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
+      <c r="D546" s="9"/>
       <c r="E546" s="5"/>
       <c r="F546" s="4" t="s">
-        <v>1524</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
-        <v>1654</v>
+        <v>1419</v>
       </c>
       <c r="B547" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
+      <c r="D547" s="9"/>
       <c r="E547" s="5"/>
       <c r="F547" s="4" t="s">
-        <v>1655</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
-        <v>1527</v>
+        <v>1349</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
+      <c r="D548" s="9"/>
       <c r="E548" s="5"/>
       <c r="F548" s="4" t="s">
-        <v>1528</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
-        <v>1529</v>
+        <v>1421</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
+      <c r="D549" s="9"/>
       <c r="E549" s="5"/>
       <c r="F549" s="4" t="s">
-        <v>1530</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
-        <v>1417</v>
+        <v>1523</v>
       </c>
       <c r="B550" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
+      <c r="D550" s="9"/>
       <c r="E550" s="5"/>
       <c r="F550" s="4" t="s">
-        <v>1418</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
-        <v>1525</v>
+        <v>1654</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
+      <c r="D551" s="9"/>
       <c r="E551" s="5"/>
       <c r="F551" s="4" t="s">
-        <v>1526</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
-        <v>1353</v>
+        <v>1527</v>
       </c>
       <c r="B552" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
+      <c r="D552" s="9"/>
       <c r="E552" s="5"/>
       <c r="F552" s="4" t="s">
-        <v>1354</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
-        <v>1423</v>
+        <v>1677</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
+      <c r="D553" s="9"/>
       <c r="E553" s="5"/>
       <c r="F553" s="4" t="s">
-        <v>1424</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
-        <v>1357</v>
+        <v>1529</v>
       </c>
       <c r="B554" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
+      <c r="D554" s="9"/>
       <c r="E554" s="5"/>
       <c r="F554" s="4" t="s">
-        <v>1358</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="4"/>
-      <c r="B555" s="4"/>
+      <c r="A555" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>877</v>
+      </c>
       <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
+      <c r="D555" s="9"/>
       <c r="E555" s="5"/>
-      <c r="F555" s="4"/>
+      <c r="F555" s="4" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="B556" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
+      <c r="D556" s="9"/>
       <c r="E556" s="5"/>
       <c r="F556" s="4" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
-        <v>1414</v>
+        <v>1353</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
+      <c r="D557" s="9"/>
       <c r="E557" s="5"/>
       <c r="F557" s="4" t="s">
-        <v>1415</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
-        <v>1347</v>
+        <v>1689</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
+      <c r="D558" s="9"/>
       <c r="E558" s="5"/>
       <c r="F558" s="4" t="s">
-        <v>1348</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
-        <v>1343</v>
+        <v>1423</v>
       </c>
       <c r="B559" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
+      <c r="D559" s="9"/>
       <c r="E559" s="5"/>
       <c r="F559" s="4" t="s">
-        <v>1344</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
-        <v>1208</v>
+        <v>1685</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
+      <c r="D560" s="9"/>
       <c r="E560" s="5"/>
       <c r="F560" s="4" t="s">
-        <v>1209</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
-        <v>1355</v>
+        <v>1687</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
+      <c r="D561" s="9"/>
       <c r="E561" s="5"/>
       <c r="F561" s="4" t="s">
-        <v>1356</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
+      <c r="D562" s="9"/>
       <c r="E562" s="5"/>
       <c r="F562" s="4" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
-        <v>618</v>
+        <v>1681</v>
       </c>
       <c r="B563" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C563" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D563" s="4"/>
-      <c r="E563" s="3" t="s">
-        <v>684</v>
-      </c>
+      <c r="C563" s="4"/>
+      <c r="D563" s="9"/>
+      <c r="E563" s="5"/>
       <c r="F563" s="4" t="s">
-        <v>931</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
-        <v>1290</v>
+        <v>1659</v>
       </c>
       <c r="B564" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
+      <c r="D564" s="9"/>
       <c r="E564" s="5"/>
       <c r="F564" s="4" t="s">
-        <v>1291</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
-        <v>1296</v>
+        <v>1531</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
+      <c r="D565" s="9"/>
       <c r="E565" s="5"/>
       <c r="F565" s="4" t="s">
-        <v>1297</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
-        <v>619</v>
+        <v>1683</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C566" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D566" s="4"/>
-      <c r="E566" s="3" t="s">
-        <v>685</v>
-      </c>
+      <c r="C566" s="4"/>
+      <c r="D566" s="9"/>
+      <c r="E566" s="5"/>
       <c r="F566" s="4" t="s">
-        <v>932</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
-        <v>1292</v>
+        <v>1414</v>
       </c>
       <c r="B567" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
+      <c r="D567" s="9"/>
       <c r="E567" s="5"/>
       <c r="F567" s="4" t="s">
-        <v>1293</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
-        <v>1294</v>
+        <v>1347</v>
       </c>
       <c r="B568" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
+      <c r="D568" s="9"/>
       <c r="E568" s="5"/>
       <c r="F568" s="4" t="s">
-        <v>1295</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
-        <v>620</v>
+        <v>1663</v>
       </c>
       <c r="B569" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C569" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D569" s="4"/>
-      <c r="E569" s="3" t="s">
-        <v>686</v>
-      </c>
+      <c r="C569" s="4"/>
+      <c r="D569" s="9"/>
+      <c r="E569" s="5"/>
       <c r="F569" s="4" t="s">
-        <v>933</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
-        <v>621</v>
+        <v>1679</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C570" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D570" s="4"/>
+      <c r="C570" s="4"/>
+      <c r="D570" s="9"/>
+      <c r="E570" s="5"/>
       <c r="F570" s="4" t="s">
-        <v>934</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
-        <v>622</v>
+        <v>1691</v>
       </c>
       <c r="B571" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C571" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D571" s="4"/>
+      <c r="C571" s="4"/>
+      <c r="D571" s="9"/>
+      <c r="E571" s="5"/>
       <c r="F571" s="4" t="s">
-        <v>935</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
-        <v>1288</v>
+        <v>1667</v>
       </c>
       <c r="B572" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
-      <c r="E572" s="4"/>
+      <c r="D572" s="9"/>
+      <c r="E572" s="5"/>
       <c r="F572" s="4" t="s">
-        <v>1289</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
-        <v>1286</v>
+        <v>1665</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
-      <c r="E573" s="4"/>
+      <c r="D573" s="9"/>
+      <c r="E573" s="5"/>
       <c r="F573" s="4" t="s">
-        <v>1287</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
-        <v>623</v>
+        <v>1661</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C574" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D574" s="4"/>
-      <c r="E574" s="3" t="s">
-        <v>687</v>
-      </c>
+      <c r="C574" s="4"/>
+      <c r="D574" s="9"/>
+      <c r="E574" s="5"/>
       <c r="F574" s="4" t="s">
-        <v>936</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
-        <v>1173</v>
+        <v>1343</v>
       </c>
       <c r="B575" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
+      <c r="D575" s="9"/>
       <c r="E575" s="5"/>
       <c r="F575" s="4" t="s">
-        <v>1174</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
-        <v>624</v>
+        <v>1208</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C576" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D576" s="4"/>
-      <c r="E576" s="3" t="s">
-        <v>688</v>
-      </c>
+      <c r="C576" s="4"/>
+      <c r="D576" s="9"/>
+      <c r="E576" s="5"/>
       <c r="F576" s="4" t="s">
-        <v>937</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="4" t="s">
-        <v>625</v>
+        <v>1355</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C577" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D577" s="4"/>
-      <c r="E577" s="3" t="s">
-        <v>689</v>
-      </c>
+      <c r="C577" s="4"/>
+      <c r="D577" s="9"/>
+      <c r="E577" s="5"/>
       <c r="F577" s="4" t="s">
-        <v>938</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
-        <v>626</v>
+        <v>1345</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C578" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D578" s="4"/>
-      <c r="E578" s="3" t="s">
-        <v>690</v>
-      </c>
+      <c r="C578" s="4"/>
+      <c r="D578" s="9"/>
+      <c r="E578" s="5"/>
       <c r="F578" s="4" t="s">
-        <v>939</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="4" t="s">
-        <v>1175</v>
+        <v>618</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
-      <c r="E579" s="5"/>
+      <c r="C579" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D579" s="9"/>
+      <c r="E579" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="F579" s="4" t="s">
-        <v>1176</v>
+        <v>931</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
-        <v>627</v>
+        <v>1290</v>
       </c>
       <c r="B580" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C580" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D580" s="4"/>
-      <c r="E580" s="3" t="s">
-        <v>691</v>
-      </c>
+      <c r="C580" s="4"/>
+      <c r="D580" s="9"/>
+      <c r="E580" s="5"/>
       <c r="F580" s="4" t="s">
-        <v>940</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="4" t="s">
-        <v>628</v>
+        <v>1296</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C581" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D581" s="4"/>
-      <c r="E581" s="3" t="s">
-        <v>692</v>
-      </c>
+      <c r="C581" s="4"/>
+      <c r="D581" s="9"/>
+      <c r="E581" s="5"/>
       <c r="F581" s="4" t="s">
-        <v>941</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
-        <v>1171</v>
+        <v>619</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
-      <c r="E582" s="5"/>
+      <c r="C582" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D582" s="9"/>
+      <c r="E582" s="3" t="s">
+        <v>685</v>
+      </c>
       <c r="F582" s="4" t="s">
-        <v>1172</v>
+        <v>932</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="4" t="s">
-        <v>629</v>
+        <v>1292</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C583" s="4" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D583" s="4"/>
-      <c r="E583" s="3" t="s">
-        <v>693</v>
-      </c>
+      <c r="C583" s="4"/>
+      <c r="D583" s="9"/>
+      <c r="E583" s="5"/>
       <c r="F583" s="4" t="s">
-        <v>942</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
-        <v>630</v>
+        <v>1294</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C584" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D584" s="4"/>
-      <c r="E584" s="3" t="s">
-        <v>694</v>
-      </c>
+      <c r="C584" s="4"/>
+      <c r="D584" s="9"/>
+      <c r="E584" s="5"/>
       <c r="F584" s="4" t="s">
-        <v>943</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D585" s="4"/>
+        <v>1044</v>
+      </c>
+      <c r="D585" s="9"/>
       <c r="E585" s="3" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F585" s="4" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D586" s="4"/>
-      <c r="E586" s="3" t="s">
-        <v>696</v>
-      </c>
+        <v>1045</v>
+      </c>
+      <c r="D586" s="9"/>
       <c r="F586" s="4" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>877</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D587" s="4"/>
-      <c r="E587" s="3" t="s">
-        <v>697</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="D587" s="9"/>
       <c r="F587" s="4" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
-        <v>634</v>
+        <v>1288</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="C588" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="D588" s="4"/>
-      <c r="E588" s="3" t="s">
-        <v>698</v>
-      </c>
+      <c r="C588" s="4"/>
+      <c r="D588" s="9"/>
+      <c r="E588" s="4"/>
       <c r="F588" s="4" t="s">
-        <v>947</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C589" s="4"/>
+      <c r="D589" s="9"/>
+      <c r="E589" s="4"/>
+      <c r="F589" s="4" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D590" s="9"/>
+      <c r="E590" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F590" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C591" s="4"/>
+      <c r="D591" s="9"/>
+      <c r="E591" s="5"/>
+      <c r="F591" s="4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C592" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D592" s="9"/>
+      <c r="E592" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F592" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D593" s="9"/>
+      <c r="E593" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F593" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C594" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D594" s="9"/>
+      <c r="E594" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F594" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C595" s="4"/>
+      <c r="D595" s="9"/>
+      <c r="E595" s="5"/>
+      <c r="F595" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C596" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D596" s="9"/>
+      <c r="E596" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="F596" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D597" s="9"/>
+      <c r="E597" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F597" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C598" s="4"/>
+      <c r="D598" s="9"/>
+      <c r="E598" s="5"/>
+      <c r="F598" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C599" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D599" s="9"/>
+      <c r="E599" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F599" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C600" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D600" s="9"/>
+      <c r="E600" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F600" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C601" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D601" s="9"/>
+      <c r="E601" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F601" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C602" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D602" s="9"/>
+      <c r="E602" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F602" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C603" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D603" s="9"/>
+      <c r="E603" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="F603" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C604" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="D604" s="9"/>
+      <c r="E604" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F604" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B589" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="C589" s="4" t="s">
+      <c r="B605" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C605" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="D589" s="4"/>
-      <c r="F589" s="4" t="s">
+      <c r="D605" s="9"/>
+      <c r="F605" s="4" t="s">
         <v>948</v>
       </c>
     </row>
@@ -15935,68 +16590,68 @@
     <hyperlink ref="E290" r:id="rId76"/>
     <hyperlink ref="E295" r:id="rId77"/>
     <hyperlink ref="E296" r:id="rId78"/>
-    <hyperlink ref="E368" r:id="rId79"/>
-    <hyperlink ref="E371" r:id="rId80"/>
-    <hyperlink ref="E372" r:id="rId81"/>
-    <hyperlink ref="E373" r:id="rId82"/>
-    <hyperlink ref="E374" r:id="rId83"/>
-    <hyperlink ref="E375" r:id="rId84"/>
-    <hyperlink ref="E376" r:id="rId85"/>
-    <hyperlink ref="E379" r:id="rId86"/>
-    <hyperlink ref="E383" r:id="rId87"/>
-    <hyperlink ref="E384" r:id="rId88"/>
-    <hyperlink ref="E385" r:id="rId89"/>
-    <hyperlink ref="E386" r:id="rId90"/>
-    <hyperlink ref="E387" r:id="rId91"/>
-    <hyperlink ref="E388" r:id="rId92"/>
-    <hyperlink ref="E457" r:id="rId93"/>
-    <hyperlink ref="E461" r:id="rId94"/>
-    <hyperlink ref="E463" r:id="rId95"/>
-    <hyperlink ref="E467" r:id="rId96"/>
-    <hyperlink ref="E474" r:id="rId97"/>
-    <hyperlink ref="E476" r:id="rId98"/>
-    <hyperlink ref="E492" r:id="rId99"/>
-    <hyperlink ref="E496" r:id="rId100"/>
-    <hyperlink ref="E497" r:id="rId101"/>
-    <hyperlink ref="E498" r:id="rId102"/>
-    <hyperlink ref="E501" r:id="rId103"/>
-    <hyperlink ref="E504" r:id="rId104"/>
-    <hyperlink ref="E506" r:id="rId105"/>
-    <hyperlink ref="E507" r:id="rId106"/>
-    <hyperlink ref="E510" r:id="rId107"/>
-    <hyperlink ref="E512" r:id="rId108"/>
-    <hyperlink ref="E513" r:id="rId109"/>
-    <hyperlink ref="E514" r:id="rId110"/>
-    <hyperlink ref="E517" r:id="rId111"/>
-    <hyperlink ref="E519" r:id="rId112"/>
-    <hyperlink ref="E523" r:id="rId113"/>
-    <hyperlink ref="E524" r:id="rId114"/>
-    <hyperlink ref="E525" r:id="rId115"/>
-    <hyperlink ref="E527" r:id="rId116"/>
-    <hyperlink ref="E531" r:id="rId117"/>
-    <hyperlink ref="E533" r:id="rId118"/>
-    <hyperlink ref="E536" r:id="rId119"/>
-    <hyperlink ref="E537" r:id="rId120"/>
-    <hyperlink ref="E538" r:id="rId121"/>
-    <hyperlink ref="E563" r:id="rId122"/>
-    <hyperlink ref="E566" r:id="rId123"/>
-    <hyperlink ref="E569" r:id="rId124"/>
-    <hyperlink ref="E574" r:id="rId125"/>
-    <hyperlink ref="E576" r:id="rId126"/>
-    <hyperlink ref="E577" r:id="rId127"/>
-    <hyperlink ref="E578" r:id="rId128"/>
-    <hyperlink ref="E580" r:id="rId129"/>
-    <hyperlink ref="E581" r:id="rId130"/>
-    <hyperlink ref="E583" r:id="rId131"/>
-    <hyperlink ref="E584" r:id="rId132"/>
-    <hyperlink ref="E585" r:id="rId133"/>
-    <hyperlink ref="E586" r:id="rId134"/>
-    <hyperlink ref="E587" r:id="rId135"/>
-    <hyperlink ref="E588" r:id="rId136"/>
+    <hyperlink ref="E371" r:id="rId79"/>
+    <hyperlink ref="E374" r:id="rId80"/>
+    <hyperlink ref="E375" r:id="rId81"/>
+    <hyperlink ref="E376" r:id="rId82"/>
+    <hyperlink ref="E377" r:id="rId83"/>
+    <hyperlink ref="E378" r:id="rId84"/>
+    <hyperlink ref="E379" r:id="rId85"/>
+    <hyperlink ref="E382" r:id="rId86"/>
+    <hyperlink ref="E386" r:id="rId87"/>
+    <hyperlink ref="E387" r:id="rId88"/>
+    <hyperlink ref="E388" r:id="rId89"/>
+    <hyperlink ref="E389" r:id="rId90"/>
+    <hyperlink ref="E390" r:id="rId91"/>
+    <hyperlink ref="E391" r:id="rId92"/>
+    <hyperlink ref="E461" r:id="rId93"/>
+    <hyperlink ref="E465" r:id="rId94"/>
+    <hyperlink ref="E467" r:id="rId95"/>
+    <hyperlink ref="E471" r:id="rId96"/>
+    <hyperlink ref="E478" r:id="rId97"/>
+    <hyperlink ref="E480" r:id="rId98"/>
+    <hyperlink ref="E496" r:id="rId99"/>
+    <hyperlink ref="E500" r:id="rId100"/>
+    <hyperlink ref="E501" r:id="rId101"/>
+    <hyperlink ref="E502" r:id="rId102"/>
+    <hyperlink ref="E505" r:id="rId103"/>
+    <hyperlink ref="E508" r:id="rId104"/>
+    <hyperlink ref="E510" r:id="rId105"/>
+    <hyperlink ref="E511" r:id="rId106"/>
+    <hyperlink ref="E514" r:id="rId107"/>
+    <hyperlink ref="E516" r:id="rId108"/>
+    <hyperlink ref="E517" r:id="rId109"/>
+    <hyperlink ref="E518" r:id="rId110"/>
+    <hyperlink ref="E521" r:id="rId111"/>
+    <hyperlink ref="E523" r:id="rId112"/>
+    <hyperlink ref="E527" r:id="rId113"/>
+    <hyperlink ref="E528" r:id="rId114"/>
+    <hyperlink ref="E529" r:id="rId115"/>
+    <hyperlink ref="E531" r:id="rId116"/>
+    <hyperlink ref="E535" r:id="rId117"/>
+    <hyperlink ref="E537" r:id="rId118"/>
+    <hyperlink ref="E540" r:id="rId119"/>
+    <hyperlink ref="E541" r:id="rId120"/>
+    <hyperlink ref="E542" r:id="rId121"/>
+    <hyperlink ref="E579" r:id="rId122"/>
+    <hyperlink ref="E582" r:id="rId123"/>
+    <hyperlink ref="E585" r:id="rId124"/>
+    <hyperlink ref="E590" r:id="rId125"/>
+    <hyperlink ref="E592" r:id="rId126"/>
+    <hyperlink ref="E593" r:id="rId127"/>
+    <hyperlink ref="E594" r:id="rId128"/>
+    <hyperlink ref="E596" r:id="rId129"/>
+    <hyperlink ref="E597" r:id="rId130"/>
+    <hyperlink ref="E599" r:id="rId131"/>
+    <hyperlink ref="E600" r:id="rId132"/>
+    <hyperlink ref="E601" r:id="rId133"/>
+    <hyperlink ref="E602" r:id="rId134"/>
+    <hyperlink ref="E603" r:id="rId135"/>
+    <hyperlink ref="E604" r:id="rId136"/>
     <hyperlink ref="E288" r:id="rId137"/>
-    <hyperlink ref="E494" r:id="rId138"/>
-    <hyperlink ref="E495" r:id="rId139"/>
-    <hyperlink ref="E450" r:id="rId140"/>
+    <hyperlink ref="E498" r:id="rId138"/>
+    <hyperlink ref="E499" r:id="rId139"/>
+    <hyperlink ref="E454" r:id="rId140"/>
     <hyperlink ref="E6" r:id="rId141"/>
     <hyperlink ref="E87" r:id="rId142"/>
     <hyperlink ref="E88" r:id="rId143"/>

--- a/_icons/iconsets-social-files-payment.xlsx
+++ b/_icons/iconsets-social-files-payment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praktikant.marketing\Documents\GitHub\tallui\_icons\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75913DDF-4170-4FBC-8602-FB578496DE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="4" r:id="rId1"/>
@@ -20,17 +21,25 @@
     <sheet name="Delivery" sheetId="5" r:id="rId6"/>
     <sheet name="Others" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4562" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="1937">
   <si>
     <t>doc</t>
   </si>
@@ -5846,7 +5855,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6219,17 +6228,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Source"/>
-    <tableColumn id="4" name="License"/>
-    <tableColumn id="5" name="Shorttag"/>
-    <tableColumn id="6" name="Blade" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Source"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="License"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Shorttag"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Blade" dataDxfId="23">
       <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-" &amp;Tabelle2[[#This Row],[Shorttag]]&amp;"-messenger/&gt;"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Dumb idea" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Dumb idea" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> "&lt;x-icon-messenger/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6238,8 +6247,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle17" displayName="Tabelle17" ref="A1:F603" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:F603">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle17" displayName="Tabelle17" ref="A1:F603" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:F603" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="File-icon"/>
@@ -6251,132 +6260,132 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:F80">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
     <sortCondition ref="F1:F80"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="19"/>
-    <tableColumn id="13" name="Category" dataDxfId="18"/>
-    <tableColumn id="7" name="Type" dataDxfId="17"/>
-    <tableColumn id="5" name="Details" dataDxfId="16"/>
-    <tableColumn id="2" name="Link" dataDxfId="15"/>
-    <tableColumn id="6" name="Filename" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Category" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Type" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Details" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Link" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Filename" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L80"/>
-  <sortState ref="A2:H80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L80" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H80">
     <sortCondition ref="E1:E80"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="fileext" dataDxfId="11"/>
-    <tableColumn id="4" name="Software" dataDxfId="10"/>
-    <tableColumn id="7" name="Type" dataDxfId="9"/>
-    <tableColumn id="5" name="Details" dataDxfId="8"/>
-    <tableColumn id="6" name="Iconset (default)" dataDxfId="7"/>
-    <tableColumn id="2" name="Iconset (Colored Filled)" dataDxfId="6"/>
-    <tableColumn id="3" name="Iconset (Colored Slim)" dataDxfId="5"/>
-    <tableColumn id="8" name="Iconset (Simple)" dataDxfId="4"/>
-    <tableColumn id="9" name="Iconset (Simple with symbols)" dataDxfId="3"/>
-    <tableColumn id="10" name="Iconset (Simple Black)" dataDxfId="2"/>
-    <tableColumn id="11" name="Iconset (Colored Crossing)" dataDxfId="1"/>
-    <tableColumn id="12" name="Iconset (Colored)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="fileext" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Software" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Type" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Details" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Iconset (default)" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Iconset (Colored Filled)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Iconset (Colored Slim)" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Iconset (Simple)" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Iconset (Simple with symbols)" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Iconset (Simple Black)" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Iconset (Colored Crossing)" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Iconset (Colored)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
-  <autoFilter ref="A1:Q31"/>
-  <sortState ref="A2:M31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle3" displayName="Tabelle3" ref="A1:Q31" totalsRowShown="0">
+  <autoFilter ref="A1:Q31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Network / Brand"/>
-    <tableColumn id="2" name="Link to portal"/>
-    <tableColumn id="3" name="_default"/>
-    <tableColumn id="4" name="Iconset (Circle colored)"/>
-    <tableColumn id="5" name="Iconset (Circle colored shaded)"/>
-    <tableColumn id="6" name="Iconset (Handdrawn)"/>
-    <tableColumn id="7" name="Iconset (Handdrawn colored)"/>
-    <tableColumn id="8" name="Iconset (Originals)"/>
-    <tableColumn id="9" name="Iconset (Cartoon)"/>
-    <tableColumn id="10" name="Iconset (Colorful Gouache)"/>
-    <tableColumn id="11" name="Iconset (Rectangle flat)"/>
-    <tableColumn id="12" name="Iconset (Circle long shadow)"/>
-    <tableColumn id="13" name="Iconset (All-Bright)"/>
-    <tableColumn id="14" name="Iconset (All-Line filled)"/>
-    <tableColumn id="16" name="Iconset (Linear color)"/>
-    <tableColumn id="17" name="Iconset (Black and white circle)"/>
-    <tableColumn id="18" name="Iconset (Black and white square)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Network / Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Link to portal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="_default"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Iconset (Circle colored)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Iconset (Handdrawn)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Iconset (Handdrawn colored)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Iconset (Originals)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Iconset (Cartoon)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Iconset (All-Bright)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Iconset (All-Line filled)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Iconset (Linear color)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="Iconset (Black and white circle)"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
-  <autoFilter ref="A1:K37"/>
-  <sortState ref="A2:J43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle4" displayName="Tabelle4" ref="A1:K37" totalsRowShown="0">
+  <autoFilter ref="A1:K37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J43">
     <sortCondition ref="A1:A43"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Provider / Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (default)"/>
-    <tableColumn id="4" name="Iconset (White and Gray)"/>
-    <tableColumn id="5" name="Iconset (Black and White)"/>
-    <tableColumn id="6" name="Iconset (Circle)"/>
-    <tableColumn id="7" name="Iconset (Originals)"/>
-    <tableColumn id="8" name="Iconset (Rectangle)"/>
-    <tableColumn id="9" name="Iconset (Square filled)"/>
-    <tableColumn id="10" name="Iconset (Circle filled)"/>
-    <tableColumn id="11" name="Iconset (All-Line filled)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Provider / Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Iconset (default)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Iconset (White and Gray)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Iconset (Black and White)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Iconset (Circle)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Iconset (Originals)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Iconset (Rectangle)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Iconset (Square filled)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Iconset (Circle filled)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabelle5" displayName="Tabelle5" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (default)"/>
-    <tableColumn id="4" name="Iconset (All-Line filled)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Iconset (default)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Iconset (All-Line filled)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
-  <autoFilter ref="A1:O80"/>
-  <sortState ref="A2:E79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabelle7" displayName="Tabelle7" ref="A1:O80" totalsRowShown="0">
+  <autoFilter ref="A1:O80" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E79">
     <sortCondition ref="A1:A79"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Brand"/>
-    <tableColumn id="2" name="Website"/>
-    <tableColumn id="3" name="Iconset (All-Line filled)"/>
-    <tableColumn id="4" name="Iconset (All-Bright)"/>
-    <tableColumn id="5" name="Iconset (Cartoon)"/>
-    <tableColumn id="6" name="Iconset (Circle colored)"/>
-    <tableColumn id="7" name="Iconset (Circle colored shaded)"/>
-    <tableColumn id="8" name="Iconset (Circle long shadow)"/>
-    <tableColumn id="9" name="Iconset (Colorful Gouache)"/>
-    <tableColumn id="10" name="Iconset (Handdrawn)"/>
-    <tableColumn id="11" name="Iconset (Originals)"/>
-    <tableColumn id="12" name="Iconset (Rectangle flat)"/>
-    <tableColumn id="13" name="Iconset (Linear color)"/>
-    <tableColumn id="14" name="Iconset (Black and White circle)"/>
-    <tableColumn id="15" name="Iconset (Black and white square)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Brand"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Website"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Iconset (All-Line filled)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Iconset (All-Bright)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Iconset (Cartoon)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Iconset (Circle colored)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Iconset (Circle colored shaded)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Iconset (Circle long shadow)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Iconset (Colorful Gouache)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Iconset (Handdrawn)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Iconset (Originals)"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="Iconset (Rectangle flat)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="Iconset (Linear color)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="Iconset (Black and White circle)"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Iconset (Black and white square)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6644,7 +6653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7299,34 +7308,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B17" r:id="rId14"/>
-    <hyperlink ref="B18" r:id="rId15"/>
-    <hyperlink ref="B19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B26" r:id="rId23"/>
-    <hyperlink ref="B27" r:id="rId24"/>
-    <hyperlink ref="B28" r:id="rId25"/>
-    <hyperlink ref="B29" r:id="rId26"/>
-    <hyperlink ref="B16" r:id="rId27"/>
-    <hyperlink ref="B15" r:id="rId28"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId29"/>
@@ -7337,11 +7346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10410,9 +10419,7 @@
       <c r="B164" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C164" s="1"/>
       <c r="D164" s="7" t="s">
         <v>42</v>
       </c>
@@ -17517,323 +17524,323 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E176" r:id="rId5"/>
-    <hyperlink ref="E195" r:id="rId6"/>
-    <hyperlink ref="E182" r:id="rId7"/>
-    <hyperlink ref="E179" r:id="rId8"/>
-    <hyperlink ref="E184" r:id="rId9"/>
-    <hyperlink ref="E199" r:id="rId10"/>
-    <hyperlink ref="E200" r:id="rId11"/>
-    <hyperlink ref="E198" r:id="rId12"/>
-    <hyperlink ref="E177" r:id="rId13"/>
-    <hyperlink ref="E189" r:id="rId14"/>
-    <hyperlink ref="E187" r:id="rId15"/>
-    <hyperlink ref="E174" r:id="rId16"/>
-    <hyperlink ref="E188" r:id="rId17"/>
-    <hyperlink ref="E193" r:id="rId18"/>
-    <hyperlink ref="E190" r:id="rId19"/>
-    <hyperlink ref="E172" r:id="rId20"/>
-    <hyperlink ref="E171" r:id="rId21"/>
-    <hyperlink ref="E173" r:id="rId22"/>
-    <hyperlink ref="E175" r:id="rId23"/>
-    <hyperlink ref="E178" r:id="rId24"/>
-    <hyperlink ref="E180" r:id="rId25"/>
-    <hyperlink ref="E181" r:id="rId26"/>
-    <hyperlink ref="E183" r:id="rId27"/>
-    <hyperlink ref="E186" r:id="rId28"/>
-    <hyperlink ref="E191" r:id="rId29"/>
-    <hyperlink ref="E192" r:id="rId30"/>
-    <hyperlink ref="E194" r:id="rId31"/>
-    <hyperlink ref="E196" r:id="rId32"/>
-    <hyperlink ref="E197" r:id="rId33"/>
-    <hyperlink ref="E243" r:id="rId34"/>
-    <hyperlink ref="E205" r:id="rId35"/>
-    <hyperlink ref="E270" r:id="rId36"/>
-    <hyperlink ref="E234" r:id="rId37"/>
-    <hyperlink ref="E202" r:id="rId38"/>
-    <hyperlink ref="E223" r:id="rId39"/>
-    <hyperlink ref="E229" r:id="rId40"/>
-    <hyperlink ref="E204" r:id="rId41"/>
-    <hyperlink ref="E247" r:id="rId42"/>
-    <hyperlink ref="E221" r:id="rId43"/>
-    <hyperlink ref="E210" r:id="rId44"/>
-    <hyperlink ref="E263" r:id="rId45"/>
-    <hyperlink ref="E251" r:id="rId46"/>
-    <hyperlink ref="E230" r:id="rId47"/>
-    <hyperlink ref="E201" r:id="rId48"/>
-    <hyperlink ref="E206" r:id="rId49"/>
-    <hyperlink ref="E215" r:id="rId50"/>
-    <hyperlink ref="E216" r:id="rId51"/>
-    <hyperlink ref="E217" r:id="rId52"/>
-    <hyperlink ref="E220" r:id="rId53"/>
-    <hyperlink ref="E227" r:id="rId54"/>
-    <hyperlink ref="E228" r:id="rId55"/>
-    <hyperlink ref="E256" r:id="rId56"/>
-    <hyperlink ref="E246" r:id="rId57"/>
-    <hyperlink ref="E248" r:id="rId58"/>
-    <hyperlink ref="E276" r:id="rId59"/>
-    <hyperlink ref="E249" r:id="rId60"/>
-    <hyperlink ref="E255" r:id="rId61"/>
-    <hyperlink ref="E258" r:id="rId62"/>
-    <hyperlink ref="E264" r:id="rId63"/>
-    <hyperlink ref="E265" r:id="rId64"/>
-    <hyperlink ref="E273" r:id="rId65"/>
-    <hyperlink ref="E275" r:id="rId66"/>
-    <hyperlink ref="E277" r:id="rId67"/>
-    <hyperlink ref="E278" r:id="rId68"/>
-    <hyperlink ref="E279" r:id="rId69"/>
-    <hyperlink ref="E280" r:id="rId70"/>
-    <hyperlink ref="E281" r:id="rId71"/>
-    <hyperlink ref="E283" r:id="rId72"/>
-    <hyperlink ref="E284" r:id="rId73"/>
-    <hyperlink ref="E285" r:id="rId74"/>
-    <hyperlink ref="E287" r:id="rId75"/>
-    <hyperlink ref="E288" r:id="rId76"/>
-    <hyperlink ref="E293" r:id="rId77"/>
-    <hyperlink ref="E294" r:id="rId78"/>
-    <hyperlink ref="E369" r:id="rId79"/>
-    <hyperlink ref="E372" r:id="rId80"/>
-    <hyperlink ref="E373" r:id="rId81"/>
-    <hyperlink ref="E374" r:id="rId82"/>
-    <hyperlink ref="E375" r:id="rId83"/>
-    <hyperlink ref="E376" r:id="rId84"/>
-    <hyperlink ref="E377" r:id="rId85"/>
-    <hyperlink ref="E380" r:id="rId86"/>
-    <hyperlink ref="E384" r:id="rId87"/>
-    <hyperlink ref="E385" r:id="rId88"/>
-    <hyperlink ref="E386" r:id="rId89"/>
-    <hyperlink ref="E387" r:id="rId90"/>
-    <hyperlink ref="E388" r:id="rId91"/>
-    <hyperlink ref="E389" r:id="rId92"/>
-    <hyperlink ref="E459" r:id="rId93"/>
-    <hyperlink ref="E463" r:id="rId94"/>
-    <hyperlink ref="E465" r:id="rId95"/>
-    <hyperlink ref="E469" r:id="rId96"/>
-    <hyperlink ref="E476" r:id="rId97"/>
-    <hyperlink ref="E478" r:id="rId98"/>
-    <hyperlink ref="E494" r:id="rId99"/>
-    <hyperlink ref="E498" r:id="rId100"/>
-    <hyperlink ref="E499" r:id="rId101"/>
-    <hyperlink ref="E500" r:id="rId102"/>
-    <hyperlink ref="E503" r:id="rId103"/>
-    <hyperlink ref="E506" r:id="rId104"/>
-    <hyperlink ref="E508" r:id="rId105"/>
-    <hyperlink ref="E509" r:id="rId106"/>
-    <hyperlink ref="E512" r:id="rId107"/>
-    <hyperlink ref="E514" r:id="rId108"/>
-    <hyperlink ref="E515" r:id="rId109"/>
-    <hyperlink ref="E516" r:id="rId110"/>
-    <hyperlink ref="E519" r:id="rId111"/>
-    <hyperlink ref="E521" r:id="rId112"/>
-    <hyperlink ref="E525" r:id="rId113"/>
-    <hyperlink ref="E526" r:id="rId114"/>
-    <hyperlink ref="E527" r:id="rId115"/>
-    <hyperlink ref="E529" r:id="rId116"/>
-    <hyperlink ref="E533" r:id="rId117"/>
-    <hyperlink ref="E535" r:id="rId118"/>
-    <hyperlink ref="E538" r:id="rId119"/>
-    <hyperlink ref="E539" r:id="rId120"/>
-    <hyperlink ref="E540" r:id="rId121"/>
-    <hyperlink ref="E577" r:id="rId122"/>
-    <hyperlink ref="E580" r:id="rId123"/>
-    <hyperlink ref="E583" r:id="rId124"/>
-    <hyperlink ref="E588" r:id="rId125"/>
-    <hyperlink ref="E590" r:id="rId126"/>
-    <hyperlink ref="E591" r:id="rId127"/>
-    <hyperlink ref="E592" r:id="rId128"/>
-    <hyperlink ref="E594" r:id="rId129"/>
-    <hyperlink ref="E595" r:id="rId130"/>
-    <hyperlink ref="E597" r:id="rId131"/>
-    <hyperlink ref="E598" r:id="rId132"/>
-    <hyperlink ref="E599" r:id="rId133"/>
-    <hyperlink ref="E600" r:id="rId134"/>
-    <hyperlink ref="E601" r:id="rId135"/>
-    <hyperlink ref="E602" r:id="rId136"/>
-    <hyperlink ref="E286" r:id="rId137"/>
-    <hyperlink ref="E496" r:id="rId138"/>
-    <hyperlink ref="E497" r:id="rId139"/>
-    <hyperlink ref="E452" r:id="rId140"/>
-    <hyperlink ref="E6" r:id="rId141"/>
-    <hyperlink ref="E86" r:id="rId142"/>
-    <hyperlink ref="E87" r:id="rId143"/>
-    <hyperlink ref="E88" r:id="rId144"/>
-    <hyperlink ref="E89" r:id="rId145"/>
-    <hyperlink ref="E90" r:id="rId146"/>
-    <hyperlink ref="E91" r:id="rId147"/>
-    <hyperlink ref="E92" r:id="rId148"/>
-    <hyperlink ref="E93" r:id="rId149"/>
-    <hyperlink ref="E94" r:id="rId150"/>
-    <hyperlink ref="E95" r:id="rId151"/>
-    <hyperlink ref="E98" r:id="rId152"/>
-    <hyperlink ref="E99" r:id="rId153"/>
-    <hyperlink ref="E100" r:id="rId154"/>
-    <hyperlink ref="E102" r:id="rId155"/>
-    <hyperlink ref="E103" r:id="rId156"/>
-    <hyperlink ref="E104" r:id="rId157"/>
-    <hyperlink ref="E106" r:id="rId158"/>
-    <hyperlink ref="E107" r:id="rId159"/>
-    <hyperlink ref="E108" r:id="rId160"/>
-    <hyperlink ref="E109" r:id="rId161"/>
-    <hyperlink ref="E111" r:id="rId162"/>
-    <hyperlink ref="E112" r:id="rId163"/>
-    <hyperlink ref="E115" r:id="rId164"/>
-    <hyperlink ref="E117" r:id="rId165"/>
-    <hyperlink ref="E118" r:id="rId166"/>
-    <hyperlink ref="E119" r:id="rId167"/>
-    <hyperlink ref="E120" r:id="rId168"/>
-    <hyperlink ref="E121" r:id="rId169"/>
-    <hyperlink ref="E122" r:id="rId170"/>
-    <hyperlink ref="E123" r:id="rId171"/>
-    <hyperlink ref="E124" r:id="rId172"/>
-    <hyperlink ref="E125" r:id="rId173"/>
-    <hyperlink ref="E126" r:id="rId174"/>
-    <hyperlink ref="E127" r:id="rId175"/>
-    <hyperlink ref="E128" r:id="rId176"/>
-    <hyperlink ref="E129" r:id="rId177"/>
-    <hyperlink ref="E130" r:id="rId178"/>
-    <hyperlink ref="E131" r:id="rId179"/>
-    <hyperlink ref="E132" r:id="rId180"/>
-    <hyperlink ref="E133" r:id="rId181"/>
-    <hyperlink ref="E134" r:id="rId182"/>
-    <hyperlink ref="E135" r:id="rId183"/>
-    <hyperlink ref="E136" r:id="rId184"/>
-    <hyperlink ref="E137" r:id="rId185"/>
-    <hyperlink ref="E139" r:id="rId186"/>
-    <hyperlink ref="E141:E150" r:id="rId187" display="https://fileinfo.com/extension/ppt"/>
-    <hyperlink ref="E151" r:id="rId188"/>
-    <hyperlink ref="E152" r:id="rId189"/>
-    <hyperlink ref="E153" r:id="rId190"/>
-    <hyperlink ref="E154" r:id="rId191"/>
-    <hyperlink ref="E155" r:id="rId192"/>
-    <hyperlink ref="E156" r:id="rId193"/>
-    <hyperlink ref="E157" r:id="rId194"/>
-    <hyperlink ref="E158" r:id="rId195"/>
-    <hyperlink ref="E159" r:id="rId196"/>
-    <hyperlink ref="E160" r:id="rId197"/>
-    <hyperlink ref="E161" r:id="rId198"/>
-    <hyperlink ref="E162" r:id="rId199"/>
-    <hyperlink ref="E163" r:id="rId200"/>
-    <hyperlink ref="E164" r:id="rId201"/>
-    <hyperlink ref="E165" r:id="rId202"/>
-    <hyperlink ref="E166" r:id="rId203"/>
-    <hyperlink ref="E167" r:id="rId204"/>
-    <hyperlink ref="E168" r:id="rId205"/>
-    <hyperlink ref="E169" r:id="rId206"/>
-    <hyperlink ref="E170" r:id="rId207"/>
-    <hyperlink ref="E603" r:id="rId208"/>
-    <hyperlink ref="E203" r:id="rId209"/>
-    <hyperlink ref="E208" r:id="rId210"/>
-    <hyperlink ref="E211" r:id="rId211"/>
-    <hyperlink ref="E212" r:id="rId212"/>
-    <hyperlink ref="E214" r:id="rId213"/>
-    <hyperlink ref="E218" r:id="rId214"/>
-    <hyperlink ref="E219" r:id="rId215"/>
-    <hyperlink ref="E222" r:id="rId216"/>
-    <hyperlink ref="E224" r:id="rId217"/>
-    <hyperlink ref="E225" r:id="rId218"/>
-    <hyperlink ref="E226" r:id="rId219"/>
-    <hyperlink ref="E231" r:id="rId220"/>
-    <hyperlink ref="E235" r:id="rId221"/>
-    <hyperlink ref="E236" r:id="rId222"/>
-    <hyperlink ref="E237" r:id="rId223"/>
-    <hyperlink ref="E238" r:id="rId224"/>
-    <hyperlink ref="E239" r:id="rId225"/>
-    <hyperlink ref="E240" r:id="rId226"/>
-    <hyperlink ref="E242" r:id="rId227"/>
-    <hyperlink ref="E244" r:id="rId228"/>
-    <hyperlink ref="E257" r:id="rId229"/>
-    <hyperlink ref="E262" r:id="rId230"/>
-    <hyperlink ref="E266" r:id="rId231"/>
-    <hyperlink ref="E271" r:id="rId232"/>
-    <hyperlink ref="E272" r:id="rId233"/>
-    <hyperlink ref="E274" r:id="rId234"/>
-    <hyperlink ref="E378" r:id="rId235"/>
-    <hyperlink ref="E382" r:id="rId236"/>
-    <hyperlink ref="E383" r:id="rId237"/>
-    <hyperlink ref="E474" r:id="rId238"/>
-    <hyperlink ref="E520" r:id="rId239"/>
-    <hyperlink ref="E584" r:id="rId240" location=":~:text=Der%20Universal%20Serial%20Bus%20(USB,eines%20Computers%20mit%20externen%20Ger%C3%A4ten."/>
-    <hyperlink ref="E585" r:id="rId241"/>
-    <hyperlink ref="E7" r:id="rId242"/>
-    <hyperlink ref="E8" r:id="rId243"/>
-    <hyperlink ref="E9" r:id="rId244"/>
-    <hyperlink ref="E10" r:id="rId245"/>
-    <hyperlink ref="E11" r:id="rId246"/>
-    <hyperlink ref="E12" r:id="rId247"/>
-    <hyperlink ref="E13" r:id="rId248"/>
-    <hyperlink ref="E14" r:id="rId249"/>
-    <hyperlink ref="E15" r:id="rId250"/>
-    <hyperlink ref="E16" r:id="rId251"/>
-    <hyperlink ref="E18" r:id="rId252"/>
-    <hyperlink ref="E19" r:id="rId253"/>
-    <hyperlink ref="E20" r:id="rId254"/>
-    <hyperlink ref="E21" r:id="rId255"/>
-    <hyperlink ref="E22" r:id="rId256"/>
-    <hyperlink ref="E23" r:id="rId257"/>
-    <hyperlink ref="E24" r:id="rId258"/>
-    <hyperlink ref="E25" r:id="rId259"/>
-    <hyperlink ref="E26" r:id="rId260"/>
-    <hyperlink ref="E27" r:id="rId261"/>
-    <hyperlink ref="E28" r:id="rId262"/>
-    <hyperlink ref="E31" r:id="rId263"/>
-    <hyperlink ref="E32" r:id="rId264"/>
-    <hyperlink ref="E33" r:id="rId265"/>
-    <hyperlink ref="E34" r:id="rId266"/>
-    <hyperlink ref="E35" r:id="rId267"/>
-    <hyperlink ref="E36" r:id="rId268"/>
-    <hyperlink ref="E37" r:id="rId269"/>
-    <hyperlink ref="E40" r:id="rId270"/>
-    <hyperlink ref="E41" r:id="rId271"/>
-    <hyperlink ref="E42" r:id="rId272"/>
-    <hyperlink ref="E43" r:id="rId273"/>
-    <hyperlink ref="E44" r:id="rId274"/>
-    <hyperlink ref="E45" r:id="rId275"/>
-    <hyperlink ref="E46" r:id="rId276"/>
-    <hyperlink ref="E47" r:id="rId277"/>
-    <hyperlink ref="E49" r:id="rId278"/>
-    <hyperlink ref="E50" r:id="rId279"/>
-    <hyperlink ref="E51" r:id="rId280"/>
-    <hyperlink ref="E52" r:id="rId281"/>
-    <hyperlink ref="E53" r:id="rId282"/>
-    <hyperlink ref="E55" r:id="rId283"/>
-    <hyperlink ref="E56" r:id="rId284"/>
-    <hyperlink ref="E57" r:id="rId285"/>
-    <hyperlink ref="E58" r:id="rId286"/>
-    <hyperlink ref="E59" r:id="rId287"/>
-    <hyperlink ref="E61" r:id="rId288"/>
-    <hyperlink ref="E63" r:id="rId289"/>
-    <hyperlink ref="E64" r:id="rId290"/>
-    <hyperlink ref="E66" r:id="rId291"/>
-    <hyperlink ref="E67" r:id="rId292"/>
-    <hyperlink ref="E68" r:id="rId293"/>
-    <hyperlink ref="E70" r:id="rId294"/>
-    <hyperlink ref="E71" r:id="rId295"/>
-    <hyperlink ref="E72" r:id="rId296"/>
-    <hyperlink ref="E73" r:id="rId297"/>
-    <hyperlink ref="E74" r:id="rId298"/>
-    <hyperlink ref="E77" r:id="rId299"/>
-    <hyperlink ref="E79" r:id="rId300"/>
-    <hyperlink ref="E80" r:id="rId301"/>
-    <hyperlink ref="E81" r:id="rId302"/>
-    <hyperlink ref="E82" r:id="rId303"/>
-    <hyperlink ref="E83" r:id="rId304"/>
-    <hyperlink ref="E84" r:id="rId305"/>
-    <hyperlink ref="E85" r:id="rId306"/>
-    <hyperlink ref="E96" r:id="rId307"/>
-    <hyperlink ref="E97" r:id="rId308"/>
-    <hyperlink ref="E101" r:id="rId309"/>
-    <hyperlink ref="E105" r:id="rId310"/>
-    <hyperlink ref="E110" r:id="rId311"/>
-    <hyperlink ref="E113" r:id="rId312"/>
-    <hyperlink ref="E116" r:id="rId313"/>
-    <hyperlink ref="E138" r:id="rId314"/>
-    <hyperlink ref="E140" r:id="rId315"/>
-    <hyperlink ref="E145" r:id="rId316"/>
-    <hyperlink ref="E524" r:id="rId317"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E176" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E195" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E182" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E179" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E184" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E199" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E200" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E198" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E177" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E189" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E187" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E174" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E188" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E193" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E190" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E172" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E171" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="E173" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E175" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E178" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E180" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="E181" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E183" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="E186" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E191" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="E192" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E194" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="E196" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E197" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="E243" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E205" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="E270" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E234" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="E202" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E223" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="E229" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="E204" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="E247" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="E221" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="E210" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="E263" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E251" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="E230" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="E201" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="E206" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E215" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="E216" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="E217" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="E220" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="E227" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="E228" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="E256" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="E246" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E248" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="E276" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="E249" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="E255" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E258" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="E264" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="E265" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="E273" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="E275" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="E277" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="E278" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="E279" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="E280" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="E281" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="E283" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="E284" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="E285" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="E287" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="E288" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="E293" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="E294" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="E369" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="E372" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="E373" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="E374" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="E375" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="E376" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="E377" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="E380" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="E384" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="E385" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="E386" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="E387" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="E388" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="E389" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="E459" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="E463" r:id="rId94" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="E465" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="E469" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="E476" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="E478" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="E494" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="E498" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="E499" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="E500" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="E503" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="E506" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="E508" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="E509" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="E512" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="E514" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="E515" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="E516" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="E519" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="E521" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="E525" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="E526" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="E527" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="E529" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="E533" r:id="rId117" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="E535" r:id="rId118" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="E538" r:id="rId119" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="E539" r:id="rId120" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="E540" r:id="rId121" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="E577" r:id="rId122" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="E580" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="E583" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="E588" r:id="rId125" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="E590" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="E591" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="E592" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="E594" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="E595" r:id="rId130" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="E597" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="E598" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="E599" r:id="rId133" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="E600" r:id="rId134" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="E601" r:id="rId135" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="E602" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="E286" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="E496" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="E497" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="E452" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="E6" r:id="rId141" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="E86" r:id="rId142" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="E87" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="E88" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="E89" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="E90" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="E91" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="E92" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="E93" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="E94" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="E95" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="E98" r:id="rId152" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="E99" r:id="rId153" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="E100" r:id="rId154" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="E102" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="E103" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="E104" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="E106" r:id="rId158" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="E107" r:id="rId159" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="E108" r:id="rId160" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="E109" r:id="rId161" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="E111" r:id="rId162" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="E112" r:id="rId163" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="E115" r:id="rId164" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="E117" r:id="rId165" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="E118" r:id="rId166" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="E119" r:id="rId167" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="E120" r:id="rId168" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="E121" r:id="rId169" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="E122" r:id="rId170" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="E123" r:id="rId171" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="E124" r:id="rId172" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="E125" r:id="rId173" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="E126" r:id="rId174" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="E127" r:id="rId175" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="E128" r:id="rId176" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="E129" r:id="rId177" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="E130" r:id="rId178" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="E131" r:id="rId179" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="E132" r:id="rId180" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="E133" r:id="rId181" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="E134" r:id="rId182" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="E135" r:id="rId183" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="E136" r:id="rId184" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="E137" r:id="rId185" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="E139" r:id="rId186" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="E141:E150" r:id="rId187" display="https://fileinfo.com/extension/ppt" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="E151" r:id="rId188" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="E152" r:id="rId189" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="E153" r:id="rId190" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="E154" r:id="rId191" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="E155" r:id="rId192" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="E156" r:id="rId193" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="E157" r:id="rId194" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="E158" r:id="rId195" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="E159" r:id="rId196" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="E160" r:id="rId197" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="E161" r:id="rId198" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="E162" r:id="rId199" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="E163" r:id="rId200" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="E164" r:id="rId201" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="E165" r:id="rId202" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="E166" r:id="rId203" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="E167" r:id="rId204" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="E168" r:id="rId205" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="E169" r:id="rId206" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="E170" r:id="rId207" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="E603" r:id="rId208" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="E203" r:id="rId209" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="E208" r:id="rId210" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="E211" r:id="rId211" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="E212" r:id="rId212" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="E214" r:id="rId213" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="E218" r:id="rId214" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="E219" r:id="rId215" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="E222" r:id="rId216" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="E224" r:id="rId217" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="E225" r:id="rId218" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="E226" r:id="rId219" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="E231" r:id="rId220" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="E235" r:id="rId221" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="E236" r:id="rId222" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="E237" r:id="rId223" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="E238" r:id="rId224" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="E239" r:id="rId225" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="E240" r:id="rId226" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="E242" r:id="rId227" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="E244" r:id="rId228" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="E257" r:id="rId229" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="E262" r:id="rId230" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="E266" r:id="rId231" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="E271" r:id="rId232" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="E272" r:id="rId233" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="E274" r:id="rId234" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="E378" r:id="rId235" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="E382" r:id="rId236" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="E383" r:id="rId237" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="E474" r:id="rId238" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="E520" r:id="rId239" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="E584" r:id="rId240" location=":~:text=Der%20Universal%20Serial%20Bus%20(USB,eines%20Computers%20mit%20externen%20Ger%C3%A4ten." xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="E585" r:id="rId241" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="E7" r:id="rId242" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="E8" r:id="rId243" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="E9" r:id="rId244" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="E10" r:id="rId245" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="E11" r:id="rId246" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="E12" r:id="rId247" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="E13" r:id="rId248" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="E14" r:id="rId249" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="E15" r:id="rId250" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="E16" r:id="rId251" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="E18" r:id="rId252" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="E19" r:id="rId253" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="E20" r:id="rId254" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="E21" r:id="rId255" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="E22" r:id="rId256" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="E23" r:id="rId257" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="E24" r:id="rId258" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="E25" r:id="rId259" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="E26" r:id="rId260" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="E27" r:id="rId261" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="E28" r:id="rId262" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="E31" r:id="rId263" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="E32" r:id="rId264" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="E33" r:id="rId265" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="E34" r:id="rId266" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="E35" r:id="rId267" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="E36" r:id="rId268" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="E37" r:id="rId269" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="E40" r:id="rId270" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="E41" r:id="rId271" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="E42" r:id="rId272" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="E43" r:id="rId273" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="E44" r:id="rId274" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="E45" r:id="rId275" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="E46" r:id="rId276" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="E47" r:id="rId277" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="E49" r:id="rId278" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="E50" r:id="rId279" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="E51" r:id="rId280" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="E52" r:id="rId281" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="E53" r:id="rId282" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="E55" r:id="rId283" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="E56" r:id="rId284" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="E57" r:id="rId285" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="E58" r:id="rId286" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="E59" r:id="rId287" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="E61" r:id="rId288" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="E63" r:id="rId289" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="E64" r:id="rId290" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="E66" r:id="rId291" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="E67" r:id="rId292" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="E68" r:id="rId293" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="E70" r:id="rId294" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="E71" r:id="rId295" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="E72" r:id="rId296" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="E73" r:id="rId297" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="E74" r:id="rId298" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="E77" r:id="rId299" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="E79" r:id="rId300" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="E80" r:id="rId301" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="E81" r:id="rId302" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="E82" r:id="rId303" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="E83" r:id="rId304" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="E84" r:id="rId305" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="E85" r:id="rId306" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="E96" r:id="rId307" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="E97" r:id="rId308" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="E101" r:id="rId309" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="E105" r:id="rId310" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="E110" r:id="rId311" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="E113" r:id="rId312" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="E116" r:id="rId313" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="E138" r:id="rId314" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="E140" r:id="rId315" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="E145" r:id="rId316" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="E524" r:id="rId317" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17843,7 +17850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView topLeftCell="C46" workbookViewId="0">
@@ -20330,7 +20337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21697,35 +21704,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B26" r:id="rId2"/>
-    <hyperlink ref="B13" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B15" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
-    <hyperlink ref="B31" r:id="rId7"/>
-    <hyperlink ref="B29" r:id="rId8"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B20" r:id="rId10"/>
-    <hyperlink ref="B18" r:id="rId11"/>
-    <hyperlink ref="B5" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B24" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B3" r:id="rId16"/>
-    <hyperlink ref="B2" r:id="rId17"/>
-    <hyperlink ref="B4" r:id="rId18"/>
-    <hyperlink ref="B6" r:id="rId19"/>
-    <hyperlink ref="B9" r:id="rId20"/>
-    <hyperlink ref="B11" r:id="rId21"/>
-    <hyperlink ref="B12" r:id="rId22"/>
-    <hyperlink ref="B14" r:id="rId23"/>
-    <hyperlink ref="B17" r:id="rId24"/>
-    <hyperlink ref="B22" r:id="rId25"/>
-    <hyperlink ref="B23" r:id="rId26"/>
-    <hyperlink ref="B25" r:id="rId27"/>
-    <hyperlink ref="B27" r:id="rId28"/>
-    <hyperlink ref="B28" r:id="rId29"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="B15" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B31" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="B29" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B4" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="B6" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="B9" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B22" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="B23" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B25" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="B27" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B28" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -21735,7 +21742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22664,40 +22671,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B34" r:id="rId3"/>
-    <hyperlink ref="B21" r:id="rId4"/>
-    <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B16" r:id="rId6"/>
-    <hyperlink ref="B19" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8"/>
-    <hyperlink ref="B24" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="B31" r:id="rId12"/>
-    <hyperlink ref="B27" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B2" r:id="rId15"/>
-    <hyperlink ref="B6" r:id="rId16"/>
-    <hyperlink ref="B9" r:id="rId17"/>
-    <hyperlink ref="B10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="B13" r:id="rId20"/>
-    <hyperlink ref="B14" r:id="rId21"/>
-    <hyperlink ref="B17" r:id="rId22"/>
-    <hyperlink ref="B18" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B23" r:id="rId25"/>
-    <hyperlink ref="B25" r:id="rId26"/>
-    <hyperlink ref="B37" r:id="rId27"/>
-    <hyperlink ref="B26" r:id="rId28"/>
-    <hyperlink ref="B28" r:id="rId29"/>
-    <hyperlink ref="B30" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B35" r:id="rId33"/>
-    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B24" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B31" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B27" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="B2" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B6" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="B9" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="B13" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B14" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="B17" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="B18" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="B23" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="B25" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="B37" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B